--- a/outcome/appendix/Figure Data/Fig.4 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.4 data.xlsx
@@ -15039,19 +15039,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2554.10102226337</v>
+        <v>2555.22214850378</v>
       </c>
       <c r="C2" t="n">
-        <v>1739.17348020312</v>
+        <v>1743.37403972035</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.85835248462</v>
+        <v>1280.88312680667</v>
       </c>
       <c r="E2" t="n">
         <v>3271.60836224899</v>
       </c>
       <c r="F2" t="n">
-        <v>3676.33165698684</v>
+        <v>3681.26877844585</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -15060,7 +15060,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>109.101022263374</v>
+        <v>110.222148503781</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -15071,13 +15071,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2597.23487376181</v>
+        <v>2597.49638362041</v>
       </c>
       <c r="C3" t="n">
-        <v>1559.52085799588</v>
+        <v>1560.58769315346</v>
       </c>
       <c r="D3" t="n">
-        <v>1183.64951344664</v>
+        <v>1186.10121510877</v>
       </c>
       <c r="E3" t="n">
         <v>3476.76635922184</v>
@@ -15092,7 +15092,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1664.23487376181</v>
+        <v>1664.49638362041</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -15103,13 +15103,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4416.60559291829</v>
+        <v>4414.9056151499</v>
       </c>
       <c r="C4" t="n">
-        <v>3165.03960694311</v>
+        <v>3157.81603849888</v>
       </c>
       <c r="D4" t="n">
-        <v>2816.04143320464</v>
+        <v>2808.94044563282</v>
       </c>
       <c r="E4" t="n">
         <v>5596.16176007132</v>
@@ -15124,7 +15124,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>908.605592918292</v>
+        <v>906.905615149898</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -15135,7 +15135,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4989.05769394917</v>
+        <v>4990.37131566918</v>
       </c>
       <c r="C5" t="n">
         <v>3698.61255729682</v>
@@ -15156,7 +15156,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-370.942306050834</v>
+        <v>-369.628684330823</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -15167,13 +15167,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5744.65007810336</v>
+        <v>5741.59408251857</v>
       </c>
       <c r="C6" t="n">
-        <v>4301.21663657899</v>
+        <v>4286.73455584564</v>
       </c>
       <c r="D6" t="n">
-        <v>3851.34267036954</v>
+        <v>3842.87151006306</v>
       </c>
       <c r="E6" t="n">
         <v>7364.26587048967</v>
@@ -15188,7 +15188,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>480.650078103359</v>
+        <v>477.594082518573</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -15199,10 +15199,10 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5987.98297822111</v>
+        <v>5984.95544467332</v>
       </c>
       <c r="C7" t="n">
-        <v>4580.58024703117</v>
+        <v>4576.30137597937</v>
       </c>
       <c r="D7" t="n">
         <v>4024.01929999012</v>
@@ -15220,7 +15220,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-205.017021778895</v>
+        <v>-208.04455532668</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -15231,7 +15231,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5911.38237902578</v>
+        <v>5910.68186337853</v>
       </c>
       <c r="C8" t="n">
         <v>4508.01441521917</v>
@@ -15252,7 +15252,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>939.382379025783</v>
+        <v>938.68186337853</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -15263,7 +15263,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5136.39445964404</v>
+        <v>5129.43375580138</v>
       </c>
       <c r="C9" t="n">
         <v>3704.75311686093</v>
@@ -15284,7 +15284,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>164.394459644041</v>
+        <v>157.433755801384</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -15295,7 +15295,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3700.00165516157</v>
+        <v>3706.12156607305</v>
       </c>
       <c r="C10" t="n">
         <v>2280.91237764028</v>
@@ -15304,7 +15304,7 @@
         <v>1563.77012561258</v>
       </c>
       <c r="E10" t="n">
-        <v>5000.04276709215</v>
+        <v>5008.12892526094</v>
       </c>
       <c r="F10" t="n">
         <v>5707.48255306939</v>
@@ -15316,7 +15316,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-791.998344838434</v>
+        <v>-785.878433926947</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -15327,7 +15327,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2742.56824079948</v>
+        <v>2748.77064436662</v>
       </c>
       <c r="C11" t="n">
         <v>1270.95727147084</v>
@@ -15348,7 +15348,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-463.431759200518</v>
+        <v>-457.229355633384</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -15359,7 +15359,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2979.36432878185</v>
+        <v>2983.12915677683</v>
       </c>
       <c r="C12" t="n">
         <v>1485.16038457302</v>
@@ -15380,7 +15380,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-631.635671218145</v>
+        <v>-627.870843223168</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -15391,7 +15391,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3091.35024411299</v>
+        <v>3093.39154033956</v>
       </c>
       <c r="C13" t="n">
         <v>1495.37848461347</v>
@@ -15412,7 +15412,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-602.649755887014</v>
+        <v>-600.608459660443</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -15423,7 +15423,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2622.88347339437</v>
+        <v>2625.70802482369</v>
       </c>
       <c r="C14" t="n">
         <v>914.535566587633</v>
@@ -15444,7 +15444,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-552.116526605628</v>
+        <v>-549.291975176315</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -15455,7 +15455,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2632.46465252311</v>
+        <v>2633.47312104534</v>
       </c>
       <c r="C15" t="n">
         <v>1109.73360437002</v>
@@ -15476,7 +15476,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-792.535347476892</v>
+        <v>-791.526878954662</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -15487,10 +15487,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4437.39497955556</v>
+        <v>4433.73411459297</v>
       </c>
       <c r="C16" t="n">
-        <v>2886.60339072815</v>
+        <v>2863.079709259</v>
       </c>
       <c r="D16" t="n">
         <v>2104.9209996519</v>
@@ -15508,7 +15508,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2782.60502044444</v>
+        <v>-2786.26588540703</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -15519,7 +15519,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5025.12820290517</v>
+        <v>5026.99262560956</v>
       </c>
       <c r="C17" t="n">
         <v>3212.30103585908</v>
@@ -15540,7 +15540,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2822.87179709483</v>
+        <v>-2821.00737439044</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -15551,7 +15551,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5785.08781019604</v>
+        <v>5779.42662112342</v>
       </c>
       <c r="C18" t="n">
         <v>3974.86523006948</v>
@@ -15572,7 +15572,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2310.91218980396</v>
+        <v>-2316.57337887658</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -15583,7 +15583,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6010.797131454</v>
+        <v>6004.73152874422</v>
       </c>
       <c r="C19" t="n">
         <v>4058.55539256903</v>
@@ -15604,7 +15604,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3659.202868546</v>
+        <v>-3665.26847125578</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -15615,7 +15615,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5944.54721202949</v>
+        <v>5941.08861073059</v>
       </c>
       <c r="C20" t="n">
         <v>4015.74336863362</v>
@@ -15636,7 +15636,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3277.45278797051</v>
+        <v>-3280.91138926941</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -15647,7 +15647,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5253.33452449487</v>
+        <v>5245.69238773845</v>
       </c>
       <c r="C21" t="n">
         <v>3168.01097141081</v>
@@ -15668,7 +15668,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1613.66547550513</v>
+        <v>-1621.30761226155</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -15679,7 +15679,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3920.85801135977</v>
+        <v>3915.02352487536</v>
       </c>
       <c r="C22" t="n">
         <v>1596.28075551273</v>
@@ -15688,7 +15688,7 @@
         <v>516.716414998119</v>
       </c>
       <c r="E22" t="n">
-        <v>6026.76501089352</v>
+        <v>6018.59935900045</v>
       </c>
       <c r="F22" t="n">
         <v>6754.53626368385</v>
@@ -15700,7 +15700,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2011.14198864023</v>
+        <v>-2016.97647512464</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -15711,7 +15711,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2898.0504144503</v>
+        <v>2908.29699784213</v>
       </c>
       <c r="C23" t="n">
         <v>609.066428788389</v>
@@ -15732,7 +15732,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-723.9495855497</v>
+        <v>-713.703002157868</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -15743,7 +15743,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3046.30590993045</v>
+        <v>3055.34389284321</v>
       </c>
       <c r="C24" t="n">
         <v>843.790364101251</v>
@@ -15764,7 +15764,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-602.69409006955</v>
+        <v>-593.656107156793</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -15775,7 +15775,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3144.89526588405</v>
+        <v>3149.30937091482</v>
       </c>
       <c r="C25" t="n">
         <v>872.665392514946</v>
@@ -15796,7 +15796,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1774.10473411595</v>
+        <v>-1769.69062908518</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -15807,7 +15807,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2691.63169428851</v>
+        <v>2696.65476749499</v>
       </c>
       <c r="C26" t="n">
         <v>308.882650776172</v>
@@ -15828,7 +15828,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1704.36830571149</v>
+        <v>-1699.34523250501</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -15839,7 +15839,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2707.16632124769</v>
+        <v>2709.30991602845</v>
       </c>
       <c r="C27" t="n">
         <v>519.769590278987</v>
@@ -15860,7 +15860,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1981.83367875231</v>
+        <v>-1979.69008397155</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -15871,7 +15871,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4482.422913852</v>
+        <v>4476.71349127572</v>
       </c>
       <c r="C28" t="n">
         <v>2379.12502099825</v>
@@ -15892,7 +15892,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2173.577086148</v>
+        <v>-2179.28650872428</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -15903,7 +15903,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5080.71316167371</v>
+        <v>5082.42689782692</v>
       </c>
       <c r="C29" t="n">
         <v>2684.47444578355</v>
@@ -15924,7 +15924,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2043.28683832629</v>
+        <v>-2041.57310217308</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -15935,7 +15935,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5823.22673982214</v>
+        <v>5815.52486278837</v>
       </c>
       <c r="C30" t="n">
         <v>3384.15643212497</v>
@@ -15956,7 +15956,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-3000.77326017786</v>
+        <v>-3008.47513721163</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -15967,7 +15967,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6061.87246411206</v>
+        <v>6053.00337511718</v>
       </c>
       <c r="C31" t="n">
         <v>3505.68264104479</v>
@@ -15988,7 +15988,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3881.12753588794</v>
+        <v>-3889.99662488282</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -15999,7 +15999,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6011.01386808144</v>
+        <v>6004.60073919966</v>
       </c>
       <c r="C32" t="n">
         <v>3509.73564091691</v>
@@ -16020,7 +16020,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3671.98613191856</v>
+        <v>-3678.39926080034</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -16031,7 +16031,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5340.21922025988</v>
+        <v>5333.70617534132</v>
       </c>
       <c r="C33" t="n">
         <v>2604.02843513953</v>
@@ -16052,7 +16052,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2546.78077974012</v>
+        <v>-2553.29382465868</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -16063,7 +16063,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4148.22252351995</v>
+        <v>4134.45614157218</v>
       </c>
       <c r="C34" t="n">
         <v>1089.52914902542</v>
@@ -16084,7 +16084,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1162.77747648005</v>
+        <v>-1176.54385842782</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -16095,7 +16095,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3114.51763734401</v>
+        <v>3127.89732682456</v>
       </c>
       <c r="C35" t="n">
         <v>111.503518432598</v>
@@ -16116,7 +16116,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>579.51763734401</v>
+        <v>592.897326824562</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -16127,7 +16127,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3135.74258148268</v>
+        <v>3152.63983680369</v>
       </c>
       <c r="C36" t="n">
         <v>354.926773711633</v>
@@ -16148,7 +16148,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>566.742581482679</v>
+        <v>583.639836803686</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -16159,7 +16159,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3212.22309621244</v>
+        <v>3220.4066011882</v>
       </c>
       <c r="C37" t="n">
         <v>392.056211914838</v>
@@ -16180,7 +16180,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1392.22309621244</v>
+        <v>1400.4066011882</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -16191,7 +16191,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2759.92199785789</v>
+        <v>2767.72837158677</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -16212,7 +16212,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>441.921997857886</v>
+        <v>449.728371586774</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -16223,7 +16223,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2778.42784440527</v>
+        <v>2782.05728511067</v>
       </c>
       <c r="C39" t="n">
         <v>21.1720384087052</v>
@@ -16244,7 +16244,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2883.57215559473</v>
+        <v>-2879.94271488933</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -16255,7 +16255,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4530.92531528916</v>
+        <v>4523.17101329208</v>
       </c>
       <c r="C40" t="n">
         <v>1669.54752072239</v>
@@ -16276,7 +16276,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2012.07468471084</v>
+        <v>-2019.82898670792</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -16287,7 +16287,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5122.77697327965</v>
+        <v>5123.81189797239</v>
       </c>
       <c r="C41" t="n">
         <v>1932.26686118833</v>
@@ -16308,7 +16308,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2554.22302672035</v>
+        <v>-2553.18810202761</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -16319,7 +16319,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5866.10913885715</v>
+        <v>5856.75102862987</v>
       </c>
       <c r="C42" t="n">
         <v>2627.20828193442</v>
@@ -16340,7 +16340,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3200.89086114285</v>
+        <v>-3210.24897137013</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -16351,7 +16351,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6103.49759345003</v>
+        <v>6092.18601367048</v>
       </c>
       <c r="C43" t="n">
         <v>2728.52603772469</v>
@@ -16372,7 +16372,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2222.50240654997</v>
+        <v>-2233.81398632952</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -16383,7 +16383,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6043.32368687703</v>
+        <v>6034.19512033109</v>
       </c>
       <c r="C44" t="n">
         <v>2678.26442334632</v>
@@ -16404,7 +16404,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3120.67631312297</v>
+        <v>-3129.80487966891</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -16415,7 +16415,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5389.69270239897</v>
+        <v>5382.84815066267</v>
       </c>
       <c r="C45" t="n">
         <v>1789.30200171136</v>
@@ -16436,7 +16436,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2964.30729760103</v>
+        <v>-2971.15184933733</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -16447,7 +16447,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4275.81194968036</v>
+        <v>4263.70931807919</v>
       </c>
       <c r="C46" t="n">
         <v>395.375252653696</v>
@@ -16468,7 +16468,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1711.18805031964</v>
+        <v>-1723.29068192081</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -16479,7 +16479,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3346.11887515032</v>
+        <v>3349.13548913693</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -16500,7 +16500,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1130.88112484968</v>
+        <v>-1127.86451086307</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -16511,7 +16511,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3273.86880762687</v>
+        <v>3298.1434527773</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -16532,7 +16532,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1266.13119237313</v>
+        <v>-1241.8565472227</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -16543,7 +16543,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3275.07690706682</v>
+        <v>3290.41384559314</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -16564,7 +16564,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-467.923092933183</v>
+        <v>-452.58615440686</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -19401,7 +19401,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>817.942145736892</v>
+        <v>847.075291566498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -19422,7 +19422,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>746.942145736892</v>
+        <v>776.075291566498</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -19433,7 +19433,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>860.670408729624</v>
+        <v>913.113600822468</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -19442,10 +19442,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8386.0428641169</v>
+        <v>14513.4058476909</v>
       </c>
       <c r="F3" t="n">
-        <v>10977.5293603918</v>
+        <v>19161.3945939318</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -19454,7 +19454,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>843.670408729624</v>
+        <v>896.113600822468</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -19465,7 +19465,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>849.359048292623</v>
+        <v>873.343687398966</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -19474,10 +19474,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25513.2648999557</v>
+        <v>26401.577264679</v>
       </c>
       <c r="F4" t="n">
-        <v>26908.2500649081</v>
+        <v>27599.6457141782</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -19486,7 +19486,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>833.359048292623</v>
+        <v>857.343687398966</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -19497,7 +19497,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>843.848037384715</v>
+        <v>804.368036961116</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -19506,10 +19506,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27351.5775271252</v>
+        <v>28470.7165698227</v>
       </c>
       <c r="F5" t="n">
-        <v>28486.2124924389</v>
+        <v>30785.0787579297</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -19518,7 +19518,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>837.848037384715</v>
+        <v>798.368036961116</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -19529,7 +19529,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>862.728007911249</v>
+        <v>768.158517901678</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -19538,10 +19538,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27350.9843615233</v>
+        <v>25817.0056005935</v>
       </c>
       <c r="F6" t="n">
-        <v>29156.4756064634</v>
+        <v>30448.9070976511</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -19550,7 +19550,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>858.728007911249</v>
+        <v>764.158517901678</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -19561,7 +19561,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>966.960345046587</v>
+        <v>872.896989631306</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -19570,10 +19570,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>25839.678497908</v>
+        <v>22385.3310348867</v>
       </c>
       <c r="F7" t="n">
-        <v>28990.5192554174</v>
+        <v>28189.9995906823</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -19582,7 +19582,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>962.960345046587</v>
+        <v>868.896989631306</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -19593,7 +19593,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1661.17118826683</v>
+        <v>2801.44181433936</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -19602,10 +19602,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>23718.9165026055</v>
+        <v>20255.2268980556</v>
       </c>
       <c r="F8" t="n">
-        <v>27094.6982794367</v>
+        <v>28374.4394431433</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -19614,7 +19614,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>1606.17118826683</v>
+        <v>2746.44181433936</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -19625,7 +19625,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5699.32275799102</v>
+        <v>7491.71855079946</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -19634,10 +19634,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25291.3220739735</v>
+        <v>27136.9027609581</v>
       </c>
       <c r="F9" t="n">
-        <v>28144.7891359056</v>
+        <v>29472.2004348286</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -19646,7 +19646,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>5644.32275799102</v>
+        <v>7436.71855079946</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -19657,7 +19657,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>8458.03959980724</v>
+        <v>9404.14348768957</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -19666,10 +19666,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>27190.4088858839</v>
+        <v>28821.876482196</v>
       </c>
       <c r="F10" t="n">
-        <v>28537.6067241244</v>
+        <v>30253.8200463862</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -19678,7 +19678,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>8211.03959980724</v>
+        <v>9157.14348768957</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -19689,7 +19689,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2353.31275021888</v>
+        <v>2591.93046816105</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -19698,10 +19698,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>28760.1630072013</v>
+        <v>26270.697049455</v>
       </c>
       <c r="F11" t="n">
-        <v>30506.0224755143</v>
+        <v>29757.58235898</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -19710,7 +19710,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>2066.31275021888</v>
+        <v>2304.93046816105</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -19721,7 +19721,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>748.418476765822</v>
+        <v>767.057694474272</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -19730,10 +19730,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>26448.7299638065</v>
+        <v>25780.4898323606</v>
       </c>
       <c r="F12" t="n">
-        <v>29221.6844930635</v>
+        <v>31551.6628322063</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -19742,7 +19742,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>685.418476765822</v>
+        <v>704.057694474272</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -19753,7 +19753,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2359.76341907902</v>
+        <v>535.672843741601</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -19762,10 +19762,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>24717.6806801242</v>
+        <v>24171.247471249</v>
       </c>
       <c r="F13" t="n">
-        <v>26525.9675782682</v>
+        <v>27685.3278601056</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -19774,7 +19774,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>2350.76341907902</v>
+        <v>526.672843741601</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -19785,7 +19785,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>6789.31259520084</v>
+        <v>4365.58240912582</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -19794,10 +19794,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>25286.5452346114</v>
+        <v>25897.9714762342</v>
       </c>
       <c r="F14" t="n">
-        <v>26808.963606062</v>
+        <v>30842.352333515</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -19806,7 +19806,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>6784.31259520084</v>
+        <v>4360.58240912582</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -19817,7 +19817,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>7734.10899759924</v>
+        <v>6649.45576702342</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -19826,10 +19826,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27917.8180984696</v>
+        <v>26020.6368805509</v>
       </c>
       <c r="F15" t="n">
-        <v>29893.2946629904</v>
+        <v>29477.8385117311</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -19838,7 +19838,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>7732.10899759924</v>
+        <v>6647.45576702342</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -19849,7 +19849,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1148.53978385253</v>
+        <v>1423.87363090197</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -19858,10 +19858,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28498.4863641265</v>
+        <v>26687.9705043815</v>
       </c>
       <c r="F16" t="n">
-        <v>30819.8970134641</v>
+        <v>30376.4199761066</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -19870,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1148.53978385253</v>
+        <v>1423.87363090197</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -19881,7 +19881,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>835.676733375404</v>
+        <v>943.351465622423</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -19890,10 +19890,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>26858.6216333894</v>
+        <v>24702.979546397</v>
       </c>
       <c r="F17" t="n">
-        <v>29310.7315662531</v>
+        <v>29762.0712390468</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -19902,7 +19902,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>831.676733375404</v>
+        <v>939.351465622423</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -19913,7 +19913,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2509.40261775401</v>
+        <v>718.42914235533</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -19922,10 +19922,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>25835.5882868606</v>
+        <v>25430.0917514203</v>
       </c>
       <c r="F18" t="n">
-        <v>28772.1115823634</v>
+        <v>29922.4235328341</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -19934,7 +19934,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>2504.40261775401</v>
+        <v>713.42914235533</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -19945,7 +19945,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>7253.50464198855</v>
+        <v>781.3152704005</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -19954,10 +19954,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>26019.9759634807</v>
+        <v>25180.7344960282</v>
       </c>
       <c r="F19" t="n">
-        <v>28174.2165527149</v>
+        <v>29343.6285646175</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -19966,7 +19966,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>7245.50464198855</v>
+        <v>773.3152704005</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -19977,7 +19977,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>8568.01616338875</v>
+        <v>2699.21538642316</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -19986,10 +19986,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>27413.5133042071</v>
+        <v>26257.9966818849</v>
       </c>
       <c r="F20" t="n">
-        <v>29814.7648308991</v>
+        <v>30083.4652522355</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -19998,7 +19998,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>8565.01616338875</v>
+        <v>2696.21538642316</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -20009,7 +20009,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1268.58642770444</v>
+        <v>8531.07580120204</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -20018,10 +20018,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>27680.7290317536</v>
+        <v>25661.5366437233</v>
       </c>
       <c r="F21" t="n">
-        <v>29739.2514511745</v>
+        <v>30109.0007396044</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -20030,7 +20030,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1265.58642770444</v>
+        <v>8528.07580120204</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -20041,7 +20041,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1566.54816429478</v>
+        <v>9405.56444144889</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -20050,10 +20050,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>26793.8979811473</v>
+        <v>24804.5553362376</v>
       </c>
       <c r="F22" t="n">
-        <v>30591.3385716606</v>
+        <v>29928.7391221569</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -20062,7 +20062,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1562.54816429478</v>
+        <v>9401.56444144889</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -20073,7 +20073,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3687.32545442112</v>
+        <v>2539.72336276682</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -20082,10 +20082,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25847.7666184127</v>
+        <v>24609.6417805165</v>
       </c>
       <c r="F23" t="n">
-        <v>29277.8772617967</v>
+        <v>29277.6443746191</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -20094,7 +20094,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>3681.32545442112</v>
+        <v>2533.72336276682</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -20105,7 +20105,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>6399.57497597284</v>
+        <v>1077.0379066697</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -20114,10 +20114,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>25330.9786885301</v>
+        <v>25293.0547257383</v>
       </c>
       <c r="F24" t="n">
-        <v>28262.2822575894</v>
+        <v>29425.6441928015</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -20126,7 +20126,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>6394.57497597284</v>
+        <v>1072.0379066697</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -20137,7 +20137,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>7848.46003734564</v>
+        <v>3933.71187954029</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -20146,10 +20146,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>26941.5911641336</v>
+        <v>25587.3756709538</v>
       </c>
       <c r="F25" t="n">
-        <v>28866.5145890803</v>
+        <v>29747.2250291626</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -20158,7 +20158,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>7845.46003734564</v>
+        <v>3930.71187954029</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -20169,7 +20169,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1069.97111331375</v>
+        <v>7868.60398471358</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -20178,10 +20178,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>27936.137022234</v>
+        <v>25588.3392147415</v>
       </c>
       <c r="F26" t="n">
-        <v>30141.1634335818</v>
+        <v>29434.6378270221</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -20190,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1069.97111331375</v>
+        <v>7868.60398471358</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -20201,7 +20201,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>673.320512712977</v>
+        <v>2289.08889670286</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -20210,10 +20210,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>27314.8759781171</v>
+        <v>24945.1300952832</v>
       </c>
       <c r="F27" t="n">
-        <v>29348.8778263072</v>
+        <v>29331.2938714023</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -20222,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>673.320512712977</v>
+        <v>2289.08889670286</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -20233,7 +20233,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2507.8065680696</v>
+        <v>989.688073776308</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -20242,10 +20242,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>26671.5713616757</v>
+        <v>24534.0665065867</v>
       </c>
       <c r="F28" t="n">
-        <v>29125.216439608</v>
+        <v>29193.0590513298</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -20254,7 +20254,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>2505.8065680696</v>
+        <v>987.688073776308</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -20265,7 +20265,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>6723.86536610251</v>
+        <v>943.165888389078</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -20274,10 +20274,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>25652.7814486684</v>
+        <v>24467.4471720606</v>
       </c>
       <c r="F29" t="n">
-        <v>28803.5832545506</v>
+        <v>28105.725864882</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -20286,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6723.86536610251</v>
+        <v>943.165888389078</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -20297,7 +20297,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>7883.41562774932</v>
+        <v>928.671761649338</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -20306,10 +20306,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>27319.0532210982</v>
+        <v>25092.7539750966</v>
       </c>
       <c r="F30" t="n">
-        <v>29030.2747739211</v>
+        <v>29202.2959619171</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>7881.41562774932</v>
+        <v>926.671761649338</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -20329,7 +20329,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1074.2101755812</v>
+        <v>840.297476512401</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -20338,10 +20338,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27796.1387837937</v>
+        <v>25109.3099550197</v>
       </c>
       <c r="F31" t="n">
-        <v>29848.6287861395</v>
+        <v>29510.2188365378</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
@@ -20350,7 +20350,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1073.2101755812</v>
+        <v>839.297476512401</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -20361,7 +20361,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>720.804249650832</v>
+        <v>893.831089053108</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -20370,10 +20370,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>27146.1772730664</v>
+        <v>24923.594318524</v>
       </c>
       <c r="F32" t="n">
-        <v>29173.8121696593</v>
+        <v>29318.3205080882</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -20382,7 +20382,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>717.804249650832</v>
+        <v>890.831089053108</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -20393,7 +20393,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2706.92916133566</v>
+        <v>1301.82244061276</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -20402,10 +20402,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>26490.5697775581</v>
+        <v>24203.1944124103</v>
       </c>
       <c r="F33" t="n">
-        <v>29090.4460326349</v>
+        <v>29427.9826162046</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -20414,7 +20414,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2705.92916133566</v>
+        <v>1300.82244061276</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -20425,7 +20425,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7330.62275774991</v>
+        <v>2058.33662052074</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -20434,10 +20434,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>26042.3562523126</v>
+        <v>24741.8132591975</v>
       </c>
       <c r="F34" t="n">
-        <v>29038.5811745567</v>
+        <v>29307.8800528495</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
@@ -20446,7 +20446,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>7302.62275774991</v>
+        <v>2030.33662052074</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -20457,7 +20457,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>9072.031262771</v>
+        <v>2326.67549831816</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -20466,10 +20466,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>27387.330820839</v>
+        <v>24642.2408479387</v>
       </c>
       <c r="F35" t="n">
-        <v>30088.7838000293</v>
+        <v>28025.1887817003</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -20478,7 +20478,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>8746.031262771</v>
+        <v>2000.67549831816</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -20489,7 +20489,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1231.015531428</v>
+        <v>1154.62487137429</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -20498,10 +20498,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>27702.02433481</v>
+        <v>24886.7603865702</v>
       </c>
       <c r="F36" t="n">
-        <v>30114.4842989086</v>
+        <v>28911.4927533708</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -20510,7 +20510,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>1057.015531428</v>
+        <v>980.624871374293</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -20521,7 +20521,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>627.6366382347</v>
+        <v>643.547902309514</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -20530,10 +20530,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>27196.3975926689</v>
+        <v>24588.7282504884</v>
       </c>
       <c r="F37" t="n">
-        <v>29139.1308491206</v>
+        <v>29317.5157455403</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -20542,7 +20542,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>616.6366382347</v>
+        <v>632.547902309514</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -20553,7 +20553,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2508.20775852307</v>
+        <v>670.384209072374</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -20562,10 +20562,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>26660.1981349244</v>
+        <v>24533.7892821377</v>
       </c>
       <c r="F38" t="n">
-        <v>29231.8184176067</v>
+        <v>28857.9096069961</v>
       </c>
       <c r="G38" t="s">
         <v>31</v>
@@ -20574,7 +20574,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2507.20775852307</v>
+        <v>669.384209072374</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -20585,7 +20585,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>6437.12481757583</v>
+        <v>2439.18315279665</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -20594,10 +20594,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>26123.8880309284</v>
+        <v>24685.7345448222</v>
       </c>
       <c r="F39" t="n">
-        <v>28636.0126325875</v>
+        <v>28323.3144748625</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
@@ -20606,7 +20606,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>6426.12481757583</v>
+        <v>2428.18315279665</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -20617,7 +20617,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>7886.4552581561</v>
+        <v>6648.76327740294</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -20626,10 +20626,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>27114.9258670391</v>
+        <v>25109.3353830864</v>
       </c>
       <c r="F40" t="n">
-        <v>29410.8143180527</v>
+        <v>29330.7072155352</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -20638,7 +20638,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>7879.4552581561</v>
+        <v>6641.76327740294</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -20649,7 +20649,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>1051.66931992096</v>
+        <v>8372.88607673883</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -20658,10 +20658,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>27663.6184444851</v>
+        <v>25017.7242472758</v>
       </c>
       <c r="F41" t="n">
-        <v>30161.0868529462</v>
+        <v>29546.0433652543</v>
       </c>
       <c r="G41" t="s">
         <v>31</v>
@@ -20670,7 +20670,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>1042.66931992096</v>
+        <v>8363.88607673883</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -20681,7 +20681,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>669.323881457603</v>
+        <v>1421.1656865157</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -20690,10 +20690,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>27717.2735540276</v>
+        <v>24594.8169040304</v>
       </c>
       <c r="F42" t="n">
-        <v>29913.6616237004</v>
+        <v>28629.0448971896</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -20702,7 +20702,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>648.323881457603</v>
+        <v>1400.1656865157</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -20713,7 +20713,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2512.44417635221</v>
+        <v>938.3109931658</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -20722,10 +20722,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>27077.5165393674</v>
+        <v>24246.6876735933</v>
       </c>
       <c r="F43" t="n">
-        <v>29175.8644323549</v>
+        <v>28976.7527383391</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -20734,7 +20734,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>2457.44417635221</v>
+        <v>883.3109931658</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -20745,7 +20745,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6484.60507144326</v>
+        <v>2594.93497206554</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -20754,10 +20754,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>26636.1325350145</v>
+        <v>24537.2933156225</v>
       </c>
       <c r="F44" t="n">
-        <v>28987.4625787071</v>
+        <v>28900.461024956</v>
       </c>
       <c r="G44" t="s">
         <v>31</v>
@@ -20766,7 +20766,7 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>4880.60507144326</v>
+        <v>990.934972065544</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -20777,7 +20777,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>8101.6190590376</v>
+        <v>7738.79860852168</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -20786,10 +20786,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>27076.6595635934</v>
+        <v>24829.7007011125</v>
       </c>
       <c r="F45" t="n">
-        <v>29350.7181045267</v>
+        <v>29153.4726335583</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -20798,7 +20798,7 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>3903.6190590376</v>
+        <v>3540.79860852168</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -20809,7 +20809,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1953.94530590777</v>
+        <v>9953.52449308995</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -20818,10 +20818,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>27690.6871155319</v>
+        <v>24835.8724402211</v>
       </c>
       <c r="F46" t="n">
-        <v>29924.1997442081</v>
+        <v>29398.1708991756</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -20830,10 +20830,10 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>-4540.05469409223</v>
+        <v>3459.52449308995</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -20841,7 +20841,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1851.31083476664</v>
+        <v>2594.70073627843</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -20850,10 +20850,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>27233.3681663152</v>
+        <v>24232.4896612571</v>
       </c>
       <c r="F47" t="n">
-        <v>29739.6654318192</v>
+        <v>28452.720926765</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -20862,7 +20862,7 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>-3536.68916523336</v>
+        <v>-2793.29926372157</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -20873,7 +20873,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2669.25682892677</v>
+        <v>1074.34416803354</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -20882,10 +20882,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>27038.357717323</v>
+        <v>24368.6256054778</v>
       </c>
       <c r="F48" t="n">
-        <v>29258.3799142418</v>
+        <v>28701.3595740803</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -20894,10 +20894,10 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>984.256828926773</v>
+        <v>-610.655831966462</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -20905,7 +20905,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>6391.45373193083</v>
+        <v>3830.93016461334</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -20914,10 +20914,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>26700.0360809351</v>
+        <v>24951.6954901552</v>
       </c>
       <c r="F49" t="n">
-        <v>28855.9825907052</v>
+        <v>29407.2011896377</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -20926,7 +20926,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>6237.45373193083</v>
+        <v>3676.93016461334</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -25682,10 +25682,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272.279923767045</v>
+        <v>254.978138622258</v>
       </c>
       <c r="F3" t="n">
-        <v>376.139268956894</v>
+        <v>359.692968632402</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -25714,10 +25714,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>338.419389486532</v>
+        <v>301.607225189755</v>
       </c>
       <c r="F4" t="n">
-        <v>594.582242952781</v>
+        <v>448.894554900978</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -25746,10 +25746,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>809.177138029519</v>
+        <v>601.324735147575</v>
       </c>
       <c r="F5" t="n">
-        <v>1773.29082615962</v>
+        <v>1247.45976570351</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -25778,10 +25778,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>958.228866907608</v>
+        <v>768.928802655745</v>
       </c>
       <c r="F6" t="n">
-        <v>1836.71051527942</v>
+        <v>1438.17264810886</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -25801,7 +25801,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>4.35266208834269</v>
+        <v>2.27381621367978</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -25810,10 +25810,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>708.332797798918</v>
+        <v>544.578837438132</v>
       </c>
       <c r="F7" t="n">
-        <v>1688.32782491095</v>
+        <v>1203.66923960347</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -25822,7 +25822,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.64733791165731</v>
+        <v>-3.72618378632022</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -25833,7 +25833,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>134.332626104082</v>
+        <v>128.666225377227</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>910.688753799615</v>
+        <v>654.396529078582</v>
       </c>
       <c r="F8" t="n">
-        <v>1932.11887577842</v>
+        <v>1465.25206642596</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -25854,7 +25854,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>65.332626104082</v>
+        <v>59.6662253772271</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -25865,7 +25865,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>343.357194826915</v>
+        <v>340.465096986078</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1180.19602482982</v>
+        <v>939.264048144212</v>
       </c>
       <c r="F9" t="n">
-        <v>2094.14024395584</v>
+        <v>1602.8287961124</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -25886,7 +25886,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>274.357194826915</v>
+        <v>271.465096986078</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -25897,7 +25897,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>204.319548580356</v>
+        <v>208.450482066848</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -25906,10 +25906,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1054.47438632673</v>
+        <v>796.223578999396</v>
       </c>
       <c r="F10" t="n">
-        <v>1997.9092242857</v>
+        <v>1487.26456139706</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
@@ -25918,7 +25918,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>67.3195485803562</v>
+        <v>71.4504820668477</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -25929,7 +25929,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>47.2539700323799</v>
+        <v>54.9824535964919</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -25938,10 +25938,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>752.558107320874</v>
+        <v>578.154910677943</v>
       </c>
       <c r="F11" t="n">
-        <v>1806.74993186705</v>
+        <v>1351.33633918474</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -25950,7 +25950,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25397003237985</v>
+        <v>12.9824535964919</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -25970,10 +25970,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>529.35192150308</v>
+        <v>520.782994662582</v>
       </c>
       <c r="F12" t="n">
-        <v>1590.79294421306</v>
+        <v>1132.60021207638</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -26005,7 +26005,7 @@
         <v>540.275085515153</v>
       </c>
       <c r="F13" t="n">
-        <v>1516.33198772952</v>
+        <v>1043.06483211359</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>750.01497554733</v>
+        <v>554.474684315649</v>
       </c>
       <c r="F14" t="n">
-        <v>1710.16154334685</v>
+        <v>1173.44828744567</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -26057,7 +26057,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>15.7977731064104</v>
+        <v>0.0736080827840944</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -26066,10 +26066,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1181.87851704323</v>
+        <v>873.024726509974</v>
       </c>
       <c r="F15" t="n">
-        <v>1931.03679022431</v>
+        <v>1494.91606565094</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -26078,7 +26078,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.7977731064104</v>
+        <v>0.0736080827840944</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -26089,7 +26089,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>16.5384715139995</v>
+        <v>10.7961920147094</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -26098,10 +26098,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1332.82038271736</v>
+        <v>981.321326573523</v>
       </c>
       <c r="F16" t="n">
-        <v>1961.85593652343</v>
+        <v>1532.07993251643</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>16.5384715139995</v>
+        <v>10.7961920147094</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -26130,10 +26130,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1340.98504526097</v>
+        <v>965.346477532478</v>
       </c>
       <c r="F17" t="n">
-        <v>2192.58104204746</v>
+        <v>1610.29335679672</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -26162,10 +26162,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1304.93752568308</v>
+        <v>987.826132585542</v>
       </c>
       <c r="F18" t="n">
-        <v>2482.81380371492</v>
+        <v>1983.76800899424</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -26194,10 +26194,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1136.66054678825</v>
+        <v>914.170394632834</v>
       </c>
       <c r="F19" t="n">
-        <v>2123.58898430062</v>
+        <v>1694.63913104194</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -26217,7 +26217,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>120.215168978794</v>
+        <v>110.723154951442</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26226,10 +26226,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1167.39135659596</v>
+        <v>851.723696579942</v>
       </c>
       <c r="F20" t="n">
-        <v>2235.25377251154</v>
+        <v>1663.0893061776</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -26238,7 +26238,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>103.215168978794</v>
+        <v>93.7231549514422</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -26249,7 +26249,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>356.119712194118</v>
+        <v>335.476116248648</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -26258,10 +26258,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1635.33754000482</v>
+        <v>1187.55630152838</v>
       </c>
       <c r="F21" t="n">
-        <v>2479.88131981096</v>
+        <v>1842.32015949287</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -26270,7 +26270,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>284.119712194118</v>
+        <v>263.476116248648</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -26281,7 +26281,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>243.050429060495</v>
+        <v>234.510692885332</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -26290,10 +26290,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1600.0083812537</v>
+        <v>1212.64994068625</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.185736382</v>
+        <v>1968.55517119565</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
@@ -26302,7 +26302,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>180.050429060495</v>
+        <v>171.510692885332</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -26313,7 +26313,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>75.401347394458</v>
+        <v>83.1130949616459</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -26322,10 +26322,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1611.45079047532</v>
+        <v>1195.46628780686</v>
       </c>
       <c r="F23" t="n">
-        <v>2411.25526239101</v>
+        <v>1921.90537147396</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -26334,7 +26334,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>36.401347394458</v>
+        <v>44.1130949616459</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -26345,7 +26345,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>7.82597877361967</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -26354,10 +26354,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1136.64092569656</v>
+        <v>811.776356939282</v>
       </c>
       <c r="F24" t="n">
-        <v>1981.17024201667</v>
+        <v>1452.05990202354</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -26366,7 +26366,7 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>-14</v>
+        <v>-6.17402122638033</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>982.027637490357</v>
+        <v>757.313050655695</v>
       </c>
       <c r="F25" t="n">
-        <v>2052.63198601384</v>
+        <v>1625.06819155231</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -26418,10 +26418,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1055.4067162723</v>
+        <v>760.43129878723</v>
       </c>
       <c r="F26" t="n">
-        <v>2191.07727569148</v>
+        <v>1709.77872326811</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -26441,7 +26441,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>10.720985649363</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -26450,10 +26450,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1636.91771744021</v>
+        <v>1160.32257148498</v>
       </c>
       <c r="F27" t="n">
-        <v>2376.39788332858</v>
+        <v>1835.02068496425</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
@@ -26462,10 +26462,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>9.72098564936296</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -26473,7 +26473,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>68.1688554698061</v>
+        <v>35.5985814042469</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -26482,10 +26482,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1777.00598447955</v>
+        <v>1410.37736156058</v>
       </c>
       <c r="F28" t="n">
-        <v>2462.66599855949</v>
+        <v>1935.46815587777</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -26494,7 +26494,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>66.1688554698061</v>
+        <v>33.5985814042469</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -26505,7 +26505,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>35.7211122581728</v>
+        <v>37.9130259817929</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -26514,10 +26514,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1561.81972320947</v>
+        <v>1120.84299270834</v>
       </c>
       <c r="F29" t="n">
-        <v>2437.27750858359</v>
+        <v>1962.92995275388</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
@@ -26526,7 +26526,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>35.7211122581728</v>
+        <v>37.9130259817929</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -26546,10 +26546,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1595.11801281309</v>
+        <v>1208.16431370196</v>
       </c>
       <c r="F30" t="n">
-        <v>2594.19523974546</v>
+        <v>2036.62938102858</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -26578,10 +26578,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1286.27656860569</v>
+        <v>1042.38061536435</v>
       </c>
       <c r="F31" t="n">
-        <v>2452.63300683367</v>
+        <v>2091.3429109561</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -26601,7 +26601,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>98.0363820878814</v>
+        <v>92.8317112176975</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -26610,10 +26610,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1397.69834659753</v>
+        <v>1082.73464097861</v>
       </c>
       <c r="F32" t="n">
-        <v>2418.35658929398</v>
+        <v>1862.29010932523</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -26622,7 +26622,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>85.0363820878814</v>
+        <v>79.8317112176975</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -26633,7 +26633,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>324.724383066685</v>
+        <v>310.790561157857</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -26642,10 +26642,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1641.42162989311</v>
+        <v>1366.98797933007</v>
       </c>
       <c r="F33" t="n">
-        <v>2578.61096176462</v>
+        <v>2171.93339014986</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -26654,7 +26654,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>267.724383066685</v>
+        <v>253.790561157857</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -26665,7 +26665,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>272.626380285965</v>
+        <v>244.665092082335</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26674,10 +26674,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1810.04190625779</v>
+        <v>1422.93610939132</v>
       </c>
       <c r="F34" t="n">
-        <v>2603.66458683305</v>
+        <v>2087.75855554226</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -26686,7 +26686,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>219.626380285965</v>
+        <v>191.665092082335</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -26697,7 +26697,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>123.26553377236</v>
+        <v>130.214616337173</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -26706,10 +26706,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1798.40717869001</v>
+        <v>1352.66907128059</v>
       </c>
       <c r="F35" t="n">
-        <v>2661.61862067523</v>
+        <v>2309.75513314184</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
@@ -26718,7 +26718,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>96.2655337723598</v>
+        <v>103.214616337173</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -26729,7 +26729,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>23.8983695093955</v>
+        <v>42.4495800982366</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1442.72446132164</v>
+        <v>1045.41603705987</v>
       </c>
       <c r="F36" t="n">
-        <v>2394.86392683916</v>
+        <v>1929.55630275681</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -26750,7 +26750,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>22.8983695093955</v>
+        <v>41.4495800982366</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -26770,10 +26770,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1262.23111338339</v>
+        <v>924.129813685913</v>
       </c>
       <c r="F37" t="n">
-        <v>2474.44434230542</v>
+        <v>1939.87490747641</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
@@ -26802,10 +26802,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1194.24943969272</v>
+        <v>900.144436576483</v>
       </c>
       <c r="F38" t="n">
-        <v>2415.72532781622</v>
+        <v>1820.43014040812</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -26834,10 +26834,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1808.7305366805</v>
+        <v>1386.67804516771</v>
       </c>
       <c r="F39" t="n">
-        <v>2688.73623011468</v>
+        <v>2185.96921927416</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -26857,7 +26857,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>48.5126779230205</v>
+        <v>9.45860264206813</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -26866,10 +26866,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1921.86043378616</v>
+        <v>1496.43686123418</v>
       </c>
       <c r="F40" t="n">
-        <v>2738.33010574432</v>
+        <v>2202.05986232484</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -26878,7 +26878,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>45.5126779230205</v>
+        <v>6.45860264206813</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -26889,7 +26889,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>89.4028334647075</v>
+        <v>72.9849152134362</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -26898,10 +26898,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1821.5316427118</v>
+        <v>1486.034179702</v>
       </c>
       <c r="F41" t="n">
-        <v>2638.23769106881</v>
+        <v>2246.66894425637</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -26910,7 +26910,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>88.4028334647075</v>
+        <v>71.9849152134362</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -26921,7 +26921,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>24.8420395533744</v>
+        <v>35.8347305774807</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -26930,10 +26930,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1770.61161617574</v>
+        <v>1293.06371296081</v>
       </c>
       <c r="F42" t="n">
-        <v>2604.57765763745</v>
+        <v>2097.27962185932</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>24.8420395533744</v>
+        <v>35.8347305774807</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -26953,7 +26953,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.05504620735705</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1609.52311592368</v>
+        <v>1360.47991576257</v>
       </c>
       <c r="F43" t="n">
-        <v>2621.61596967318</v>
+        <v>2316.48569727922</v>
       </c>
       <c r="G43" t="s">
         <v>35</v>
@@ -26974,7 +26974,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>-3</v>
+        <v>-1.94495379264295</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -26985,7 +26985,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>89.978172586855</v>
+        <v>90.2476490828214</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26994,10 +26994,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1474.56887799637</v>
+        <v>1184.80528973202</v>
       </c>
       <c r="F44" t="n">
-        <v>2466.35618546785</v>
+        <v>2011.68402622186</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -27006,7 +27006,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>56.978172586855</v>
+        <v>57.2476490828214</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -27017,7 +27017,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>292.814603883655</v>
+        <v>286.771438411819</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -27026,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1764.58358748455</v>
+        <v>1514.99579073141</v>
       </c>
       <c r="F45" t="n">
-        <v>2600.3780679821</v>
+        <v>2099.55985156725</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -27038,7 +27038,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>212.814603883655</v>
+        <v>206.771438411819</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -27049,7 +27049,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>228.718446935428</v>
+        <v>200.503894375854</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -27058,10 +27058,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1859.59397738926</v>
+        <v>1560.04261073404</v>
       </c>
       <c r="F46" t="n">
-        <v>2612.10813392169</v>
+        <v>2191.24604102313</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -27070,7 +27070,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>166.718446935428</v>
+        <v>138.503894375854</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -27081,7 +27081,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>179.909061802052</v>
+        <v>153.999406877275</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -27090,10 +27090,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1779.1913459346</v>
+        <v>1443.50524495038</v>
       </c>
       <c r="F47" t="n">
-        <v>2656.41629829379</v>
+        <v>2311.75722156458</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -27102,7 +27102,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>147.909061802052</v>
+        <v>121.999406877275</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -27113,7 +27113,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>68.0166170863779</v>
+        <v>78.0042928001795</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -27122,10 +27122,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1641.07134500775</v>
+        <v>1356.38925532798</v>
       </c>
       <c r="F48" t="n">
-        <v>2693.30961806135</v>
+        <v>2292.55225304514</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -27134,7 +27134,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>56.0166170863779</v>
+        <v>66.0042928001795</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -27145,7 +27145,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1.48848010218895</v>
+        <v>11.5414797704154</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1748.15621036448</v>
+        <v>1260.28741822718</v>
       </c>
       <c r="F49" t="n">
-        <v>2630.04666887272</v>
+        <v>2071.95209271933</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -27166,10 +27166,10 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>-2.51151989781105</v>
+        <v>7.54147977041536</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -30245,7 +30245,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2375.86527235627</v>
+        <v>2360.39455573452</v>
       </c>
       <c r="C2" t="n">
         <v>2092.67073250141</v>
@@ -30266,7 +30266,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>749.865272356268</v>
+        <v>734.394555734517</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -30277,7 +30277,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2369.96478183978</v>
+        <v>2352.32559555366</v>
       </c>
       <c r="C3" t="n">
         <v>1972.65524679747</v>
@@ -30298,7 +30298,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1324.96478183978</v>
+        <v>1307.32559555366</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -30309,10 +30309,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3145.83049909941</v>
+        <v>3170.93958214168</v>
       </c>
       <c r="C4" t="n">
-        <v>2714.99216292644</v>
+        <v>2821.15113400456</v>
       </c>
       <c r="D4" t="n">
         <v>2617.69890368062</v>
@@ -30330,7 +30330,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1504.83049909941</v>
+        <v>1529.93958214168</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -30341,7 +30341,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2942.79401417899</v>
+        <v>2938.06367494595</v>
       </c>
       <c r="C5" t="n">
         <v>2480.75761103751</v>
@@ -30350,7 +30350,7 @@
         <v>2262.09225504128</v>
       </c>
       <c r="E5" t="n">
-        <v>3327.575655822</v>
+        <v>3307.93184266879</v>
       </c>
       <c r="F5" t="n">
         <v>3526.81419987515</v>
@@ -30362,7 +30362,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1210.79401417899</v>
+        <v>1206.06367494595</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -30373,7 +30373,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2651.6272239533</v>
+        <v>2614.75849661334</v>
       </c>
       <c r="C6" t="n">
         <v>2089.6139643587</v>
@@ -30382,10 +30382,10 @@
         <v>1924.55013593521</v>
       </c>
       <c r="E6" t="n">
-        <v>3156.23486436951</v>
+        <v>3002.2587283695</v>
       </c>
       <c r="F6" t="n">
-        <v>3188.65956344707</v>
+        <v>3181.78860470656</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -30394,7 +30394,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1066.6272239533</v>
+        <v>1029.75849661334</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -30405,7 +30405,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2302.72221694863</v>
+        <v>2238.50348973571</v>
       </c>
       <c r="C7" t="n">
         <v>1761.55378011194</v>
@@ -30414,7 +30414,7 @@
         <v>1589.10435823062</v>
       </c>
       <c r="E7" t="n">
-        <v>2729.17216002548</v>
+        <v>2625.72882298163</v>
       </c>
       <c r="F7" t="n">
         <v>2827.53569070833</v>
@@ -30426,7 +30426,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>594.722216948628</v>
+        <v>530.503489735707</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -30437,7 +30437,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2284.71699478346</v>
+        <v>2250.84188571033</v>
       </c>
       <c r="C8" t="n">
         <v>1784.29864013751</v>
@@ -30458,7 +30458,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>525.716994783462</v>
+        <v>491.841885710326</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -30469,7 +30469,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2209.63653161118</v>
+        <v>2251.51253617101</v>
       </c>
       <c r="C9" t="n">
         <v>1789.86011713188</v>
@@ -30490,7 +30490,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>450.636531611178</v>
+        <v>492.51253617101</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -30501,7 +30501,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2013.88686497512</v>
+        <v>2024.69787883702</v>
       </c>
       <c r="C10" t="n">
         <v>1531.74947334365</v>
@@ -30522,7 +30522,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>202.886864975116</v>
+        <v>213.69787883702</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -30533,7 +30533,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1860.00167916912</v>
+        <v>1853.53740933331</v>
       </c>
       <c r="C11" t="n">
         <v>1364.39386169921</v>
@@ -30554,7 +30554,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>354.001679169116</v>
+        <v>347.537409333307</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -30565,7 +30565,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1989.24031042648</v>
+        <v>2014.47765952703</v>
       </c>
       <c r="C12" t="n">
         <v>1579.53111299129</v>
@@ -30586,7 +30586,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>350.240310426483</v>
+        <v>375.477659527029</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -30597,7 +30597,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2060.53299468797</v>
+        <v>2082.13414466569</v>
       </c>
       <c r="C13" t="n">
         <v>1596.77428920028</v>
@@ -30618,7 +30618,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>242.532994687968</v>
+        <v>264.134144665692</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -30629,7 +30629,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2366.22120019795</v>
+        <v>2379.62098943604</v>
       </c>
       <c r="C14" t="n">
         <v>1914.43103099402</v>
@@ -30650,7 +30650,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>528.221200197948</v>
+        <v>541.620989436036</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -30661,7 +30661,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2359.46631273279</v>
+        <v>2375.27561271413</v>
       </c>
       <c r="C15" t="n">
         <v>1768.52726544701</v>
@@ -30682,7 +30682,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>510.466312732785</v>
+        <v>526.275612714135</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -30693,10 +30693,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3136.10662498193</v>
+        <v>3085.37024305792</v>
       </c>
       <c r="C16" t="n">
-        <v>2631.44449876311</v>
+        <v>2465.74140743452</v>
       </c>
       <c r="D16" t="n">
         <v>2384.98025229264</v>
@@ -30714,7 +30714,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>145.10662498193</v>
+        <v>94.3702430579224</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -30725,7 +30725,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2999.01293911684</v>
+        <v>2922.68121387256</v>
       </c>
       <c r="C17" t="n">
         <v>2329.24592105384</v>
@@ -30734,7 +30734,7 @@
         <v>2030.04324651397</v>
       </c>
       <c r="E17" t="n">
-        <v>3598.65790962952</v>
+        <v>3459.66053386259</v>
       </c>
       <c r="F17" t="n">
         <v>3758.86320840246</v>
@@ -30746,7 +30746,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>202.012939116835</v>
+        <v>125.681213872556</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -30757,7 +30757,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2676.72473795193</v>
+        <v>2654.48048423851</v>
       </c>
       <c r="C18" t="n">
         <v>1949.79547507638</v>
@@ -30766,7 +30766,7 @@
         <v>1710.71620936223</v>
       </c>
       <c r="E18" t="n">
-        <v>3309.19840176694</v>
+        <v>3196.43259445353</v>
       </c>
       <c r="F18" t="n">
         <v>3411.45727795734</v>
@@ -30778,7 +30778,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>167.724737951929</v>
+        <v>145.480484238507</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -30789,7 +30789,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2336.10801843763</v>
+        <v>2275.20377989122</v>
       </c>
       <c r="C19" t="n">
         <v>1625.94413108705</v>
@@ -30798,7 +30798,7 @@
         <v>1381.7072973625</v>
       </c>
       <c r="E19" t="n">
-        <v>2897.30942524766</v>
+        <v>2780.7649372921</v>
       </c>
       <c r="F19" t="n">
         <v>3064.64296638977</v>
@@ -30810,7 +30810,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>70.108018437626</v>
+        <v>9.20377989122335</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -30821,7 +30821,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2278.15850798352</v>
+        <v>2225.56607818956</v>
       </c>
       <c r="C20" t="n">
         <v>1652.52589758054</v>
@@ -30842,7 +30842,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>138.158507983517</v>
+        <v>85.5660781895554</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -30853,7 +30853,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2234.13048153406</v>
+        <v>2234.12562072625</v>
       </c>
       <c r="C21" t="n">
         <v>1661.60572536473</v>
@@ -30874,7 +30874,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>125.13048153406</v>
+        <v>125.125620726247</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -30885,7 +30885,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2047.45234301031</v>
+        <v>2040.98833102556</v>
       </c>
       <c r="C22" t="n">
         <v>1386.06673025111</v>
@@ -30906,7 +30906,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>14.4523430103106</v>
+        <v>7.98833102555818</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -30917,7 +30917,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1862.45774225095</v>
+        <v>1892.94888338909</v>
       </c>
       <c r="C23" t="n">
         <v>1213.91124407118</v>
@@ -30938,7 +30938,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>16.4577422509494</v>
+        <v>46.9488833890862</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -30949,7 +30949,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1973.05346778722</v>
+        <v>2007.09868395807</v>
       </c>
       <c r="C24" t="n">
         <v>1434.67903069169</v>
@@ -30970,7 +30970,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-81.9465322127794</v>
+        <v>-47.9013160419336</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -30981,7 +30981,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2056.44163062415</v>
+        <v>2081.45596042113</v>
       </c>
       <c r="C25" t="n">
         <v>1456.22526462817</v>
@@ -31002,7 +31002,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-312.558369375852</v>
+        <v>-287.544039578875</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -31013,7 +31013,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2349.90331203171</v>
+        <v>2374.73095176211</v>
       </c>
       <c r="C26" t="n">
         <v>1782.8628673287</v>
@@ -31034,7 +31034,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-180.096687968295</v>
+        <v>-155.269048237889</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -31045,7 +31045,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2356.72074074303</v>
+        <v>2325.42763219352</v>
       </c>
       <c r="C27" t="n">
         <v>1623.85930325603</v>
@@ -31066,7 +31066,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-86.2792592569749</v>
+        <v>-117.572367806476</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -31077,10 +31077,10 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3128.13368198304</v>
+        <v>3087.36353973135</v>
       </c>
       <c r="C28" t="n">
-        <v>2574.20138899116</v>
+        <v>2448.47204028956</v>
       </c>
       <c r="D28" t="n">
         <v>2198.76620775587</v>
@@ -31098,7 +31098,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.8663180169624</v>
+        <v>-43.6364602686485</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -31109,7 +31109,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3001.45131297182</v>
+        <v>2834.58864534412</v>
       </c>
       <c r="C29" t="n">
         <v>2164.45414392355</v>
@@ -31118,7 +31118,7 @@
         <v>1826.72430239158</v>
       </c>
       <c r="E29" t="n">
-        <v>3642.01061913805</v>
+        <v>3580.16001318352</v>
       </c>
       <c r="F29" t="n">
         <v>3943.15125889888</v>
@@ -31130,7 +31130,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>476.451312971822</v>
+        <v>309.588645344117</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -31141,7 +31141,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2684.37856019641</v>
+        <v>2637.18996904426</v>
       </c>
       <c r="C30" t="n">
         <v>1843.83249649127</v>
@@ -31150,7 +31150,7 @@
         <v>1499.87471884951</v>
       </c>
       <c r="E30" t="n">
-        <v>3365.87278005652</v>
+        <v>3240.08338226704</v>
       </c>
       <c r="F30" t="n">
         <v>3593.10969167383</v>
@@ -31162,7 +31162,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>181.378560196408</v>
+        <v>134.189969044259</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -31173,7 +31173,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2354.10623332186</v>
+        <v>2303.37397941122</v>
       </c>
       <c r="C31" t="n">
         <v>1521.97792708445</v>
@@ -31182,7 +31182,7 @@
         <v>1183.90265702296</v>
       </c>
       <c r="E31" t="n">
-        <v>2992.1623385381</v>
+        <v>2901.81894926931</v>
       </c>
       <c r="F31" t="n">
         <v>3249.77910139857</v>
@@ -31194,7 +31194,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-56.8937666781444</v>
+        <v>-107.626020588782</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -31205,7 +31205,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2283.9336143542</v>
+        <v>2243.79823076496</v>
       </c>
       <c r="C32" t="n">
         <v>1550.28782413263</v>
@@ -31226,7 +31226,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>58.933614354195</v>
+        <v>18.7982307649622</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -31237,7 +31237,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2219.62630733114</v>
+        <v>2237.96058241431</v>
       </c>
       <c r="C33" t="n">
         <v>1549.03743878369</v>
@@ -31258,7 +31258,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-35.3736926688593</v>
+        <v>-17.0394175856936</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -31269,7 +31269,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2042.41189525506</v>
+        <v>2057.2892337754</v>
       </c>
       <c r="C34" t="n">
         <v>1270.61212162443</v>
@@ -31290,7 +31290,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>96.4118952550625</v>
+        <v>111.289233775401</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -31301,7 +31301,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1861.78505851484</v>
+        <v>1898.93375166217</v>
       </c>
       <c r="C35" t="n">
         <v>1095.57269499521</v>
@@ -31322,7 +31322,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>178.785058514835</v>
+        <v>215.933751662174</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -31333,7 +31333,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1963.91917901127</v>
+        <v>2016.55427857588</v>
       </c>
       <c r="C36" t="n">
         <v>1318.81651411255</v>
@@ -31354,7 +31354,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>231.919179011272</v>
+        <v>284.554278575883</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -31365,7 +31365,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2059.1246281667</v>
+        <v>2057.19702818581</v>
       </c>
       <c r="C37" t="n">
         <v>1338.80662894613</v>
@@ -31386,7 +31386,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>872.124628166698</v>
+        <v>870.197028185814</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -31397,7 +31397,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2338.39429427472</v>
+        <v>2338.58315343903</v>
       </c>
       <c r="C38" t="n">
         <v>1645.34393971249</v>
@@ -31418,7 +31418,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1194.39429427472</v>
+        <v>1194.58315343903</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -31429,7 +31429,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2348.53812807094</v>
+        <v>2333.21289648938</v>
       </c>
       <c r="C39" t="n">
         <v>1486.11401111166</v>
@@ -31450,7 +31450,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>141.53812807094</v>
+        <v>126.212896489378</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -31461,7 +31461,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3135.57079399774</v>
+        <v>3083.30892494582</v>
       </c>
       <c r="C40" t="n">
         <v>2405.26410121057</v>
@@ -31482,10 +31482,10 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>18.5707939977378</v>
+        <v>-33.691075054182</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -31493,7 +31493,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2993.98946928103</v>
+        <v>2720.44158009397</v>
       </c>
       <c r="C41" t="n">
         <v>1971.63522254429</v>
@@ -31514,7 +31514,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-12.0105307189656</v>
+        <v>-285.558419906026</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -31525,7 +31525,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2665.33598253778</v>
+        <v>2657.5648211793</v>
       </c>
       <c r="C42" t="n">
         <v>1649.24414445909</v>
@@ -31534,7 +31534,7 @@
         <v>1212.63032751826</v>
       </c>
       <c r="E42" t="n">
-        <v>3388.09142131129</v>
+        <v>3342.17526555114</v>
       </c>
       <c r="F42" t="n">
         <v>3749.24575340589</v>
@@ -31546,7 +31546,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-156.664017462219</v>
+        <v>-164.435178820697</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -31557,7 +31557,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2353.76568844257</v>
+        <v>2359.02527019689</v>
       </c>
       <c r="C43" t="n">
         <v>1337.62907551692</v>
@@ -31566,7 +31566,7 @@
         <v>893.966327251034</v>
       </c>
       <c r="E43" t="n">
-        <v>3095.57993302711</v>
+        <v>3013.82683868839</v>
       </c>
       <c r="F43" t="n">
         <v>3457.48958695427</v>
@@ -31578,7 +31578,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-175.234311557428</v>
+        <v>-169.974729803109</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -31589,7 +31589,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2283.34762077196</v>
+        <v>2245.03757081197</v>
       </c>
       <c r="C44" t="n">
         <v>1368.94888135808</v>
@@ -31610,7 +31610,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-336.652379228036</v>
+        <v>-374.962429188034</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -31621,7 +31621,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2224.30115073114</v>
+        <v>2220.69897041823</v>
       </c>
       <c r="C45" t="n">
         <v>1367.68751238602</v>
@@ -31642,7 +31642,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-393.69884926886</v>
+        <v>-397.301029581767</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -31653,7 +31653,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2039.23222153562</v>
+        <v>2061.05175497573</v>
       </c>
       <c r="C46" t="n">
         <v>1081.92151510189</v>
@@ -31674,7 +31674,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-510.767778464377</v>
+        <v>-488.948245024274</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -31685,7 +31685,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1857.21027274206</v>
+        <v>1911.22120405076</v>
       </c>
       <c r="C47" t="n">
         <v>896.641655395377</v>
@@ -31706,7 +31706,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-685.789727257937</v>
+        <v>-631.778795949243</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -31717,7 +31717,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1957.97043576441</v>
+        <v>2059.46726197347</v>
       </c>
       <c r="C48" t="n">
         <v>1121.84715679139</v>
@@ -31738,7 +31738,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-793.029564235586</v>
+        <v>-691.532738026527</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -31749,7 +31749,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2047.08304074506</v>
+        <v>2055.77357235953</v>
       </c>
       <c r="C49" t="n">
         <v>1132.11414754105</v>
@@ -31770,7 +31770,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-620.916959254943</v>
+        <v>-612.226427640468</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/Figure Data/Fig.4 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.4 data.xlsx
@@ -15039,19 +15039,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2555.22214850378</v>
+        <v>2555.86190580276</v>
       </c>
       <c r="C2" t="n">
-        <v>1743.37403972035</v>
+        <v>1746.51680746216</v>
       </c>
       <c r="D2" t="n">
-        <v>1280.88312680667</v>
+        <v>1284.38727592029</v>
       </c>
       <c r="E2" t="n">
         <v>3271.60836224899</v>
       </c>
       <c r="F2" t="n">
-        <v>3681.26877844585</v>
+        <v>3682.89731306533</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -15060,7 +15060,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>110.222148503781</v>
+        <v>110.861905802765</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -15071,13 +15071,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2597.49638362041</v>
+        <v>2597.11601201617</v>
       </c>
       <c r="C3" t="n">
-        <v>1560.58769315346</v>
+        <v>1560.32980619298</v>
       </c>
       <c r="D3" t="n">
-        <v>1186.10121510877</v>
+        <v>1187.16263611357</v>
       </c>
       <c r="E3" t="n">
         <v>3476.76635922184</v>
@@ -15092,7 +15092,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1664.49638362041</v>
+        <v>1664.11601201617</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -15103,13 +15103,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4414.9056151499</v>
+        <v>4414.86392809013</v>
       </c>
       <c r="C4" t="n">
-        <v>3157.81603849888</v>
+        <v>3160.41237418877</v>
       </c>
       <c r="D4" t="n">
-        <v>2808.94044563282</v>
+        <v>2808.48215093145</v>
       </c>
       <c r="E4" t="n">
         <v>5596.16176007132</v>
@@ -15124,7 +15124,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>906.905615149898</v>
+        <v>906.863928090128</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -15135,7 +15135,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4990.37131566918</v>
+        <v>4991.99817214351</v>
       </c>
       <c r="C5" t="n">
         <v>3698.61255729682</v>
@@ -15156,7 +15156,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-369.628684330823</v>
+        <v>-368.001827856493</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -15167,13 +15167,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5741.59408251857</v>
+        <v>5744.93963881063</v>
       </c>
       <c r="C6" t="n">
-        <v>4286.73455584564</v>
+        <v>4301.71445429965</v>
       </c>
       <c r="D6" t="n">
-        <v>3842.87151006306</v>
+        <v>3858.10812174163</v>
       </c>
       <c r="E6" t="n">
         <v>7364.26587048967</v>
@@ -15188,7 +15188,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>477.594082518573</v>
+        <v>480.939638810634</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -15199,10 +15199,10 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5984.95544467332</v>
+        <v>5989.59140929632</v>
       </c>
       <c r="C7" t="n">
-        <v>4576.30137597937</v>
+        <v>4580.58024703117</v>
       </c>
       <c r="D7" t="n">
         <v>4024.01929999012</v>
@@ -15220,7 +15220,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-208.04455532668</v>
+        <v>-203.408590703682</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -15231,7 +15231,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5910.68186337853</v>
+        <v>5917.60059505902</v>
       </c>
       <c r="C8" t="n">
         <v>4508.01441521917</v>
@@ -15252,7 +15252,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>938.68186337853</v>
+        <v>945.600595059018</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -15263,7 +15263,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5129.43375580138</v>
+        <v>5131.85832736541</v>
       </c>
       <c r="C9" t="n">
         <v>3704.75311686093</v>
@@ -15284,7 +15284,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>157.433755801384</v>
+        <v>159.858327365415</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -15295,7 +15295,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3706.12156607305</v>
+        <v>3704.9876910579</v>
       </c>
       <c r="C10" t="n">
         <v>2280.91237764028</v>
@@ -15304,7 +15304,7 @@
         <v>1563.77012561258</v>
       </c>
       <c r="E10" t="n">
-        <v>5008.12892526094</v>
+        <v>5001.21026220688</v>
       </c>
       <c r="F10" t="n">
         <v>5707.48255306939</v>
@@ -15316,7 +15316,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-785.878433926947</v>
+        <v>-787.012308942096</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -15327,7 +15327,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2748.77064436662</v>
+        <v>2748.91385512034</v>
       </c>
       <c r="C11" t="n">
         <v>1270.95727147084</v>
@@ -15348,7 +15348,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-457.229355633384</v>
+        <v>-457.086144879656</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -15359,7 +15359,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2983.12915677683</v>
+        <v>2983.48395961956</v>
       </c>
       <c r="C12" t="n">
         <v>1485.16038457302</v>
@@ -15380,7 +15380,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-627.870843223168</v>
+        <v>-627.516040380441</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -15391,7 +15391,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3093.39154033956</v>
+        <v>3093.78975912348</v>
       </c>
       <c r="C13" t="n">
         <v>1495.37848461347</v>
@@ -15412,7 +15412,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-600.608459660443</v>
+        <v>-600.210240876522</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -15423,7 +15423,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2625.70802482369</v>
+        <v>2626.85181662154</v>
       </c>
       <c r="C14" t="n">
         <v>914.535566587633</v>
@@ -15444,7 +15444,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-549.291975176315</v>
+        <v>-548.148183378459</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -15455,7 +15455,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2633.47312104534</v>
+        <v>2632.94539689055</v>
       </c>
       <c r="C15" t="n">
         <v>1109.73360437002</v>
@@ -15476,7 +15476,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-791.526878954662</v>
+        <v>-792.054603109448</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -15487,10 +15487,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4433.73411459297</v>
+        <v>4433.77725324129</v>
       </c>
       <c r="C16" t="n">
-        <v>2863.079709259</v>
+        <v>2863.72961491753</v>
       </c>
       <c r="D16" t="n">
         <v>2104.9209996519</v>
@@ -15508,7 +15508,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2786.26588540703</v>
+        <v>-2786.22274675871</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -15519,7 +15519,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5026.99262560956</v>
+        <v>5029.69251033544</v>
       </c>
       <c r="C17" t="n">
         <v>3212.30103585908</v>
@@ -15540,7 +15540,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2821.00737439044</v>
+        <v>-2818.30748966456</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -15551,7 +15551,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5779.42662112342</v>
+        <v>5784.15836433105</v>
       </c>
       <c r="C18" t="n">
         <v>3974.86523006948</v>
@@ -15572,7 +15572,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2316.57337887658</v>
+        <v>-2311.84163566895</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -15583,7 +15583,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6004.73152874422</v>
+        <v>6011.56378789393</v>
       </c>
       <c r="C19" t="n">
         <v>4058.55539256903</v>
@@ -15604,7 +15604,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3665.26847125578</v>
+        <v>-3658.43621210607</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -15615,7 +15615,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5941.08861073059</v>
+        <v>5950.86898850239</v>
       </c>
       <c r="C20" t="n">
         <v>4015.74336863362</v>
@@ -15636,7 +15636,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3280.91138926941</v>
+        <v>-3271.13101149761</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -15647,7 +15647,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5245.69238773845</v>
+        <v>5253.61628283523</v>
       </c>
       <c r="C21" t="n">
         <v>3168.01097141081</v>
@@ -15668,7 +15668,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1621.30761226155</v>
+        <v>-1613.38371716477</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -15679,7 +15679,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3915.02352487536</v>
+        <v>3915.35760408579</v>
       </c>
       <c r="C22" t="n">
         <v>1596.28075551273</v>
@@ -15688,7 +15688,7 @@
         <v>516.716414998119</v>
       </c>
       <c r="E22" t="n">
-        <v>6018.59935900045</v>
+        <v>6016.49996569341</v>
       </c>
       <c r="F22" t="n">
         <v>6754.53626368385</v>
@@ -15700,7 +15700,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2016.97647512464</v>
+        <v>-2016.64239591421</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -15711,7 +15711,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2908.29699784213</v>
+        <v>2907.80603321621</v>
       </c>
       <c r="C23" t="n">
         <v>609.066428788389</v>
@@ -15732,7 +15732,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-713.703002157868</v>
+        <v>-714.193966783787</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -15743,7 +15743,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3055.34389284321</v>
+        <v>3056.27125451792</v>
       </c>
       <c r="C24" t="n">
         <v>843.790364101251</v>
@@ -15764,7 +15764,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-593.656107156793</v>
+        <v>-592.728745482083</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -15775,7 +15775,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3149.30937091482</v>
+        <v>3150.22916985425</v>
       </c>
       <c r="C25" t="n">
         <v>872.665392514946</v>
@@ -15796,7 +15796,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1769.69062908518</v>
+        <v>-1768.77083014575</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -15807,7 +15807,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2696.65476749499</v>
+        <v>2698.27895619529</v>
       </c>
       <c r="C26" t="n">
         <v>308.882650776172</v>
@@ -15828,7 +15828,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1699.34523250501</v>
+        <v>-1697.72104380471</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -15839,7 +15839,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2709.30991602845</v>
+        <v>2708.80058698205</v>
       </c>
       <c r="C27" t="n">
         <v>519.769590278987</v>
@@ -15860,7 +15860,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1979.69008397155</v>
+        <v>-1980.19941301795</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -15871,7 +15871,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4476.71349127572</v>
+        <v>4476.92445564253</v>
       </c>
       <c r="C28" t="n">
         <v>2379.12502099825</v>
@@ -15892,7 +15892,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2179.28650872428</v>
+        <v>-2179.07554435747</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -15903,7 +15903,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5082.42689782692</v>
+        <v>5085.88282413028</v>
       </c>
       <c r="C29" t="n">
         <v>2684.47444578355</v>
@@ -15924,7 +15924,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2041.57310217308</v>
+        <v>-2038.11717586972</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -15935,7 +15935,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5815.52486278837</v>
+        <v>5821.06362398258</v>
       </c>
       <c r="C30" t="n">
         <v>3384.15643212497</v>
@@ -15956,7 +15956,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-3008.47513721163</v>
+        <v>-3002.93637601742</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -15967,7 +15967,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6053.00337511718</v>
+        <v>6060.90849302624</v>
       </c>
       <c r="C31" t="n">
         <v>3505.68264104479</v>
@@ -15988,7 +15988,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3889.99662488282</v>
+        <v>-3882.09150697376</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -15999,7 +15999,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6004.60073919966</v>
+        <v>6015.63213658517</v>
       </c>
       <c r="C32" t="n">
         <v>3509.73564091691</v>
@@ -16020,7 +16020,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3678.39926080034</v>
+        <v>-3667.36786341483</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -16031,7 +16031,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5333.70617534132</v>
+        <v>5346.01778107532</v>
       </c>
       <c r="C33" t="n">
         <v>2604.02843513953</v>
@@ -16052,7 +16052,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2553.29382465868</v>
+        <v>-2540.98221892468</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -16063,7 +16063,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4134.45614157218</v>
+        <v>4140.06256118964</v>
       </c>
       <c r="C34" t="n">
         <v>1089.52914902542</v>
@@ -16084,7 +16084,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1176.54385842782</v>
+        <v>-1170.93743881036</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -16095,7 +16095,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3127.89732682456</v>
+        <v>3127.78491675039</v>
       </c>
       <c r="C35" t="n">
         <v>111.503518432598</v>
@@ -16116,7 +16116,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>592.897326824562</v>
+        <v>592.784916750388</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -16127,7 +16127,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3152.63983680369</v>
+        <v>3153.80679965282</v>
       </c>
       <c r="C36" t="n">
         <v>354.926773711633</v>
@@ -16148,7 +16148,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>583.639836803686</v>
+        <v>584.806799652824</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -16159,7 +16159,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3220.4066011882</v>
+        <v>3222.04124961728</v>
       </c>
       <c r="C37" t="n">
         <v>392.056211914838</v>
@@ -16180,7 +16180,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1400.4066011882</v>
+        <v>1402.04124961728</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -16191,7 +16191,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2767.72837158677</v>
+        <v>2769.88688531224</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -16212,7 +16212,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>449.728371586774</v>
+        <v>451.886885312244</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -16223,7 +16223,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2782.05728511067</v>
+        <v>2781.70227141035</v>
       </c>
       <c r="C39" t="n">
         <v>21.1720384087052</v>
@@ -16244,7 +16244,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2879.94271488933</v>
+        <v>-2880.29772858965</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -16255,7 +16255,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4523.17101329208</v>
+        <v>4523.61341418967</v>
       </c>
       <c r="C40" t="n">
         <v>1669.54752072239</v>
@@ -16276,7 +16276,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2019.82898670792</v>
+        <v>-2019.38658581033</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -16287,7 +16287,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5123.81189797239</v>
+        <v>5127.84591068258</v>
       </c>
       <c r="C41" t="n">
         <v>1932.26686118833</v>
@@ -16308,7 +16308,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2553.18810202761</v>
+        <v>-2549.15408931742</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -16319,7 +16319,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5856.75102862987</v>
+        <v>5862.82875837794</v>
       </c>
       <c r="C42" t="n">
         <v>2627.20828193442</v>
@@ -16340,7 +16340,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3210.24897137013</v>
+        <v>-3204.17124162206</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -16351,7 +16351,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6092.18601367048</v>
+        <v>6100.68300305939</v>
       </c>
       <c r="C43" t="n">
         <v>2728.52603772469</v>
@@ -16372,7 +16372,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2233.81398632952</v>
+        <v>-2225.31699694061</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -16383,7 +16383,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6034.19512033109</v>
+        <v>6045.80100877859</v>
       </c>
       <c r="C44" t="n">
         <v>2678.26442334632</v>
@@ -16404,7 +16404,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3129.80487966891</v>
+        <v>-3118.19899122141</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -16415,7 +16415,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5382.84815066267</v>
+        <v>5397.30604090716</v>
       </c>
       <c r="C45" t="n">
         <v>1789.30200171136</v>
@@ -16436,7 +16436,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2971.15184933733</v>
+        <v>-2956.69395909284</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -16447,7 +16447,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4263.70931807919</v>
+        <v>4276.06346763232</v>
       </c>
       <c r="C46" t="n">
         <v>395.375252653696</v>
@@ -16468,7 +16468,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1723.29068192081</v>
+        <v>-1710.93653236768</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -16479,7 +16479,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3349.13548913693</v>
+        <v>3352.29719210043</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -16500,7 +16500,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1127.86451086307</v>
+        <v>-1124.70280789957</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -16511,7 +16511,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3298.1434527773</v>
+        <v>3299.49927810549</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -16532,7 +16532,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1241.8565472227</v>
+        <v>-1240.50072189451</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -16543,7 +16543,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3290.41384559314</v>
+        <v>3292.90254007217</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -16564,7 +16564,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-452.58615440686</v>
+        <v>-450.097459927832</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -19401,7 +19401,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>847.075291566498</v>
+        <v>1348.43676383954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -19422,7 +19422,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>776.075291566498</v>
+        <v>1277.43676383954</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -19433,7 +19433,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>913.113600822468</v>
+        <v>3263.45027847868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -19442,10 +19442,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>14513.4058476909</v>
+        <v>12703.0057313591</v>
       </c>
       <c r="F3" t="n">
-        <v>19161.3945939318</v>
+        <v>15122.9210831771</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -19454,7 +19454,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>896.113600822468</v>
+        <v>3246.45027847868</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -19465,7 +19465,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>873.343687398966</v>
+        <v>6727.77931821473</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -19474,10 +19474,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26401.577264679</v>
+        <v>25091.512825572</v>
       </c>
       <c r="F4" t="n">
-        <v>27599.6457141782</v>
+        <v>25876.1368353081</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -19486,7 +19486,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>857.343687398966</v>
+        <v>6711.77931821473</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -19497,7 +19497,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>804.368036961116</v>
+        <v>7864.09962171712</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -19506,10 +19506,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>28470.7165698227</v>
+        <v>32650.297038679</v>
       </c>
       <c r="F5" t="n">
-        <v>30785.0787579297</v>
+        <v>33938.7080440603</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -19518,7 +19518,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>798.368036961116</v>
+        <v>7858.09962171712</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -19529,7 +19529,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>768.158517901678</v>
+        <v>1155.11838242148</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -19538,10 +19538,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>25817.0056005935</v>
+        <v>7195.73049020123</v>
       </c>
       <c r="F6" t="n">
-        <v>30448.9070976511</v>
+        <v>10232.2916464397</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -19550,7 +19550,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>764.158517901678</v>
+        <v>1151.11838242148</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -19561,7 +19561,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>872.896989631306</v>
+        <v>932.751883233866</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -19570,10 +19570,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22385.3310348867</v>
+        <v>7614.28813961975</v>
       </c>
       <c r="F7" t="n">
-        <v>28189.9995906823</v>
+        <v>10872.4203313635</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -19582,7 +19582,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>868.896989631306</v>
+        <v>928.751883233866</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -19593,7 +19593,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2801.44181433936</v>
+        <v>3209.13514881461</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -19602,10 +19602,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20255.2268980556</v>
+        <v>13869.5853284291</v>
       </c>
       <c r="F8" t="n">
-        <v>28374.4394431433</v>
+        <v>20591.0321142797</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -19614,7 +19614,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>2746.44181433936</v>
+        <v>3154.13514881461</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -19625,7 +19625,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>7491.71855079946</v>
+        <v>8209.37128249705</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -19634,10 +19634,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>27136.9027609581</v>
+        <v>31230.0299009597</v>
       </c>
       <c r="F9" t="n">
-        <v>29472.2004348286</v>
+        <v>33749.3880488204</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -19646,7 +19646,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>7436.71855079946</v>
+        <v>8154.37128249705</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -19657,7 +19657,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>9404.14348768957</v>
+        <v>7516.76619380271</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -19666,10 +19666,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>28821.876482196</v>
+        <v>23687.6268511795</v>
       </c>
       <c r="F10" t="n">
-        <v>30253.8200463862</v>
+        <v>24345.7929650413</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -19678,7 +19678,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>9157.14348768957</v>
+        <v>7269.76619380271</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -19689,7 +19689,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2591.93046816105</v>
+        <v>1995.04607104675</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -19698,10 +19698,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>26270.697049455</v>
+        <v>10638.2065480806</v>
       </c>
       <c r="F11" t="n">
-        <v>29757.58235898</v>
+        <v>20246.4277758568</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -19710,7 +19710,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>2304.93046816105</v>
+        <v>1708.04607104675</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -19721,7 +19721,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>767.057694474272</v>
+        <v>852.2170110228</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -19730,10 +19730,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>25780.4898323606</v>
+        <v>9382.04893499745</v>
       </c>
       <c r="F12" t="n">
-        <v>31551.6628322063</v>
+        <v>13575.9771646383</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -19742,7 +19742,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>704.057694474272</v>
+        <v>789.2170110228</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -19753,7 +19753,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>535.672843741601</v>
+        <v>3320.8433348155</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -19762,10 +19762,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>24171.247471249</v>
+        <v>13326.3538200268</v>
       </c>
       <c r="F13" t="n">
-        <v>27685.3278601056</v>
+        <v>19879.5952995047</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -19774,7 +19774,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>526.672843741601</v>
+        <v>3311.8433348155</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -19785,7 +19785,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4365.58240912582</v>
+        <v>9007.1654216666</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -19794,10 +19794,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>25897.9714762342</v>
+        <v>33746.0184968992</v>
       </c>
       <c r="F14" t="n">
-        <v>30842.352333515</v>
+        <v>35759.8940437384</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -19806,7 +19806,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>4360.58240912582</v>
+        <v>9002.1654216666</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -19817,7 +19817,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>6649.45576702342</v>
+        <v>6625.17762202127</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -19826,10 +19826,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>26020.6368805509</v>
+        <v>23896.7484168105</v>
       </c>
       <c r="F15" t="n">
-        <v>29477.8385117311</v>
+        <v>25065.2225719392</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -19838,7 +19838,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>6647.45576702342</v>
+        <v>6623.17762202127</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -19849,7 +19849,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1423.87363090197</v>
+        <v>1158.71501000854</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -19858,10 +19858,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>26687.9705043815</v>
+        <v>17023.7858874541</v>
       </c>
       <c r="F16" t="n">
-        <v>30376.4199761066</v>
+        <v>23284.9461645488</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -19870,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1423.87363090197</v>
+        <v>1158.71501000854</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -19881,7 +19881,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>943.351465622423</v>
+        <v>754.237708288305</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -19890,10 +19890,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>24702.979546397</v>
+        <v>10821.7714434294</v>
       </c>
       <c r="F17" t="n">
-        <v>29762.0712390468</v>
+        <v>21875.2250199708</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -19902,7 +19902,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>939.351465622423</v>
+        <v>750.237708288305</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -19913,7 +19913,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>718.42914235533</v>
+        <v>2698.36685005788</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -19922,10 +19922,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>25430.0917514203</v>
+        <v>13147.4890212582</v>
       </c>
       <c r="F18" t="n">
-        <v>29922.4235328341</v>
+        <v>23875.1332647571</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -19934,7 +19934,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>713.42914235533</v>
+        <v>2693.36685005788</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -19945,7 +19945,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>781.3152704005</v>
+        <v>6189.33404293409</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -19954,10 +19954,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>25180.7344960282</v>
+        <v>27924.5142652093</v>
       </c>
       <c r="F19" t="n">
-        <v>29343.6285646175</v>
+        <v>34596.8752096084</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -19966,7 +19966,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>773.3152704005</v>
+        <v>6181.33404293409</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -19977,7 +19977,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2699.21538642316</v>
+        <v>6620.15336250975</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -19986,10 +19986,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>26257.9966818849</v>
+        <v>24998.7234951586</v>
       </c>
       <c r="F20" t="n">
-        <v>30083.4652522355</v>
+        <v>32742.0086077017</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -19998,7 +19998,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2696.21538642316</v>
+        <v>6617.15336250975</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -20009,7 +20009,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>8531.07580120204</v>
+        <v>1386.19983333856</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -20018,10 +20018,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>25661.5366437233</v>
+        <v>22071.3299115735</v>
       </c>
       <c r="F21" t="n">
-        <v>30109.0007396044</v>
+        <v>24031.6129942365</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -20030,7 +20030,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>8528.07580120204</v>
+        <v>1383.19983333856</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -20041,7 +20041,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>9405.56444144889</v>
+        <v>1656.51316448345</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -20050,10 +20050,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>24804.5553362376</v>
+        <v>12067.8674496259</v>
       </c>
       <c r="F22" t="n">
-        <v>29928.7391221569</v>
+        <v>22974.9617428151</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -20062,7 +20062,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>9401.56444144889</v>
+        <v>1652.51316448345</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -20073,7 +20073,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2539.72336276682</v>
+        <v>3810.27670134389</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -20082,10 +20082,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>24609.6417805165</v>
+        <v>15641.0545844013</v>
       </c>
       <c r="F23" t="n">
-        <v>29277.6443746191</v>
+        <v>21376.6663461314</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -20094,7 +20094,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>2533.72336276682</v>
+        <v>3804.27670134389</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -20105,7 +20105,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1077.0379066697</v>
+        <v>5860.31508522644</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -20114,10 +20114,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>25293.0547257383</v>
+        <v>22808.7427758654</v>
       </c>
       <c r="F24" t="n">
-        <v>29425.6441928015</v>
+        <v>30636.5872533553</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -20126,7 +20126,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1072.0379066697</v>
+        <v>5855.31508522644</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -20137,7 +20137,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3933.71187954029</v>
+        <v>6231.53766153042</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -20146,10 +20146,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>25587.3756709538</v>
+        <v>23397.8199591553</v>
       </c>
       <c r="F25" t="n">
-        <v>29747.2250291626</v>
+        <v>26707.6964385398</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -20158,7 +20158,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3930.71187954029</v>
+        <v>6228.53766153042</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -20169,7 +20169,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>7868.60398471358</v>
+        <v>1497.50785326657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -20178,10 +20178,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>25588.3392147415</v>
+        <v>22247.561295162</v>
       </c>
       <c r="F26" t="n">
-        <v>29434.6378270221</v>
+        <v>23903.533552121</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -20190,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7868.60398471358</v>
+        <v>1497.50785326657</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -20201,7 +20201,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2289.08889670286</v>
+        <v>763.285774170593</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -20210,10 +20210,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>24945.1300952832</v>
+        <v>17093.2059702413</v>
       </c>
       <c r="F27" t="n">
-        <v>29331.2938714023</v>
+        <v>23818.4952487449</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -20222,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2289.08889670286</v>
+        <v>763.285774170593</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -20233,7 +20233,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>989.688073776308</v>
+        <v>1304.54417791047</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -20242,10 +20242,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24534.0665065867</v>
+        <v>18375.8087589859</v>
       </c>
       <c r="F28" t="n">
-        <v>29193.0590513298</v>
+        <v>24800.6010308366</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -20254,7 +20254,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>987.688073776308</v>
+        <v>1302.54417791047</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -20265,7 +20265,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>943.165888389078</v>
+        <v>3319.87715134709</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -20274,10 +20274,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>24467.4471720606</v>
+        <v>22273.2351246384</v>
       </c>
       <c r="F29" t="n">
-        <v>28105.725864882</v>
+        <v>29651.6612216029</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -20286,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>943.165888389078</v>
+        <v>3319.87715134709</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -20297,7 +20297,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>928.671761649338</v>
+        <v>6542.43208418454</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -20306,10 +20306,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>25092.7539750966</v>
+        <v>24479.8715226128</v>
       </c>
       <c r="F30" t="n">
-        <v>29202.2959619171</v>
+        <v>33992.7246406058</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>926.671761649338</v>
+        <v>6540.43208418454</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -20329,7 +20329,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>840.297476512401</v>
+        <v>2342.53596650542</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -20338,10 +20338,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>25109.3099550197</v>
+        <v>22813.8023951594</v>
       </c>
       <c r="F31" t="n">
-        <v>29510.2188365378</v>
+        <v>24686.5743360259</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
@@ -20350,7 +20350,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>839.297476512401</v>
+        <v>2341.53596650542</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -20361,7 +20361,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>893.831089053108</v>
+        <v>810.823872653607</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -20370,10 +20370,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>24923.594318524</v>
+        <v>20790.4845644776</v>
       </c>
       <c r="F32" t="n">
-        <v>29318.3205080882</v>
+        <v>23963.8332806051</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -20382,7 +20382,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>890.831089053108</v>
+        <v>807.823872653607</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -20393,7 +20393,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1301.82244061276</v>
+        <v>1748.75866326943</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -20402,10 +20402,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>24203.1944124103</v>
+        <v>19650.5155603907</v>
       </c>
       <c r="F33" t="n">
-        <v>29427.9826162046</v>
+        <v>25959.4475849441</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -20414,7 +20414,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1300.82244061276</v>
+        <v>1747.75866326943</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -20425,7 +20425,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2058.33662052074</v>
+        <v>3931.17656408343</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -20434,10 +20434,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24741.8132591975</v>
+        <v>23524.5785714403</v>
       </c>
       <c r="F34" t="n">
-        <v>29307.8800528495</v>
+        <v>32762.9040551245</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
@@ -20446,7 +20446,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>2030.33662052074</v>
+        <v>3903.17656408343</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -20457,7 +20457,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2326.67549831816</v>
+        <v>6880.54559723956</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -20466,10 +20466,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>24642.2408479387</v>
+        <v>23592.0062718561</v>
       </c>
       <c r="F35" t="n">
-        <v>28025.1887817003</v>
+        <v>33102.419074126</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -20478,7 +20478,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>2000.67549831816</v>
+        <v>6554.54559723956</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -20489,7 +20489,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1154.62487137429</v>
+        <v>1929.37857598937</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -20498,10 +20498,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>24886.7603865702</v>
+        <v>22922.0033863214</v>
       </c>
       <c r="F36" t="n">
-        <v>28911.4927533708</v>
+        <v>27547.3760309504</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -20510,7 +20510,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>980.624871374293</v>
+        <v>1755.37857598937</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -20521,7 +20521,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>643.547902309514</v>
+        <v>717.604936276686</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -20530,10 +20530,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24588.7282504884</v>
+        <v>21826.6860014059</v>
       </c>
       <c r="F37" t="n">
-        <v>29317.5157455403</v>
+        <v>24707.6674058901</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -20542,7 +20542,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>632.547902309514</v>
+        <v>706.604936276686</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -20553,7 +20553,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>670.384209072374</v>
+        <v>1464.27380013047</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -20562,10 +20562,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>24533.7892821377</v>
+        <v>21619.1661017089</v>
       </c>
       <c r="F38" t="n">
-        <v>28857.9096069961</v>
+        <v>26144.3404225845</v>
       </c>
       <c r="G38" t="s">
         <v>31</v>
@@ -20574,7 +20574,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>669.384209072374</v>
+        <v>1463.27380013047</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -20585,7 +20585,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2439.18315279665</v>
+        <v>3295.63742659734</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -20594,10 +20594,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>24685.7345448222</v>
+        <v>23359.5951477188</v>
       </c>
       <c r="F39" t="n">
-        <v>28323.3144748625</v>
+        <v>34064.5343859721</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
@@ -20606,7 +20606,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>2428.18315279665</v>
+        <v>3284.63742659734</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -20617,7 +20617,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>6648.76327740294</v>
+        <v>9543.40976542928</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -20626,10 +20626,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>25109.3353830864</v>
+        <v>24111.0611936159</v>
       </c>
       <c r="F40" t="n">
-        <v>29330.7072155352</v>
+        <v>34504.5110774357</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -20638,7 +20638,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>6641.76327740294</v>
+        <v>9536.40976542928</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -20649,7 +20649,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>8372.88607673883</v>
+        <v>6616.18791307788</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -20658,10 +20658,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>25017.7242472758</v>
+        <v>23312.7423631619</v>
       </c>
       <c r="F41" t="n">
-        <v>29546.0433652543</v>
+        <v>30311.0985980416</v>
       </c>
       <c r="G41" t="s">
         <v>31</v>
@@ -20670,7 +20670,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>8363.88607673883</v>
+        <v>6607.18791307788</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -20681,7 +20681,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1421.1656865157</v>
+        <v>1100.74878874321</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -20690,10 +20690,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>24594.8169040304</v>
+        <v>22182.4788732081</v>
       </c>
       <c r="F42" t="n">
-        <v>28629.0448971896</v>
+        <v>25423.3522880118</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -20702,7 +20702,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>1400.1656865157</v>
+        <v>1079.74878874321</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -20713,7 +20713,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>938.3109931658</v>
+        <v>436.633414606704</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -20722,10 +20722,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24246.6876735933</v>
+        <v>22272.2817465622</v>
       </c>
       <c r="F43" t="n">
-        <v>28976.7527383391</v>
+        <v>29420.2631275885</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -20734,7 +20734,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>883.3109931658</v>
+        <v>381.633414606704</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -20745,7 +20745,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2594.93497206554</v>
+        <v>1752.69017110152</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -20754,10 +20754,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>24537.2933156225</v>
+        <v>24121.7415344825</v>
       </c>
       <c r="F44" t="n">
-        <v>28900.461024956</v>
+        <v>34703.2309664211</v>
       </c>
       <c r="G44" t="s">
         <v>31</v>
@@ -20766,7 +20766,7 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>990.934972065544</v>
+        <v>148.690171101522</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -20777,7 +20777,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>7738.79860852168</v>
+        <v>7951.55773844845</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -20786,10 +20786,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>24829.7007011125</v>
+        <v>24066.5616955182</v>
       </c>
       <c r="F45" t="n">
-        <v>29153.4726335583</v>
+        <v>32514.3661272737</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -20798,7 +20798,7 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>3540.79860852168</v>
+        <v>3753.55773844845</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -20809,7 +20809,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>9953.52449308995</v>
+        <v>7099.01892352359</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -20818,10 +20818,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>24835.8724402211</v>
+        <v>23213.9053794913</v>
       </c>
       <c r="F46" t="n">
-        <v>29398.1708991756</v>
+        <v>31063.9819013666</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -20830,7 +20830,7 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.52449308995</v>
+        <v>605.018923523586</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -20841,7 +20841,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>2594.70073627843</v>
+        <v>2349.55455588255</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -20850,10 +20850,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>24232.4896612571</v>
+        <v>22251.581699133</v>
       </c>
       <c r="F47" t="n">
-        <v>28452.720926765</v>
+        <v>25002.0193669514</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -20862,7 +20862,7 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>-2793.29926372157</v>
+        <v>-3038.44544411745</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -20873,7 +20873,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1074.34416803354</v>
+        <v>727.914449456575</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -20882,10 +20882,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>24368.6256054778</v>
+        <v>21961.4131075759</v>
       </c>
       <c r="F48" t="n">
-        <v>28701.3595740803</v>
+        <v>26478.5338429366</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -20894,7 +20894,7 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>-610.655831966462</v>
+        <v>-957.085550543425</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -20905,7 +20905,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3830.93016461334</v>
+        <v>1407.25413300554</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -20914,10 +20914,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>24951.6954901552</v>
+        <v>22881.6280922816</v>
       </c>
       <c r="F49" t="n">
-        <v>29407.2011896377</v>
+        <v>31609.7497138015</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -20926,7 +20926,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>3676.93016461334</v>
+        <v>1253.25413300554</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -25682,10 +25682,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>254.978138622258</v>
+        <v>249.218973172329</v>
       </c>
       <c r="F3" t="n">
-        <v>359.692968632402</v>
+        <v>364.231772668687</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -25714,10 +25714,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>301.607225189755</v>
+        <v>307.962574762421</v>
       </c>
       <c r="F4" t="n">
-        <v>448.894554900978</v>
+        <v>521.517222116825</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -25746,10 +25746,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>601.324735147575</v>
+        <v>852.211829142959</v>
       </c>
       <c r="F5" t="n">
-        <v>1247.45976570351</v>
+        <v>1661.51002525855</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -25778,10 +25778,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>768.928802655745</v>
+        <v>1301.79853370655</v>
       </c>
       <c r="F6" t="n">
-        <v>1438.17264810886</v>
+        <v>1882.81771133808</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -25801,7 +25801,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2.27381621367978</v>
+        <v>3.08564923943004</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -25810,10 +25810,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>544.578837438132</v>
+        <v>955.592599772396</v>
       </c>
       <c r="F7" t="n">
-        <v>1203.66923960347</v>
+        <v>1802.09251785053</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -25822,7 +25822,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.72618378632022</v>
+        <v>-2.91435076056996</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -25833,7 +25833,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>128.666225377227</v>
+        <v>135.330505693834</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>654.396529078582</v>
+        <v>1201.63772878107</v>
       </c>
       <c r="F8" t="n">
-        <v>1465.25206642596</v>
+        <v>1916.00594383939</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -25854,7 +25854,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>59.6662253772271</v>
+        <v>66.3305056938337</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -25865,7 +25865,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>340.465096986078</v>
+        <v>352.238356627724</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>939.264048144212</v>
+        <v>1377.5834930611</v>
       </c>
       <c r="F9" t="n">
-        <v>1602.8287961124</v>
+        <v>1965.31542296483</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -25886,7 +25886,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>271.465096986078</v>
+        <v>283.238356627724</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -25897,7 +25897,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>208.450482066848</v>
+        <v>209.114679483633</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -25906,10 +25906,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>796.223578999396</v>
+        <v>1134.46786939636</v>
       </c>
       <c r="F10" t="n">
-        <v>1487.26456139706</v>
+        <v>1858.32345056873</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
@@ -25918,7 +25918,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>71.4504820668477</v>
+        <v>72.1146794836333</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -25929,7 +25929,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>54.9824535964919</v>
+        <v>49.9780921829866</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -25938,10 +25938,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>578.154910677943</v>
+        <v>844.831981995366</v>
       </c>
       <c r="F11" t="n">
-        <v>1351.33633918474</v>
+        <v>1802.28997300894</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -25950,7 +25950,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>12.9824535964919</v>
+        <v>7.97809218298661</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -25970,10 +25970,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>520.782994662582</v>
+        <v>542.541643958456</v>
       </c>
       <c r="F12" t="n">
-        <v>1132.60021207638</v>
+        <v>1516.57788543539</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -26005,7 +26005,7 @@
         <v>540.275085515153</v>
       </c>
       <c r="F13" t="n">
-        <v>1043.06483211359</v>
+        <v>1482.47087930039</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>554.474684315649</v>
+        <v>834.900602522812</v>
       </c>
       <c r="F14" t="n">
-        <v>1173.44828744567</v>
+        <v>1749.06644209252</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -26057,7 +26057,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0736080827840944</v>
+        <v>21.4287032358412</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -26066,10 +26066,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>873.024726509974</v>
+        <v>1228.32474592382</v>
       </c>
       <c r="F15" t="n">
-        <v>1494.91606565094</v>
+        <v>1864.00248965034</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -26078,7 +26078,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0736080827840944</v>
+        <v>21.4287032358412</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -26089,7 +26089,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>10.7961920147094</v>
+        <v>31.7248780326545</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -26098,10 +26098,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>981.321326573523</v>
+        <v>1274.94117920648</v>
       </c>
       <c r="F16" t="n">
-        <v>1532.07993251643</v>
+        <v>1899.42858784954</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10.7961920147094</v>
+        <v>31.7248780326545</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -26130,10 +26130,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>965.346477532478</v>
+        <v>1333.87700550624</v>
       </c>
       <c r="F17" t="n">
-        <v>1610.29335679672</v>
+        <v>1969.69246208934</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -26162,10 +26162,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>987.826132585542</v>
+        <v>1508.82995809599</v>
       </c>
       <c r="F18" t="n">
-        <v>1983.76800899424</v>
+        <v>2158.84674002242</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -26194,10 +26194,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>914.170394632834</v>
+        <v>1323.73528254973</v>
       </c>
       <c r="F19" t="n">
-        <v>1694.63913104194</v>
+        <v>2005.24320085423</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -26217,7 +26217,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>110.723154951442</v>
+        <v>112.250954801657</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26226,10 +26226,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>851.723696579942</v>
+        <v>1510.95330922636</v>
       </c>
       <c r="F20" t="n">
-        <v>1663.0893061776</v>
+        <v>2067.43590544609</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -26238,7 +26238,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>93.7231549514422</v>
+        <v>95.2509548016572</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -26249,7 +26249,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>335.476116248648</v>
+        <v>362.588932705843</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -26258,10 +26258,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1187.55630152838</v>
+        <v>1650.53778275858</v>
       </c>
       <c r="F21" t="n">
-        <v>1842.32015949287</v>
+        <v>2126.47053999975</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -26270,7 +26270,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>263.476116248648</v>
+        <v>290.588932705843</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -26281,7 +26281,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>234.510692885332</v>
+        <v>279.729903319266</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -26290,10 +26290,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1212.64994068625</v>
+        <v>1421.92789910336</v>
       </c>
       <c r="F22" t="n">
-        <v>1968.55517119565</v>
+        <v>2093.15238449137</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
@@ -26302,7 +26302,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>171.510692885332</v>
+        <v>216.729903319266</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -26313,7 +26313,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>83.1130949616459</v>
+        <v>94.1339884766539</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -26322,10 +26322,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1195.46628780686</v>
+        <v>1376.62634503702</v>
       </c>
       <c r="F23" t="n">
-        <v>1921.90537147396</v>
+        <v>2063.604373892</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -26334,7 +26334,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>44.1130949616459</v>
+        <v>55.1339884766539</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -26345,7 +26345,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>7.82597877361967</v>
+        <v>6.37422193631244</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -26354,10 +26354,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>811.776356939282</v>
+        <v>1171.79046243504</v>
       </c>
       <c r="F24" t="n">
-        <v>1452.05990202354</v>
+        <v>1914.13609076562</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -26366,7 +26366,7 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>-6.17402122638033</v>
+        <v>-7.62577806368756</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>757.313050655695</v>
+        <v>973.171290481425</v>
       </c>
       <c r="F25" t="n">
-        <v>1625.06819155231</v>
+        <v>1942.63001149017</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -26418,10 +26418,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>760.43129878723</v>
+        <v>1006.92412478685</v>
       </c>
       <c r="F26" t="n">
-        <v>1709.77872326811</v>
+        <v>1943.97422535688</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -26450,10 +26450,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1160.32257148498</v>
+        <v>1593.86236166593</v>
       </c>
       <c r="F27" t="n">
-        <v>1835.02068496425</v>
+        <v>2040.69172288124</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
@@ -26473,7 +26473,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>35.5985814042469</v>
+        <v>69.3343864368621</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -26482,10 +26482,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1410.37736156058</v>
+        <v>1757.25939233588</v>
       </c>
       <c r="F28" t="n">
-        <v>1935.46815587777</v>
+        <v>2084.82180036323</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -26494,7 +26494,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>33.5985814042469</v>
+        <v>67.3343864368621</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -26505,7 +26505,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>37.9130259817929</v>
+        <v>61.2601684006923</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -26514,10 +26514,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1120.84299270834</v>
+        <v>1415.33123332668</v>
       </c>
       <c r="F29" t="n">
-        <v>1962.92995275388</v>
+        <v>2028.72162859111</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
@@ -26526,7 +26526,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>37.9130259817929</v>
+        <v>61.2601684006923</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -26537,7 +26537,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>5.69425050107305</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -26546,10 +26546,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1208.16431370196</v>
+        <v>1606.22721774903</v>
       </c>
       <c r="F30" t="n">
-        <v>2036.62938102858</v>
+        <v>2159.90409982184</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -26558,10 +26558,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.69425050107305</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -26578,10 +26578,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1042.38061536435</v>
+        <v>1373.08673165879</v>
       </c>
       <c r="F31" t="n">
-        <v>2091.3429109561</v>
+        <v>2134.998174266</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -26601,7 +26601,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>92.8317112176975</v>
+        <v>94.8796689807719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -26610,10 +26610,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1082.73464097861</v>
+        <v>1522.11935350662</v>
       </c>
       <c r="F32" t="n">
-        <v>1862.29010932523</v>
+        <v>2075.39403438098</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -26622,7 +26622,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>79.8317112176975</v>
+        <v>81.8796689807719</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -26633,7 +26633,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>310.790561157857</v>
+        <v>309.097533753258</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -26642,10 +26642,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1366.98797933007</v>
+        <v>1641.8490915179</v>
       </c>
       <c r="F33" t="n">
-        <v>2171.93339014986</v>
+        <v>2113.44162596354</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -26654,7 +26654,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>253.790561157857</v>
+        <v>252.097533753258</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -26665,7 +26665,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>244.665092082335</v>
+        <v>258.010695722719</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26674,10 +26674,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1422.93610939132</v>
+        <v>1521.9374806138</v>
       </c>
       <c r="F34" t="n">
-        <v>2087.75855554226</v>
+        <v>2124.66069947341</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -26686,7 +26686,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>191.665092082335</v>
+        <v>205.010695722719</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -26697,7 +26697,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>130.214616337173</v>
+        <v>164.6114235273</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -26706,10 +26706,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1352.66907128059</v>
+        <v>1539.68865756358</v>
       </c>
       <c r="F35" t="n">
-        <v>2309.75513314184</v>
+        <v>2124.17522106864</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
@@ -26718,7 +26718,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>103.214616337173</v>
+        <v>137.6114235273</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -26729,7 +26729,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>42.4495800982366</v>
+        <v>47.7092326663688</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1045.41603705987</v>
+        <v>1379.97726963429</v>
       </c>
       <c r="F36" t="n">
-        <v>1929.55630275681</v>
+        <v>2032.28278211743</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -26750,7 +26750,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>41.4495800982366</v>
+        <v>46.7092326663688</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -26770,10 +26770,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>924.129813685913</v>
+        <v>1361.97663482514</v>
       </c>
       <c r="F37" t="n">
-        <v>1939.87490747641</v>
+        <v>2061.07376602074</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
@@ -26802,10 +26802,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>900.144436576483</v>
+        <v>1072.43512869422</v>
       </c>
       <c r="F38" t="n">
-        <v>1820.43014040812</v>
+        <v>2046.90579517037</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -26834,10 +26834,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1386.67804516771</v>
+        <v>1537.47073785374</v>
       </c>
       <c r="F39" t="n">
-        <v>2185.96921927416</v>
+        <v>2135.15091932048</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -26857,7 +26857,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>9.45860264206813</v>
+        <v>23.4761591834119</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -26866,10 +26866,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1496.43686123418</v>
+        <v>1829.36194218098</v>
       </c>
       <c r="F40" t="n">
-        <v>2202.05986232484</v>
+        <v>2182.34023042816</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -26878,7 +26878,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>6.45860264206813</v>
+        <v>20.4761591834119</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -26889,7 +26889,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>72.9849152134362</v>
+        <v>120.567279178847</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -26898,10 +26898,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1486.034179702</v>
+        <v>1728.48224494035</v>
       </c>
       <c r="F41" t="n">
-        <v>2246.66894425637</v>
+        <v>2164.22506417187</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -26910,7 +26910,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>71.9849152134362</v>
+        <v>119.567279178847</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -26921,7 +26921,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35.8347305774807</v>
+        <v>54.8486281466895</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -26930,10 +26930,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1293.06371296081</v>
+        <v>1565.83133604643</v>
       </c>
       <c r="F42" t="n">
-        <v>2097.27962185932</v>
+        <v>2104.61503000646</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.8347305774807</v>
+        <v>54.8486281466895</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -26953,7 +26953,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1.05504620735705</v>
+        <v>6.79182842016265</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1360.47991576257</v>
+        <v>1537.66429571217</v>
       </c>
       <c r="F43" t="n">
-        <v>2316.48569727922</v>
+        <v>2147.324238935</v>
       </c>
       <c r="G43" t="s">
         <v>35</v>
@@ -26974,10 +26974,10 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.94495379264295</v>
+        <v>3.79182842016265</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -26985,7 +26985,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>90.2476490828214</v>
+        <v>96.7683810917721</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26994,10 +26994,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1184.80528973202</v>
+        <v>1254.42207557527</v>
       </c>
       <c r="F44" t="n">
-        <v>2011.68402622186</v>
+        <v>2070.28339386479</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -27006,7 +27006,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>57.2476490828214</v>
+        <v>63.7683810917721</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -27017,7 +27017,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>286.771438411819</v>
+        <v>287.078678470938</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>1514.99579073141</v>
       </c>
       <c r="F45" t="n">
-        <v>2099.55985156725</v>
+        <v>2138.99141343504</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -27038,7 +27038,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>206.771438411819</v>
+        <v>207.078678470938</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -27049,7 +27049,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>200.503894375854</v>
+        <v>191.797747780122</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -27058,10 +27058,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1560.04261073404</v>
+        <v>1543.40452749814</v>
       </c>
       <c r="F46" t="n">
-        <v>2191.24604102313</v>
+        <v>2106.99858526887</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -27070,7 +27070,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>138.503894375854</v>
+        <v>129.797747780122</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -27081,7 +27081,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>153.999406877275</v>
+        <v>152.147605622333</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -27090,10 +27090,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1443.50524495038</v>
+        <v>1517.883345582</v>
       </c>
       <c r="F47" t="n">
-        <v>2311.75722156458</v>
+        <v>2113.98042822685</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -27102,7 +27102,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>121.999406877275</v>
+        <v>120.147605622333</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -27113,7 +27113,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>78.0042928001795</v>
+        <v>99.1512050103697</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -27122,10 +27122,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1356.38925532798</v>
+        <v>1419.28694502872</v>
       </c>
       <c r="F48" t="n">
-        <v>2292.55225304514</v>
+        <v>2109.67074145695</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -27134,7 +27134,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>66.0042928001795</v>
+        <v>87.1512050103697</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -27145,7 +27145,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>11.5414797704154</v>
+        <v>31.6150840567536</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1260.28741822718</v>
+        <v>1552.50641726358</v>
       </c>
       <c r="F49" t="n">
-        <v>2071.95209271933</v>
+        <v>2144.29540516459</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -27166,7 +27166,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>7.54147977041536</v>
+        <v>27.6150840567536</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -30245,7 +30245,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2360.39455573452</v>
+        <v>2369.64532915192</v>
       </c>
       <c r="C2" t="n">
         <v>2092.67073250141</v>
@@ -30266,7 +30266,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>734.394555734517</v>
+        <v>743.645329151924</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -30277,7 +30277,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2352.32559555366</v>
+        <v>2356.66380675752</v>
       </c>
       <c r="C3" t="n">
         <v>1972.65524679747</v>
@@ -30298,7 +30298,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1307.32559555366</v>
+        <v>1311.66380675752</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -30309,10 +30309,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3170.93958214168</v>
+        <v>3221.08350526701</v>
       </c>
       <c r="C4" t="n">
-        <v>2821.15113400456</v>
+        <v>2848.12675525047</v>
       </c>
       <c r="D4" t="n">
         <v>2617.69890368062</v>
@@ -30330,7 +30330,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1529.93958214168</v>
+        <v>1580.08350526701</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -30341,7 +30341,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2938.06367494595</v>
+        <v>2938.0506181578</v>
       </c>
       <c r="C5" t="n">
         <v>2480.75761103751</v>
@@ -30362,7 +30362,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1206.06367494595</v>
+        <v>1206.0506181578</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -30373,7 +30373,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2614.75849661334</v>
+        <v>2657.33454706264</v>
       </c>
       <c r="C6" t="n">
         <v>2089.6139643587</v>
@@ -30382,10 +30382,10 @@
         <v>1924.55013593521</v>
       </c>
       <c r="E6" t="n">
-        <v>3002.2587283695</v>
+        <v>3188.39405569294</v>
       </c>
       <c r="F6" t="n">
-        <v>3181.78860470656</v>
+        <v>3220.71265696999</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -30394,7 +30394,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1029.75849661334</v>
+        <v>1072.33454706264</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -30405,7 +30405,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2238.50348973571</v>
+        <v>2272.76574324714</v>
       </c>
       <c r="C7" t="n">
         <v>1761.55378011194</v>
@@ -30426,7 +30426,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>530.503489735707</v>
+        <v>564.765743247138</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -30437,7 +30437,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2250.84188571033</v>
+        <v>2292.41214399495</v>
       </c>
       <c r="C8" t="n">
         <v>1784.29864013751</v>
@@ -30458,7 +30458,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>491.841885710326</v>
+        <v>533.412143994954</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -30469,7 +30469,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2251.51253617101</v>
+        <v>2236.18977217617</v>
       </c>
       <c r="C9" t="n">
         <v>1789.86011713188</v>
@@ -30490,7 +30490,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>492.51253617101</v>
+        <v>477.189772176172</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -30501,7 +30501,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2024.69787883702</v>
+        <v>2043.74917089699</v>
       </c>
       <c r="C10" t="n">
         <v>1531.74947334365</v>
@@ -30522,7 +30522,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>213.69787883702</v>
+        <v>232.749170896995</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -30533,7 +30533,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1853.53740933331</v>
+        <v>1854.56073571044</v>
       </c>
       <c r="C11" t="n">
         <v>1364.39386169921</v>
@@ -30554,7 +30554,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>347.537409333307</v>
+        <v>348.560735710445</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -30565,7 +30565,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2014.47765952703</v>
+        <v>1960.25565583311</v>
       </c>
       <c r="C12" t="n">
         <v>1579.53111299129</v>
@@ -30586,7 +30586,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>375.477659527029</v>
+        <v>321.255655833114</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -30597,7 +30597,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2082.13414466569</v>
+        <v>2043.77802506409</v>
       </c>
       <c r="C13" t="n">
         <v>1596.77428920028</v>
@@ -30618,7 +30618,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>264.134144665692</v>
+        <v>225.778025064094</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -30629,7 +30629,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2379.62098943604</v>
+        <v>2401.82109122706</v>
       </c>
       <c r="C14" t="n">
         <v>1914.43103099402</v>
@@ -30650,7 +30650,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>541.620989436036</v>
+        <v>563.821091227056</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -30661,7 +30661,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2375.27561271413</v>
+        <v>2410.64131128664</v>
       </c>
       <c r="C15" t="n">
         <v>1768.52726544701</v>
@@ -30682,7 +30682,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>526.275612714135</v>
+        <v>561.641311286637</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -30693,10 +30693,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3085.37024305792</v>
+        <v>3211.54939463769</v>
       </c>
       <c r="C16" t="n">
-        <v>2465.74140743452</v>
+        <v>2695.96020812502</v>
       </c>
       <c r="D16" t="n">
         <v>2384.98025229264</v>
@@ -30714,7 +30714,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>94.3702430579224</v>
+        <v>220.549394637694</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -30725,7 +30725,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2922.68121387256</v>
+        <v>2925.60494564699</v>
       </c>
       <c r="C17" t="n">
         <v>2329.24592105384</v>
@@ -30746,7 +30746,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>125.681213872556</v>
+        <v>128.604945646993</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -30757,7 +30757,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2654.48048423851</v>
+        <v>2698.77670815532</v>
       </c>
       <c r="C18" t="n">
         <v>1949.79547507638</v>
@@ -30766,10 +30766,10 @@
         <v>1710.71620936223</v>
       </c>
       <c r="E18" t="n">
-        <v>3196.43259445353</v>
+        <v>3400.4610591474</v>
       </c>
       <c r="F18" t="n">
-        <v>3411.45727795734</v>
+        <v>3453.34328472222</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -30778,7 +30778,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>145.480484238507</v>
+        <v>189.776708155317</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -30789,7 +30789,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2275.20377989122</v>
+        <v>2346.52028976479</v>
       </c>
       <c r="C19" t="n">
         <v>1625.94413108705</v>
@@ -30798,7 +30798,7 @@
         <v>1381.7072973625</v>
       </c>
       <c r="E19" t="n">
-        <v>2780.7649372921</v>
+        <v>2976.22456071007</v>
       </c>
       <c r="F19" t="n">
         <v>3064.64296638977</v>
@@ -30810,7 +30810,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>9.20377989122335</v>
+        <v>80.520289764791</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -30821,7 +30821,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2225.56607818956</v>
+        <v>2266.85616158152</v>
       </c>
       <c r="C20" t="n">
         <v>1652.52589758054</v>
@@ -30842,7 +30842,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>85.5660781895554</v>
+        <v>126.85616158152</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -30853,7 +30853,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2234.12562072625</v>
+        <v>2252.2244347175</v>
       </c>
       <c r="C21" t="n">
         <v>1661.60572536473</v>
@@ -30874,7 +30874,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>125.125620726247</v>
+        <v>143.224434717498</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -30885,7 +30885,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2040.98833102556</v>
+        <v>2072.06088892078</v>
       </c>
       <c r="C22" t="n">
         <v>1386.06673025111</v>
@@ -30894,7 +30894,7 @@
         <v>1103.14820029984</v>
       </c>
       <c r="E22" t="n">
-        <v>2529.32646183503</v>
+        <v>2541.09880293632</v>
       </c>
       <c r="F22" t="n">
         <v>2810.66302521311</v>
@@ -30906,7 +30906,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>7.98833102555818</v>
+        <v>39.0608889207824</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -30917,7 +30917,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1892.94888338909</v>
+        <v>1865.65977621643</v>
       </c>
       <c r="C23" t="n">
         <v>1213.91124407118</v>
@@ -30938,7 +30938,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>46.9488833890862</v>
+        <v>19.6597762164324</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -30949,7 +30949,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2007.09868395807</v>
+        <v>1967.34780222212</v>
       </c>
       <c r="C24" t="n">
         <v>1434.67903069169</v>
@@ -30970,7 +30970,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-47.9013160419336</v>
+        <v>-87.6521977778827</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -30981,7 +30981,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2081.45596042113</v>
+        <v>2067.61984251266</v>
       </c>
       <c r="C25" t="n">
         <v>1456.22526462817</v>
@@ -31002,7 +31002,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-287.544039578875</v>
+        <v>-301.380157487338</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -31013,7 +31013,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2374.73095176211</v>
+        <v>2417.18894520112</v>
       </c>
       <c r="C26" t="n">
         <v>1782.8628673287</v>
@@ -31034,7 +31034,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-155.269048237889</v>
+        <v>-112.811054798879</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -31045,7 +31045,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2325.42763219352</v>
+        <v>2421.21480682265</v>
       </c>
       <c r="C27" t="n">
         <v>1623.85930325603</v>
@@ -31066,7 +31066,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-117.572367806476</v>
+        <v>-21.7851931773457</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -31077,10 +31077,10 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3087.36353973135</v>
+        <v>3140.20070899561</v>
       </c>
       <c r="C28" t="n">
-        <v>2448.47204028956</v>
+        <v>2574.20138899116</v>
       </c>
       <c r="D28" t="n">
         <v>2198.76620775587</v>
@@ -31098,10 +31098,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-43.6364602686485</v>
+        <v>9.20070899560596</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -31109,7 +31109,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2834.58864534412</v>
+        <v>2927.83892243914</v>
       </c>
       <c r="C29" t="n">
         <v>2164.45414392355</v>
@@ -31130,7 +31130,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>309.588645344117</v>
+        <v>402.838922439144</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -31141,7 +31141,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2637.18996904426</v>
+        <v>2710.12886898584</v>
       </c>
       <c r="C30" t="n">
         <v>1843.83249649127</v>
@@ -31150,10 +31150,10 @@
         <v>1499.87471884951</v>
       </c>
       <c r="E30" t="n">
-        <v>3240.08338226704</v>
+        <v>3548.81153324065</v>
       </c>
       <c r="F30" t="n">
-        <v>3593.10969167383</v>
+        <v>3620.12306932956</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -31162,7 +31162,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>134.189969044259</v>
+        <v>207.128868985844</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -31173,7 +31173,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2303.37397941122</v>
+        <v>2378.4943935106</v>
       </c>
       <c r="C31" t="n">
         <v>1521.97792708445</v>
@@ -31182,10 +31182,10 @@
         <v>1183.90265702296</v>
       </c>
       <c r="E31" t="n">
-        <v>2901.81894926931</v>
+        <v>3203.40250485526</v>
       </c>
       <c r="F31" t="n">
-        <v>3249.77910139857</v>
+        <v>3293.94426677737</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -31194,7 +31194,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-107.626020588782</v>
+        <v>-32.505606489397</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -31205,7 +31205,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2243.79823076496</v>
+        <v>2274.36386836738</v>
       </c>
       <c r="C32" t="n">
         <v>1550.28782413263</v>
@@ -31226,7 +31226,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>18.7982307649622</v>
+        <v>49.3638683673812</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -31237,7 +31237,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2237.96058241431</v>
+        <v>2250.32686678829</v>
       </c>
       <c r="C33" t="n">
         <v>1549.03743878369</v>
@@ -31258,7 +31258,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-17.0394175856936</v>
+        <v>-4.67313321170786</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -31269,7 +31269,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2057.2892337754</v>
+        <v>2078.8492756593</v>
       </c>
       <c r="C34" t="n">
         <v>1270.61212162443</v>
@@ -31290,7 +31290,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>111.289233775401</v>
+        <v>132.849275659302</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -31301,7 +31301,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1898.93375166217</v>
+        <v>1874.45506516399</v>
       </c>
       <c r="C35" t="n">
         <v>1095.57269499521</v>
@@ -31322,7 +31322,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>215.933751662174</v>
+        <v>191.455065163986</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -31333,7 +31333,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2016.55427857588</v>
+        <v>1992.74500252106</v>
       </c>
       <c r="C36" t="n">
         <v>1318.81651411255</v>
@@ -31354,7 +31354,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>284.554278575883</v>
+        <v>260.745002521064</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -31365,7 +31365,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2057.19702818581</v>
+        <v>2063.9820277177</v>
       </c>
       <c r="C37" t="n">
         <v>1338.80662894613</v>
@@ -31386,7 +31386,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>870.197028185814</v>
+        <v>876.982027717699</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -31397,7 +31397,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2338.58315343903</v>
+        <v>2347.7745351009</v>
       </c>
       <c r="C38" t="n">
         <v>1645.34393971249</v>
@@ -31418,7 +31418,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1194.58315343903</v>
+        <v>1203.7745351009</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -31429,7 +31429,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2333.21289648938</v>
+        <v>2354.87507389634</v>
       </c>
       <c r="C39" t="n">
         <v>1486.11401111166</v>
@@ -31450,7 +31450,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>126.212896489378</v>
+        <v>147.875073896342</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -31461,7 +31461,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3083.30892494582</v>
+        <v>3138.6090983689</v>
       </c>
       <c r="C40" t="n">
         <v>2405.26410121057</v>
@@ -31482,10 +31482,10 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-33.691075054182</v>
+        <v>21.6090983689037</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -31493,7 +31493,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2720.44158009397</v>
+        <v>2854.38915476181</v>
       </c>
       <c r="C41" t="n">
         <v>1971.63522254429</v>
@@ -31514,7 +31514,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-285.558419906026</v>
+        <v>-151.610845238194</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -31525,7 +31525,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2657.5648211793</v>
+        <v>2734.95412617465</v>
       </c>
       <c r="C42" t="n">
         <v>1649.24414445909</v>
@@ -31534,10 +31534,10 @@
         <v>1212.63032751826</v>
       </c>
       <c r="E42" t="n">
-        <v>3342.17526555114</v>
+        <v>3703.4737000813</v>
       </c>
       <c r="F42" t="n">
-        <v>3749.24575340589</v>
+        <v>3801.35351668372</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
@@ -31546,7 +31546,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-164.435178820697</v>
+        <v>-87.0458738253524</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -31557,7 +31557,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2359.02527019689</v>
+        <v>2427.55252882938</v>
       </c>
       <c r="C43" t="n">
         <v>1337.62907551692</v>
@@ -31566,7 +31566,7 @@
         <v>893.966327251034</v>
       </c>
       <c r="E43" t="n">
-        <v>3013.82683868839</v>
+        <v>3352.68669947086</v>
       </c>
       <c r="F43" t="n">
         <v>3457.48958695427</v>
@@ -31578,7 +31578,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-169.974729803109</v>
+        <v>-101.447471170621</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -31589,7 +31589,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2245.03757081197</v>
+        <v>2329.97234375505</v>
       </c>
       <c r="C44" t="n">
         <v>1368.94888135808</v>
@@ -31610,7 +31610,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-374.962429188034</v>
+        <v>-290.027656244953</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -31621,7 +31621,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2220.69897041823</v>
+        <v>2246.64939597867</v>
       </c>
       <c r="C45" t="n">
         <v>1367.68751238602</v>
@@ -31642,7 +31642,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-397.301029581767</v>
+        <v>-371.350604021331</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -31653,7 +31653,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2061.05175497573</v>
+        <v>2058.36887244485</v>
       </c>
       <c r="C46" t="n">
         <v>1081.92151510189</v>
@@ -31674,7 +31674,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-488.948245024274</v>
+        <v>-491.631127555154</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -31685,7 +31685,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1911.22120405076</v>
+        <v>1877.60568999119</v>
       </c>
       <c r="C47" t="n">
         <v>896.641655395377</v>
@@ -31706,7 +31706,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-631.778795949243</v>
+        <v>-665.394310008814</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -31717,7 +31717,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2059.46726197347</v>
+        <v>2005.78786826061</v>
       </c>
       <c r="C48" t="n">
         <v>1121.84715679139</v>
@@ -31738,7 +31738,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-691.532738026527</v>
+        <v>-745.212131739387</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -31749,7 +31749,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2055.77357235953</v>
+        <v>2019.24015798748</v>
       </c>
       <c r="C49" t="n">
         <v>1132.11414754105</v>
@@ -31770,7 +31770,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-612.226427640468</v>
+        <v>-648.759842012524</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/Figure Data/Fig.4 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.4 data.xlsx
@@ -15039,19 +15039,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2555.86190580276</v>
+        <v>2559.04599375692</v>
       </c>
       <c r="C2" t="n">
-        <v>1746.51680746216</v>
+        <v>1757.90062651626</v>
       </c>
       <c r="D2" t="n">
-        <v>1284.38727592029</v>
+        <v>1294.93376780353</v>
       </c>
       <c r="E2" t="n">
         <v>3271.60836224899</v>
       </c>
       <c r="F2" t="n">
-        <v>3682.89731306533</v>
+        <v>3697.78963763538</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -15060,7 +15060,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>110.861905802765</v>
+        <v>114.045993756924</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -15071,13 +15071,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2597.11601201617</v>
+        <v>2600.20410888476</v>
       </c>
       <c r="C3" t="n">
-        <v>1560.32980619298</v>
+        <v>1569.39222094942</v>
       </c>
       <c r="D3" t="n">
-        <v>1187.16263611357</v>
+        <v>1192.18072803278</v>
       </c>
       <c r="E3" t="n">
         <v>3476.76635922184</v>
@@ -15092,7 +15092,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1664.11601201617</v>
+        <v>1667.20410888476</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -15103,13 +15103,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4414.86392809013</v>
+        <v>4407.26307718647</v>
       </c>
       <c r="C4" t="n">
-        <v>3160.41237418877</v>
+        <v>3136.16806250089</v>
       </c>
       <c r="D4" t="n">
-        <v>2808.48215093145</v>
+        <v>2771.38697757872</v>
       </c>
       <c r="E4" t="n">
         <v>5596.16176007132</v>
@@ -15124,7 +15124,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>906.863928090128</v>
+        <v>899.263077186469</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -15135,7 +15135,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4991.99817214351</v>
+        <v>4992.3184789361</v>
       </c>
       <c r="C5" t="n">
         <v>3698.61255729682</v>
@@ -15156,7 +15156,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-368.001827856493</v>
+        <v>-367.681521063898</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -15167,13 +15167,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>5744.93963881063</v>
+        <v>5748.03384883813</v>
       </c>
       <c r="C6" t="n">
-        <v>4301.71445429965</v>
+        <v>4307.80863907613</v>
       </c>
       <c r="D6" t="n">
-        <v>3858.10812174163</v>
+        <v>3855.74897203746</v>
       </c>
       <c r="E6" t="n">
         <v>7364.26587048967</v>
@@ -15188,7 +15188,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>480.939638810634</v>
+        <v>484.033848838129</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -15199,7 +15199,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5989.59140929632</v>
+        <v>5992.87815186382</v>
       </c>
       <c r="C7" t="n">
         <v>4580.58024703117</v>
@@ -15220,7 +15220,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-203.408590703682</v>
+        <v>-200.121848136179</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -15231,7 +15231,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5917.60059505902</v>
+        <v>5916.99103543521</v>
       </c>
       <c r="C8" t="n">
         <v>4508.01441521917</v>
@@ -15252,7 +15252,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>945.600595059018</v>
+        <v>944.991035435214</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -15263,7 +15263,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5131.85832736541</v>
+        <v>5136.10748064487</v>
       </c>
       <c r="C9" t="n">
         <v>3704.75311686093</v>
@@ -15284,7 +15284,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>159.858327365415</v>
+        <v>164.107480644872</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -15295,7 +15295,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3704.9876910579</v>
+        <v>3709.97783653034</v>
       </c>
       <c r="C10" t="n">
         <v>2280.91237764028</v>
@@ -15304,7 +15304,7 @@
         <v>1563.77012561258</v>
       </c>
       <c r="E10" t="n">
-        <v>5001.21026220688</v>
+        <v>5007.03240538486</v>
       </c>
       <c r="F10" t="n">
         <v>5707.48255306939</v>
@@ -15316,7 +15316,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-787.012308942096</v>
+        <v>-782.02216346966</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -15327,7 +15327,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2748.91385512034</v>
+        <v>2753.27085564588</v>
       </c>
       <c r="C11" t="n">
         <v>1270.95727147084</v>
@@ -15348,7 +15348,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-457.086144879656</v>
+        <v>-452.729144354117</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -15359,7 +15359,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2983.48395961956</v>
+        <v>2985.50682273381</v>
       </c>
       <c r="C12" t="n">
         <v>1485.16038457302</v>
@@ -15380,7 +15380,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-627.516040380441</v>
+        <v>-625.493177266195</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -15391,7 +15391,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3093.78975912348</v>
+        <v>3094.28489011417</v>
       </c>
       <c r="C13" t="n">
         <v>1495.37848461347</v>
@@ -15412,7 +15412,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-600.210240876522</v>
+        <v>-599.715109885831</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -15423,7 +15423,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2626.85181662154</v>
+        <v>2632.78302049675</v>
       </c>
       <c r="C14" t="n">
         <v>914.535566587633</v>
@@ -15444,7 +15444,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-548.148183378459</v>
+        <v>-542.216979503251</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -15455,7 +15455,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2632.94539689055</v>
+        <v>2638.67215888767</v>
       </c>
       <c r="C15" t="n">
         <v>1109.73360437002</v>
@@ -15476,7 +15476,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-792.054603109448</v>
+        <v>-786.327841112335</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -15487,10 +15487,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4433.77725324129</v>
+        <v>4421.06011322809</v>
       </c>
       <c r="C16" t="n">
-        <v>2863.72961491753</v>
+        <v>2795.86082244253</v>
       </c>
       <c r="D16" t="n">
         <v>2104.9209996519</v>
@@ -15508,7 +15508,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2786.22274675871</v>
+        <v>-2798.93988677191</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -15519,7 +15519,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5029.69251033544</v>
+        <v>5028.53253364927</v>
       </c>
       <c r="C17" t="n">
         <v>3212.30103585908</v>
@@ -15540,7 +15540,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2818.30748966456</v>
+        <v>-2819.46746635073</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -15551,7 +15551,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5784.15836433105</v>
+        <v>5789.00908459884</v>
       </c>
       <c r="C18" t="n">
         <v>3974.86523006948</v>
@@ -15572,7 +15572,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2311.84163566895</v>
+        <v>-2306.99091540116</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -15583,7 +15583,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6011.56378789393</v>
+        <v>6017.51229140318</v>
       </c>
       <c r="C19" t="n">
         <v>4058.55539256903</v>
@@ -15604,7 +15604,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3658.43621210607</v>
+        <v>-3652.48770859682</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -15615,7 +15615,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5950.86898850239</v>
+        <v>5952.83372649293</v>
       </c>
       <c r="C20" t="n">
         <v>4015.74336863362</v>
@@ -15636,7 +15636,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3271.13101149761</v>
+        <v>-3269.16627350707</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -15647,7 +15647,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5253.61628283523</v>
+        <v>5259.14856388993</v>
       </c>
       <c r="C21" t="n">
         <v>3168.01097141081</v>
@@ -15668,7 +15668,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1613.38371716477</v>
+        <v>-1607.85143611007</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -15679,7 +15679,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3915.35760408579</v>
+        <v>3926.60802602105</v>
       </c>
       <c r="C22" t="n">
         <v>1596.28075551273</v>
@@ -15688,7 +15688,7 @@
         <v>516.716414998119</v>
       </c>
       <c r="E22" t="n">
-        <v>6016.49996569341</v>
+        <v>6023.95848653366</v>
       </c>
       <c r="F22" t="n">
         <v>6754.53626368385</v>
@@ -15700,7 +15700,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2016.64239591421</v>
+        <v>-2005.39197397895</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -15711,7 +15711,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2907.80603321621</v>
+        <v>2917.95099655601</v>
       </c>
       <c r="C23" t="n">
         <v>609.066428788389</v>
@@ -15732,7 +15732,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-714.193966783787</v>
+        <v>-704.049003443993</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -15743,7 +15743,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3056.27125451792</v>
+        <v>3062.64687077912</v>
       </c>
       <c r="C24" t="n">
         <v>843.790364101251</v>
@@ -15764,7 +15764,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-592.728745482083</v>
+        <v>-586.353129220883</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -15775,7 +15775,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3150.22916985425</v>
+        <v>3151.80543593795</v>
       </c>
       <c r="C25" t="n">
         <v>872.665392514946</v>
@@ -15796,7 +15796,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1768.77083014575</v>
+        <v>-1767.19456406205</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -15807,7 +15807,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2698.27895619529</v>
+        <v>2706.7385067417</v>
       </c>
       <c r="C26" t="n">
         <v>308.882650776172</v>
@@ -15828,7 +15828,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1697.72104380471</v>
+        <v>-1689.2614932583</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -15839,7 +15839,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2708.80058698205</v>
+        <v>2716.9259676134</v>
       </c>
       <c r="C27" t="n">
         <v>519.769590278987</v>
@@ -15860,7 +15860,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1980.19941301795</v>
+        <v>-1972.0740323866</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -15871,7 +15871,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4476.92445564253</v>
+        <v>4460.50586582913</v>
       </c>
       <c r="C28" t="n">
         <v>2379.12502099825</v>
@@ -15892,7 +15892,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2179.07554435747</v>
+        <v>-2195.49413417087</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -15903,7 +15903,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5085.88282413028</v>
+        <v>5082.58658402129</v>
       </c>
       <c r="C29" t="n">
         <v>2684.47444578355</v>
@@ -15924,7 +15924,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-2038.11717586972</v>
+        <v>-2041.41341597871</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -15935,7 +15935,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5821.06362398258</v>
+        <v>5826.32211268383</v>
       </c>
       <c r="C30" t="n">
         <v>3384.15643212497</v>
@@ -15956,7 +15956,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-3002.93637601742</v>
+        <v>-2997.67788731617</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -15967,7 +15967,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6060.90849302624</v>
+        <v>6068.7094963038</v>
       </c>
       <c r="C31" t="n">
         <v>3505.68264104479</v>
@@ -15988,7 +15988,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3882.09150697376</v>
+        <v>-3874.2905036962</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -15999,7 +15999,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6015.63213658517</v>
+        <v>6020.26793722534</v>
       </c>
       <c r="C32" t="n">
         <v>3509.73564091691</v>
@@ -16020,7 +16020,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3667.36786341483</v>
+        <v>-3662.73206277466</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -16031,7 +16031,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5346.01778107532</v>
+        <v>5349.53681677298</v>
       </c>
       <c r="C33" t="n">
         <v>2604.02843513953</v>
@@ -16052,7 +16052,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2540.98221892468</v>
+        <v>-2537.46318322702</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -16063,7 +16063,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4140.06256118964</v>
+        <v>4154.3057089762</v>
       </c>
       <c r="C34" t="n">
         <v>1089.52914902542</v>
@@ -16084,7 +16084,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1170.93743881036</v>
+        <v>-1156.6942910238</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -16095,7 +16095,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3127.78491675039</v>
+        <v>3144.88223567034</v>
       </c>
       <c r="C35" t="n">
         <v>111.503518432598</v>
@@ -16116,7 +16116,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>592.784916750388</v>
+        <v>609.882235670339</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -16127,7 +16127,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3153.80679965282</v>
+        <v>3167.76421784172</v>
       </c>
       <c r="C36" t="n">
         <v>354.926773711633</v>
@@ -16148,7 +16148,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>584.806799652824</v>
+        <v>598.764217841721</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -16159,7 +16159,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3222.04124961728</v>
+        <v>3226.38088384895</v>
       </c>
       <c r="C37" t="n">
         <v>392.056211914838</v>
@@ -16180,7 +16180,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1402.04124961728</v>
+        <v>1406.38088384895</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -16191,7 +16191,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2769.88688531224</v>
+        <v>2780.9703501829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -16212,7 +16212,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>451.886885312244</v>
+        <v>462.970350182902</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -16223,7 +16223,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2781.70227141035</v>
+        <v>2792.14248658469</v>
       </c>
       <c r="C39" t="n">
         <v>21.1720384087052</v>
@@ -16244,7 +16244,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2880.29772858965</v>
+        <v>-2869.85751341531</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -16255,7 +16255,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4523.61341418967</v>
+        <v>4504.44877751055</v>
       </c>
       <c r="C40" t="n">
         <v>1669.54752072239</v>
@@ -16276,7 +16276,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2019.38658581033</v>
+        <v>-2038.55122248945</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -16287,7 +16287,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5127.84591068258</v>
+        <v>5122.28034452969</v>
       </c>
       <c r="C41" t="n">
         <v>1932.26686118833</v>
@@ -16308,7 +16308,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2549.15408931742</v>
+        <v>-2554.71965547031</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -16319,7 +16319,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5862.82875837794</v>
+        <v>5867.63673621752</v>
       </c>
       <c r="C42" t="n">
         <v>2627.20828193442</v>
@@ -16340,7 +16340,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-3204.17124162206</v>
+        <v>-3199.36326378248</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -16351,7 +16351,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6100.68300305939</v>
+        <v>6109.51069403987</v>
       </c>
       <c r="C43" t="n">
         <v>2728.52603772469</v>
@@ -16372,7 +16372,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-2225.31699694061</v>
+        <v>-2216.48930596013</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -16383,7 +16383,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6045.80100877859</v>
+        <v>6052.51674184993</v>
       </c>
       <c r="C44" t="n">
         <v>2678.26442334632</v>
@@ -16404,7 +16404,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-3118.19899122141</v>
+        <v>-3111.48325815007</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -16415,7 +16415,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5397.30604090716</v>
+        <v>5399.91122667383</v>
       </c>
       <c r="C45" t="n">
         <v>1789.30200171136</v>
@@ -16436,7 +16436,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2956.69395909284</v>
+        <v>-2954.08877332617</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -16447,7 +16447,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4276.06346763232</v>
+        <v>4285.23073242999</v>
       </c>
       <c r="C46" t="n">
         <v>395.375252653696</v>
@@ -16468,7 +16468,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1710.93653236768</v>
+        <v>-1701.76926757001</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -16479,7 +16479,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3352.29719210043</v>
+        <v>3376.2960643595</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -16500,7 +16500,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1124.70280789957</v>
+        <v>-1100.7039356405</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -16511,7 +16511,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3299.49927810549</v>
+        <v>3324.48135460924</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -16532,7 +16532,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1240.50072189451</v>
+        <v>-1215.51864539076</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -16543,7 +16543,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3292.90254007217</v>
+        <v>3303.88545401128</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -16564,7 +16564,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-450.097459927832</v>
+        <v>-439.114545988722</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -19401,7 +19401,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1348.43676383954</v>
+        <v>1191.38504439461</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -19422,7 +19422,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>1277.43676383954</v>
+        <v>1120.38504439461</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -19433,7 +19433,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3263.45027847868</v>
+        <v>3358.8611058431</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -19442,10 +19442,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12703.0057313591</v>
+        <v>13467.4398630015</v>
       </c>
       <c r="F3" t="n">
-        <v>15122.9210831771</v>
+        <v>14801.3817790976</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -19454,7 +19454,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>3246.45027847868</v>
+        <v>3341.8611058431</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -19465,7 +19465,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6727.77931821473</v>
+        <v>6056.3807541683</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -19474,10 +19474,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25091.512825572</v>
+        <v>21828.054427741</v>
       </c>
       <c r="F4" t="n">
-        <v>25876.1368353081</v>
+        <v>22463.0335359608</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -19486,7 +19486,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>6711.77931821473</v>
+        <v>6040.3807541683</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -19497,7 +19497,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>7864.09962171712</v>
+        <v>2599.94699580068</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -19506,10 +19506,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>32650.297038679</v>
+        <v>22375.2671745857</v>
       </c>
       <c r="F5" t="n">
-        <v>33938.7080440603</v>
+        <v>24431.4382167319</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -19518,7 +19518,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7858.09962171712</v>
+        <v>2593.94699580068</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -19529,7 +19529,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1155.11838242148</v>
+        <v>1043.56264054131</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -19541,7 +19541,7 @@
         <v>7195.73049020123</v>
       </c>
       <c r="F6" t="n">
-        <v>10232.2916464397</v>
+        <v>19073.2397694448</v>
       </c>
       <c r="G6" t="s">
         <v>31</v>
@@ -19550,7 +19550,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1151.11838242148</v>
+        <v>1039.56264054131</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -19561,7 +19561,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>932.751883233866</v>
+        <v>316.660633923603</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -19573,7 +19573,7 @@
         <v>7614.28813961975</v>
       </c>
       <c r="F7" t="n">
-        <v>10872.4203313635</v>
+        <v>16116.1767374236</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -19582,7 +19582,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>928.751883233866</v>
+        <v>312.660633923603</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -19593,7 +19593,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>3209.13514881461</v>
+        <v>71.7065288930303</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -19602,10 +19602,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>13869.5853284291</v>
+        <v>12466.0734855993</v>
       </c>
       <c r="F8" t="n">
-        <v>20591.0321142797</v>
+        <v>26497.0195308196</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -19614,7 +19614,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>3154.13514881461</v>
+        <v>16.7065288930303</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -19625,7 +19625,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>8209.37128249705</v>
+        <v>2414.5924929122</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -19634,10 +19634,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>31230.0299009597</v>
+        <v>25569.0649193261</v>
       </c>
       <c r="F9" t="n">
-        <v>33749.3880488204</v>
+        <v>29999.6239315318</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -19646,7 +19646,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>8154.37128249705</v>
+        <v>2359.5924929122</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -19657,7 +19657,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>7516.76619380271</v>
+        <v>6142.75450592697</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -19666,10 +19666,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>23687.6268511795</v>
+        <v>20827.9099980546</v>
       </c>
       <c r="F10" t="n">
-        <v>24345.7929650413</v>
+        <v>21931.6385339651</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -19678,7 +19678,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>7269.76619380271</v>
+        <v>5895.75450592697</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -19689,7 +19689,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1995.04607104675</v>
+        <v>7141.19007304129</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -19698,10 +19698,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>10638.2065480806</v>
+        <v>19829.4510177317</v>
       </c>
       <c r="F11" t="n">
-        <v>20246.4277758568</v>
+        <v>21566.0167449097</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -19710,7 +19710,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>1708.04607104675</v>
+        <v>6854.19007304129</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -19721,7 +19721,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>852.2170110228</v>
+        <v>1315.53101214016</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -19730,10 +19730,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>9382.04893499745</v>
+        <v>11281.3998187525</v>
       </c>
       <c r="F12" t="n">
-        <v>13575.9771646383</v>
+        <v>23205.6035641132</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -19742,7 +19742,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>789.2170110228</v>
+        <v>1252.53101214016</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -19753,7 +19753,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3320.8433348155</v>
+        <v>236.60539836619</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -19762,10 +19762,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13326.3538200268</v>
+        <v>15437.4435432971</v>
       </c>
       <c r="F13" t="n">
-        <v>19879.5952995047</v>
+        <v>21549.128096812</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -19774,7 +19774,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>3311.8433348155</v>
+        <v>227.60539836619</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -19785,7 +19785,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9007.1654216666</v>
+        <v>939.77868500298</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -19794,10 +19794,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>33746.0184968992</v>
+        <v>28429.3723497332</v>
       </c>
       <c r="F14" t="n">
-        <v>35759.8940437384</v>
+        <v>31428.978574503</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -19806,7 +19806,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>9002.1654216666</v>
+        <v>934.77868500298</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -19817,7 +19817,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>6625.17762202127</v>
+        <v>4568.33303113226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -19826,10 +19826,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>23896.7484168105</v>
+        <v>20726.1017204175</v>
       </c>
       <c r="F15" t="n">
-        <v>25065.2225719392</v>
+        <v>22121.2776138844</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -19838,7 +19838,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>6623.17762202127</v>
+        <v>4566.33303113226</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -19849,7 +19849,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1158.71501000854</v>
+        <v>5977.32640290799</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -19858,10 +19858,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17023.7858874541</v>
+        <v>20541.8615653253</v>
       </c>
       <c r="F16" t="n">
-        <v>23284.9461645488</v>
+        <v>22191.8311042292</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -19870,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1158.71501000854</v>
+        <v>5977.32640290799</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -19881,7 +19881,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>754.237708288305</v>
+        <v>1144.01269844316</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -19890,10 +19890,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10821.7714434294</v>
+        <v>17388.8135786825</v>
       </c>
       <c r="F17" t="n">
-        <v>21875.2250199708</v>
+        <v>23654.634904626</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -19902,7 +19902,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>750.237708288305</v>
+        <v>1140.01269844316</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -19913,7 +19913,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2698.36685005788</v>
+        <v>210.625959618647</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -19922,10 +19922,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>13147.4890212582</v>
+        <v>18341.9754273268</v>
       </c>
       <c r="F18" t="n">
-        <v>23875.1332647571</v>
+        <v>22722.2251596791</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -19934,7 +19934,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>2693.36685005788</v>
+        <v>205.625959618647</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -19945,7 +19945,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6189.33404293409</v>
+        <v>283.715929128045</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -19954,10 +19954,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27924.5142652093</v>
+        <v>19132.632628643</v>
       </c>
       <c r="F19" t="n">
-        <v>34596.8752096084</v>
+        <v>24666.9741024085</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -19966,7 +19966,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>6181.33404293409</v>
+        <v>275.715929128045</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -19977,7 +19977,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6620.15336250975</v>
+        <v>2918.42761688871</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -19986,10 +19986,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>24998.7234951586</v>
+        <v>20804.5415133189</v>
       </c>
       <c r="F20" t="n">
-        <v>32742.0086077017</v>
+        <v>24631.9293203727</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -19998,7 +19998,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>6617.15336250975</v>
+        <v>2915.42761688871</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -20009,7 +20009,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1386.19983333856</v>
+        <v>5618.59262057752</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -20018,10 +20018,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>22071.3299115735</v>
+        <v>20557.5103500969</v>
       </c>
       <c r="F21" t="n">
-        <v>24031.6129942365</v>
+        <v>22284.9183213146</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -20030,7 +20030,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1383.19983333856</v>
+        <v>5615.59262057752</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -20041,7 +20041,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1656.51316448345</v>
+        <v>3690.41876990376</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -20050,10 +20050,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>12067.8674496259</v>
+        <v>19223.6434301487</v>
       </c>
       <c r="F22" t="n">
-        <v>22974.9617428151</v>
+        <v>21529.5327571722</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -20062,7 +20062,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1652.51316448345</v>
+        <v>3686.41876990376</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -20073,7 +20073,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3810.27670134389</v>
+        <v>2273.51277382501</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -20082,10 +20082,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>15641.0545844013</v>
+        <v>18092.1362681969</v>
       </c>
       <c r="F23" t="n">
-        <v>21376.6663461314</v>
+        <v>22185.8214354945</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -20094,7 +20094,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>3804.27670134389</v>
+        <v>2267.51277382501</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -20105,7 +20105,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>5860.31508522644</v>
+        <v>912.614298532019</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -20114,10 +20114,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22808.7427758654</v>
+        <v>19776.3023839241</v>
       </c>
       <c r="F24" t="n">
-        <v>30636.5872533553</v>
+        <v>23133.1078859582</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -20126,7 +20126,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>5855.31508522644</v>
+        <v>907.614298532019</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -20137,7 +20137,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>6231.53766153042</v>
+        <v>603.808620733983</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -20146,10 +20146,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>23397.8199591553</v>
+        <v>20233.6966262218</v>
       </c>
       <c r="F25" t="n">
-        <v>26707.6964385398</v>
+        <v>22234.9112370522</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -20158,7 +20158,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>6228.53766153042</v>
+        <v>600.808620733983</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -20169,7 +20169,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1497.50785326657</v>
+        <v>783.30272784794</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -20178,10 +20178,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>22247.561295162</v>
+        <v>21812.2720948004</v>
       </c>
       <c r="F26" t="n">
-        <v>23903.533552121</v>
+        <v>25175.4268025922</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -20190,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1497.50785326657</v>
+        <v>783.30272784794</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -20201,7 +20201,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>763.285774170593</v>
+        <v>2640.3839638883</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -20210,10 +20210,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>17093.2059702413</v>
+        <v>19591.8718062622</v>
       </c>
       <c r="F27" t="n">
-        <v>23818.4952487449</v>
+        <v>22143.7983562157</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -20222,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>763.285774170593</v>
+        <v>2640.3839638883</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -20233,7 +20233,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1304.54417791047</v>
+        <v>6351.95351353273</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -20242,10 +20242,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>18375.8087589859</v>
+        <v>19423.7854649378</v>
       </c>
       <c r="F28" t="n">
-        <v>24800.6010308366</v>
+        <v>22936.6743322763</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -20254,7 +20254,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>1302.54417791047</v>
+        <v>6349.95351353273</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -20265,7 +20265,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3319.87715134709</v>
+        <v>8468.78976193943</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -20274,10 +20274,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>22273.2351246384</v>
+        <v>19722.5030903156</v>
       </c>
       <c r="F29" t="n">
-        <v>29651.6612216029</v>
+        <v>24701.2203405497</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -20286,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3319.87715134709</v>
+        <v>8468.78976193943</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -20297,7 +20297,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6542.43208418454</v>
+        <v>1837.92369231742</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -20306,10 +20306,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>24479.8715226128</v>
+        <v>20638.4468676229</v>
       </c>
       <c r="F30" t="n">
-        <v>33992.7246406058</v>
+        <v>25239.8265707765</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -20318,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>6540.43208418454</v>
+        <v>1835.92369231742</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -20329,7 +20329,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2342.53596650542</v>
+        <v>949.302270295295</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -20338,10 +20338,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22813.8023951594</v>
+        <v>20582.4002978606</v>
       </c>
       <c r="F31" t="n">
-        <v>24686.5743360259</v>
+        <v>24396.2321858933</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
@@ -20350,7 +20350,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>2341.53596650542</v>
+        <v>948.302270295295</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -20361,7 +20361,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>810.823872653607</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -20370,10 +20370,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20790.4845644776</v>
+        <v>20218.2952239959</v>
       </c>
       <c r="F32" t="n">
-        <v>23963.8332806051</v>
+        <v>22595.7530937135</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -20382,10 +20382,10 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>807.823872653607</v>
+        <v>-3</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -20393,7 +20393,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1748.75866326943</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -20402,10 +20402,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19650.5155603907</v>
+        <v>20088.0712133623</v>
       </c>
       <c r="F33" t="n">
-        <v>25959.4475849441</v>
+        <v>23876.6041293377</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -20414,10 +20414,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1747.75866326943</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -20425,7 +20425,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>3931.17656408343</v>
+        <v>4350.16702222249</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -20434,10 +20434,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>23524.5785714403</v>
+        <v>20526.4728658412</v>
       </c>
       <c r="F34" t="n">
-        <v>32762.9040551245</v>
+        <v>24644.3886827271</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
@@ -20446,7 +20446,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>3903.17656408343</v>
+        <v>4322.16702222249</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -20457,7 +20457,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6880.54559723956</v>
+        <v>7586.30929077945</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -20466,10 +20466,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>23592.0062718561</v>
+        <v>20322.2795027108</v>
       </c>
       <c r="F35" t="n">
-        <v>33102.419074126</v>
+        <v>24660.0575186322</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -20478,7 +20478,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>6554.54559723956</v>
+        <v>7260.30929077945</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -20489,7 +20489,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1929.37857598937</v>
+        <v>4920.46337121135</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -20498,10 +20498,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>22922.0033863214</v>
+        <v>20615.0821501577</v>
       </c>
       <c r="F36" t="n">
-        <v>27547.3760309504</v>
+        <v>23789.383790068</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -20510,7 +20510,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>1755.37857598937</v>
+        <v>4746.46337121135</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -20521,7 +20521,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>717.604936276686</v>
+        <v>1003.59274785338</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -20530,10 +20530,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>21826.6860014059</v>
+        <v>19726.707902785</v>
       </c>
       <c r="F37" t="n">
-        <v>24707.6674058901</v>
+        <v>22762.4587391996</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -20542,7 +20542,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>706.604936276686</v>
+        <v>992.592747853376</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -20553,7 +20553,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1464.27380013047</v>
+        <v>866.081215502176</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -20562,10 +20562,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>21619.1661017089</v>
+        <v>20423.9252073437</v>
       </c>
       <c r="F38" t="n">
-        <v>26144.3404225845</v>
+        <v>24013.6622351163</v>
       </c>
       <c r="G38" t="s">
         <v>31</v>
@@ -20574,7 +20574,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1463.27380013047</v>
+        <v>865.081215502176</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -20585,7 +20585,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3295.63742659734</v>
+        <v>1551.5536415866</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -20594,10 +20594,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>23359.5951477188</v>
+        <v>20259.0092371542</v>
       </c>
       <c r="F39" t="n">
-        <v>34064.5343859721</v>
+        <v>24164.4880503427</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
@@ -20606,7 +20606,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>3284.63742659734</v>
+        <v>1540.5536415866</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -20617,7 +20617,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>9543.40976542928</v>
+        <v>3780.03445696508</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -20626,10 +20626,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24111.0611936159</v>
+        <v>20649.4130117327</v>
       </c>
       <c r="F40" t="n">
-        <v>34504.5110774357</v>
+        <v>25323.5544298541</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -20638,7 +20638,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>9536.40976542928</v>
+        <v>3773.03445696508</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -20649,7 +20649,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>6616.18791307788</v>
+        <v>6138.04030827555</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -20658,10 +20658,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>23312.7423631619</v>
+        <v>19898.6097169904</v>
       </c>
       <c r="F41" t="n">
-        <v>30311.0985980416</v>
+        <v>24062.7720078932</v>
       </c>
       <c r="G41" t="s">
         <v>31</v>
@@ -20670,7 +20670,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>6607.18791307788</v>
+        <v>6129.04030827555</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -20681,7 +20681,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1100.74878874321</v>
+        <v>1742.48126081694</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -20690,10 +20690,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>22182.4788732081</v>
+        <v>20527.045795781</v>
       </c>
       <c r="F42" t="n">
-        <v>25423.3522880118</v>
+        <v>24246.9898388947</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -20702,7 +20702,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>1079.74878874321</v>
+        <v>1721.48126081694</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -20713,7 +20713,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>436.633414606704</v>
+        <v>573.16653496096</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -20722,10 +20722,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>22272.2817465622</v>
+        <v>20651.5724305013</v>
       </c>
       <c r="F43" t="n">
-        <v>29420.2631275885</v>
+        <v>24746.6904707391</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -20734,7 +20734,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>381.633414606704</v>
+        <v>518.16653496096</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -20745,7 +20745,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>1752.69017110152</v>
+        <v>523.827021305418</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -20754,10 +20754,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>24121.7415344825</v>
+        <v>20535.9570384218</v>
       </c>
       <c r="F44" t="n">
-        <v>34703.2309664211</v>
+        <v>24248.240647046</v>
       </c>
       <c r="G44" t="s">
         <v>31</v>
@@ -20766,10 +20766,10 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>148.690171101522</v>
+        <v>-1080.17297869458</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -20777,7 +20777,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>7951.55773844845</v>
+        <v>2552.25979981614</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -20786,10 +20786,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>24066.5616955182</v>
+        <v>19986.6996924927</v>
       </c>
       <c r="F45" t="n">
-        <v>32514.3661272737</v>
+        <v>24502.240137925</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -20798,10 +20798,10 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>3753.55773844845</v>
+        <v>-1645.74020018386</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -20809,7 +20809,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>7099.01892352359</v>
+        <v>6795.05099045559</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -20818,10 +20818,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>23213.9053794913</v>
+        <v>20274.7156531118</v>
       </c>
       <c r="F46" t="n">
-        <v>31063.9819013666</v>
+        <v>25422.2260549125</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -20830,7 +20830,7 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>605.018923523586</v>
+        <v>301.050990455587</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -20841,7 +20841,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>2349.55455588255</v>
+        <v>7211.38755737181</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -20850,7 +20850,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>22251.581699133</v>
+        <v>20136.314392578</v>
       </c>
       <c r="F47" t="n">
         <v>25002.0193669514</v>
@@ -20862,10 +20862,10 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>-3038.44544411745</v>
+        <v>1823.38755737181</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -20873,7 +20873,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>727.914449456575</v>
+        <v>1323.35124765621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -20882,10 +20882,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>21961.4131075759</v>
+        <v>20121.4154831465</v>
       </c>
       <c r="F48" t="n">
-        <v>26478.5338429366</v>
+        <v>25247.9717972243</v>
       </c>
       <c r="G48" t="s">
         <v>31</v>
@@ -20894,7 +20894,7 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>-957.085550543425</v>
+        <v>-361.648752343786</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -20905,7 +20905,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1407.25413300554</v>
+        <v>348.86641114095</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -20914,10 +20914,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>22881.6280922816</v>
+        <v>20790.002707571</v>
       </c>
       <c r="F49" t="n">
-        <v>31609.7497138015</v>
+        <v>25491.4071777661</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -20926,7 +20926,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>1253.25413300554</v>
+        <v>194.86641114095</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -25682,10 +25682,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>249.218973172329</v>
+        <v>301.144468124529</v>
       </c>
       <c r="F3" t="n">
-        <v>364.231772668687</v>
+        <v>413.848938656735</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -25714,10 +25714,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>307.962574762421</v>
+        <v>359.656180225247</v>
       </c>
       <c r="F4" t="n">
-        <v>521.517222116825</v>
+        <v>559.621920097467</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -25746,10 +25746,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>852.211829142959</v>
+        <v>860.441796170557</v>
       </c>
       <c r="F5" t="n">
-        <v>1661.51002525855</v>
+        <v>1911.57681282388</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -25778,10 +25778,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1301.79853370655</v>
+        <v>1190.64932084838</v>
       </c>
       <c r="F6" t="n">
-        <v>1882.81771133808</v>
+        <v>2114.06509836001</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -25801,7 +25801,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>3.08564923943004</v>
+        <v>1.43302597995166</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -25810,10 +25810,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>955.592599772396</v>
+        <v>759.498351662774</v>
       </c>
       <c r="F7" t="n">
-        <v>1802.09251785053</v>
+        <v>1810.50655614458</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -25822,7 +25822,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.91435076056996</v>
+        <v>-4.56697402004834</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -25833,7 +25833,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>135.330505693834</v>
+        <v>135.419541036474</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.63772878107</v>
+        <v>858.67076278754</v>
       </c>
       <c r="F8" t="n">
-        <v>1916.00594383939</v>
+        <v>2114.00337240013</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -25854,7 +25854,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>66.3305056938337</v>
+        <v>66.4195410364739</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -25865,7 +25865,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>352.238356627724</v>
+        <v>355.755299035654</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1377.5834930611</v>
+        <v>1296.76481865423</v>
       </c>
       <c r="F9" t="n">
-        <v>1965.31542296483</v>
+        <v>2194.58139319124</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -25886,7 +25886,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>283.238356627724</v>
+        <v>286.755299035654</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -25897,7 +25897,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>209.114679483633</v>
+        <v>225.274714039678</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -25906,10 +25906,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1134.46786939636</v>
+        <v>1197.09041745347</v>
       </c>
       <c r="F10" t="n">
-        <v>1858.32345056873</v>
+        <v>2056.10040259921</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
@@ -25918,7 +25918,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>72.1146794836333</v>
+        <v>88.274714039678</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -25929,7 +25929,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>49.9780921829866</v>
+        <v>66.3057411725839</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -25938,10 +25938,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>844.831981995366</v>
+        <v>936.212640715907</v>
       </c>
       <c r="F11" t="n">
-        <v>1802.28997300894</v>
+        <v>1876.38981127636</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -25950,7 +25950,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>7.97809218298661</v>
+        <v>24.3057411725839</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -25961,7 +25961,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1.40158941311842</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -25970,10 +25970,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>542.541643958456</v>
+        <v>555.536302551641</v>
       </c>
       <c r="F12" t="n">
-        <v>1516.57788543539</v>
+        <v>1685.78198520459</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -25982,7 +25982,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>-10</v>
+        <v>-8.59841058688158</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -26005,7 +26005,7 @@
         <v>540.275085515153</v>
       </c>
       <c r="F13" t="n">
-        <v>1482.47087930039</v>
+        <v>1606.33047128883</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>834.900602522812</v>
+        <v>847.472666715756</v>
       </c>
       <c r="F14" t="n">
-        <v>1749.06644209252</v>
+        <v>1852.53531715251</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -26057,7 +26057,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4287032358412</v>
+        <v>2.30190280221918</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -26066,10 +26066,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1228.32474592382</v>
+        <v>1263.76180115671</v>
       </c>
       <c r="F15" t="n">
-        <v>1864.00248965034</v>
+        <v>2092.2600549983</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -26078,7 +26078,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.4287032358412</v>
+        <v>2.30190280221918</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -26089,7 +26089,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>31.7248780326545</v>
+        <v>38.538939832172</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -26098,10 +26098,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1274.94117920648</v>
+        <v>1204.05176132824</v>
       </c>
       <c r="F16" t="n">
-        <v>1899.42858784954</v>
+        <v>2106.89521605976</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>31.7248780326545</v>
+        <v>38.538939832172</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -26121,7 +26121,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>28.4810192782937</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -26130,10 +26130,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1333.87700550624</v>
+        <v>1369.4256101838</v>
       </c>
       <c r="F17" t="n">
-        <v>1969.69246208934</v>
+        <v>2253.42959431311</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -26142,10 +26142,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>28.4810192782937</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -26162,10 +26162,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1508.82995809599</v>
+        <v>1445.54260691848</v>
       </c>
       <c r="F18" t="n">
-        <v>2158.84674002242</v>
+        <v>2521.31623799417</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -26194,10 +26194,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1323.73528254973</v>
+        <v>1282.92248377651</v>
       </c>
       <c r="F19" t="n">
-        <v>2005.24320085423</v>
+        <v>2292.05842502347</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -26217,7 +26217,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>112.250954801657</v>
+        <v>102.496067088048</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26226,10 +26226,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1510.95330922636</v>
+        <v>1161.9623597672</v>
       </c>
       <c r="F20" t="n">
-        <v>2067.43590544609</v>
+        <v>2260.55856419257</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -26238,7 +26238,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>95.2509548016572</v>
+        <v>85.4960670880476</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -26249,7 +26249,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>362.588932705843</v>
+        <v>324.723911604514</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -26258,10 +26258,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1650.53778275858</v>
+        <v>1625.57659402595</v>
       </c>
       <c r="F21" t="n">
-        <v>2126.47053999975</v>
+        <v>2424.39337655214</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -26270,7 +26270,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>290.588932705843</v>
+        <v>252.723911604514</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -26281,7 +26281,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>279.729903319266</v>
+        <v>254.936093758344</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -26290,10 +26290,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1421.92789910336</v>
+        <v>1652.72103301354</v>
       </c>
       <c r="F22" t="n">
-        <v>2093.15238449137</v>
+        <v>2505.30067402565</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
@@ -26302,7 +26302,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>216.729903319266</v>
+        <v>191.936093758344</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -26313,7 +26313,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>94.1339884766539</v>
+        <v>115.7493710954</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -26322,10 +26322,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1376.62634503702</v>
+        <v>1742.29050016481</v>
       </c>
       <c r="F23" t="n">
-        <v>2063.604373892</v>
+        <v>2405.31312542141</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -26334,7 +26334,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>55.1339884766539</v>
+        <v>76.7493710953999</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -26345,7 +26345,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>6.37422193631244</v>
+        <v>34.435366332684</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -26354,10 +26354,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1171.79046243504</v>
+        <v>1240.32753564555</v>
       </c>
       <c r="F24" t="n">
-        <v>1914.13609076562</v>
+        <v>2196.46277926083</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -26366,10 +26366,10 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>-7.62577806368756</v>
+        <v>20.435366332684</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>973.171290481425</v>
+        <v>1109.59313274133</v>
       </c>
       <c r="F25" t="n">
-        <v>1942.63001149017</v>
+        <v>2238.54414284657</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -26418,10 +26418,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1006.92412478685</v>
+        <v>1007.27503316511</v>
       </c>
       <c r="F26" t="n">
-        <v>1943.97422535688</v>
+        <v>2274.77401243713</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -26450,10 +26450,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1593.86236166593</v>
+        <v>1665.51004500722</v>
       </c>
       <c r="F27" t="n">
-        <v>2040.69172288124</v>
+        <v>2416.02226317989</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
@@ -26473,7 +26473,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>69.3343864368621</v>
+        <v>18.9577942134678</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -26482,10 +26482,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1757.25939233588</v>
+        <v>1713.38793091809</v>
       </c>
       <c r="F28" t="n">
-        <v>2084.82180036323</v>
+        <v>2456.49341478737</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -26494,7 +26494,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>67.3343864368621</v>
+        <v>16.9577942134678</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -26505,7 +26505,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>61.2601684006923</v>
+        <v>81.0941580963228</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -26514,10 +26514,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1415.33123332668</v>
+        <v>1421.61832060035</v>
       </c>
       <c r="F29" t="n">
-        <v>2028.72162859111</v>
+        <v>2447.48219734054</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
@@ -26526,7 +26526,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>61.2601684006923</v>
+        <v>81.0941580963228</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -26537,7 +26537,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5.69425050107305</v>
+        <v>39.8930227506553</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -26546,10 +26546,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1606.22721774903</v>
+        <v>1562.32658338702</v>
       </c>
       <c r="F30" t="n">
-        <v>2159.90409982184</v>
+        <v>2505.64373348187</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -26558,7 +26558,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.69425050107305</v>
+        <v>39.8930227506553</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -26569,7 +26569,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.74870059164563</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -26578,10 +26578,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1373.08673165879</v>
+        <v>1242.63657763461</v>
       </c>
       <c r="F31" t="n">
-        <v>2134.998174266</v>
+        <v>2509.41939811361</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -26590,7 +26590,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>-7</v>
+        <v>-3.25129940835437</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -26601,7 +26601,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>94.8796689807719</v>
+        <v>96.0680571454398</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -26610,10 +26610,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1522.11935350662</v>
+        <v>1584.37688697175</v>
       </c>
       <c r="F32" t="n">
-        <v>2075.39403438098</v>
+        <v>2436.18226832564</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -26622,7 +26622,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>81.8796689807719</v>
+        <v>83.0680571454398</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -26633,7 +26633,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>309.097533753258</v>
+        <v>291.286075551865</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -26642,10 +26642,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1641.8490915179</v>
+        <v>1463.08113205419</v>
       </c>
       <c r="F33" t="n">
-        <v>2113.44162596354</v>
+        <v>2447.8787345863</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -26654,7 +26654,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>252.097533753258</v>
+        <v>234.286075551865</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -26665,7 +26665,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>258.010695722719</v>
+        <v>202.31907090888</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26674,10 +26674,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1521.9374806138</v>
+        <v>1669.43937350729</v>
       </c>
       <c r="F34" t="n">
-        <v>2124.66069947341</v>
+        <v>2510.86653572477</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -26686,7 +26686,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>205.010695722719</v>
+        <v>149.31907090888</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -26697,7 +26697,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>164.6114235273</v>
+        <v>154.591301292867</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -26706,10 +26706,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1539.68865756358</v>
+        <v>1694.8388619136</v>
       </c>
       <c r="F35" t="n">
-        <v>2124.17522106864</v>
+        <v>2537.5731669538</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
@@ -26718,7 +26718,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>137.6114235273</v>
+        <v>127.591301292867</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -26729,7 +26729,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>47.7092326663688</v>
+        <v>82.3948708982659</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1379.97726963429</v>
+        <v>1350.60324542246</v>
       </c>
       <c r="F36" t="n">
-        <v>2032.28278211743</v>
+        <v>2445.6866964418</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -26750,7 +26750,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>46.7092326663688</v>
+        <v>81.3948708982659</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -26761,7 +26761,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>28.7000722259397</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -26770,10 +26770,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1361.97663482514</v>
+        <v>1354.99604104618</v>
       </c>
       <c r="F37" t="n">
-        <v>2061.07376602074</v>
+        <v>2389.66596917606</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
@@ -26782,10 +26782,10 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>-3</v>
+        <v>25.7000722259397</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -26802,10 +26802,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1072.43512869422</v>
+        <v>1311.43854474073</v>
       </c>
       <c r="F38" t="n">
-        <v>2046.90579517037</v>
+        <v>2404.75249095572</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -26834,10 +26834,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1537.47073785374</v>
+        <v>1676.02747192066</v>
       </c>
       <c r="F39" t="n">
-        <v>2135.15091932048</v>
+        <v>2525.92647093364</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -26857,7 +26857,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>23.4761591834119</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -26866,10 +26866,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1829.36194218098</v>
+        <v>1804.04902593394</v>
       </c>
       <c r="F40" t="n">
-        <v>2182.34023042816</v>
+        <v>2556.52344125173</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -26878,10 +26878,10 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>20.4761591834119</v>
+        <v>-3</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -26889,7 +26889,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>120.567279178847</v>
+        <v>37.7599561932516</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -26898,10 +26898,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1728.48224494035</v>
+        <v>1799.1187506537</v>
       </c>
       <c r="F41" t="n">
-        <v>2164.22506417187</v>
+        <v>2553.34539521921</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -26910,7 +26910,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>119.567279178847</v>
+        <v>36.7599561932516</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -26921,7 +26921,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>54.8486281466895</v>
+        <v>96.6270132761138</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -26930,10 +26930,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1565.83133604643</v>
+        <v>1610.39811711604</v>
       </c>
       <c r="F42" t="n">
-        <v>2104.61503000646</v>
+        <v>2483.10060251836</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>54.8486281466895</v>
+        <v>96.6270132761138</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -26953,7 +26953,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6.79182842016265</v>
+        <v>55.2265082394282</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1537.66429571217</v>
+        <v>1585.4412142356</v>
       </c>
       <c r="F43" t="n">
-        <v>2147.324238935</v>
+        <v>2516.6019144622</v>
       </c>
       <c r="G43" t="s">
         <v>35</v>
@@ -26974,7 +26974,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.79182842016265</v>
+        <v>52.2265082394282</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -26985,7 +26985,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>96.7683810917721</v>
+        <v>108.718876359413</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26994,10 +26994,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1254.42207557527</v>
+        <v>1395.72594165013</v>
       </c>
       <c r="F44" t="n">
-        <v>2070.28339386479</v>
+        <v>2417.0179800324</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -27006,7 +27006,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>63.7683810917721</v>
+        <v>75.7188763594127</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -27017,7 +27017,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>287.078678470938</v>
+        <v>283.938314467196</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -27026,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1514.99579073141</v>
+        <v>1583.8672338273</v>
       </c>
       <c r="F45" t="n">
-        <v>2138.99141343504</v>
+        <v>2435.99291579021</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -27038,7 +27038,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>207.078678470938</v>
+        <v>203.938314467196</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -27049,7 +27049,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>191.797747780122</v>
+        <v>159.867768240837</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -27058,10 +27058,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1543.40452749814</v>
+        <v>1777.35649564347</v>
       </c>
       <c r="F46" t="n">
-        <v>2106.99858526887</v>
+        <v>2469.63342463057</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -27070,7 +27070,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>129.797747780122</v>
+        <v>97.867768240837</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -27081,7 +27081,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>152.147605622333</v>
+        <v>85.596675016004</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -27090,10 +27090,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1517.883345582</v>
+        <v>1645.32363122486</v>
       </c>
       <c r="F47" t="n">
-        <v>2113.98042822685</v>
+        <v>2501.00564248771</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -27102,7 +27102,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>120.147605622333</v>
+        <v>53.596675016004</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -27113,7 +27113,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>99.1512050103697</v>
+        <v>136.203495033423</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -27122,10 +27122,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1419.28694502872</v>
+        <v>1627.26111226875</v>
       </c>
       <c r="F48" t="n">
-        <v>2109.67074145695</v>
+        <v>2487.43631012662</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -27134,7 +27134,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>87.1512050103697</v>
+        <v>124.203495033423</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -27145,7 +27145,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>31.6150840567536</v>
+        <v>71.002407945673</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1552.50641726358</v>
+        <v>1634.11683799854</v>
       </c>
       <c r="F49" t="n">
-        <v>2144.29540516459</v>
+        <v>2515.74040799437</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -27166,7 +27166,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>27.6150840567536</v>
+        <v>67.002407945673</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -30245,7 +30245,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2369.64532915192</v>
+        <v>2368.21762734204</v>
       </c>
       <c r="C2" t="n">
         <v>2092.67073250141</v>
@@ -30266,7 +30266,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>743.645329151924</v>
+        <v>742.217627342037</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -30277,7 +30277,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2356.66380675752</v>
+        <v>2336.5482952521</v>
       </c>
       <c r="C3" t="n">
         <v>1972.65524679747</v>
@@ -30298,7 +30298,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1311.66380675752</v>
+        <v>1291.5482952521</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -30309,7 +30309,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3221.08350526701</v>
+        <v>3207.8142596256</v>
       </c>
       <c r="C4" t="n">
         <v>2848.12675525047</v>
@@ -30330,7 +30330,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1580.08350526701</v>
+        <v>1566.8142596256</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -30341,7 +30341,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2938.0506181578</v>
+        <v>2896.54459329175</v>
       </c>
       <c r="C5" t="n">
         <v>2480.75761103751</v>
@@ -30362,7 +30362,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1206.0506181578</v>
+        <v>1164.54459329175</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -30373,7 +30373,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2657.33454706264</v>
+        <v>2592.40664413885</v>
       </c>
       <c r="C6" t="n">
         <v>2089.6139643587</v>
@@ -30382,10 +30382,10 @@
         <v>1924.55013593521</v>
       </c>
       <c r="E6" t="n">
-        <v>3188.39405569294</v>
+        <v>2971.13497959111</v>
       </c>
       <c r="F6" t="n">
-        <v>3220.71265696999</v>
+        <v>3181.78860470656</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -30394,7 +30394,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1072.33454706264</v>
+        <v>1007.40664413885</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -30405,7 +30405,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2272.76574324714</v>
+        <v>2278.87062738263</v>
       </c>
       <c r="C7" t="n">
         <v>1761.55378011194</v>
@@ -30414,7 +30414,7 @@
         <v>1589.10435823062</v>
       </c>
       <c r="E7" t="n">
-        <v>2625.72882298163</v>
+        <v>2651.11271612996</v>
       </c>
       <c r="F7" t="n">
         <v>2827.53569070833</v>
@@ -30426,7 +30426,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>564.765743247138</v>
+        <v>570.870627382628</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -30437,7 +30437,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2292.41214399495</v>
+        <v>2312.26115529802</v>
       </c>
       <c r="C8" t="n">
         <v>1784.29864013751</v>
@@ -30446,7 +30446,7 @@
         <v>1604.76719787576</v>
       </c>
       <c r="E8" t="n">
-        <v>2655.2630653145</v>
+        <v>2713.26487790539</v>
       </c>
       <c r="F8" t="n">
         <v>2854.53680235356</v>
@@ -30458,7 +30458,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>533.412143994954</v>
+        <v>553.261155298023</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -30469,7 +30469,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2236.18977217617</v>
+        <v>2261.69631969865</v>
       </c>
       <c r="C9" t="n">
         <v>1789.86011713188</v>
@@ -30490,7 +30490,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>477.189772176172</v>
+        <v>502.696319698655</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -30501,7 +30501,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2043.74917089699</v>
+        <v>2023.44931937047</v>
       </c>
       <c r="C10" t="n">
         <v>1531.74947334365</v>
@@ -30522,7 +30522,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>232.749170896995</v>
+        <v>212.449319370465</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -30533,7 +30533,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1854.56073571044</v>
+        <v>1843.88959653763</v>
       </c>
       <c r="C11" t="n">
         <v>1364.39386169921</v>
@@ -30554,7 +30554,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>348.560735710445</v>
+        <v>337.889596537626</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -30565,7 +30565,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1960.25565583311</v>
+        <v>1980.93531202516</v>
       </c>
       <c r="C12" t="n">
         <v>1579.53111299129</v>
@@ -30586,7 +30586,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>321.255655833114</v>
+        <v>341.935312025159</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -30597,7 +30597,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2043.77802506409</v>
+        <v>2055.94399441911</v>
       </c>
       <c r="C13" t="n">
         <v>1596.77428920028</v>
@@ -30618,7 +30618,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>225.778025064094</v>
+        <v>237.943994419107</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -30629,7 +30629,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2401.82109122706</v>
+        <v>2383.70990055491</v>
       </c>
       <c r="C14" t="n">
         <v>1914.43103099402</v>
@@ -30650,7 +30650,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>563.821091227056</v>
+        <v>545.709900554909</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -30661,7 +30661,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2410.64131128664</v>
+        <v>2369.45036570567</v>
       </c>
       <c r="C15" t="n">
         <v>1768.52726544701</v>
@@ -30682,7 +30682,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>561.641311286637</v>
+        <v>520.450365705673</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -30693,10 +30693,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3211.54939463769</v>
+        <v>3122.40673975883</v>
       </c>
       <c r="C16" t="n">
-        <v>2695.96020812502</v>
+        <v>2631.9546352947</v>
       </c>
       <c r="D16" t="n">
         <v>2384.98025229264</v>
@@ -30714,7 +30714,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>220.549394637694</v>
+        <v>131.406739758833</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -30725,7 +30725,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2925.60494564699</v>
+        <v>2938.56424009533</v>
       </c>
       <c r="C17" t="n">
         <v>2329.24592105384</v>
@@ -30746,7 +30746,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>128.604945646993</v>
+        <v>141.564240095332</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -30757,7 +30757,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2698.77670815532</v>
+        <v>2670.3744564922</v>
       </c>
       <c r="C18" t="n">
         <v>1949.79547507638</v>
@@ -30766,10 +30766,10 @@
         <v>1710.71620936223</v>
       </c>
       <c r="E18" t="n">
-        <v>3400.4610591474</v>
+        <v>3283.71825276073</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.34328472222</v>
+        <v>3411.45727795734</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -30778,7 +30778,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>189.776708155317</v>
+        <v>161.374456492201</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -30789,7 +30789,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2346.52028976479</v>
+        <v>2383.26365335335</v>
       </c>
       <c r="C19" t="n">
         <v>1625.94413108705</v>
@@ -30798,10 +30798,10 @@
         <v>1381.7072973625</v>
       </c>
       <c r="E19" t="n">
-        <v>2976.22456071007</v>
+        <v>3091.21960907202</v>
       </c>
       <c r="F19" t="n">
-        <v>3064.64296638977</v>
+        <v>3134.1555930335</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -30810,7 +30810,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>80.520289764791</v>
+        <v>117.263653353347</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -30821,7 +30821,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2266.85616158152</v>
+        <v>2324.08903156803</v>
       </c>
       <c r="C20" t="n">
         <v>1652.52589758054</v>
@@ -30830,7 +30830,7 @@
         <v>1403.23817906801</v>
       </c>
       <c r="E20" t="n">
-        <v>2788.59731888565</v>
+        <v>2824.35466582489</v>
       </c>
       <c r="F20" t="n">
         <v>3076.70690839687</v>
@@ -30842,7 +30842,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>126.85616158152</v>
+        <v>184.089031568027</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -30853,7 +30853,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2252.2244347175</v>
+        <v>2277.39202187009</v>
       </c>
       <c r="C21" t="n">
         <v>1661.60572536473</v>
@@ -30874,7 +30874,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>143.224434717498</v>
+        <v>168.392021870088</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -30885,7 +30885,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2072.06088892078</v>
+        <v>2057.85275140661</v>
       </c>
       <c r="C22" t="n">
         <v>1386.06673025111</v>
@@ -30894,7 +30894,7 @@
         <v>1103.14820029984</v>
       </c>
       <c r="E22" t="n">
-        <v>2541.09880293632</v>
+        <v>2529.32646183503</v>
       </c>
       <c r="F22" t="n">
         <v>2810.66302521311</v>
@@ -30906,7 +30906,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>39.0608889207824</v>
+        <v>24.85275140661</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -30917,7 +30917,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1865.65977621643</v>
+        <v>1884.30308505986</v>
       </c>
       <c r="C23" t="n">
         <v>1213.91124407118</v>
@@ -30938,7 +30938,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>19.6597762164324</v>
+        <v>38.3030850598575</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -30949,7 +30949,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1967.34780222212</v>
+        <v>1972.89220287654</v>
       </c>
       <c r="C24" t="n">
         <v>1434.67903069169</v>
@@ -30970,7 +30970,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-87.6521977778827</v>
+        <v>-82.1077971234599</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -30981,7 +30981,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2067.61984251266</v>
+        <v>2053.45234469096</v>
       </c>
       <c r="C25" t="n">
         <v>1456.22526462817</v>
@@ -31002,7 +31002,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-301.380157487338</v>
+        <v>-315.547655309038</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -31013,7 +31013,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2417.18894520112</v>
+        <v>2336.40454164163</v>
       </c>
       <c r="C26" t="n">
         <v>1782.8628673287</v>
@@ -31034,7 +31034,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-112.811054798879</v>
+        <v>-193.595458358374</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -31045,7 +31045,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2421.21480682265</v>
+        <v>2341.16605878448</v>
       </c>
       <c r="C27" t="n">
         <v>1623.85930325603</v>
@@ -31066,7 +31066,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-21.7851931773457</v>
+        <v>-101.833941215521</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -31077,7 +31077,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3140.20070899561</v>
+        <v>3143.76075649491</v>
       </c>
       <c r="C28" t="n">
         <v>2574.20138899116</v>
@@ -31098,7 +31098,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>9.20070899560596</v>
+        <v>12.7607564949062</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -31109,7 +31109,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2927.83892243914</v>
+        <v>2909.65862203893</v>
       </c>
       <c r="C29" t="n">
         <v>2164.45414392355</v>
@@ -31130,7 +31130,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>402.838922439144</v>
+        <v>384.658622038927</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -31141,7 +31141,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2710.12886898584</v>
+        <v>2679.62185735878</v>
       </c>
       <c r="C30" t="n">
         <v>1843.83249649127</v>
@@ -31150,10 +31150,10 @@
         <v>1499.87471884951</v>
       </c>
       <c r="E30" t="n">
-        <v>3548.81153324065</v>
+        <v>3437.28428133711</v>
       </c>
       <c r="F30" t="n">
-        <v>3620.12306932956</v>
+        <v>3593.10969167383</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -31162,7 +31162,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>207.128868985844</v>
+        <v>176.621857358783</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -31173,7 +31173,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2378.4943935106</v>
+        <v>2399.15018215248</v>
       </c>
       <c r="C31" t="n">
         <v>1521.97792708445</v>
@@ -31182,10 +31182,10 @@
         <v>1183.90265702296</v>
       </c>
       <c r="E31" t="n">
-        <v>3203.40250485526</v>
+        <v>3210.5494749312</v>
       </c>
       <c r="F31" t="n">
-        <v>3293.94426677737</v>
+        <v>3271.29311576699</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -31194,7 +31194,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-32.505606489397</v>
+        <v>-11.8498178475247</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -31205,7 +31205,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2274.36386836738</v>
+        <v>2366.01362377732</v>
       </c>
       <c r="C32" t="n">
         <v>1550.28782413263</v>
@@ -31214,7 +31214,7 @@
         <v>1210.96074424427</v>
       </c>
       <c r="E32" t="n">
-        <v>2912.3765558275</v>
+        <v>3013.70687895017</v>
       </c>
       <c r="F32" t="n">
         <v>3268.46357704298</v>
@@ -31226,7 +31226,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>49.3638683673812</v>
+        <v>141.013623777319</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -31237,7 +31237,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2250.32686678829</v>
+        <v>2311.77177227984</v>
       </c>
       <c r="C33" t="n">
         <v>1549.03743878369</v>
@@ -31258,10 +31258,10 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-4.67313321170786</v>
+        <v>56.7717722798388</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -31269,7 +31269,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2078.8492756593</v>
+        <v>2075.92542041862</v>
       </c>
       <c r="C34" t="n">
         <v>1270.61212162443</v>
@@ -31290,7 +31290,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>132.849275659302</v>
+        <v>129.925420418615</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -31301,7 +31301,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1874.45506516399</v>
+        <v>1918.71614290046</v>
       </c>
       <c r="C35" t="n">
         <v>1095.57269499521</v>
@@ -31322,7 +31322,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>191.455065163986</v>
+        <v>235.716142900459</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -31333,7 +31333,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1992.74500252106</v>
+        <v>1974.37118751203</v>
       </c>
       <c r="C36" t="n">
         <v>1318.81651411255</v>
@@ -31354,7 +31354,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>260.745002521064</v>
+        <v>242.371187512026</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -31365,7 +31365,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2063.9820277177</v>
+        <v>2032.86084639748</v>
       </c>
       <c r="C37" t="n">
         <v>1338.80662894613</v>
@@ -31386,7 +31386,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>876.982027717699</v>
+        <v>845.860846397482</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -31397,7 +31397,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2347.7745351009</v>
+        <v>2323.33466038916</v>
       </c>
       <c r="C38" t="n">
         <v>1645.34393971249</v>
@@ -31418,7 +31418,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1203.7745351009</v>
+        <v>1179.33466038916</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -31429,7 +31429,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2354.87507389634</v>
+        <v>2302.98648168276</v>
       </c>
       <c r="C39" t="n">
         <v>1486.11401111166</v>
@@ -31450,7 +31450,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>147.875073896342</v>
+        <v>95.9864816827649</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -31461,7 +31461,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3138.6090983689</v>
+        <v>3126.80638441235</v>
       </c>
       <c r="C40" t="n">
         <v>2405.26410121057</v>
@@ -31482,7 +31482,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>21.6090983689037</v>
+        <v>9.80638441235169</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -31493,7 +31493,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2854.38915476181</v>
+        <v>2843.49094008233</v>
       </c>
       <c r="C41" t="n">
         <v>1971.63522254429</v>
@@ -31514,7 +31514,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-151.610845238194</v>
+        <v>-162.509059917674</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -31525,7 +31525,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2734.95412617465</v>
+        <v>2675.93553511813</v>
       </c>
       <c r="C42" t="n">
         <v>1649.24414445909</v>
@@ -31534,10 +31534,10 @@
         <v>1212.63032751826</v>
       </c>
       <c r="E42" t="n">
-        <v>3703.4737000813</v>
+        <v>3509.52109098807</v>
       </c>
       <c r="F42" t="n">
-        <v>3801.35351668372</v>
+        <v>3749.24575340589</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
@@ -31546,7 +31546,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-87.0458738253524</v>
+        <v>-146.064464881867</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -31557,7 +31557,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2427.55252882938</v>
+        <v>2436.00068497384</v>
       </c>
       <c r="C43" t="n">
         <v>1337.62907551692</v>
@@ -31566,10 +31566,10 @@
         <v>893.966327251034</v>
       </c>
       <c r="E43" t="n">
-        <v>3352.68669947086</v>
+        <v>3458.00189766241</v>
       </c>
       <c r="F43" t="n">
-        <v>3457.48958695427</v>
+        <v>3539.78449059481</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -31578,7 +31578,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-101.447471170621</v>
+        <v>-92.9993150261594</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -31589,7 +31589,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2329.97234375505</v>
+        <v>2440.2800471682</v>
       </c>
       <c r="C44" t="n">
         <v>1368.94888135808</v>
@@ -31598,7 +31598,7 @@
         <v>918.347457421205</v>
       </c>
       <c r="E44" t="n">
-        <v>3071.36158523516</v>
+        <v>3168.26724230141</v>
       </c>
       <c r="F44" t="n">
         <v>3521.96300917203</v>
@@ -31610,7 +31610,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-290.027656244953</v>
+        <v>-179.719952831797</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -31621,7 +31621,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2246.64939597867</v>
+        <v>2325.80239845561</v>
       </c>
       <c r="C45" t="n">
         <v>1367.68751238602</v>
@@ -31642,7 +31642,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-371.350604021331</v>
+        <v>-292.197601544387</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -31653,7 +31653,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2058.36887244485</v>
+        <v>2098.3578318662</v>
       </c>
       <c r="C46" t="n">
         <v>1081.92151510189</v>
@@ -31674,7 +31674,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-491.631127555154</v>
+        <v>-451.642168133802</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -31685,7 +31685,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1877.60568999119</v>
+        <v>1928.59886789504</v>
       </c>
       <c r="C47" t="n">
         <v>896.641655395377</v>
@@ -31706,7 +31706,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-665.394310008814</v>
+        <v>-614.401132104957</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -31717,7 +31717,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2005.78786826061</v>
+        <v>2010.23669528578</v>
       </c>
       <c r="C48" t="n">
         <v>1121.84715679139</v>
@@ -31738,7 +31738,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-745.212131739387</v>
+        <v>-740.763304714219</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -31749,7 +31749,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2019.24015798748</v>
+        <v>2002.43449261634</v>
       </c>
       <c r="C49" t="n">
         <v>1132.11414754105</v>
@@ -31770,7 +31770,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-648.759842012524</v>
+        <v>-665.565507383665</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/Figure Data/Fig.4 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.4 data.xlsx
@@ -519,19 +519,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>34348.4363905939</v>
+        <v>40164.007155695</v>
       </c>
       <c r="C2" t="n">
-        <v>18524.6367496193</v>
+        <v>16969.3616152968</v>
       </c>
       <c r="D2" t="n">
-        <v>12516.5203738343</v>
+        <v>11567.1808221565</v>
       </c>
       <c r="E2" t="n">
-        <v>56937.5630255572</v>
+        <v>88508.248066381</v>
       </c>
       <c r="F2" t="n">
-        <v>71992.7378580667</v>
+        <v>106286.78312479</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -540,7 +540,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>5993.43639059387</v>
+        <v>11809.007155695</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -551,19 +551,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>17224.9752629461</v>
+        <v>26625.9557901002</v>
       </c>
       <c r="C3" t="n">
-        <v>5300.40409886104</v>
+        <v>3029.89708128877</v>
       </c>
       <c r="D3" t="n">
-        <v>2135.20477511506</v>
+        <v>1047.19818451228</v>
       </c>
       <c r="E3" t="n">
-        <v>39359.3738340424</v>
+        <v>103253.561032738</v>
       </c>
       <c r="F3" t="n">
-        <v>56141.5546783438</v>
+        <v>131814.405603026</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -572,7 +572,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>13961.9752629461</v>
+        <v>23362.9557901002</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -583,19 +583,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>44320.3844787673</v>
+        <v>49881.2970433362</v>
       </c>
       <c r="C4" t="n">
-        <v>18528.9417422667</v>
+        <v>11293.6214742715</v>
       </c>
       <c r="D4" t="n">
-        <v>10145.204660023</v>
+        <v>5224.26189745484</v>
       </c>
       <c r="E4" t="n">
-        <v>86066.8881419171</v>
+        <v>117881.484039125</v>
       </c>
       <c r="F4" t="n">
-        <v>115763.846424219</v>
+        <v>147966.380383094</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -604,7 +604,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>41451.3844787673</v>
+        <v>47012.2970433362</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -615,19 +615,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>137343.048688458</v>
+        <v>134292.632732626</v>
       </c>
       <c r="C5" t="n">
-        <v>77029.16389541</v>
+        <v>53361.7718949051</v>
       </c>
       <c r="D5" t="n">
-        <v>53598.3732694437</v>
+        <v>32843.3827736194</v>
       </c>
       <c r="E5" t="n">
-        <v>221710.317998472</v>
+        <v>282700.183294278</v>
       </c>
       <c r="F5" t="n">
-        <v>277311.520777775</v>
+        <v>368807.177469479</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -636,7 +636,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>134342.048688458</v>
+        <v>131291.632732626</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -647,19 +647,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>293627.504097877</v>
+        <v>258921.528619012</v>
       </c>
       <c r="C6" t="n">
-        <v>188459.425311891</v>
+        <v>124915.021401074</v>
       </c>
       <c r="D6" t="n">
-        <v>144338.118551043</v>
+        <v>84280.3529282507</v>
       </c>
       <c r="E6" t="n">
-        <v>430485.124114376</v>
+        <v>488602.374451588</v>
       </c>
       <c r="F6" t="n">
-        <v>517008.354620511</v>
+        <v>624448.189982371</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -668,7 +668,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>289708.504097877</v>
+        <v>255002.528619012</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -679,19 +679,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>336409.642940356</v>
+        <v>299995.331334834</v>
       </c>
       <c r="C7" t="n">
-        <v>218469.405725479</v>
+        <v>139467.618027384</v>
       </c>
       <c r="D7" t="n">
-        <v>168664.343780247</v>
+        <v>90379.4922959343</v>
       </c>
       <c r="E7" t="n">
-        <v>488900.377403381</v>
+        <v>526330.809119341</v>
       </c>
       <c r="F7" t="n">
-        <v>584936.997566619</v>
+        <v>683255.124450596</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -700,7 +700,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>330149.642940356</v>
+        <v>293735.331334834</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -711,19 +711,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>270530.499476241</v>
+        <v>255273.549027337</v>
       </c>
       <c r="C8" t="n">
-        <v>167280.559870971</v>
+        <v>97563.4798726928</v>
       </c>
       <c r="D8" t="n">
-        <v>124862.330672385</v>
+        <v>55925.2923822917</v>
       </c>
       <c r="E8" t="n">
-        <v>407649.391504138</v>
+        <v>460725.257801962</v>
       </c>
       <c r="F8" t="n">
-        <v>495380.632678521</v>
+        <v>618097.129439827</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -732,7 +732,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>211387.499476241</v>
+        <v>196130.549027337</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -743,19 +743,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>153472.266972651</v>
+        <v>159590.665364349</v>
       </c>
       <c r="C9" t="n">
-        <v>83018.5418964531</v>
+        <v>37221.7066070934</v>
       </c>
       <c r="D9" t="n">
-        <v>56220.8765600479</v>
+        <v>16138.656264602</v>
       </c>
       <c r="E9" t="n">
-        <v>253892.331306478</v>
+        <v>329302.287149674</v>
       </c>
       <c r="F9" t="n">
-        <v>320763.483705455</v>
+        <v>443375.369413727</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -764,7 +764,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>94329.2669726507</v>
+        <v>100447.665364349</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -775,19 +775,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>162226.969490812</v>
+        <v>155312.503860583</v>
       </c>
       <c r="C10" t="n">
-        <v>87842.8133801953</v>
+        <v>37904.9106667436</v>
       </c>
       <c r="D10" t="n">
-        <v>59533.4118005527</v>
+        <v>15059.605528539</v>
       </c>
       <c r="E10" t="n">
-        <v>268194.007195093</v>
+        <v>337736.636405464</v>
       </c>
       <c r="F10" t="n">
-        <v>338738.82889499</v>
+        <v>487690.388469572</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -796,7 +796,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>47056.9694908119</v>
+        <v>40142.5038605834</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -807,19 +807,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>166317.673536572</v>
+        <v>140381.831438838</v>
       </c>
       <c r="C11" t="n">
-        <v>89520.4891523852</v>
+        <v>33218.8968124578</v>
       </c>
       <c r="D11" t="n">
-        <v>60395.3598805034</v>
+        <v>11766.4198281533</v>
       </c>
       <c r="E11" t="n">
-        <v>276060.63934756</v>
+        <v>345896.125466686</v>
       </c>
       <c r="F11" t="n">
-        <v>349242.798657028</v>
+        <v>507278.451252376</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -828,7 +828,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-33557.3264634279</v>
+        <v>-59493.1685611619</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -839,19 +839,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>132545.675586341</v>
+        <v>117622.476129339</v>
       </c>
       <c r="C12" t="n">
-        <v>66356.4530132027</v>
+        <v>20796.1922696631</v>
       </c>
       <c r="D12" t="n">
-        <v>42312.5851467973</v>
+        <v>5736.18078771595</v>
       </c>
       <c r="E12" t="n">
-        <v>230682.354708896</v>
+        <v>339646.089385044</v>
       </c>
       <c r="F12" t="n">
-        <v>297436.21396529</v>
+        <v>508107.931084985</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -860,7 +860,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-56471.3244136593</v>
+        <v>-71394.5238706613</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -871,19 +871,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>95852.6505525153</v>
+        <v>88368.9785223465</v>
       </c>
       <c r="C13" t="n">
-        <v>42844.07998349</v>
+        <v>9900.17579102057</v>
       </c>
       <c r="D13" t="n">
-        <v>24875.919910893</v>
+        <v>1403.28263465793</v>
       </c>
       <c r="E13" t="n">
-        <v>178959.412208303</v>
+        <v>286873.919977147</v>
       </c>
       <c r="F13" t="n">
-        <v>237145.913897287</v>
+        <v>447035.333599185</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -892,7 +892,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-35945.3494474847</v>
+        <v>-43429.0214776535</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -903,19 +903,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>48636.2070025131</v>
+        <v>51637.3549194063</v>
       </c>
       <c r="C14" t="n">
-        <v>16202.7357963072</v>
+        <v>1451.44520281947</v>
       </c>
       <c r="D14" t="n">
-        <v>7114.18392844092</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>106822.655736184</v>
+        <v>206882.819653564</v>
       </c>
       <c r="F14" t="n">
-        <v>150273.277585311</v>
+        <v>345383.092816158</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -924,7 +924,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-14572.7929974869</v>
+        <v>-11571.6450805937</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -935,19 +935,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>19518.0157742592</v>
+        <v>29942.6114836473</v>
       </c>
       <c r="C15" t="n">
-        <v>3506.45413908745</v>
+        <v>0.166445454470808</v>
       </c>
       <c r="D15" t="n">
-        <v>662.483463137206</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>56086.8050396445</v>
+        <v>157301.858550025</v>
       </c>
       <c r="F15" t="n">
-        <v>86257.3792477674</v>
+        <v>280794.108007456</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -956,7 +956,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>989.015774259249</v>
+        <v>11413.6114836473</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -967,19 +967,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>43476.3331879024</v>
+        <v>61585.8915629287</v>
       </c>
       <c r="C16" t="n">
-        <v>13029.5069293904</v>
+        <v>1155.98843299379</v>
       </c>
       <c r="D16" t="n">
-        <v>5094.53650006836</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100624.247715015</v>
+        <v>282281.326704613</v>
       </c>
       <c r="F16" t="n">
-        <v>144165.515647394</v>
+        <v>462745.531030342</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -988,7 +988,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>7270.33318790235</v>
+        <v>25379.8915629287</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -999,19 +999,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>133530.226835044</v>
+        <v>158519.798566305</v>
       </c>
       <c r="C17" t="n">
-        <v>62460.7802376996</v>
+        <v>19776.7665234654</v>
       </c>
       <c r="D17" t="n">
-        <v>37685.88650614</v>
+        <v>3660.22043868491</v>
       </c>
       <c r="E17" t="n">
-        <v>242515.276105989</v>
+        <v>563584.469972411</v>
       </c>
       <c r="F17" t="n">
-        <v>317964.528110009</v>
+        <v>845133.102821592</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1020,10 +1020,10 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>-10636.7731649558</v>
+        <v>14352.7985663046</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1031,19 +1031,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>281960.629423265</v>
+        <v>294699.799952628</v>
       </c>
       <c r="C18" t="n">
-        <v>159247.789471924</v>
+        <v>65076.5482224243</v>
       </c>
       <c r="D18" t="n">
-        <v>111382.240017633</v>
+        <v>23542.6807768859</v>
       </c>
       <c r="E18" t="n">
-        <v>452984.540886992</v>
+        <v>854625.961345106</v>
       </c>
       <c r="F18" t="n">
-        <v>565465.756690495</v>
+        <v>1228220.07471775</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1052,7 +1052,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>41122.6294232651</v>
+        <v>53861.7999526284</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -1063,19 +1063,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>330243.899925207</v>
+        <v>334503.028863074</v>
       </c>
       <c r="C19" t="n">
-        <v>191455.257114143</v>
+        <v>77356.3737302722</v>
       </c>
       <c r="D19" t="n">
-        <v>136495.402000841</v>
+        <v>29125.43585501</v>
       </c>
       <c r="E19" t="n">
-        <v>521028.971517202</v>
+        <v>893727.39709272</v>
       </c>
       <c r="F19" t="n">
-        <v>645539.910069858</v>
+        <v>1289967.75544624</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>105817.899925207</v>
+        <v>110077.028863074</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1095,19 +1095,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>282120.630639717</v>
+        <v>277915.945017621</v>
       </c>
       <c r="C20" t="n">
-        <v>156494.994943012</v>
+        <v>51117.9485255163</v>
       </c>
       <c r="D20" t="n">
-        <v>108003.783065133</v>
+        <v>15239.157724697</v>
       </c>
       <c r="E20" t="n">
-        <v>458859.191670733</v>
+        <v>789331.660765911</v>
       </c>
       <c r="F20" t="n">
-        <v>575709.148176309</v>
+        <v>1168580.04126103</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1116,7 +1116,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>119133.630639717</v>
+        <v>114928.945017621</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1127,19 +1127,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>159705.542546386</v>
+        <v>171737.243858548</v>
       </c>
       <c r="C21" t="n">
-        <v>75206.6696131939</v>
+        <v>14876.9129205413</v>
       </c>
       <c r="D21" t="n">
-        <v>45629.2933936287</v>
+        <v>1491.47207370979</v>
       </c>
       <c r="E21" t="n">
-        <v>288859.142282334</v>
+        <v>563631.808531966</v>
       </c>
       <c r="F21" t="n">
-        <v>378119.456909811</v>
+        <v>883429.315163154</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1148,7 +1148,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>88422.5425463861</v>
+        <v>100454.243858548</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1159,19 +1159,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>165706.517184341</v>
+        <v>168312.626334173</v>
       </c>
       <c r="C22" t="n">
-        <v>78039.562722713</v>
+        <v>15873.1881741792</v>
       </c>
       <c r="D22" t="n">
-        <v>47351.5750383094</v>
+        <v>1584.82825113166</v>
       </c>
       <c r="E22" t="n">
-        <v>299696.523292908</v>
+        <v>596743.788271478</v>
       </c>
       <c r="F22" t="n">
-        <v>392297.26005467</v>
+        <v>936890.356788686</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1180,7 +1180,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>79071.5171843407</v>
+        <v>81677.6263341728</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1191,19 +1191,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>154138.2343144</v>
+        <v>153166.350753464</v>
       </c>
       <c r="C23" t="n">
-        <v>70145.5463990685</v>
+        <v>13735.3302146054</v>
       </c>
       <c r="D23" t="n">
-        <v>41356.3899276445</v>
+        <v>1022.41793905667</v>
       </c>
       <c r="E23" t="n">
-        <v>284681.082073854</v>
+        <v>601894.957924291</v>
       </c>
       <c r="F23" t="n">
-        <v>375677.278766604</v>
+        <v>953044.700134786</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1212,7 +1212,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>22068.2343144002</v>
+        <v>21096.3507534642</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1223,19 +1223,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>121470.056959872</v>
+        <v>131038.369567319</v>
       </c>
       <c r="C24" t="n">
-        <v>50273.5873388998</v>
+        <v>7367.72624024737</v>
       </c>
       <c r="D24" t="n">
-        <v>27277.8203769884</v>
+        <v>116.261527877653</v>
       </c>
       <c r="E24" t="n">
-        <v>237257.824278683</v>
+        <v>587136.964356816</v>
       </c>
       <c r="F24" t="n">
-        <v>319817.075111149</v>
+        <v>942199.392877609</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>7997.05695987186</v>
+        <v>17565.3695673191</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1255,19 +1255,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>85593.1210192471</v>
+        <v>100733.581364989</v>
       </c>
       <c r="C25" t="n">
-        <v>30273.2262850752</v>
+        <v>2459.45770717749</v>
       </c>
       <c r="D25" t="n">
-        <v>14137.8085931071</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>182260.116405031</v>
+        <v>506619.058231529</v>
       </c>
       <c r="F25" t="n">
-        <v>253582.288186851</v>
+        <v>840496.017682454</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1276,7 +1276,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>11172.1210192471</v>
+        <v>26312.5813649895</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1287,19 +1287,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>43395.7303631242</v>
+        <v>61120.5974950398</v>
       </c>
       <c r="C26" t="n">
-        <v>9920.21589689488</v>
+        <v>27.4305813201427</v>
       </c>
       <c r="D26" t="n">
-        <v>2748.05984953586</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>113412.350291583</v>
+        <v>385493.05468253</v>
       </c>
       <c r="F26" t="n">
-        <v>169233.967564244</v>
+        <v>677415.36284662</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1308,10 +1308,10 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>-787.269636875826</v>
+        <v>16937.5974950398</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1319,19 +1319,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>17416.6151833449</v>
+        <v>35333.1600064059</v>
       </c>
       <c r="C27" t="n">
-        <v>1475.98281892087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>30.2973379588401</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>63254.3751215994</v>
+        <v>307353.915631135</v>
       </c>
       <c r="F27" t="n">
-        <v>104230.569585933</v>
+        <v>569835.870502788</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1340,10 +1340,10 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>-717.384816655132</v>
+        <v>17199.1600064059</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1351,19 +1351,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>40546.6119690316</v>
+        <v>71159.7373402074</v>
       </c>
       <c r="C28" t="n">
-        <v>7907.39055021129</v>
+        <v>16.6480962398356</v>
       </c>
       <c r="D28" t="n">
-        <v>1718.68549059162</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>112951.61731381</v>
+        <v>488126.671218424</v>
       </c>
       <c r="F28" t="n">
-        <v>172029.323416511</v>
+        <v>838267.045081236</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1372,7 +1372,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>7259.61196903158</v>
+        <v>37872.7373402074</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1383,19 +1383,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>128057.70017693</v>
+        <v>174372.104420504</v>
       </c>
       <c r="C29" t="n">
-        <v>47516.2259382295</v>
+        <v>8025.99920216501</v>
       </c>
       <c r="D29" t="n">
-        <v>23270.2922849774</v>
+        <v>59.1068613573625</v>
       </c>
       <c r="E29" t="n">
-        <v>265805.68711973</v>
+        <v>867158.58572206</v>
       </c>
       <c r="F29" t="n">
-        <v>366425.089203841</v>
+        <v>1367398.3096196</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1404,7 +1404,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>83263.7001769298</v>
+        <v>129578.104420504</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1415,19 +1415,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>273533.498659906</v>
+        <v>313060.055632862</v>
       </c>
       <c r="C30" t="n">
-        <v>131168.435294973</v>
+        <v>37887.1625174603</v>
       </c>
       <c r="D30" t="n">
-        <v>80781.428496243</v>
+        <v>5988.46814492595</v>
       </c>
       <c r="E30" t="n">
-        <v>489194.167616186</v>
+        <v>1237912.78371872</v>
       </c>
       <c r="F30" t="n">
-        <v>637551.400087096</v>
+        <v>1867914.99079664</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1436,7 +1436,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>203491.498659906</v>
+        <v>243018.055632862</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1447,19 +1447,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>321137.558689847</v>
+        <v>351338.174680075</v>
       </c>
       <c r="C31" t="n">
-        <v>159459.346981608</v>
+        <v>47231.5228150507</v>
       </c>
       <c r="D31" t="n">
-        <v>101016.903993254</v>
+        <v>8697.63787293184</v>
       </c>
       <c r="E31" t="n">
-        <v>561840.235233127</v>
+        <v>1282040.17093755</v>
       </c>
       <c r="F31" t="n">
-        <v>725925.585921925</v>
+        <v>1937812.57948955</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1468,7 +1468,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>180476.558689847</v>
+        <v>210677.174680075</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1479,19 +1479,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>273988.114741513</v>
+        <v>293118.540852616</v>
       </c>
       <c r="C32" t="n">
-        <v>128236.030286361</v>
+        <v>28979.0084271612</v>
       </c>
       <c r="D32" t="n">
-        <v>77408.725449918</v>
+        <v>3113.74877502349</v>
       </c>
       <c r="E32" t="n">
-        <v>497435.803144704</v>
+        <v>1145104.12002106</v>
       </c>
       <c r="F32" t="n">
-        <v>652103.858321754</v>
+        <v>1770009.57862407</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1500,7 +1500,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>165015.114741513</v>
+        <v>184145.540852616</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1511,19 +1511,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>154103.667353853</v>
+        <v>184367.304598676</v>
       </c>
       <c r="C33" t="n">
-        <v>57715.4745720796</v>
+        <v>5936.08830935258</v>
       </c>
       <c r="D33" t="n">
-        <v>28521.9681644743</v>
+        <v>0.0436919456946547</v>
       </c>
       <c r="E33" t="n">
-        <v>318260.442991262</v>
+        <v>851048.842954823</v>
       </c>
       <c r="F33" t="n">
-        <v>437932.561625716</v>
+        <v>1385560.70209569</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1532,7 +1532,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>99575.6673538526</v>
+        <v>129839.304598676</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1543,19 +1543,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>159983.475733428</v>
+        <v>181208.36783591</v>
       </c>
       <c r="C34" t="n">
-        <v>59929.3235575314</v>
+        <v>6624.767915963</v>
       </c>
       <c r="D34" t="n">
-        <v>29621.6221886554</v>
+        <v>0.704329429384888</v>
       </c>
       <c r="E34" t="n">
-        <v>330368.55520654</v>
+        <v>890555.753447213</v>
       </c>
       <c r="F34" t="n">
-        <v>454575.97706007</v>
+        <v>1449358.7892403</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1564,7 +1564,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>115111.475733428</v>
+        <v>136336.36783591</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1575,19 +1575,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>148682.775282654</v>
+        <v>166300.075249728</v>
       </c>
       <c r="C35" t="n">
-        <v>53122.9839103021</v>
+        <v>5536.39051589146</v>
       </c>
       <c r="D35" t="n">
-        <v>25062.7563932958</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>314913.757121738</v>
+        <v>893879.812554028</v>
       </c>
       <c r="F35" t="n">
-        <v>437305.132717248</v>
+        <v>1463717.2646423</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1596,7 +1596,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>101287.775282654</v>
+        <v>118905.075249728</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1607,19 +1607,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>116795.49088187</v>
+        <v>144293.546605781</v>
       </c>
       <c r="C36" t="n">
-        <v>36551.6462736767</v>
+        <v>2299.82069790093</v>
       </c>
       <c r="D36" t="n">
-        <v>15002.9813124412</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>264680.919784196</v>
+        <v>871732.394370055</v>
       </c>
       <c r="F36" t="n">
-        <v>376452.547556818</v>
+        <v>1442863.91156126</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1628,7 +1628,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>66162.4908818703</v>
+        <v>93660.546605781</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1639,19 +1639,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>81866.7185935536</v>
+        <v>112414.472260467</v>
       </c>
       <c r="C37" t="n">
-        <v>20474.1844829063</v>
+        <v>362.552952218904</v>
       </c>
       <c r="D37" t="n">
-        <v>6413.58248540153</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>205884.644863727</v>
+        <v>764606.656348293</v>
       </c>
       <c r="F37" t="n">
-        <v>303368.488550483</v>
+        <v>1302637.07199737</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1660,7 +1660,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>54119.7185935536</v>
+        <v>84667.4722604672</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1671,19 +1671,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>40996.232811432</v>
+        <v>70705.5951116476</v>
       </c>
       <c r="C38" t="n">
-        <v>5393.62982020393</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>528.253347654997</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>131139.032661162</v>
+        <v>602759.758915921</v>
       </c>
       <c r="F38" t="n">
-        <v>208349.627419494</v>
+        <v>1079514.97632809</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1692,7 +1692,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>38512.232811432</v>
+        <v>68221.5951116476</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1703,19 +1703,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16090.8925506194</v>
+        <v>42669.2488443306</v>
       </c>
       <c r="C39" t="n">
-        <v>370.41347673543</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>75717.1890508276</v>
+        <v>495685.484369032</v>
       </c>
       <c r="F39" t="n">
-        <v>133571.036485813</v>
+        <v>928951.433697405</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1724,7 +1724,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>12155.8925506194</v>
+        <v>38734.2488443306</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1735,19 +1735,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>38250.690217577</v>
+        <v>82579.8193242406</v>
       </c>
       <c r="C40" t="n">
-        <v>4006.82550625877</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>200.57581362327</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>131096.222711813</v>
+        <v>733327.610892229</v>
       </c>
       <c r="F40" t="n">
-        <v>212508.068840437</v>
+        <v>1283995.98263997</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1756,7 +1756,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>28619.690217577</v>
+        <v>72948.8193242406</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1767,19 +1767,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>123222.818360516</v>
+        <v>192924.751425835</v>
       </c>
       <c r="C41" t="n">
-        <v>33804.2705680394</v>
+        <v>2906.22644962133</v>
       </c>
       <c r="D41" t="n">
-        <v>11907.8248899596</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>297296.699455555</v>
+        <v>1210115.22805856</v>
       </c>
       <c r="F41" t="n">
-        <v>432024.752631945</v>
+        <v>1957912.05827758</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1788,7 +1788,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>103117.818360516</v>
+        <v>172819.751425835</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1799,19 +1799,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>265639.45665806</v>
+        <v>337293.587625331</v>
       </c>
       <c r="C42" t="n">
-        <v>103747.591883955</v>
+        <v>22332.6941477881</v>
       </c>
       <c r="D42" t="n">
-        <v>53362.4482147789</v>
+        <v>815.480607813118</v>
       </c>
       <c r="E42" t="n">
-        <v>536123.29796694</v>
+        <v>1659882.89876531</v>
       </c>
       <c r="F42" t="n">
-        <v>731521.15731482</v>
+        <v>2573429.25942206</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1820,7 +1820,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>174380.45665806</v>
+        <v>246034.587625331</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1831,19 +1831,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>312382.30872894</v>
+        <v>375732.751640509</v>
       </c>
       <c r="C43" t="n">
-        <v>127952.757481317</v>
+        <v>29305.9672301651</v>
       </c>
       <c r="D43" t="n">
-        <v>68775.3386647792</v>
+        <v>1721.08142722362</v>
       </c>
       <c r="E43" t="n">
-        <v>613785.94156142</v>
+        <v>1709696.66548323</v>
       </c>
       <c r="F43" t="n">
-        <v>829205.510607951</v>
+        <v>2652290.93848246</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1852,7 +1852,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-120701.69127106</v>
+        <v>-57351.2483594914</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1863,19 +1863,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>266085.632142584</v>
+        <v>315110.083866656</v>
       </c>
       <c r="C44" t="n">
-        <v>100772.252137127</v>
+        <v>16393.8039872645</v>
       </c>
       <c r="D44" t="n">
-        <v>50338.020423518</v>
+        <v>198.341255625441</v>
       </c>
       <c r="E44" t="n">
-        <v>546205.158142003</v>
+        <v>1541329.94147859</v>
       </c>
       <c r="F44" t="n">
-        <v>749926.9954513</v>
+        <v>2440129.09177644</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1884,7 +1884,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-191126.367857416</v>
+        <v>-142101.916133344</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1895,19 +1895,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>148654.177897173</v>
+        <v>200112.57979471</v>
       </c>
       <c r="C45" t="n">
-        <v>41552.3314634338</v>
+        <v>2012.88440145311</v>
       </c>
       <c r="D45" t="n">
-        <v>14973.5510421865</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>355565.97091075</v>
+        <v>1179619.51172746</v>
       </c>
       <c r="F45" t="n">
-        <v>515189.537442955</v>
+        <v>1958455.67282327</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1916,10 +1916,10 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>-44883.822102827</v>
+        <v>6574.57979471004</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1927,19 +1927,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>154400.515755454</v>
+        <v>195858.241747546</v>
       </c>
       <c r="C46" t="n">
-        <v>43218.7662810251</v>
+        <v>2401.21253373489</v>
       </c>
       <c r="D46" t="n">
-        <v>15600.1951473244</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>369071.881196983</v>
+        <v>1225839.12124552</v>
       </c>
       <c r="F46" t="n">
-        <v>534641.288643503</v>
+        <v>2032865.40467074</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1948,10 +1948,10 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>-12579.4842445458</v>
+        <v>28878.2417475465</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1959,19 +1959,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>143357.957488981</v>
+        <v>182128.880514158</v>
       </c>
       <c r="C47" t="n">
-        <v>37610.4964780499</v>
+        <v>1879.78259450977</v>
       </c>
       <c r="D47" t="n">
-        <v>12532.8180313279</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>352959.399082249</v>
+        <v>1227588.2213728</v>
       </c>
       <c r="F47" t="n">
-        <v>516420.744024588</v>
+        <v>2045751.13545121</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1980,10 +1980,10 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>-22169.0425110194</v>
+        <v>16601.8805141582</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1991,19 +1991,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>112240.040607316</v>
+        <v>160500.414528959</v>
       </c>
       <c r="C48" t="n">
-        <v>24451.3094187842</v>
+        <v>469.664275501941</v>
       </c>
       <c r="D48" t="n">
-        <v>6315.98348839746</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>299228.098576838</v>
+        <v>1198204.57813125</v>
       </c>
       <c r="F48" t="n">
-        <v>449393.703283024</v>
+        <v>2015165.26412935</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -2012,7 +2012,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>19285.0406073161</v>
+        <v>67545.414528959</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -2023,19 +2023,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>78246.8674197792</v>
+        <v>126878.897985955</v>
       </c>
       <c r="C49" t="n">
-        <v>12318.3620733828</v>
+        <v>2.57199653831654</v>
       </c>
       <c r="D49" t="n">
-        <v>1810.38999756717</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>235767.513914368</v>
+        <v>1064239.19210794</v>
       </c>
       <c r="F49" t="n">
-        <v>367920.050500731</v>
+        <v>1836466.56700305</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -2044,7 +2044,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>32096.8674197792</v>
+        <v>80728.8979859549</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -8429,7 +8429,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24357.1061520668</v>
+        <v>24358.577399554</v>
       </c>
       <c r="C2" t="n">
         <v>18092.6444447926</v>
@@ -8438,10 +8438,10 @@
         <v>16064.1090125885</v>
       </c>
       <c r="E2" t="n">
-        <v>38378.7196188028</v>
+        <v>38436.2516115876</v>
       </c>
       <c r="F2" t="n">
-        <v>49300.83605339</v>
+        <v>49427.7782579771</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -8450,7 +8450,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7198.1061520668</v>
+        <v>7199.57739955404</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -8461,7 +8461,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13762.3853099746</v>
+        <v>13820.6143339575</v>
       </c>
       <c r="C3" t="n">
         <v>10127.0551220868</v>
@@ -8470,10 +8470,10 @@
         <v>9011.79078507316</v>
       </c>
       <c r="E3" t="n">
-        <v>19029.9351691596</v>
+        <v>19221.0119409549</v>
       </c>
       <c r="F3" t="n">
-        <v>22243.3604492732</v>
+        <v>22690.1597142649</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -8482,7 +8482,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5744.3853099746</v>
+        <v>5802.61433395746</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -8493,13 +8493,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18547.3837243512</v>
+        <v>18572.4056119828</v>
       </c>
       <c r="C4" t="n">
-        <v>12660.0837545926</v>
+        <v>12726.7359776422</v>
       </c>
       <c r="D4" t="n">
-        <v>11366.9179731556</v>
+        <v>11447.501962646</v>
       </c>
       <c r="E4" t="n">
         <v>28175.4522536776</v>
@@ -8514,7 +8514,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12519.3837243512</v>
+        <v>12544.4056119828</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -8525,13 +8525,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>27244.6794428011</v>
+        <v>27255.1099284259</v>
       </c>
       <c r="C5" t="n">
-        <v>15068.7879672245</v>
+        <v>15198.1373042539</v>
       </c>
       <c r="D5" t="n">
-        <v>12852.6914634499</v>
+        <v>12947.1496266373</v>
       </c>
       <c r="E5" t="n">
         <v>51322.829529277</v>
@@ -8546,7 +8546,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>21075.6794428011</v>
+        <v>21086.1099284259</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -8557,13 +8557,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36419.5322412505</v>
+        <v>36532.9008333867</v>
       </c>
       <c r="C6" t="n">
-        <v>17432.7555544307</v>
+        <v>17609.3391313264</v>
       </c>
       <c r="D6" t="n">
-        <v>14845.4927845512</v>
+        <v>15048.7519907714</v>
       </c>
       <c r="E6" t="n">
         <v>85572.486270753</v>
@@ -8578,7 +8578,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>27146.5322412505</v>
+        <v>27259.9008333867</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -8589,13 +8589,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39327.8431126501</v>
+        <v>39491.0217594978</v>
       </c>
       <c r="C7" t="n">
-        <v>19205.0905771013</v>
+        <v>19485.4516903577</v>
       </c>
       <c r="D7" t="n">
-        <v>16098.585828352</v>
+        <v>16354.3023066479</v>
       </c>
       <c r="E7" t="n">
         <v>99346.5360601493</v>
@@ -8610,7 +8610,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27332.8431126501</v>
+        <v>27496.0217594978</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -8621,7 +8621,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>32963.7773015715</v>
+        <v>33114.6738261357</v>
       </c>
       <c r="C8" t="n">
         <v>18361.3929195509</v>
@@ -8642,7 +8642,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>23955.7773015715</v>
+        <v>24106.6738261357</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -8653,7 +8653,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21291.7753359797</v>
+        <v>21285.7403404022</v>
       </c>
       <c r="C9" t="n">
         <v>12476.3200255059</v>
@@ -8662,7 +8662,7 @@
         <v>10243.5898437275</v>
       </c>
       <c r="E9" t="n">
-        <v>35865.0192784109</v>
+        <v>36270.3947389659</v>
       </c>
       <c r="F9" t="n">
         <v>54087.2769181549</v>
@@ -8674,7 +8674,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12283.7753359797</v>
+        <v>12277.7403404022</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -8685,7 +8685,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19459.2105212984</v>
+        <v>19402.8934322052</v>
       </c>
       <c r="C10" t="n">
         <v>11497.1825722379</v>
@@ -8694,7 +8694,7 @@
         <v>9462.00447103951</v>
       </c>
       <c r="E10" t="n">
-        <v>34019.6040625554</v>
+        <v>33732.863938446</v>
       </c>
       <c r="F10" t="n">
         <v>48433.1778172126</v>
@@ -8706,7 +8706,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6247.21052129839</v>
+        <v>6190.89343220517</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -8717,7 +8717,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20503.9865015427</v>
+        <v>20418.3198457485</v>
       </c>
       <c r="C11" t="n">
         <v>12016.8271575328</v>
@@ -8738,7 +8738,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7685.9865015427</v>
+        <v>7600.31984574854</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -8749,7 +8749,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>25021.3971937401</v>
+        <v>25035.5975242835</v>
       </c>
       <c r="C12" t="n">
         <v>14261.7481346777</v>
@@ -8770,7 +8770,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9810.39719374013</v>
+        <v>9824.59752428353</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -8781,7 +8781,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27642.1896585294</v>
+        <v>27719.8793534874</v>
       </c>
       <c r="C13" t="n">
         <v>15218.7116627951</v>
@@ -8802,7 +8802,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16205.1896585294</v>
+        <v>16282.8793534874</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -8813,7 +8813,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24331.3815393636</v>
+        <v>24441.9708130999</v>
       </c>
       <c r="C14" t="n">
         <v>13137.1502140118</v>
@@ -8834,7 +8834,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17253.3815393636</v>
+        <v>17363.9708130999</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -8845,7 +8845,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>14111.7474163176</v>
+        <v>14252.8074745722</v>
       </c>
       <c r="C15" t="n">
         <v>8260.56133907371</v>
@@ -8854,10 +8854,10 @@
         <v>6834.17978950791</v>
       </c>
       <c r="E15" t="n">
-        <v>28285.8905868372</v>
+        <v>28729.1878390283</v>
       </c>
       <c r="F15" t="n">
-        <v>34957.3529017533</v>
+        <v>36014.5616051917</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -8866,7 +8866,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9718.74741631758</v>
+        <v>9859.80747457219</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -8877,7 +8877,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18548.3931284343</v>
+        <v>18611.0925971313</v>
       </c>
       <c r="C16" t="n">
         <v>10809.4618368325</v>
@@ -8898,7 +8898,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>8944.39312843432</v>
+        <v>9007.0925971313</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -8909,10 +8909,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26685.4082526854</v>
+        <v>26692.0923544309</v>
       </c>
       <c r="C17" t="n">
-        <v>13323.3378127492</v>
+        <v>13407.0579422677</v>
       </c>
       <c r="D17" t="n">
         <v>10967.6489943652</v>
@@ -8930,7 +8930,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15184.4082526854</v>
+        <v>15191.0923544309</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -8941,13 +8941,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>35311.9312319168</v>
+        <v>35289.4016666568</v>
       </c>
       <c r="C18" t="n">
-        <v>14969.4131799747</v>
+        <v>14964.7321839988</v>
       </c>
       <c r="D18" t="n">
-        <v>12573.4022690788</v>
+        <v>12604.5175228342</v>
       </c>
       <c r="E18" t="n">
         <v>144760.36601956</v>
@@ -8962,7 +8962,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>23341.9312319168</v>
+        <v>23319.4016666568</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -8973,10 +8973,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>37882.7305666019</v>
+        <v>37950.9460481407</v>
       </c>
       <c r="C19" t="n">
-        <v>16295.3903018962</v>
+        <v>16363.7954381981</v>
       </c>
       <c r="D19" t="n">
         <v>13004.5100822935</v>
@@ -8994,7 +8994,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25867.7305666019</v>
+        <v>25935.9460481407</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -9005,7 +9005,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>31924.9275202214</v>
+        <v>32092.3579260102</v>
       </c>
       <c r="C20" t="n">
         <v>15023.7949732691</v>
@@ -9026,7 +9026,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22557.9275202214</v>
+        <v>22725.3579260102</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -9037,7 +9037,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21441.5056668638</v>
+        <v>21577.519344483</v>
       </c>
       <c r="C21" t="n">
         <v>10679.949749488</v>
@@ -9058,7 +9058,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13088.5056668638</v>
+        <v>13224.519344483</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -9069,7 +9069,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>20006.0808368554</v>
+        <v>20002.2464060735</v>
       </c>
       <c r="C22" t="n">
         <v>9970.77061124087</v>
@@ -9078,7 +9078,7 @@
         <v>7857.72258165793</v>
       </c>
       <c r="E22" t="n">
-        <v>41762.1693107115</v>
+        <v>42129.2647666515</v>
       </c>
       <c r="F22" t="n">
         <v>78653.4080235126</v>
@@ -9090,7 +9090,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7400.0808368554</v>
+        <v>7396.24640607349</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -9101,7 +9101,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20974.4101783965</v>
+        <v>20900.3539169634</v>
       </c>
       <c r="C23" t="n">
         <v>10444.3007627042</v>
@@ -9122,7 +9122,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9858.41017839651</v>
+        <v>9784.35391696344</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -9133,7 +9133,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25111.3458037538</v>
+        <v>25125.1199144237</v>
       </c>
       <c r="C24" t="n">
         <v>12294.3409740703</v>
@@ -9154,7 +9154,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13230.3458037538</v>
+        <v>13244.1199144237</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -9165,7 +9165,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27570.7296264795</v>
+        <v>27668.2226876418</v>
       </c>
       <c r="C25" t="n">
         <v>13115.6534975643</v>
@@ -9186,7 +9186,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16678.7296264795</v>
+        <v>16776.2226876418</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -9197,7 +9197,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24305.0799425925</v>
+        <v>24463.0919676686</v>
       </c>
       <c r="C26" t="n">
         <v>11540.0256119915</v>
@@ -9218,7 +9218,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>17735.0799425925</v>
+        <v>17893.0919676686</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -9229,7 +9229,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15590.0181118511</v>
+        <v>15848.2113443777</v>
       </c>
       <c r="C27" t="n">
         <v>7508.31736126025</v>
@@ -9238,10 +9238,10 @@
         <v>6028.80690028605</v>
       </c>
       <c r="E27" t="n">
-        <v>38734.5220335439</v>
+        <v>38815.3308849224</v>
       </c>
       <c r="F27" t="n">
-        <v>53581.816307767</v>
+        <v>54251.4025213225</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -9250,7 +9250,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>11099.0181118511</v>
+        <v>11357.2113443777</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -9261,7 +9261,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19404.1252412622</v>
+        <v>19549.9335353355</v>
       </c>
       <c r="C28" t="n">
         <v>9721.64643941573</v>
@@ -9282,7 +9282,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9403.12524126216</v>
+        <v>9548.93353533551</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -9293,7 +9293,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>27051.0517433584</v>
+        <v>27092.3504418266</v>
       </c>
       <c r="C29" t="n">
         <v>12712.2919542595</v>
@@ -9314,7 +9314,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>17083.0517433584</v>
+        <v>17124.3504418266</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -9325,10 +9325,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>35247.4628778661</v>
+        <v>35219.3017903363</v>
       </c>
       <c r="C30" t="n">
-        <v>13612.8718120327</v>
+        <v>13634.3900621679</v>
       </c>
       <c r="D30" t="n">
         <v>10953.7595637456</v>
@@ -9346,7 +9346,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>24096.4628778661</v>
+        <v>24068.3017903363</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -9357,10 +9357,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37575.3950147161</v>
+        <v>37536.4811357329</v>
       </c>
       <c r="C31" t="n">
-        <v>14638.7894943041</v>
+        <v>14614.0891415861</v>
       </c>
       <c r="D31" t="n">
         <v>11155.8710716245</v>
@@ -9376,7 +9376,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25630.3950147161</v>
+        <v>25591.4811357329</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -9387,7 +9387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31562.4509620128</v>
+        <v>31603.6684235759</v>
       </c>
       <c r="C32" t="n">
         <v>13451.0581028725</v>
@@ -9408,7 +9408,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>22171.4509620128</v>
+        <v>22212.6684235759</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -9419,7 +9419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21311.7342926152</v>
+        <v>21442.1374022264</v>
       </c>
       <c r="C33" t="n">
         <v>9769.7192097405</v>
@@ -9440,7 +9440,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>12839.7342926152</v>
+        <v>12970.1374022264</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -9451,7 +9451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>20033.7570644795</v>
+        <v>20175.7919717471</v>
       </c>
       <c r="C34" t="n">
         <v>9171.78565403236</v>
@@ -9472,7 +9472,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>8992.75706447953</v>
+        <v>9134.79197174707</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -9483,7 +9483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21082.2873619694</v>
+        <v>21203.2593609534</v>
       </c>
       <c r="C35" t="n">
         <v>9606.48652750789</v>
@@ -9504,7 +9504,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11545.2873619694</v>
+        <v>11666.2593609534</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -9515,7 +9515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25208.2750749026</v>
+        <v>25347.4635023759</v>
       </c>
       <c r="C36" t="n">
         <v>11242.4952361484</v>
@@ -9536,7 +9536,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16506.2750749026</v>
+        <v>16645.4635023759</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -9547,7 +9547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27623.8967777234</v>
+        <v>27802.0741274798</v>
       </c>
       <c r="C37" t="n">
         <v>11977.8083646304</v>
@@ -9568,7 +9568,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23784.8967777234</v>
+        <v>23963.0741274798</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -9579,7 +9579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24364.8874336716</v>
+        <v>24584.0434780823</v>
       </c>
       <c r="C38" t="n">
         <v>10637.4505337609</v>
@@ -9600,7 +9600,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>21994.8874336716</v>
+        <v>22214.0434780823</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -9611,7 +9611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16726.194460917</v>
+        <v>16867.2208699208</v>
       </c>
       <c r="C39" t="n">
         <v>7056.72193509203</v>
@@ -9620,10 +9620,10 @@
         <v>5560.97404019948</v>
       </c>
       <c r="E39" t="n">
-        <v>43475.7461135582</v>
+        <v>43320.8970556415</v>
       </c>
       <c r="F39" t="n">
-        <v>67081.0713666768</v>
+        <v>66942.0103275871</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
@@ -9632,7 +9632,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>12178.194460917</v>
+        <v>12319.2208699208</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -9643,7 +9643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20486.9259286457</v>
+        <v>20552.5157480903</v>
       </c>
       <c r="C40" t="n">
         <v>9068.0307354836</v>
@@ -9664,7 +9664,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>13187.9259286457</v>
+        <v>13253.5157480903</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -9675,7 +9675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27871.6113330244</v>
+        <v>27861.4841191716</v>
       </c>
       <c r="C41" t="n">
         <v>11750.5270156756</v>
@@ -9696,7 +9696,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20843.6113330244</v>
+        <v>20833.4841191716</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -9707,10 +9707,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35764.17984577</v>
+        <v>35684.4295037345</v>
       </c>
       <c r="C42" t="n">
-        <v>13203.7048859453</v>
+        <v>13171.3270967569</v>
       </c>
       <c r="D42" t="n">
         <v>9871.7421132616</v>
@@ -9726,7 +9726,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26834.17984577</v>
+        <v>26754.4295037345</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -9737,10 +9737,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37848.440961904</v>
+        <v>37721.6133285675</v>
       </c>
       <c r="C43" t="n">
-        <v>14057.5891452726</v>
+        <v>14174.3822488968</v>
       </c>
       <c r="D43" t="n">
         <v>10065.7646230228</v>
@@ -9756,7 +9756,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>27138.440961904</v>
+        <v>27011.6133285675</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -9767,7 +9767,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31671.302813738</v>
+        <v>31620.833960472</v>
       </c>
       <c r="C44" t="n">
         <v>12467.7367931876</v>
@@ -9788,7 +9788,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22391.302813738</v>
+        <v>22340.833960472</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -9799,7 +9799,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21380.2730857379</v>
+        <v>21451.444042213</v>
       </c>
       <c r="C45" t="n">
         <v>9179.01862585911</v>
@@ -9820,7 +9820,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13461.2730857379</v>
+        <v>13532.444042213</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -9831,7 +9831,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>20096.9330684415</v>
+        <v>20252.8792895879</v>
       </c>
       <c r="C46" t="n">
         <v>8644.97016497651</v>
@@ -9852,7 +9852,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9229.93306844149</v>
+        <v>9385.87928958791</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -9863,7 +9863,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21165.8157644503</v>
+        <v>21365.0965116512</v>
       </c>
       <c r="C47" t="n">
         <v>9049.71196455794</v>
@@ -9884,7 +9884,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>12878.8157644503</v>
+        <v>13078.0965116512</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -9895,7 +9895,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25298.2985774647</v>
+        <v>25526.7923072146</v>
       </c>
       <c r="C48" t="n">
         <v>10543.7000165822</v>
@@ -9916,7 +9916,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>17656.2985774647</v>
+        <v>17884.7923072146</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -9927,7 +9927,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>27710.2453009392</v>
+        <v>27965.846441631</v>
       </c>
       <c r="C49" t="n">
         <v>11218.0042102211</v>
@@ -9948,7 +9948,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20618.2453009392</v>
+        <v>20873.846441631</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -11587,19 +11587,19 @@
         <v>43466</v>
       </c>
       <c r="B2" t="n">
-        <v>464.489713763927</v>
+        <v>635.882807881578</v>
       </c>
       <c r="C2" t="n">
-        <v>354.597218026174</v>
+        <v>476.824664449279</v>
       </c>
       <c r="D2" t="n">
-        <v>309.069822199523</v>
+        <v>411.986997373498</v>
       </c>
       <c r="E2" t="n">
-        <v>617.525515861768</v>
+        <v>862.468066142147</v>
       </c>
       <c r="F2" t="n">
-        <v>722.74125647015</v>
+        <v>1021.16060379736</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -11611,19 +11611,19 @@
         <v>43497</v>
       </c>
       <c r="B3" t="n">
-        <v>265.218733033624</v>
+        <v>540.444657766179</v>
       </c>
       <c r="C3" t="n">
-        <v>190.094296190274</v>
+        <v>370.251134101507</v>
       </c>
       <c r="D3" t="n">
-        <v>160.695754797774</v>
+        <v>306.31085163776</v>
       </c>
       <c r="E3" t="n">
-        <v>378.587397786261</v>
+        <v>812.700593999181</v>
       </c>
       <c r="F3" t="n">
-        <v>461.839866994222</v>
+        <v>1022.55581302538</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -11635,19 +11635,19 @@
         <v>43525</v>
       </c>
       <c r="B4" t="n">
-        <v>959.140975462608</v>
+        <v>1590.76631209137</v>
       </c>
       <c r="C4" t="n">
-        <v>580.136226421684</v>
+        <v>913.380888121969</v>
       </c>
       <c r="D4" t="n">
-        <v>452.871531399157</v>
+        <v>696.336167193079</v>
       </c>
       <c r="E4" t="n">
-        <v>1673.75759473048</v>
+        <v>2961.10523547485</v>
       </c>
       <c r="F4" t="n">
-        <v>2306.98077306206</v>
+        <v>4251.70481859454</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -11659,19 +11659,19 @@
         <v>43556</v>
       </c>
       <c r="B5" t="n">
-        <v>1647.98285268328</v>
+        <v>2720.17181350417</v>
       </c>
       <c r="C5" t="n">
-        <v>883.730065513308</v>
+        <v>1354.16310399149</v>
       </c>
       <c r="D5" t="n">
-        <v>653.455274915855</v>
+        <v>969.195431611973</v>
       </c>
       <c r="E5" t="n">
-        <v>3346.5215424998</v>
+        <v>6090.84592434268</v>
       </c>
       <c r="F5" t="n">
-        <v>5084.18429627872</v>
+        <v>9877.88344306697</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -11683,19 +11683,19 @@
         <v>43586</v>
       </c>
       <c r="B6" t="n">
-        <v>2298.2240533766</v>
+        <v>3257.20899325869</v>
       </c>
       <c r="C6" t="n">
-        <v>1118.42138630172</v>
+        <v>1466.63235393057</v>
       </c>
       <c r="D6" t="n">
-        <v>792.648484827907</v>
+        <v>1005.55259999502</v>
       </c>
       <c r="E6" t="n">
-        <v>5305.40843188142</v>
+        <v>8366.32890216869</v>
       </c>
       <c r="F6" t="n">
-        <v>8784.96839742313</v>
+        <v>14924.4897467244</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -11707,19 +11707,19 @@
         <v>43617</v>
       </c>
       <c r="B7" t="n">
-        <v>1105.47480402503</v>
+        <v>2032.66581111663</v>
       </c>
       <c r="C7" t="n">
-        <v>563.44819859456</v>
+        <v>915.57652550242</v>
       </c>
       <c r="D7" t="n">
-        <v>407.424884902047</v>
+        <v>627.831020083435</v>
       </c>
       <c r="E7" t="n">
-        <v>2399.00848236973</v>
+        <v>5218.44650952963</v>
       </c>
       <c r="F7" t="n">
-        <v>3809.20524252471</v>
+        <v>9305.80290059133</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -11731,19 +11731,19 @@
         <v>43647</v>
       </c>
       <c r="B8" t="n">
-        <v>621.768143457951</v>
+        <v>1136.97465037487</v>
       </c>
       <c r="C8" t="n">
-        <v>327.755547531583</v>
+        <v>525.351938930381</v>
       </c>
       <c r="D8" t="n">
-        <v>240.522962254209</v>
+        <v>364.156164849893</v>
       </c>
       <c r="E8" t="n">
-        <v>1291.01179685335</v>
+        <v>2817.29515457991</v>
       </c>
       <c r="F8" t="n">
-        <v>1990.37627801672</v>
+        <v>4899.84439122339</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -11755,19 +11755,19 @@
         <v>43678</v>
       </c>
       <c r="B9" t="n">
-        <v>368.644227687665</v>
+        <v>616.533710747097</v>
       </c>
       <c r="C9" t="n">
-        <v>200.635594975879</v>
+        <v>295.237710532274</v>
       </c>
       <c r="D9" t="n">
-        <v>149.334304323829</v>
+        <v>207.795638508517</v>
       </c>
       <c r="E9" t="n">
-        <v>734.444771523487</v>
+        <v>1454.67333760068</v>
       </c>
       <c r="F9" t="n">
-        <v>1101.92217553575</v>
+        <v>2445.17675134358</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -11779,19 +11779,19 @@
         <v>43709</v>
       </c>
       <c r="B10" t="n">
-        <v>430.630317294459</v>
+        <v>526.780041792822</v>
       </c>
       <c r="C10" t="n">
-        <v>225.010840450154</v>
+        <v>247.20284081077</v>
       </c>
       <c r="D10" t="n">
-        <v>164.48523739285</v>
+        <v>172.486508505342</v>
       </c>
       <c r="E10" t="n">
-        <v>904.472165546705</v>
+        <v>1277.75695576395</v>
       </c>
       <c r="F10" t="n">
-        <v>1405.11308535192</v>
+        <v>2189.38729083195</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -11803,19 +11803,19 @@
         <v>43739</v>
       </c>
       <c r="B11" t="n">
-        <v>418.761705335908</v>
+        <v>505.419338183873</v>
       </c>
       <c r="C11" t="n">
-        <v>215.10578264451</v>
+        <v>229.571101580555</v>
       </c>
       <c r="D11" t="n">
-        <v>156.071386037183</v>
+        <v>157.97999227036</v>
       </c>
       <c r="E11" t="n">
-        <v>899.474190480131</v>
+        <v>1282.4795321993</v>
       </c>
       <c r="F11" t="n">
-        <v>1418.39949534036</v>
+        <v>2268.12331810699</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -11827,19 +11827,19 @@
         <v>43770</v>
       </c>
       <c r="B12" t="n">
-        <v>592.488726973702</v>
+        <v>605.011138724106</v>
       </c>
       <c r="C12" t="n">
-        <v>286.020948103354</v>
+        <v>258.008752837354</v>
       </c>
       <c r="D12" t="n">
-        <v>202.007571233038</v>
+        <v>172.913778723541</v>
       </c>
       <c r="E12" t="n">
-        <v>1382.71909443579</v>
+        <v>1678.39174180032</v>
       </c>
       <c r="F12" t="n">
-        <v>2306.75691581156</v>
+        <v>3164.4790427032</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -11851,19 +11851,19 @@
         <v>43800</v>
       </c>
       <c r="B13" t="n">
-        <v>1006.56449899656</v>
+        <v>827.27391145941</v>
       </c>
       <c r="C13" t="n">
-        <v>443.662253778461</v>
+        <v>323.713099956165</v>
       </c>
       <c r="D13" t="n">
-        <v>301.465279626462</v>
+        <v>209.411794637989</v>
       </c>
       <c r="E13" t="n">
-        <v>2664.13069749438</v>
+        <v>2603.0828435711</v>
       </c>
       <c r="F13" t="n">
-        <v>4855.2559203011</v>
+        <v>5390.03040196759</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -11875,19 +11875,19 @@
         <v>43831</v>
       </c>
       <c r="B14" t="n">
-        <v>574.614399114215</v>
+        <v>666.158449063751</v>
       </c>
       <c r="C14" t="n">
-        <v>258.063503869031</v>
+        <v>259.533490767033</v>
       </c>
       <c r="D14" t="n">
-        <v>176.740166893073</v>
+        <v>167.596502982363</v>
       </c>
       <c r="E14" t="n">
-        <v>1481.294037034</v>
+        <v>2109.85000910454</v>
       </c>
       <c r="F14" t="n">
-        <v>2649.26203748475</v>
+        <v>4390.47355198021</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -11896,7 +11896,7 @@
         <v>1199</v>
       </c>
       <c r="I14" t="n">
-        <v>-624.385600885785</v>
+        <v>-532.841550936249</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -11907,19 +11907,19 @@
         <v>43862</v>
       </c>
       <c r="B15" t="n">
-        <v>318.11821985731</v>
+        <v>563.917126350755</v>
       </c>
       <c r="C15" t="n">
-        <v>148.006138425897</v>
+        <v>218.672492960227</v>
       </c>
       <c r="D15" t="n">
-        <v>102.893949334929</v>
+        <v>140.941789862434</v>
       </c>
       <c r="E15" t="n">
-        <v>780.802590626423</v>
+        <v>1798.63769914096</v>
       </c>
       <c r="F15" t="n">
-        <v>1348.95997060834</v>
+        <v>3762.98031780711</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -11928,7 +11928,7 @@
         <v>306</v>
       </c>
       <c r="I15" t="n">
-        <v>12.1182198573102</v>
+        <v>257.917126350755</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -11939,19 +11939,19 @@
         <v>43891</v>
       </c>
       <c r="B16" t="n">
-        <v>1199.29319134794</v>
+        <v>1671.36889876513</v>
       </c>
       <c r="C16" t="n">
-        <v>434.024709717487</v>
+        <v>512.656269997239</v>
       </c>
       <c r="D16" t="n">
-        <v>272.095233297093</v>
+        <v>301.361523977449</v>
       </c>
       <c r="E16" t="n">
-        <v>4250.45804512341</v>
+        <v>7741.98972263533</v>
       </c>
       <c r="F16" t="n">
-        <v>9651.70851616077</v>
+        <v>21952.2791955232</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -11960,7 +11960,7 @@
         <v>197</v>
       </c>
       <c r="I16" t="n">
-        <v>1002.29319134794</v>
+        <v>1474.36889876513</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -11971,19 +11971,19 @@
         <v>43922</v>
       </c>
       <c r="B17" t="n">
-        <v>2089.16469845001</v>
+        <v>2864.58363326346</v>
       </c>
       <c r="C17" t="n">
-        <v>651.937237384812</v>
+        <v>754.301549402641</v>
       </c>
       <c r="D17" t="n">
-        <v>385.762073522192</v>
+        <v>418.885337240028</v>
       </c>
       <c r="E17" t="n">
-        <v>9401.2702453973</v>
+        <v>17350.2616142612</v>
       </c>
       <c r="F17" t="n">
-        <v>25998.0880756386</v>
+        <v>62857.7961973449</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
@@ -11992,7 +11992,7 @@
         <v>116</v>
       </c>
       <c r="I17" t="n">
-        <v>1973.16469845001</v>
+        <v>2748.58363326346</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -12003,19 +12003,19 @@
         <v>43952</v>
       </c>
       <c r="B18" t="n">
-        <v>2926.52141323771</v>
+        <v>3426.00859700575</v>
       </c>
       <c r="C18" t="n">
-        <v>817.526494851996</v>
+        <v>833.625329203159</v>
       </c>
       <c r="D18" t="n">
-        <v>463.985664309424</v>
+        <v>449.899897121457</v>
       </c>
       <c r="E18" t="n">
-        <v>15935.4084023239</v>
+        <v>24054.6631155479</v>
       </c>
       <c r="F18" t="n">
-        <v>52227.8067999708</v>
+        <v>100839.250777198</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -12024,7 +12024,7 @@
         <v>90</v>
       </c>
       <c r="I18" t="n">
-        <v>2836.52141323771</v>
+        <v>3336.00859700575</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -12035,19 +12035,19 @@
         <v>43983</v>
       </c>
       <c r="B19" t="n">
-        <v>1349.76770096944</v>
+        <v>2123.03733049967</v>
       </c>
       <c r="C19" t="n">
-        <v>428.16476113676</v>
+        <v>557.436610077971</v>
       </c>
       <c r="D19" t="n">
-        <v>254.948009370972</v>
+        <v>309.236419811966</v>
       </c>
       <c r="E19" t="n">
-        <v>5910.37599702965</v>
+        <v>12926.5850667927</v>
       </c>
       <c r="F19" t="n">
-        <v>15966.6533981375</v>
+        <v>47068.4399228002</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
@@ -12056,7 +12056,7 @@
         <v>114</v>
       </c>
       <c r="I19" t="n">
-        <v>1235.76770096944</v>
+        <v>2009.03733049967</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -12067,19 +12067,19 @@
         <v>44013</v>
       </c>
       <c r="B20" t="n">
-        <v>737.129316285344</v>
+        <v>1179.44100370658</v>
       </c>
       <c r="C20" t="n">
-        <v>255.58617126296</v>
+        <v>341.441062871546</v>
       </c>
       <c r="D20" t="n">
-        <v>157.539935769049</v>
+        <v>196.378873864953</v>
       </c>
       <c r="E20" t="n">
-        <v>2794.02867283743</v>
+        <v>6032.36011064067</v>
       </c>
       <c r="F20" t="n">
-        <v>6695.12114824679</v>
+        <v>18673.1560871378</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -12088,7 +12088,7 @@
         <v>96</v>
       </c>
       <c r="I20" t="n">
-        <v>641.129316285344</v>
+        <v>1083.44100370658</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -12099,19 +12099,19 @@
         <v>44044</v>
       </c>
       <c r="B21" t="n">
-        <v>426.86976440291</v>
+        <v>635.774125108411</v>
       </c>
       <c r="C21" t="n">
-        <v>159.668714546599</v>
+        <v>203.136849552757</v>
       </c>
       <c r="D21" t="n">
-        <v>101.426886996207</v>
+        <v>121.292436936131</v>
       </c>
       <c r="E21" t="n">
-        <v>1437.90255106851</v>
+        <v>2750.87074776701</v>
       </c>
       <c r="F21" t="n">
-        <v>3137.47651302622</v>
+        <v>7356.24078113438</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
@@ -12120,7 +12120,7 @@
         <v>96</v>
       </c>
       <c r="I21" t="n">
-        <v>330.86976440291</v>
+        <v>539.774125108411</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -12131,19 +12131,19 @@
         <v>44075</v>
       </c>
       <c r="B22" t="n">
-        <v>497.475666711898</v>
+        <v>541.804006869229</v>
       </c>
       <c r="C22" t="n">
-        <v>177.759615486246</v>
+        <v>174.134343924642</v>
       </c>
       <c r="D22" t="n">
-        <v>110.877866886943</v>
+        <v>104.210985754071</v>
       </c>
       <c r="E22" t="n">
-        <v>1798.41978918491</v>
+        <v>2321.62082735302</v>
       </c>
       <c r="F22" t="n">
-        <v>4148.5403650371</v>
+        <v>6157.48308971733</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -12152,7 +12152,7 @@
         <v>102</v>
       </c>
       <c r="I22" t="n">
-        <v>395.475666711898</v>
+        <v>439.804006869229</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -12163,19 +12163,19 @@
         <v>44105</v>
       </c>
       <c r="B23" t="n">
-        <v>480.241707591824</v>
+        <v>518.897191295429</v>
       </c>
       <c r="C23" t="n">
-        <v>169.808301607538</v>
+        <v>164.123249903965</v>
       </c>
       <c r="D23" t="n">
-        <v>105.478754667758</v>
+        <v>97.6171425040627</v>
       </c>
       <c r="E23" t="n">
-        <v>1764.92001699223</v>
+        <v>2283.14804324875</v>
       </c>
       <c r="F23" t="n">
-        <v>4125.14461627128</v>
+        <v>6193.29023358014</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -12184,7 +12184,7 @@
         <v>157</v>
       </c>
       <c r="I23" t="n">
-        <v>323.241707591824</v>
+        <v>361.897191295429</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -12195,19 +12195,19 @@
         <v>44136</v>
       </c>
       <c r="B24" t="n">
-        <v>681.480162889921</v>
+        <v>620.764733053404</v>
       </c>
       <c r="C24" t="n">
-        <v>222.162465386623</v>
+        <v>184.782095993059</v>
       </c>
       <c r="D24" t="n">
-        <v>133.685187128893</v>
+        <v>107.395685435001</v>
       </c>
       <c r="E24" t="n">
-        <v>2852.75569115447</v>
+        <v>3025.90288660338</v>
       </c>
       <c r="F24" t="n">
-        <v>7418.87227217316</v>
+        <v>8972.6804090192</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -12216,7 +12216,7 @@
         <v>276</v>
       </c>
       <c r="I24" t="n">
-        <v>405.480162889921</v>
+        <v>344.764733053404</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -12227,19 +12227,19 @@
         <v>44166</v>
       </c>
       <c r="B25" t="n">
-        <v>1167.30257816408</v>
+        <v>848.862507256419</v>
       </c>
       <c r="C25" t="n">
-        <v>335.986149197045</v>
+        <v>230.505788205207</v>
       </c>
       <c r="D25" t="n">
-        <v>192.825204044471</v>
+        <v>129.459587520291</v>
       </c>
       <c r="E25" t="n">
-        <v>6030.49113234504</v>
+        <v>4862.17749992827</v>
       </c>
       <c r="F25" t="n">
-        <v>18837.3435317327</v>
+        <v>16704.8573507673</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
@@ -12248,7 +12248,7 @@
         <v>104</v>
       </c>
       <c r="I25" t="n">
-        <v>1063.30257816408</v>
+        <v>744.862507256419</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -12259,19 +12259,19 @@
         <v>44197</v>
       </c>
       <c r="B26" t="n">
-        <v>652.264526878615</v>
+        <v>681.866701366621</v>
       </c>
       <c r="C26" t="n">
-        <v>202.297875366909</v>
+        <v>189.038744850488</v>
       </c>
       <c r="D26" t="n">
-        <v>119.422742845092</v>
+        <v>106.986848188266</v>
       </c>
       <c r="E26" t="n">
-        <v>2965.53761217069</v>
+        <v>3763.31822825905</v>
       </c>
       <c r="F26" t="n">
-        <v>8273.87736014095</v>
+        <v>12489.0586827627</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
@@ -12280,7 +12280,7 @@
         <v>127</v>
       </c>
       <c r="I26" t="n">
-        <v>525.264526878615</v>
+        <v>554.866701366621</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -12291,19 +12291,19 @@
         <v>44228</v>
       </c>
       <c r="B27" t="n">
-        <v>354.33761882262</v>
+        <v>576.052139476482</v>
       </c>
       <c r="C27" t="n">
-        <v>119.366461079884</v>
+        <v>161.954857942367</v>
       </c>
       <c r="D27" t="n">
-        <v>72.7493194311188</v>
+        <v>92.1361741155702</v>
       </c>
       <c r="E27" t="n">
-        <v>1406.42253096637</v>
+        <v>3101.34230505045</v>
       </c>
       <c r="F27" t="n">
-        <v>3499.32116402052</v>
+        <v>10059.0077758896</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
@@ -12312,7 +12312,7 @@
         <v>46</v>
       </c>
       <c r="I27" t="n">
-        <v>308.33761882262</v>
+        <v>530.052139476482</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -12323,19 +12323,19 @@
         <v>44256</v>
       </c>
       <c r="B28" t="n">
-        <v>1370.36113517586</v>
+        <v>1713.29799074299</v>
       </c>
       <c r="C28" t="n">
-        <v>334.514225434572</v>
+        <v>363.123001968913</v>
       </c>
       <c r="D28" t="n">
-        <v>180.742318783273</v>
+        <v>186.689176812305</v>
       </c>
       <c r="E28" t="n">
-        <v>9562.62061359988</v>
+        <v>15832.0355577756</v>
       </c>
       <c r="F28" t="n">
-        <v>39838.1066383952</v>
+        <v>89127.8881585677</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
@@ -12344,7 +12344,7 @@
         <v>82</v>
       </c>
       <c r="I28" t="n">
-        <v>1288.36113517586</v>
+        <v>1631.29799074299</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -12355,19 +12355,19 @@
         <v>44287</v>
       </c>
       <c r="B29" t="n">
-        <v>2407.58521115163</v>
+        <v>2939.86077229163</v>
       </c>
       <c r="C29" t="n">
-        <v>492.981988816109</v>
+        <v>524.473438931129</v>
       </c>
       <c r="D29" t="n">
-        <v>250.466797375999</v>
+        <v>254.401964958474</v>
       </c>
       <c r="E29" t="n">
-        <v>23911.2683203522</v>
+        <v>39566.4518419882</v>
       </c>
       <c r="F29" t="n">
-        <v>146260.468772846</v>
+        <v>353619.948320526</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -12376,7 +12376,7 @@
         <v>107</v>
       </c>
       <c r="I29" t="n">
-        <v>2300.58521115163</v>
+        <v>2832.86077229163</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -12387,19 +12387,19 @@
         <v>44317</v>
       </c>
       <c r="B30" t="n">
-        <v>3381.92845499987</v>
+        <v>3513.90366466431</v>
       </c>
       <c r="C30" t="n">
-        <v>611.095393222883</v>
+        <v>579.635329579899</v>
       </c>
       <c r="D30" t="n">
-        <v>297.674255547216</v>
+        <v>274.046399590128</v>
       </c>
       <c r="E30" t="n">
-        <v>44202.7654991788</v>
+        <v>56900.3836772502</v>
       </c>
       <c r="F30" t="n">
-        <v>380033.94771723</v>
+        <v>657721.001838607</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -12408,7 +12408,7 @@
         <v>187</v>
       </c>
       <c r="I30" t="n">
-        <v>3194.92845499987</v>
+        <v>3326.90366466431</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -12419,19 +12419,19 @@
         <v>44348</v>
       </c>
       <c r="B31" t="n">
-        <v>1519.88551186532</v>
+        <v>2169.79959001967</v>
       </c>
       <c r="C31" t="n">
-        <v>330.812537408596</v>
+        <v>400.291377322786</v>
       </c>
       <c r="D31" t="n">
-        <v>171.652112995612</v>
+        <v>196.337227120376</v>
       </c>
       <c r="E31" t="n">
-        <v>13298.0361996788</v>
+        <v>27056.2321648477</v>
       </c>
       <c r="F31" t="n">
-        <v>70413.7323169627</v>
+        <v>218793.710027735</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
@@ -12440,7 +12440,7 @@
         <v>115</v>
       </c>
       <c r="I31" t="n">
-        <v>1404.88551186532</v>
+        <v>2054.79959001967</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -12451,19 +12451,19 @@
         <v>44378</v>
       </c>
       <c r="B32" t="n">
-        <v>815.243924530984</v>
+        <v>1201.28118612105</v>
       </c>
       <c r="C32" t="n">
-        <v>202.113729974</v>
+        <v>253.702388580726</v>
       </c>
       <c r="D32" t="n">
-        <v>109.81365705169</v>
+        <v>130.274111489634</v>
       </c>
       <c r="E32" t="n">
-        <v>5523.85827920181</v>
+        <v>11182.588416756</v>
       </c>
       <c r="F32" t="n">
-        <v>22339.6629218617</v>
+        <v>63481.3824113044</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -12472,7 +12472,7 @@
         <v>102</v>
       </c>
       <c r="I32" t="n">
-        <v>713.243924530984</v>
+        <v>1099.28118612105</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -12483,19 +12483,19 @@
         <v>44409</v>
       </c>
       <c r="B33" t="n">
-        <v>465.424567764946</v>
+        <v>645.616942921816</v>
       </c>
       <c r="C33" t="n">
-        <v>128.68985752513</v>
+        <v>155.842822900428</v>
       </c>
       <c r="D33" t="n">
-        <v>72.7605066907769</v>
+        <v>83.8669599331838</v>
       </c>
       <c r="E33" t="n">
-        <v>2580.95549274657</v>
+        <v>4602.95365192366</v>
       </c>
       <c r="F33" t="n">
-        <v>8603.0193629532</v>
+        <v>19599.4900532625</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
@@ -12504,7 +12504,7 @@
         <v>68</v>
       </c>
       <c r="I33" t="n">
-        <v>397.424567764946</v>
+        <v>577.616942921816</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -12515,19 +12515,19 @@
         <v>44440</v>
       </c>
       <c r="B34" t="n">
-        <v>541.639641896911</v>
+        <v>549.471909594711</v>
       </c>
       <c r="C34" t="n">
-        <v>142.476610121311</v>
+        <v>135.154487749503</v>
       </c>
       <c r="D34" t="n">
-        <v>79.0913853976479</v>
+        <v>73.2252717761325</v>
       </c>
       <c r="E34" t="n">
-        <v>3286.8470016132</v>
+        <v>3779.13197329791</v>
       </c>
       <c r="F34" t="n">
-        <v>11929.5634158929</v>
+        <v>15514.955706784</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
@@ -12536,7 +12536,7 @@
         <v>90</v>
       </c>
       <c r="I34" t="n">
-        <v>451.639641896911</v>
+        <v>459.471909594711</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -12547,19 +12547,19 @@
         <v>44470</v>
       </c>
       <c r="B35" t="n">
-        <v>520.580350585968</v>
+        <v>525.764908652378</v>
       </c>
       <c r="C35" t="n">
-        <v>136.187074587665</v>
+        <v>128.230048120538</v>
       </c>
       <c r="D35" t="n">
-        <v>75.4485388671646</v>
+        <v>69.2625490524996</v>
       </c>
       <c r="E35" t="n">
-        <v>3191.03156785353</v>
+        <v>3675.03531059963</v>
       </c>
       <c r="F35" t="n">
-        <v>11694.6462641247</v>
+        <v>15336.331098296</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
@@ -12568,7 +12568,7 @@
         <v>101</v>
       </c>
       <c r="I35" t="n">
-        <v>419.580350585968</v>
+        <v>424.764908652378</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -12579,19 +12579,19 @@
         <v>44501</v>
       </c>
       <c r="B36" t="n">
-        <v>740.033170954031</v>
+        <v>628.787676938437</v>
       </c>
       <c r="C36" t="n">
-        <v>175.88451792791</v>
+        <v>144.101845156274</v>
       </c>
       <c r="D36" t="n">
-        <v>94.1306026854012</v>
+        <v>76.1333624319908</v>
       </c>
       <c r="E36" t="n">
-        <v>5436.33514274456</v>
+        <v>4960.35929399394</v>
       </c>
       <c r="F36" t="n">
-        <v>23871.1454266058</v>
+        <v>23471.7481410716</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
@@ -12600,7 +12600,7 @@
         <v>119</v>
       </c>
       <c r="I36" t="n">
-        <v>621.033170954031</v>
+        <v>509.787676938437</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -12611,19 +12611,19 @@
         <v>44531</v>
       </c>
       <c r="B37" t="n">
-        <v>1273.8895131517</v>
+        <v>859.857634638455</v>
       </c>
       <c r="C37" t="n">
-        <v>260.577417954394</v>
+        <v>178.526209106475</v>
       </c>
       <c r="D37" t="n">
-        <v>132.34387291514</v>
+        <v>91.1353683305057</v>
       </c>
       <c r="E37" t="n">
-        <v>12679.2081477068</v>
+        <v>8294.01551668876</v>
       </c>
       <c r="F37" t="n">
-        <v>77752.540618787</v>
+        <v>49041.1658680481</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
@@ -12632,7 +12632,7 @@
         <v>158</v>
       </c>
       <c r="I37" t="n">
-        <v>1115.8895131517</v>
+        <v>701.857634638455</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -12643,19 +12643,19 @@
         <v>44562</v>
       </c>
       <c r="B38" t="n">
-        <v>702.721019754542</v>
+        <v>689.849419849753</v>
       </c>
       <c r="C38" t="n">
-        <v>161.168818131005</v>
+        <v>148.375865129448</v>
       </c>
       <c r="D38" t="n">
-        <v>85.1733410452129</v>
+        <v>76.6723049764065</v>
       </c>
       <c r="E38" t="n">
-        <v>5535.21298573409</v>
+        <v>6184.28367995938</v>
       </c>
       <c r="F38" t="n">
-        <v>26149.7317715225</v>
+        <v>33645.4116582233</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
@@ -12664,7 +12664,7 @@
         <v>70</v>
       </c>
       <c r="I38" t="n">
-        <v>632.721019754542</v>
+        <v>619.849419849753</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -12675,19 +12675,19 @@
         <v>44593</v>
       </c>
       <c r="B39" t="n">
-        <v>377.454845754462</v>
+        <v>582.207886112052</v>
       </c>
       <c r="C39" t="n">
-        <v>97.4027806294116</v>
+        <v>128.405542234795</v>
       </c>
       <c r="D39" t="n">
-        <v>53.6936184331635</v>
+        <v>66.9342072843299</v>
       </c>
       <c r="E39" t="n">
-        <v>2372.81197309984</v>
+        <v>4959.19495301071</v>
       </c>
       <c r="F39" t="n">
-        <v>8911.19652226019</v>
+        <v>25494.0790051414</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -12696,7 +12696,7 @@
         <v>55</v>
       </c>
       <c r="I39" t="n">
-        <v>322.454845754462</v>
+        <v>527.207886112052</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -12707,19 +12707,19 @@
         <v>44621</v>
       </c>
       <c r="B40" t="n">
-        <v>1482.21616229755</v>
+        <v>1734.63380658141</v>
       </c>
       <c r="C40" t="n">
-        <v>261.838076904553</v>
+        <v>278.105587700454</v>
       </c>
       <c r="D40" t="n">
-        <v>126.595852571849</v>
+        <v>130.284071334276</v>
       </c>
       <c r="E40" t="n">
-        <v>20407.1208573319</v>
+        <v>30112.6609101111</v>
       </c>
       <c r="F40" t="n">
-        <v>188024.275011779</v>
+        <v>385714.795536464</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
@@ -12728,7 +12728,7 @@
         <v>98</v>
       </c>
       <c r="I40" t="n">
-        <v>1384.21616229755</v>
+        <v>1636.63380658141</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -12739,19 +12739,19 @@
         <v>44652</v>
       </c>
       <c r="B41" t="n">
-        <v>2617.47655081522</v>
+        <v>2978.20570798977</v>
       </c>
       <c r="C41" t="n">
-        <v>379.349586823907</v>
+        <v>395.505493718824</v>
       </c>
       <c r="D41" t="n">
-        <v>172.111445349852</v>
+        <v>174.647632455512</v>
       </c>
       <c r="E41" t="n">
-        <v>58802.8848858804</v>
+        <v>84923.3393121188</v>
       </c>
       <c r="F41" t="n">
-        <v>1137929.54533002</v>
+        <v>2537299.95833463</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
@@ -12760,7 +12760,7 @@
         <v>97</v>
       </c>
       <c r="I41" t="n">
-        <v>2520.47655081522</v>
+        <v>2881.20570798977</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -12771,19 +12771,19 @@
         <v>44682</v>
       </c>
       <c r="B42" t="n">
-        <v>3682.90638612385</v>
+        <v>3558.65165726407</v>
       </c>
       <c r="C42" t="n">
-        <v>465.648474144971</v>
+        <v>436.297753990739</v>
       </c>
       <c r="D42" t="n">
-        <v>202.568957574789</v>
+        <v>188.047232985405</v>
       </c>
       <c r="E42" t="n">
-        <v>120899.33763252</v>
+        <v>127945.399336441</v>
       </c>
       <c r="F42" t="n">
-        <v>4804336.23127694</v>
+        <v>6193699.68340726</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
@@ -12792,7 +12792,7 @@
         <v>155</v>
       </c>
       <c r="I42" t="n">
-        <v>3527.90638612385</v>
+        <v>3403.65165726407</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -12803,19 +12803,19 @@
         <v>44713</v>
       </c>
       <c r="B43" t="n">
-        <v>1629.58749545082</v>
+        <v>2193.531274596</v>
       </c>
       <c r="C43" t="n">
-        <v>259.786457072405</v>
+        <v>308.075904318324</v>
       </c>
       <c r="D43" t="n">
-        <v>121.480650789906</v>
+        <v>138.411216128062</v>
       </c>
       <c r="E43" t="n">
-        <v>28688.48734338</v>
+        <v>53596.2195294065</v>
       </c>
       <c r="F43" t="n">
-        <v>375311.171854679</v>
+        <v>1200959.96691442</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -12824,7 +12824,7 @@
         <v>167</v>
       </c>
       <c r="I43" t="n">
-        <v>1462.58749545082</v>
+        <v>2026.531274596</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -12835,19 +12835,19 @@
         <v>44743</v>
       </c>
       <c r="B44" t="n">
-        <v>864.767129834512</v>
+        <v>1212.33098840256</v>
       </c>
       <c r="C44" t="n">
-        <v>162.189644706873</v>
+        <v>200.065664480979</v>
       </c>
       <c r="D44" t="n">
-        <v>79.9912052027934</v>
+        <v>94.6023976031009</v>
       </c>
       <c r="E44" t="n">
-        <v>10391.5852572248</v>
+        <v>19610.8053769811</v>
       </c>
       <c r="F44" t="n">
-        <v>80153.1033309955</v>
+        <v>226343.136029591</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
@@ -12856,7 +12856,7 @@
         <v>106</v>
       </c>
       <c r="I44" t="n">
-        <v>758.767129834512</v>
+        <v>1106.33098840256</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -12867,19 +12867,19 @@
         <v>44774</v>
       </c>
       <c r="B45" t="n">
-        <v>489.540472929221</v>
+        <v>650.583542799705</v>
       </c>
       <c r="C45" t="n">
-        <v>105.141567153956</v>
+        <v>125.795561620444</v>
       </c>
       <c r="D45" t="n">
-        <v>54.3042438775113</v>
+        <v>62.6802378712012</v>
       </c>
       <c r="E45" t="n">
-        <v>4401.52533645424</v>
+        <v>7308.74436776987</v>
       </c>
       <c r="F45" t="n">
-        <v>24025.5591224203</v>
+        <v>51826.5517670052</v>
       </c>
       <c r="G45" t="s">
         <v>27</v>
@@ -12888,7 +12888,7 @@
         <v>128</v>
       </c>
       <c r="I45" t="n">
-        <v>361.540472929221</v>
+        <v>522.583542799705</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -12899,19 +12899,19 @@
         <v>44805</v>
       </c>
       <c r="B46" t="n">
-        <v>569.227110570658</v>
+        <v>553.336540780437</v>
       </c>
       <c r="C46" t="n">
-        <v>115.929106425716</v>
+        <v>109.97332813057</v>
       </c>
       <c r="D46" t="n">
-        <v>58.7909594451996</v>
+        <v>55.3084489768145</v>
       </c>
       <c r="E46" t="n">
-        <v>5718.27622429253</v>
+        <v>5856.37858882039</v>
       </c>
       <c r="F46" t="n">
-        <v>35448.4236844618</v>
+        <v>38624.062130998</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
@@ -12920,7 +12920,7 @@
         <v>98</v>
       </c>
       <c r="I46" t="n">
-        <v>471.227110570658</v>
+        <v>455.336540780437</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -12931,19 +12931,19 @@
         <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>545.673776525854</v>
+        <v>529.223447787828</v>
       </c>
       <c r="C47" t="n">
-        <v>110.973391532904</v>
+        <v>104.785030528032</v>
       </c>
       <c r="D47" t="n">
-        <v>56.2502810867013</v>
+        <v>52.6317059333603</v>
       </c>
       <c r="E47" t="n">
-        <v>5498.3220674052</v>
+        <v>5646.86295498679</v>
       </c>
       <c r="F47" t="n">
-        <v>34206.5858176796</v>
+        <v>37607.7853729454</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
@@ -12952,7 +12952,7 @@
         <v>118</v>
       </c>
       <c r="I47" t="n">
-        <v>427.673776525854</v>
+        <v>411.223447787828</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -12963,19 +12963,19 @@
         <v>44866</v>
       </c>
       <c r="B48" t="n">
-        <v>776.518251269221</v>
+        <v>632.826872992194</v>
       </c>
       <c r="C48" t="n">
-        <v>141.81855853354</v>
+        <v>117.484330961075</v>
       </c>
       <c r="D48" t="n">
-        <v>69.3272337550595</v>
+        <v>57.7456595373567</v>
       </c>
       <c r="E48" t="n">
-        <v>9905.7656013979</v>
+        <v>7779.91876455593</v>
       </c>
       <c r="F48" t="n">
-        <v>82501.0259810011</v>
+        <v>61778.1098561543</v>
       </c>
       <c r="G48" t="s">
         <v>27</v>
@@ -12984,7 +12984,7 @@
         <v>120</v>
       </c>
       <c r="I48" t="n">
-        <v>656.518251269221</v>
+        <v>512.826872992194</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -12995,19 +12995,19 @@
         <v>44896</v>
       </c>
       <c r="B49" t="n">
-        <v>1340.61653367896</v>
+        <v>865.393332234937</v>
       </c>
       <c r="C49" t="n">
-        <v>206.548470775516</v>
+        <v>144.648481920936</v>
       </c>
       <c r="D49" t="n">
-        <v>95.5381470911962</v>
+        <v>68.6819931256763</v>
       </c>
       <c r="E49" t="n">
-        <v>25707.9475481313</v>
+        <v>13574.1728591673</v>
       </c>
       <c r="F49" t="n">
-        <v>383736.210541007</v>
+        <v>149872.752926551</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -13016,7 +13016,7 @@
         <v>72</v>
       </c>
       <c r="I49" t="n">
-        <v>1268.61653367896</v>
+        <v>793.393332234937</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -13027,19 +13027,19 @@
         <v>44927</v>
       </c>
       <c r="B50" t="n">
-        <v>733.9268271305</v>
+        <v>693.86404887612</v>
       </c>
       <c r="C50" t="n">
-        <v>130.705957138312</v>
+        <v>121.38633044844</v>
       </c>
       <c r="D50" t="n">
-        <v>63.3641095977343</v>
+        <v>58.501369019574</v>
       </c>
       <c r="E50" t="n">
-        <v>9917.20913112946</v>
+        <v>9771.49716858153</v>
       </c>
       <c r="F50" t="n">
-        <v>89107.7557480932</v>
+        <v>92828.2013274234</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
@@ -13048,7 +13048,7 @@
         <v>40</v>
       </c>
       <c r="I50" t="n">
-        <v>693.9268271305</v>
+        <v>653.86404887612</v>
       </c>
       <c r="J50" t="s">
         <v>11</v>
@@ -13059,19 +13059,19 @@
         <v>44958</v>
       </c>
       <c r="B51" t="n">
-        <v>391.600341557891</v>
+        <v>585.300911699878</v>
       </c>
       <c r="C51" t="n">
-        <v>80.6670919739228</v>
+        <v>105.825921356359</v>
       </c>
       <c r="D51" t="n">
-        <v>41.0683536170812</v>
+        <v>51.560037243151</v>
       </c>
       <c r="E51" t="n">
-        <v>3840.34903430141</v>
+        <v>7639.27228814279</v>
       </c>
       <c r="F51" t="n">
-        <v>23146.9427665968</v>
+        <v>65557.1123051005</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
@@ -13080,7 +13080,7 @@
         <v>67</v>
       </c>
       <c r="I51" t="n">
-        <v>324.600341557891</v>
+        <v>518.300911699878</v>
       </c>
       <c r="J51" t="s">
         <v>11</v>
@@ -13091,19 +13091,19 @@
         <v>44986</v>
       </c>
       <c r="B52" t="n">
-        <v>1551.65390507079</v>
+        <v>1745.37097735787</v>
       </c>
       <c r="C52" t="n">
-        <v>208.992954931459</v>
+        <v>222.825555873861</v>
       </c>
       <c r="D52" t="n">
-        <v>92.6885699029162</v>
+        <v>97.2199306339915</v>
       </c>
       <c r="E52" t="n">
-        <v>42527.8134457453</v>
+        <v>55702.127738822</v>
       </c>
       <c r="F52" t="n">
-        <v>1177509.48601553</v>
+        <v>2086642.05015758</v>
       </c>
       <c r="G52" t="s">
         <v>27</v>
@@ -13112,7 +13112,7 @@
         <v>90</v>
       </c>
       <c r="I52" t="n">
-        <v>1461.65390507079</v>
+        <v>1655.37097735787</v>
       </c>
       <c r="J52" t="s">
         <v>11</v>
@@ -13123,19 +13123,19 @@
         <v>45017</v>
       </c>
       <c r="B53" t="n">
-        <v>2748.40558182192</v>
+        <v>2997.51270423833</v>
       </c>
       <c r="C53" t="n">
-        <v>298.345890011407</v>
+        <v>312.815324440207</v>
       </c>
       <c r="D53" t="n">
-        <v>124.042104717839</v>
+        <v>128.580848837936</v>
       </c>
       <c r="E53" t="n">
-        <v>144770.193153476</v>
+        <v>180166.570708225</v>
       </c>
       <c r="F53" t="n">
-        <v>18474985.0022665</v>
+        <v>34373290.198293</v>
       </c>
       <c r="G53" t="s">
         <v>27</v>
@@ -13144,7 +13144,7 @@
         <v>75</v>
       </c>
       <c r="I53" t="n">
-        <v>2673.40558182192</v>
+        <v>2922.51270423833</v>
       </c>
       <c r="J53" t="s">
         <v>11</v>
@@ -13155,19 +13155,19 @@
         <v>45047</v>
       </c>
       <c r="B54" t="n">
-        <v>3870.95112000103</v>
+        <v>3581.17651407609</v>
       </c>
       <c r="C54" t="n">
-        <v>363.22264944907</v>
+        <v>344.347267923949</v>
       </c>
       <c r="D54" t="n">
-        <v>144.849016025953</v>
+        <v>138.271006598909</v>
       </c>
       <c r="E54" t="n">
-        <v>339982.156139638</v>
+        <v>287346.165444146</v>
       </c>
       <c r="F54" t="n">
-        <v>275677877.086133</v>
+        <v>157189477.045446</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
@@ -13176,7 +13176,7 @@
         <v>73</v>
       </c>
       <c r="I54" t="n">
-        <v>3797.95112000103</v>
+        <v>3508.17651407609</v>
       </c>
       <c r="J54" t="s">
         <v>11</v>
@@ -13187,19 +13187,19 @@
         <v>45078</v>
       </c>
       <c r="B55" t="n">
-        <v>1697.12693689347</v>
+        <v>2205.45817982224</v>
       </c>
       <c r="C55" t="n">
-        <v>208.132629834052</v>
+        <v>247.340274308445</v>
       </c>
       <c r="D55" t="n">
-        <v>89.7145095884927</v>
+        <v>103.820915452054</v>
       </c>
       <c r="E55" t="n">
-        <v>60963.4931887314</v>
+        <v>104490.404471581</v>
       </c>
       <c r="F55" t="n">
-        <v>2945368.12001931</v>
+        <v>9927199.22689462</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
@@ -13208,7 +13208,7 @@
         <v>110</v>
       </c>
       <c r="I55" t="n">
-        <v>1587.12693689347</v>
+        <v>2095.45817982224</v>
       </c>
       <c r="J55" t="s">
         <v>11</v>
@@ -13219,19 +13219,19 @@
         <v>45108</v>
       </c>
       <c r="B56" t="n">
-        <v>894.949881922056</v>
+        <v>1217.87578572282</v>
       </c>
       <c r="C56" t="n">
-        <v>132.495534004668</v>
+        <v>163.712911499808</v>
       </c>
       <c r="D56" t="n">
-        <v>60.5167134589044</v>
+        <v>72.5628034954212</v>
       </c>
       <c r="E56" t="n">
-        <v>19012.992146894</v>
+        <v>33563.7451560052</v>
       </c>
       <c r="F56" t="n">
-        <v>334912.704852216</v>
+        <v>939097.781100392</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
@@ -13240,7 +13240,7 @@
         <v>99</v>
       </c>
       <c r="I56" t="n">
-        <v>795.949881922056</v>
+        <v>1118.87578572282</v>
       </c>
       <c r="J56" t="s">
         <v>11</v>
@@ -13251,19 +13251,19 @@
         <v>45139</v>
       </c>
       <c r="B57" t="n">
-        <v>504.121570664804</v>
+        <v>653.072463500172</v>
       </c>
       <c r="C57" t="n">
-        <v>87.3056375387026</v>
+        <v>104.861623433049</v>
       </c>
       <c r="D57" t="n">
-        <v>41.9370900964872</v>
+        <v>49.1482634548572</v>
       </c>
       <c r="E57" t="n">
-        <v>7269.10937075911</v>
+        <v>11295.1408794616</v>
       </c>
       <c r="F57" t="n">
-        <v>71323.5002603069</v>
+        <v>143877.763834345</v>
       </c>
       <c r="G57" t="s">
         <v>27</v>
@@ -13272,7 +13272,7 @@
         <v>103</v>
       </c>
       <c r="I57" t="n">
-        <v>401.121570664804</v>
+        <v>550.072463500172</v>
       </c>
       <c r="J57" t="s">
         <v>11</v>
@@ -13283,19 +13283,19 @@
         <v>45170</v>
       </c>
       <c r="B58" t="n">
-        <v>585.894022717037</v>
+        <v>555.27209769424</v>
       </c>
       <c r="C58" t="n">
-        <v>95.9573166125924</v>
+        <v>92.2381926768782</v>
       </c>
       <c r="D58" t="n">
-        <v>45.2629451824043</v>
+        <v>43.708408636289</v>
       </c>
       <c r="E58" t="n">
-        <v>9653.4373101921</v>
+        <v>8840.7319634678</v>
       </c>
       <c r="F58" t="n">
-        <v>114444.234799202</v>
+        <v>99723.893714068</v>
       </c>
       <c r="G58" t="s">
         <v>27</v>
@@ -13304,7 +13304,7 @@
         <v>72</v>
       </c>
       <c r="I58" t="n">
-        <v>513.894022717037</v>
+        <v>483.27209769424</v>
       </c>
       <c r="J58" t="s">
         <v>11</v>
@@ -13315,19 +13315,19 @@
         <v>45200</v>
       </c>
       <c r="B59" t="n">
-        <v>560.796781044147</v>
+        <v>530.954918487676</v>
       </c>
       <c r="C59" t="n">
-        <v>92.0155489140045</v>
+        <v>88.1618412720466</v>
       </c>
       <c r="D59" t="n">
-        <v>43.429359576538</v>
+        <v>41.7710955456732</v>
       </c>
       <c r="E59" t="n">
-        <v>9198.80981398663</v>
+        <v>8462.10720382362</v>
       </c>
       <c r="F59" t="n">
-        <v>108345.837790674</v>
+        <v>95591.8978395881</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
@@ -13336,7 +13336,7 @@
         <v>110</v>
       </c>
       <c r="I59" t="n">
-        <v>450.796781044147</v>
+        <v>420.954918487676</v>
       </c>
       <c r="J59" t="s">
         <v>11</v>
@@ -13347,19 +13347,19 @@
         <v>45231</v>
       </c>
       <c r="B60" t="n">
-        <v>798.528377524042</v>
+        <v>634.848764719539</v>
       </c>
       <c r="C60" t="n">
-        <v>116.561948146581</v>
+        <v>98.6225587188025</v>
       </c>
       <c r="D60" t="n">
-        <v>53.0031743618762</v>
+        <v>45.7376616474109</v>
       </c>
       <c r="E60" t="n">
-        <v>17603.7448732028</v>
+        <v>11922.3984007207</v>
       </c>
       <c r="F60" t="n">
-        <v>329903.753655522</v>
+        <v>172232.655305469</v>
       </c>
       <c r="G60" t="s">
         <v>27</v>
@@ -13368,7 +13368,7 @@
         <v>89</v>
       </c>
       <c r="I60" t="n">
-        <v>709.528377524042</v>
+        <v>545.848764719539</v>
       </c>
       <c r="J60" t="s">
         <v>11</v>
@@ -13379,19 +13379,19 @@
         <v>45261</v>
       </c>
       <c r="B61" t="n">
-        <v>1380.98186904784</v>
+        <v>868.164359318128</v>
       </c>
       <c r="C61" t="n">
-        <v>167.335504956513</v>
+        <v>120.76023670189</v>
       </c>
       <c r="D61" t="n">
-        <v>71.8693149917735</v>
+        <v>54.0924200526432</v>
       </c>
       <c r="E61" t="n">
-        <v>51432.3213922019</v>
+        <v>21775.2943533396</v>
       </c>
       <c r="F61" t="n">
-        <v>2695844.04143145</v>
+        <v>511448.434652953</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
@@ -13400,7 +13400,7 @@
         <v>74</v>
       </c>
       <c r="I61" t="n">
-        <v>1306.98186904784</v>
+        <v>794.164359318128</v>
       </c>
       <c r="J61" t="s">
         <v>11</v>
@@ -15039,7 +15039,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2531.46398914431</v>
+        <v>2520.22608915359</v>
       </c>
       <c r="C2" t="n">
         <v>1991.94667052589</v>
@@ -15060,7 +15060,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>86.4639891443148</v>
+        <v>75.2260891535907</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -15071,7 +15071,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2587.90740269787</v>
+        <v>2601.1300606122</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4297907211</v>
@@ -15092,7 +15092,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1654.90740269787</v>
+        <v>1668.1300606122</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -15103,13 +15103,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4609.53245017568</v>
+        <v>4579.58257409743</v>
       </c>
       <c r="C4" t="n">
-        <v>3685.40524313014</v>
+        <v>3583.46847958981</v>
       </c>
       <c r="D4" t="n">
-        <v>3485.59788473942</v>
+        <v>3458.27291527576</v>
       </c>
       <c r="E4" t="n">
         <v>6059.97763513824</v>
@@ -15124,7 +15124,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1101.53245017568</v>
+        <v>1071.58257409743</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -15135,13 +15135,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5251.78196392506</v>
+        <v>5209.81028867889</v>
       </c>
       <c r="C5" t="n">
-        <v>4160.45266010341</v>
+        <v>4015.79375305297</v>
       </c>
       <c r="D5" t="n">
-        <v>3868.95154727896</v>
+        <v>3838.53275622135</v>
       </c>
       <c r="E5" t="n">
         <v>7086.92421038528</v>
@@ -15156,7 +15156,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-108.218036074941</v>
+        <v>-150.189711321113</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -15167,13 +15167,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6220.48657809168</v>
+        <v>6122.76281129194</v>
       </c>
       <c r="C6" t="n">
-        <v>4871.12044584662</v>
+        <v>4584.6519933116</v>
       </c>
       <c r="D6" t="n">
-        <v>4472.06523132693</v>
+        <v>4220.52092003925</v>
       </c>
       <c r="E6" t="n">
         <v>8215.79409716881</v>
@@ -15188,7 +15188,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>956.486578091676</v>
+        <v>858.762811291938</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -15199,13 +15199,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6674.08093117659</v>
+        <v>6507.49196784905</v>
       </c>
       <c r="C7" t="n">
-        <v>5190.68248524955</v>
+        <v>4830.01434364413</v>
       </c>
       <c r="D7" t="n">
-        <v>4615.31545913593</v>
+        <v>4265.19318711448</v>
       </c>
       <c r="E7" t="n">
         <v>8670.22519575541</v>
@@ -15220,7 +15220,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>481.080931176587</v>
+        <v>314.491967849047</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -15231,13 +15231,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6602.20105528193</v>
+        <v>6332.20644361887</v>
       </c>
       <c r="C8" t="n">
-        <v>4956.81992629341</v>
+        <v>4418.19850010239</v>
       </c>
       <c r="D8" t="n">
-        <v>4366.3062571446</v>
+        <v>3935.16308718223</v>
       </c>
       <c r="E8" t="n">
         <v>8416.9674434498</v>
@@ -15252,7 +15252,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1630.20105528193</v>
+        <v>1360.20644361887</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -15263,7 +15263,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5738.29698782305</v>
+        <v>5546.64864939087</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83189494892</v>
@@ -15284,7 +15284,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>766.296987823051</v>
+        <v>574.648649390866</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -15295,7 +15295,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4036.64574687905</v>
+        <v>4072.98190664041</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58054715183</v>
@@ -15304,10 +15304,10 @@
         <v>2224.76066630715</v>
       </c>
       <c r="E10" t="n">
-        <v>5294.05431899279</v>
+        <v>5909.08116029609</v>
       </c>
       <c r="F10" t="n">
-        <v>6016.43089291314</v>
+        <v>6211.64934226131</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -15316,7 +15316,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-455.354253120952</v>
+        <v>-419.018093359587</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -15327,7 +15327,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2987.67853328369</v>
+        <v>2973.47256755123</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16735152256</v>
@@ -15336,7 +15336,7 @@
         <v>1489.11877012796</v>
       </c>
       <c r="E11" t="n">
-        <v>4086.75304240855</v>
+        <v>4329.31540999517</v>
       </c>
       <c r="F11" t="n">
         <v>4708.01462847304</v>
@@ -15348,7 +15348,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-218.321466716305</v>
+        <v>-232.527432448774</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -15359,7 +15359,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3076.8729223493</v>
+        <v>3079.33797239095</v>
       </c>
       <c r="C12" t="n">
         <v>2120.53544403332</v>
@@ -15380,7 +15380,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-534.127077650695</v>
+        <v>-531.662027609047</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -15391,7 +15391,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3160.85311968825</v>
+        <v>3119.50908873943</v>
       </c>
       <c r="C13" t="n">
         <v>2176.18727763944</v>
@@ -15412,7 +15412,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-533.146880311748</v>
+        <v>-574.490911260571</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -15423,7 +15423,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2671.90011414289</v>
+        <v>2659.9969382211</v>
       </c>
       <c r="C14" t="n">
         <v>1630.70239110265</v>
@@ -15444,7 +15444,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-503.099885857114</v>
+        <v>-515.003061778902</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -15455,7 +15455,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2732.62105426294</v>
+        <v>2805.59178655453</v>
       </c>
       <c r="C15" t="n">
         <v>1739.511421226</v>
@@ -15476,7 +15476,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-692.378945737056</v>
+        <v>-619.408213445467</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -15487,13 +15487,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4579.38086213995</v>
+        <v>4434.54901708254</v>
       </c>
       <c r="C16" t="n">
-        <v>2857.67405792445</v>
+        <v>2555.24322441158</v>
       </c>
       <c r="D16" t="n">
-        <v>2530.05487648809</v>
+        <v>2348.33279195406</v>
       </c>
       <c r="E16" t="n">
         <v>7405.78804909315</v>
@@ -15508,7 +15508,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2640.61913786005</v>
+        <v>-2785.45098291746</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -15519,10 +15519,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5465.15115904722</v>
+        <v>5291.71071094716</v>
       </c>
       <c r="C17" t="n">
-        <v>3780.97978024499</v>
+        <v>3591.95716632299</v>
       </c>
       <c r="D17" t="n">
         <v>3039.60259796516</v>
@@ -15540,7 +15540,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2382.84884095278</v>
+        <v>-2556.28928905284</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -15551,13 +15551,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6512.96010083414</v>
+        <v>6201.54805873002</v>
       </c>
       <c r="C18" t="n">
-        <v>4481.40955458169</v>
+        <v>4058.27312921099</v>
       </c>
       <c r="D18" t="n">
-        <v>3632.091522185</v>
+        <v>3564.3250414239</v>
       </c>
       <c r="E18" t="n">
         <v>9689.70911060613</v>
@@ -15572,7 +15572,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1583.03989916586</v>
+        <v>-1894.45194126998</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -15583,10 +15583,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>7045.60055612493</v>
+        <v>6631.41633963561</v>
       </c>
       <c r="C19" t="n">
-        <v>4597.30181783763</v>
+        <v>4346.55437725983</v>
       </c>
       <c r="D19" t="n">
         <v>3707.33132005967</v>
@@ -15604,7 +15604,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-2624.39944387507</v>
+        <v>-3038.58366036439</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -15615,7 +15615,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7039.66089800196</v>
+        <v>6689.09004452504</v>
       </c>
       <c r="C20" t="n">
         <v>4381.89567560406</v>
@@ -15636,7 +15636,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2182.33910199804</v>
+        <v>-2532.90995547496</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -15647,7 +15647,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6197.17498802989</v>
+        <v>6085.31317741155</v>
       </c>
       <c r="C21" t="n">
         <v>3572.24646133236</v>
@@ -15668,7 +15668,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-669.825011970112</v>
+        <v>-781.686822588455</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -15679,7 +15679,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4671.72858364992</v>
+        <v>4617.05082421935</v>
       </c>
       <c r="C22" t="n">
         <v>2274.99752473612</v>
@@ -15688,10 +15688,10 @@
         <v>1645.25308091835</v>
       </c>
       <c r="E22" t="n">
-        <v>7240.39542434654</v>
+        <v>7117.36240885461</v>
       </c>
       <c r="F22" t="n">
-        <v>7632.85290640664</v>
+        <v>7583.42900695803</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
@@ -15700,7 +15700,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1260.27141635008</v>
+        <v>-1314.94917578065</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -15711,7 +15711,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3269.99076264317</v>
+        <v>3439.50255028697</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19149678273</v>
@@ -15720,7 +15720,7 @@
         <v>1036.14847407148</v>
       </c>
       <c r="E23" t="n">
-        <v>4865.72193442731</v>
+        <v>5348.35033048212</v>
       </c>
       <c r="F23" t="n">
         <v>6016.79481331413</v>
@@ -15732,7 +15732,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-352.009237356833</v>
+        <v>-182.497449713032</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -15743,7 +15743,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3182.01354032148</v>
+        <v>3314.69282551248</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72864932199</v>
@@ -15764,7 +15764,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-466.986459678516</v>
+        <v>-334.307174487524</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -15775,7 +15775,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3240.50084449602</v>
+        <v>3219.42423442739</v>
       </c>
       <c r="C25" t="n">
         <v>1829.00664776947</v>
@@ -15796,7 +15796,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1678.49915550398</v>
+        <v>-1699.57576557261</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -15807,7 +15807,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2837.81896037123</v>
+        <v>2800.68092353902</v>
       </c>
       <c r="C26" t="n">
         <v>1423.24887290613</v>
@@ -15828,7 +15828,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1558.18103962877</v>
+        <v>-1595.31907646098</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -15839,7 +15839,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2897.89688619167</v>
+        <v>2949.76359088171</v>
       </c>
       <c r="C27" t="n">
         <v>1434.76508825466</v>
@@ -15860,7 +15860,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1791.10311380833</v>
+        <v>-1739.23640911829</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -15871,13 +15871,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4453.36793307685</v>
+        <v>4583.91571278839</v>
       </c>
       <c r="C28" t="n">
-        <v>2147.2310758301</v>
+        <v>2211.33564387758</v>
       </c>
       <c r="D28" t="n">
-        <v>1863.77393424052</v>
+        <v>1800.25577767751</v>
       </c>
       <c r="E28" t="n">
         <v>8519.52465684769</v>
@@ -15892,7 +15892,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2202.63206692315</v>
+        <v>-2072.08428721161</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -15903,10 +15903,10 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5625.09996195795</v>
+        <v>5172.56523268995</v>
       </c>
       <c r="C29" t="n">
-        <v>3296.00387173334</v>
+        <v>2941.98779556963</v>
       </c>
       <c r="D29" t="n">
         <v>2343.11284856902</v>
@@ -15924,7 +15924,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1498.90003804205</v>
+        <v>-1951.43476731005</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -15935,10 +15935,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6567.43121020893</v>
+        <v>6436.16615609663</v>
       </c>
       <c r="C30" t="n">
-        <v>3943.60404301965</v>
+        <v>3839.23488708462</v>
       </c>
       <c r="D30" t="n">
         <v>2854.30301121725</v>
@@ -15956,7 +15956,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2256.56878979107</v>
+        <v>-2387.83384390337</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -15967,7 +15967,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7085.52681178498</v>
+        <v>6861.05456960715</v>
       </c>
       <c r="C31" t="n">
         <v>4049.31326272684</v>
@@ -15988,7 +15988,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-2857.47318821502</v>
+        <v>-3081.94543039285</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -15999,7 +15999,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6920.86954434931</v>
+        <v>6993.30811374558</v>
       </c>
       <c r="C32" t="n">
         <v>3846.91026639935</v>
@@ -16020,7 +16020,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-2762.13045565069</v>
+        <v>-2689.69188625442</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -16031,7 +16031,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6179.01571224011</v>
+        <v>6300.27675078031</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90185126986</v>
@@ -16052,7 +16052,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-1707.98428775989</v>
+        <v>-1586.72324921969</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -16063,7 +16063,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4435.83623215558</v>
+        <v>4948.28518341289</v>
       </c>
       <c r="C34" t="n">
         <v>1908.87651100061</v>
@@ -16072,7 +16072,7 @@
         <v>1158.23136849766</v>
       </c>
       <c r="E34" t="n">
-        <v>7196.2425014789</v>
+        <v>7331.92561284433</v>
       </c>
       <c r="F34" t="n">
         <v>8948.05095962559</v>
@@ -16084,7 +16084,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-875.16376784442</v>
+        <v>-362.714816587108</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -16095,7 +16095,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3238.97752704646</v>
+        <v>3878.15548611513</v>
       </c>
       <c r="C35" t="n">
         <v>1251.3782561686</v>
@@ -16104,7 +16104,7 @@
         <v>669.263043288077</v>
       </c>
       <c r="E35" t="n">
-        <v>5670.92569293253</v>
+        <v>6135.06885014175</v>
       </c>
       <c r="F35" t="n">
         <v>7309.70741139115</v>
@@ -16116,7 +16116,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>703.977527046455</v>
+        <v>1343.15548611513</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -16127,7 +16127,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3158.30316956083</v>
+        <v>3622.76585326116</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35462556352</v>
@@ -16148,7 +16148,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>589.303169560828</v>
+        <v>1053.76585326116</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -16159,7 +16159,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3304.20350540051</v>
+        <v>3296.66680200526</v>
       </c>
       <c r="C37" t="n">
         <v>1501.83211585826</v>
@@ -16180,7 +16180,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1484.20350540051</v>
+        <v>1476.66680200526</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -16191,7 +16191,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2923.18423114309</v>
+        <v>2866.65523064283</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63294805888</v>
@@ -16212,7 +16212,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>605.18423114309</v>
+        <v>548.655230642828</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -16223,7 +16223,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2915.55730604241</v>
+        <v>3077.80608193305</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79777241534</v>
@@ -16244,7 +16244,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2746.44269395759</v>
+        <v>-2584.19391806695</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -16255,13 +16255,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4611.04577870867</v>
+        <v>4706.47475401458</v>
       </c>
       <c r="C40" t="n">
-        <v>2106.06003224906</v>
+        <v>1836.85599140829</v>
       </c>
       <c r="D40" t="n">
-        <v>1448.3602131735</v>
+        <v>1178.58295173923</v>
       </c>
       <c r="E40" t="n">
         <v>9568.36934699627</v>
@@ -16276,7 +16276,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1931.95422129133</v>
+        <v>-1836.52524598542</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -16287,10 +16287,10 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5657.48310493588</v>
+        <v>5149.55004030307</v>
       </c>
       <c r="C41" t="n">
-        <v>2826.46371836748</v>
+        <v>2486.77774356609</v>
       </c>
       <c r="D41" t="n">
         <v>1722.85011950393</v>
@@ -16308,7 +16308,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2019.51689506412</v>
+        <v>-2527.44995969693</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -16319,7 +16319,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6560.71901484822</v>
+        <v>6406.60896867615</v>
       </c>
       <c r="C42" t="n">
         <v>3418.60061292887</v>
@@ -16340,7 +16340,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2506.28098515178</v>
+        <v>-2660.39103132385</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -16351,7 +16351,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>7014.65305149414</v>
+        <v>6820.12389734799</v>
       </c>
       <c r="C43" t="n">
         <v>3513.08387032542</v>
@@ -16372,7 +16372,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1311.34694850586</v>
+        <v>-1505.87610265201</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -16383,7 +16383,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6991.47794662348</v>
+        <v>6903.81747366134</v>
       </c>
       <c r="C44" t="n">
         <v>3323.75248837071</v>
@@ -16404,7 +16404,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2172.52205337652</v>
+        <v>-2260.18252633866</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -16415,7 +16415,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6102.87459811875</v>
+        <v>6238.46039314897</v>
       </c>
       <c r="C45" t="n">
         <v>2633.37387178122</v>
@@ -16436,7 +16436,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2251.12540188125</v>
+        <v>-2115.53960685103</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -16447,7 +16447,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4553.37597129545</v>
+        <v>4881.76833898923</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35556188795</v>
@@ -16468,7 +16468,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1433.62402870455</v>
+        <v>-1105.23166101077</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -16479,7 +16479,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3345.45392111127</v>
+        <v>3809.70095215896</v>
       </c>
       <c r="C47" t="n">
         <v>979.514189731485</v>
@@ -16500,7 +16500,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1131.54607888873</v>
+        <v>-667.299047841044</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -16511,7 +16511,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3286.51765798678</v>
+        <v>3649.39838524053</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49497256188</v>
@@ -16532,7 +16532,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1253.48234201322</v>
+        <v>-890.601614759466</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -16543,7 +16543,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3410.9392690053</v>
+        <v>3385.65245294953</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38066689333</v>
@@ -16564,7 +16564,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-332.060730994699</v>
+        <v>-357.347547050473</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -20983,13 +20983,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>277.48203942511</v>
+        <v>277.865830339977</v>
       </c>
       <c r="C2" t="n">
-        <v>188.214243032656</v>
+        <v>189.345189679115</v>
       </c>
       <c r="D2" t="n">
-        <v>169.819021188253</v>
+        <v>170.770103959806</v>
       </c>
       <c r="E2" t="n">
         <v>440.627362179176</v>
@@ -21004,7 +21004,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.5179605748896</v>
+        <v>-70.1341696600232</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -21015,13 +21015,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>248.233715853581</v>
+        <v>248.288514692825</v>
       </c>
       <c r="C3" t="n">
-        <v>185.152272515094</v>
+        <v>185.678128716803</v>
       </c>
       <c r="D3" t="n">
-        <v>167.099360293025</v>
+        <v>168.303618742774</v>
       </c>
       <c r="E3" t="n">
         <v>377.788952082555</v>
@@ -21036,7 +21036,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>122.233715853581</v>
+        <v>122.288514692825</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -21047,7 +21047,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>193.166155297014</v>
+        <v>192.912837326749</v>
       </c>
       <c r="C4" t="n">
         <v>143.01186863588</v>
@@ -21068,7 +21068,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>101.166155297014</v>
+        <v>100.912837326749</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -21079,7 +21079,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>210.537278547931</v>
+        <v>210.549287911194</v>
       </c>
       <c r="C5" t="n">
         <v>151.169620017098</v>
@@ -21100,7 +21100,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>156.537278547931</v>
+        <v>156.549287911194</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -21111,7 +21111,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>238.034701700444</v>
+        <v>238.182134870172</v>
       </c>
       <c r="C6" t="n">
         <v>161.529209914064</v>
@@ -21132,7 +21132,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>198.034701700444</v>
+        <v>198.182134870172</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -21143,7 +21143,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>262.494582648554</v>
+        <v>262.712803854876</v>
       </c>
       <c r="C7" t="n">
         <v>173.974474251093</v>
@@ -21164,7 +21164,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>188.494582648554</v>
+        <v>188.712803854876</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -21175,10 +21175,10 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>272.18405127096</v>
+        <v>272.531068565446</v>
       </c>
       <c r="C8" t="n">
-        <v>186.592849523182</v>
+        <v>186.780385608902</v>
       </c>
       <c r="D8" t="n">
         <v>163.596730639674</v>
@@ -21196,7 +21196,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>215.18405127096</v>
+        <v>215.531068565446</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -21207,7 +21207,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>238.886726538202</v>
+        <v>238.86900379417</v>
       </c>
       <c r="C9" t="n">
         <v>170.178817301019</v>
@@ -21228,7 +21228,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>181.886726538202</v>
+        <v>181.86900379417</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -21239,7 +21239,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>226.428897607829</v>
+        <v>226.274865091437</v>
       </c>
       <c r="C10" t="n">
         <v>158.056003992552</v>
@@ -21260,7 +21260,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>145.428897607829</v>
+        <v>145.274865091437</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -21271,7 +21271,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>207.172120615694</v>
+        <v>206.927295349362</v>
       </c>
       <c r="C11" t="n">
         <v>143.297914456867</v>
@@ -21292,7 +21292,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>129.172120615694</v>
+        <v>128.927295349362</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -21303,7 +21303,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>223.943914818864</v>
+        <v>224.060978649435</v>
       </c>
       <c r="C12" t="n">
         <v>145.236259397156</v>
@@ -21324,7 +21324,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>160.943914818864</v>
+        <v>161.060978649435</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -21335,7 +21335,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>200.71681926931</v>
+        <v>200.51267837448</v>
       </c>
       <c r="C13" t="n">
         <v>130.640496742923</v>
@@ -21356,7 +21356,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>127.71681926931</v>
+        <v>127.51267837448</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -21367,7 +21367,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>263.030383834216</v>
+        <v>263.036687365969</v>
       </c>
       <c r="C14" t="n">
         <v>168.75127543887</v>
@@ -21388,7 +21388,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>195.030383834216</v>
+        <v>195.036687365969</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -21399,7 +21399,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>235.821967247207</v>
+        <v>235.773261200813</v>
       </c>
       <c r="C15" t="n">
         <v>149.465138407806</v>
@@ -21420,7 +21420,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>177.821967247207</v>
+        <v>177.773261200813</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -21431,7 +21431,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>190.206753742795</v>
+        <v>189.918115604955</v>
       </c>
       <c r="C16" t="n">
         <v>120.930459163208</v>
@@ -21452,7 +21452,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>127.206753742795</v>
+        <v>126.918115604955</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -21463,7 +21463,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>206.288821405577</v>
+        <v>206.086574869316</v>
       </c>
       <c r="C17" t="n">
         <v>129.298360432976</v>
@@ -21484,7 +21484,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>132.288821405577</v>
+        <v>132.086574869316</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -21495,7 +21495,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>231.29184318637</v>
+        <v>231.238905551733</v>
       </c>
       <c r="C18" t="n">
         <v>141.826013054688</v>
@@ -21516,7 +21516,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>134.29184318637</v>
+        <v>134.238905551733</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -21527,7 +21527,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>253.38535025324</v>
+        <v>253.447496021489</v>
       </c>
       <c r="C19" t="n">
         <v>153.909943721984</v>
@@ -21548,7 +21548,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>144.38535025324</v>
+        <v>144.447496021489</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -21559,7 +21559,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>260.982700591465</v>
+        <v>261.144670645668</v>
       </c>
       <c r="C20" t="n">
         <v>156.919104546279</v>
@@ -21580,7 +21580,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>168.982700591465</v>
+        <v>169.144670645668</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -21591,7 +21591,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>230.425406230529</v>
+        <v>230.425473848545</v>
       </c>
       <c r="C21" t="n">
         <v>137.722690745677</v>
@@ -21612,7 +21612,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>170.425406230529</v>
+        <v>170.425473848545</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -21623,7 +21623,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>219.172312420526</v>
+        <v>219.026690022364</v>
       </c>
       <c r="C22" t="n">
         <v>129.31702760824</v>
@@ -21644,7 +21644,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>170.172312420526</v>
+        <v>170.026690022364</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -21655,7 +21655,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>202.857038889391</v>
+        <v>202.589607349981</v>
       </c>
       <c r="C23" t="n">
         <v>116.783105600643</v>
@@ -21676,7 +21676,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>156.857038889391</v>
+        <v>156.589607349981</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -21687,7 +21687,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>218.164494515651</v>
+        <v>218.064096253975</v>
       </c>
       <c r="C24" t="n">
         <v>123.7084654199</v>
@@ -21708,7 +21708,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>156.164494515651</v>
+        <v>156.064096253975</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -21719,7 +21719,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>197.570460464009</v>
+        <v>197.346032824699</v>
       </c>
       <c r="C25" t="n">
         <v>108.328888348427</v>
@@ -21740,7 +21740,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>125.570460464009</v>
+        <v>125.346032824699</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -21751,7 +21751,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>254.783697020489</v>
+        <v>254.615395678631</v>
       </c>
       <c r="C26" t="n">
         <v>141.46341523127</v>
@@ -21772,7 +21772,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>228.783697020489</v>
+        <v>228.615395678631</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -21783,7 +21783,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>229.515710220802</v>
+        <v>229.354315247034</v>
       </c>
       <c r="C27" t="n">
         <v>127.271112255047</v>
@@ -21804,7 +21804,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>199.515710220802</v>
+        <v>199.354315247034</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -21815,7 +21815,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>187.29412360357</v>
+        <v>187.016768608018</v>
       </c>
       <c r="C28" t="n">
         <v>102.402055551194</v>
@@ -21836,7 +21836,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>156.29412360357</v>
+        <v>156.016768608018</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -21847,7 +21847,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>203.553418591665</v>
+        <v>203.267819877926</v>
       </c>
       <c r="C29" t="n">
         <v>108.955516169436</v>
@@ -21868,7 +21868,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>169.553418591665</v>
+        <v>169.267819877926</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -21879,7 +21879,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>227.068256623252</v>
+        <v>226.86002393882</v>
       </c>
       <c r="C30" t="n">
         <v>119.201223405021</v>
@@ -21900,7 +21900,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>190.068256623252</v>
+        <v>189.86002393882</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -21911,7 +21911,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>246.488657107018</v>
+        <v>246.376425371712</v>
       </c>
       <c r="C31" t="n">
         <v>127.777574385447</v>
@@ -21932,7 +21932,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>184.488657107018</v>
+        <v>184.376425371712</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -21943,7 +21943,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>252.164317991016</v>
+        <v>252.136417478754</v>
       </c>
       <c r="C32" t="n">
         <v>130.237359766019</v>
@@ -21964,7 +21964,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>173.164317991016</v>
+        <v>173.136417478754</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -21975,7 +21975,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>223.691418985889</v>
+        <v>223.624418160636</v>
       </c>
       <c r="C33" t="n">
         <v>116.118219718871</v>
@@ -21996,7 +21996,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>6.69141898588873</v>
+        <v>6.62441816063614</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -22007,7 +22007,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>213.381812860659</v>
+        <v>213.23165876462</v>
       </c>
       <c r="C34" t="n">
         <v>109.895473802937</v>
@@ -22028,7 +22028,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>117.381812860659</v>
+        <v>117.23165876462</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -22039,7 +22039,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>198.47630200356</v>
+        <v>198.232955221152</v>
       </c>
       <c r="C35" t="n">
         <v>100.353933030024</v>
@@ -22060,7 +22060,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>106.47630200356</v>
+        <v>106.232955221152</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -22071,7 +22071,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>211.355966739156</v>
+        <v>211.154838766562</v>
       </c>
       <c r="C36" t="n">
         <v>105.876923837182</v>
@@ -22092,7 +22092,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>137.355966739156</v>
+        <v>137.154838766562</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -22103,7 +22103,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>192.973257276841</v>
+        <v>192.730125880723</v>
       </c>
       <c r="C37" t="n">
         <v>93.9520022817952</v>
@@ -22124,7 +22124,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>113.973257276841</v>
+        <v>113.730125880723</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -22135,7 +22135,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>246.473840890157</v>
+        <v>246.236768376964</v>
       </c>
       <c r="C38" t="n">
         <v>120.172061969526</v>
@@ -22156,7 +22156,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>97.473840890157</v>
+        <v>97.2367683769638</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -22167,7 +22167,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>222.588365672233</v>
+        <v>222.358511960042</v>
       </c>
       <c r="C39" t="n">
         <v>109.336417498127</v>
@@ -22188,7 +22188,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>105.588365672233</v>
+        <v>105.358511960042</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -22199,7 +22199,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>183.491081113999</v>
+        <v>183.213764031367</v>
       </c>
       <c r="C40" t="n">
         <v>89.7284552740362</v>
@@ -22220,7 +22220,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>45.4910811139986</v>
+        <v>45.2137640313674</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -22231,7 +22231,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>199.440731380699</v>
+        <v>199.138504209688</v>
       </c>
       <c r="C41" t="n">
         <v>95.0744105932967</v>
@@ -22252,7 +22252,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>10.4407313806987</v>
+        <v>10.1385042096883</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -22263,7 +22263,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>222.083190661803</v>
+        <v>221.805675910553</v>
       </c>
       <c r="C42" t="n">
         <v>103.31833065883</v>
@@ -22284,7 +22284,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>10.0831906618032</v>
+        <v>9.80567591055308</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -22295,7 +22295,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>240.415554495468</v>
+        <v>240.193500474653</v>
       </c>
       <c r="C43" t="n">
         <v>110.175936899035</v>
@@ -22314,7 +22314,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-23.5844455045319</v>
+        <v>-23.806499525347</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -22325,7 +22325,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>245.225235259386</v>
+        <v>245.063652007003</v>
       </c>
       <c r="C44" t="n">
         <v>112.208012942677</v>
@@ -22344,7 +22344,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-43.774764740614</v>
+        <v>-43.936347992997</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -22355,7 +22355,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>217.936774728584</v>
+        <v>217.784136458075</v>
       </c>
       <c r="C45" t="n">
         <v>101.139557790893</v>
@@ -22376,7 +22376,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-16.0632252714163</v>
+        <v>-16.2158635419252</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -22387,7 +22387,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>208.065300944523</v>
+        <v>207.881562048221</v>
       </c>
       <c r="C46" t="n">
         <v>96.2336517542998</v>
@@ -22408,7 +22408,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>15.0653009445235</v>
+        <v>14.8815620482211</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -22419,7 +22419,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>194.253292242961</v>
+        <v>194.016907102939</v>
       </c>
       <c r="C47" t="n">
         <v>88.5751739882669</v>
@@ -22440,7 +22440,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>1.25329224296144</v>
+        <v>1.01690710293903</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -22451,7 +22451,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>206.55571593817</v>
+        <v>206.316352268705</v>
       </c>
       <c r="C48" t="n">
         <v>93.1297191547481</v>
@@ -22472,7 +22472,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>23.5557159381702</v>
+        <v>23.3163522687047</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -22483,7 +22483,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>189.278663537234</v>
+        <v>189.01992753818</v>
       </c>
       <c r="C49" t="n">
         <v>83.4469401030609</v>
@@ -22504,7 +22504,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-55.7213364627656</v>
+        <v>-55.9800724618204</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -28801,7 +28801,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2302.81418598472</v>
+        <v>2301.14176551591</v>
       </c>
       <c r="C2" t="n">
         <v>1402.45845867814</v>
@@ -28822,7 +28822,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>163.814185984718</v>
+        <v>162.141765515915</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -28833,7 +28833,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1919.16473557291</v>
+        <v>1903.09417655727</v>
       </c>
       <c r="C3" t="n">
         <v>1074.38963336526</v>
@@ -28854,7 +28854,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>247.164735572914</v>
+        <v>231.094176557268</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -28865,7 +28865,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3052.28867800838</v>
+        <v>3057.28010983117</v>
       </c>
       <c r="C4" t="n">
         <v>1582.26540413731</v>
@@ -28886,7 +28886,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1041.28867800838</v>
+        <v>1046.28010983117</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -28897,7 +28897,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3538.26849094372</v>
+        <v>3545.04034997452</v>
       </c>
       <c r="C5" t="n">
         <v>1739.64431240911</v>
@@ -28918,7 +28918,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1308.26849094372</v>
+        <v>1315.04034997452</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -28929,7 +28929,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4210.72164769923</v>
+        <v>4221.06882325518</v>
       </c>
       <c r="C6" t="n">
         <v>1809.7782935037</v>
@@ -28950,7 +28950,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>1742.72164769923</v>
+        <v>1753.06882325518</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -28961,7 +28961,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5000.16358646342</v>
+        <v>4973.85703953425</v>
       </c>
       <c r="C7" t="n">
         <v>1898.54742543883</v>
@@ -28980,7 +28980,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2212.16358646342</v>
+        <v>2185.85703953425</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -28991,7 +28991,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5657.76444656032</v>
+        <v>5621.70485298858</v>
       </c>
       <c r="C8" t="n">
         <v>2005.73417052012</v>
@@ -29010,7 +29010,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3096.76444656032</v>
+        <v>3060.70485298858</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -29021,7 +29021,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5493.60107966297</v>
+        <v>5468.1542946846</v>
       </c>
       <c r="C9" t="n">
         <v>1769.74578922137</v>
@@ -29040,7 +29040,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2932.60107966297</v>
+        <v>2907.1542946846</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -29051,7 +29051,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6151.14041259229</v>
+        <v>6087.49207483023</v>
       </c>
       <c r="C10" t="n">
         <v>1671.95009098248</v>
@@ -29068,7 +29068,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>3602.14041259229</v>
+        <v>3538.49207483023</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -29079,7 +29079,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4197.52268015087</v>
+        <v>4199.50127972044</v>
       </c>
       <c r="C11" t="n">
         <v>1408.21433272463</v>
@@ -29098,7 +29098,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1899.52268015087</v>
+        <v>1901.50127972044</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -29109,7 +29109,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3524.92388862405</v>
+        <v>3545.94845922953</v>
       </c>
       <c r="C12" t="n">
         <v>1143.88286409215</v>
@@ -29128,7 +29128,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>986.92388862405</v>
+        <v>1007.94845922953</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -29139,7 +29139,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3231.70333331</v>
+        <v>3227.93686571901</v>
       </c>
       <c r="C13" t="n">
         <v>974.237994155916</v>
@@ -29158,7 +29158,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>648.703333310003</v>
+        <v>644.93686571901</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -29169,7 +29169,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2441.83586916409</v>
+        <v>2463.18178234539</v>
       </c>
       <c r="C14" t="n">
         <v>718.898811131472</v>
@@ -29190,7 +29190,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>136.835869164087</v>
+        <v>158.18178234539</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -29201,7 +29201,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1927.23627184052</v>
+        <v>1936.0888090963</v>
       </c>
       <c r="C15" t="n">
         <v>624.421895107958</v>
@@ -29222,7 +29222,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>54.2362718405248</v>
+        <v>63.0888090962969</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -29233,7 +29233,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3094.57808502941</v>
+        <v>3106.72822268123</v>
       </c>
       <c r="C16" t="n">
         <v>874.934646736935</v>
@@ -29252,7 +29252,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>209.578085029406</v>
+        <v>221.728222681235</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -29263,7 +29263,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3667.29578541173</v>
+        <v>3648.63449358906</v>
       </c>
       <c r="C17" t="n">
         <v>973.402100363647</v>
@@ -29282,7 +29282,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>859.295785411735</v>
+        <v>840.634493589057</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -29293,7 +29293,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4332.41491190713</v>
+        <v>4351.02937707594</v>
       </c>
       <c r="C18" t="n">
         <v>1032.76562489763</v>
@@ -29310,7 +29310,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>1784.41491190713</v>
+        <v>1803.02937707594</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -29321,7 +29321,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5235.88881019806</v>
+        <v>5199.04677992971</v>
       </c>
       <c r="C19" t="n">
         <v>1098.44077312814</v>
@@ -29338,7 +29338,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>2768.88881019806</v>
+        <v>2732.04677992971</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -29349,7 +29349,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5955.73764740815</v>
+        <v>5943.72092578541</v>
       </c>
       <c r="C20" t="n">
         <v>1183.13234495817</v>
@@ -29366,7 +29366,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>3389.73764740815</v>
+        <v>3377.72092578541</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -29377,7 +29377,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5788.18041262609</v>
+        <v>5801.46190432126</v>
       </c>
       <c r="C21" t="n">
         <v>1198.18797157789</v>
@@ -29394,7 +29394,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>3772.18041262609</v>
+        <v>3785.46190432126</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -29405,7 +29405,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6346.17593481483</v>
+        <v>6275.71075866895</v>
       </c>
       <c r="C22" t="n">
         <v>1157.71669924864</v>
@@ -29422,7 +29422,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>4025.17593481483</v>
+        <v>3954.71075866895</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -29433,7 +29433,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4436.01790563032</v>
+        <v>4423.61851970529</v>
       </c>
       <c r="C23" t="n">
         <v>998.62145681024</v>
@@ -29450,7 +29450,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2442.01790563032</v>
+        <v>2429.61851970529</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -29461,7 +29461,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3705.7896636679</v>
+        <v>3742.75193233892</v>
       </c>
       <c r="C24" t="n">
         <v>789.447732342427</v>
@@ -29478,7 +29478,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1487.7896636679</v>
+        <v>1524.75193233892</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -29489,7 +29489,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3350.76034649415</v>
+        <v>3356.94257203687</v>
       </c>
       <c r="C25" t="n">
         <v>696.057765222493</v>
@@ -29506,7 +29506,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>837.760346494146</v>
+        <v>843.942572036869</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -29517,7 +29517,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2541.56054585052</v>
+        <v>2579.32160164857</v>
       </c>
       <c r="C26" t="n">
         <v>539.890034502062</v>
@@ -29536,7 +29536,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>730.560545850516</v>
+        <v>768.321601648573</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -29547,7 +29547,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2012.75516021965</v>
+        <v>2027.34548663951</v>
       </c>
       <c r="C27" t="n">
         <v>480.367275153743</v>
@@ -29566,7 +29566,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>451.75516021965</v>
+        <v>466.345486639506</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -29577,7 +29577,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3157.55626152273</v>
+        <v>3152.62605460391</v>
       </c>
       <c r="C28" t="n">
         <v>649.772094417423</v>
@@ -29594,7 +29594,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>598.556261522727</v>
+        <v>593.626054603911</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -29605,7 +29605,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3851.27966831713</v>
+        <v>3782.43753968487</v>
       </c>
       <c r="C29" t="n">
         <v>717.54019831555</v>
@@ -29622,7 +29622,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>1396.27966831713</v>
+        <v>1327.43753968487</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -29633,7 +29633,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4550.28877843252</v>
+        <v>4537.19902633441</v>
       </c>
       <c r="C30" t="n">
         <v>760.183152837621</v>
@@ -29650,7 +29650,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>2041.28877843252</v>
+        <v>2028.19902633441</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -29661,7 +29661,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5524.6838675577</v>
+        <v>5440.99420757204</v>
       </c>
       <c r="C31" t="n">
         <v>806.820252497415</v>
@@ -29678,7 +29678,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>2619.6838675577</v>
+        <v>2535.99420757204</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -29689,7 +29689,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6277.02665741081</v>
+        <v>6286.9423103053</v>
       </c>
       <c r="C32" t="n">
         <v>865.440714215065</v>
@@ -29706,7 +29706,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>3648.02665741081</v>
+        <v>3657.9423103053</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -29717,7 +29717,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6027.33618396233</v>
+        <v>6054.71881185815</v>
       </c>
       <c r="C33" t="n">
         <v>897.91442000032</v>
@@ -29734,7 +29734,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>3760.33618396233</v>
+        <v>3787.71881185815</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -29745,7 +29745,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6478.48501825899</v>
+        <v>6463.31192156546</v>
       </c>
       <c r="C34" t="n">
         <v>916.041275246779</v>
@@ -29762,7 +29762,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4205.48501825899</v>
+        <v>4190.31192156546</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -29773,7 +29773,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4603.03956682235</v>
+        <v>4584.77089555395</v>
       </c>
       <c r="C35" t="n">
         <v>758.65507359426</v>
@@ -29790,7 +29790,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2594.03956682235</v>
+        <v>2575.77089555395</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -29801,7 +29801,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3833.55063320699</v>
+        <v>3879.66964552629</v>
       </c>
       <c r="C36" t="n">
         <v>618.934138868747</v>
@@ -29818,7 +29818,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2095.55063320699</v>
+        <v>2141.66964552629</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -29829,7 +29829,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3483.60450084892</v>
+        <v>3501.38361920113</v>
       </c>
       <c r="C37" t="n">
         <v>555.118159278263</v>
@@ -29846,7 +29846,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>1914.60450084892</v>
+        <v>1932.38361920113</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -29857,7 +29857,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2634.58891662087</v>
+        <v>2679.07375331944</v>
       </c>
       <c r="C38" t="n">
         <v>442.653526695428</v>
@@ -29874,7 +29874,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>1478.58891662087</v>
+        <v>1523.07375331944</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -29885,7 +29885,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2113.74492758326</v>
+        <v>2138.59942652013</v>
       </c>
       <c r="C39" t="n">
         <v>399.049257875761</v>
@@ -29904,7 +29904,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>155.744927583256</v>
+        <v>180.599426520128</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -29915,7 +29915,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3311.22895693482</v>
+        <v>3296.52492207697</v>
       </c>
       <c r="C40" t="n">
         <v>526.943448500921</v>
@@ -29932,7 +29932,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>1103.22895693482</v>
+        <v>1088.52492207697</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -29943,7 +29943,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>4044.5519827208</v>
+        <v>3932.98475501349</v>
       </c>
       <c r="C41" t="n">
         <v>578.143021176782</v>
@@ -29960,7 +29960,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>1834.5519827208</v>
+        <v>1722.98475501349</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -29971,7 +29971,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>4809.83711001984</v>
+        <v>4762.92795059367</v>
       </c>
       <c r="C42" t="n">
         <v>610.886114991337</v>
@@ -29988,7 +29988,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>2498.83711001984</v>
+        <v>2451.92795059367</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -29999,7 +29999,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>5911.34380416538</v>
+        <v>5751.78744369979</v>
       </c>
       <c r="C43" t="n">
         <v>646.459382909779</v>
@@ -30016,7 +30016,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>926.343804165379</v>
+        <v>766.78744369979</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -30027,7 +30027,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6658.02718059068</v>
+        <v>6634.62259765757</v>
       </c>
       <c r="C44" t="n">
         <v>690.564998954682</v>
@@ -30044,7 +30044,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-6766.97281940932</v>
+        <v>-6790.37740234243</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -30055,7 +30055,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6427.89930026476</v>
+        <v>6405.72817970038</v>
       </c>
       <c r="C45" t="n">
         <v>715.850315401207</v>
@@ -30072,7 +30072,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-6314.10069973524</v>
+        <v>-6336.27182029962</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -30083,7 +30083,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>6723.81647105225</v>
+        <v>6754.00045227895</v>
       </c>
       <c r="C46" t="n">
         <v>768.051438790466</v>
@@ -30100,7 +30100,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-118540.183528948</v>
+        <v>-118509.999547721</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -30111,7 +30111,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4959.31603061121</v>
+        <v>4891.18391246051</v>
       </c>
       <c r="C47" t="n">
         <v>618.071788619858</v>
@@ -30128,7 +30128,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-18151.6839693888</v>
+        <v>-18219.8160875395</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -30139,7 +30139,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>4106.50473961734</v>
+        <v>4139.9895375961</v>
       </c>
       <c r="C48" t="n">
         <v>514.5604806704</v>
@@ -30156,7 +30156,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-833.495260382662</v>
+        <v>-800.010462403896</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -30167,7 +30167,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3725.58704288798</v>
+        <v>3746.5970767429</v>
       </c>
       <c r="C49" t="n">
         <v>466.583399557315</v>
@@ -30184,7 +30184,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>-147.412957112018</v>
+        <v>-126.402923257102</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -30241,7 +30241,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2360.49508353872</v>
+        <v>2346.40878504279</v>
       </c>
       <c r="C2" t="n">
         <v>2069.81608400988</v>
@@ -30262,7 +30262,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>734.495083538722</v>
+        <v>720.408785042791</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -30273,7 +30273,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2388.6234249205</v>
+        <v>2400.75778646692</v>
       </c>
       <c r="C3" t="n">
         <v>1898.80573504816</v>
@@ -30282,10 +30282,10 @@
         <v>1736.77226910575</v>
       </c>
       <c r="E3" t="n">
-        <v>2785.24285411384</v>
+        <v>2829.25273460528</v>
       </c>
       <c r="F3" t="n">
-        <v>2842.37577983023</v>
+        <v>2897.28062906556</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -30294,7 +30294,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1343.6234249205</v>
+        <v>1355.75778646692</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -30305,13 +30305,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3175.7221930949</v>
+        <v>3138.85685091543</v>
       </c>
       <c r="C4" t="n">
-        <v>2864.62654708032</v>
+        <v>2718.40458887208</v>
       </c>
       <c r="D4" t="n">
-        <v>2683.70772955674</v>
+        <v>2663.18234379038</v>
       </c>
       <c r="E4" t="n">
         <v>3609.54540196867</v>
@@ -30326,7 +30326,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1534.7221930949</v>
+        <v>1497.85685091543</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -30337,7 +30337,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2877.34986961615</v>
+        <v>2881.341484753</v>
       </c>
       <c r="C5" t="n">
         <v>2469.15893727208</v>
@@ -30358,7 +30358,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1145.34986961615</v>
+        <v>1149.341484753</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -30369,7 +30369,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2597.37245959793</v>
+        <v>2649.30178225022</v>
       </c>
       <c r="C6" t="n">
         <v>2091.20256643864</v>
@@ -30378,10 +30378,10 @@
         <v>1933.77533026582</v>
       </c>
       <c r="E6" t="n">
-        <v>3027.84203543649</v>
+        <v>3249.93436438178</v>
       </c>
       <c r="F6" t="n">
-        <v>3161.6046838146</v>
+        <v>3323.50362037389</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -30390,7 +30390,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1012.37245959793</v>
+        <v>1064.30178225022</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -30401,7 +30401,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2302.37296668747</v>
+        <v>2327.28870202933</v>
       </c>
       <c r="C7" t="n">
         <v>1774.62555930224</v>
@@ -30410,10 +30410,10 @@
         <v>1615.47479646563</v>
       </c>
       <c r="E7" t="n">
-        <v>2781.6232248689</v>
+        <v>2889.39631271759</v>
       </c>
       <c r="F7" t="n">
-        <v>2847.89966836922</v>
+        <v>2954.0912336607</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -30422,7 +30422,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>594.372966687468</v>
+        <v>619.288702029327</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -30433,7 +30433,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2336.60326890603</v>
+        <v>2302.58120064145</v>
       </c>
       <c r="C8" t="n">
         <v>1797.57559027587</v>
@@ -30442,7 +30442,7 @@
         <v>1631.4387665512</v>
       </c>
       <c r="E8" t="n">
-        <v>2816.08227137564</v>
+        <v>2722.33943175664</v>
       </c>
       <c r="F8" t="n">
         <v>2877.57964442996</v>
@@ -30454,7 +30454,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>577.603268906029</v>
+        <v>543.581200641448</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -30465,7 +30465,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2286.27018727353</v>
+        <v>2222.55518081642</v>
       </c>
       <c r="C9" t="n">
         <v>1784.07136300567</v>
@@ -30486,7 +30486,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>527.270187273535</v>
+        <v>463.555180816419</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -30497,7 +30497,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2041.11487855649</v>
+        <v>2016.26489154487</v>
       </c>
       <c r="C10" t="n">
         <v>1485.01333771013</v>
@@ -30506,7 +30506,7 @@
         <v>1273.79837332286</v>
       </c>
       <c r="E10" t="n">
-        <v>2455.21743410569</v>
+        <v>2392.75737756933</v>
       </c>
       <c r="F10" t="n">
         <v>2599.81374849421</v>
@@ -30518,7 +30518,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>230.114878556495</v>
+        <v>205.264891544875</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -30529,7 +30529,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1881.07937298488</v>
+        <v>1871.19257390304</v>
       </c>
       <c r="C11" t="n">
         <v>1309.87954245619</v>
@@ -30538,10 +30538,10 @@
         <v>1097.39945707988</v>
       </c>
       <c r="E11" t="n">
-        <v>2344.02799361072</v>
+        <v>2331.93088812384</v>
       </c>
       <c r="F11" t="n">
-        <v>2429.22461669365</v>
+        <v>2429.69643840649</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -30550,7 +30550,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>375.079372984882</v>
+        <v>365.192573903043</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -30561,7 +30561,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2001.92285531327</v>
+        <v>2015.190722223</v>
       </c>
       <c r="C12" t="n">
         <v>1520.53678202122</v>
@@ -30582,7 +30582,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>362.922855313271</v>
+        <v>376.190722222995</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -30593,7 +30593,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2042.57003003354</v>
+        <v>2075.83297062333</v>
       </c>
       <c r="C13" t="n">
         <v>1520.75854291321</v>
@@ -30614,7 +30614,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>224.570030033537</v>
+        <v>257.832970623331</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -30625,7 +30625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2421.29807290254</v>
+        <v>2389.67705559816</v>
       </c>
       <c r="C14" t="n">
         <v>1850.19905729362</v>
@@ -30646,7 +30646,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>583.298072902544</v>
+        <v>551.677055598162</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -30657,7 +30657,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2369.94051687556</v>
+        <v>2361.64536187006</v>
       </c>
       <c r="C15" t="n">
         <v>1691.32586313986</v>
@@ -30666,7 +30666,7 @@
         <v>1427.24967986289</v>
       </c>
       <c r="E15" t="n">
-        <v>2785.02425391867</v>
+        <v>2786.69089640547</v>
       </c>
       <c r="F15" t="n">
         <v>3056.65482997381</v>
@@ -30678,7 +30678,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>520.940516875556</v>
+        <v>512.645361870057</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -30689,10 +30689,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3137.60080675476</v>
+        <v>3148.78437886839</v>
       </c>
       <c r="C16" t="n">
-        <v>2646.37858090725</v>
+        <v>2652.98639909881</v>
       </c>
       <c r="D16" t="n">
         <v>2356.84411180562</v>
@@ -30710,7 +30710,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>146.600806754764</v>
+        <v>157.784378868385</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -30721,7 +30721,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2928.68125774732</v>
+        <v>2906.0138419562</v>
       </c>
       <c r="C17" t="n">
         <v>2291.29284255078</v>
@@ -30742,7 +30742,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>131.681257747324</v>
+        <v>109.013841956204</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -30753,7 +30753,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2658.40989405181</v>
+        <v>2666.22159296237</v>
       </c>
       <c r="C18" t="n">
         <v>1956.12924199764</v>
@@ -30762,10 +30762,10 @@
         <v>1697.79979774635</v>
       </c>
       <c r="E18" t="n">
-        <v>3349.74987683038</v>
+        <v>3428.89483589381</v>
       </c>
       <c r="F18" t="n">
-        <v>3484.86981402032</v>
+        <v>3573.84763082156</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -30774,7 +30774,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>149.409894051814</v>
+        <v>157.221592962368</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -30785,7 +30785,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2330.16770858632</v>
+        <v>2324.24807184893</v>
       </c>
       <c r="C19" t="n">
         <v>1647.86883845053</v>
@@ -30794,7 +30794,7 @@
         <v>1382.46520906064</v>
       </c>
       <c r="E19" t="n">
-        <v>2979.72849848402</v>
+        <v>3046.32491575947</v>
       </c>
       <c r="F19" t="n">
         <v>3155.65342957391</v>
@@ -30806,7 +30806,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>64.1677085863157</v>
+        <v>58.2480718489305</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -30817,7 +30817,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2323.24441930916</v>
+        <v>2264.67661855708</v>
       </c>
       <c r="C20" t="n">
         <v>1661.07634421893</v>
@@ -30826,7 +30826,7 @@
         <v>1370.30828396673</v>
       </c>
       <c r="E20" t="n">
-        <v>2858.79983276756</v>
+        <v>2845.00177189122</v>
       </c>
       <c r="F20" t="n">
         <v>3177.45798666045</v>
@@ -30838,7 +30838,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>183.244419309162</v>
+        <v>124.67661855708</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -30849,7 +30849,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2307.48957167446</v>
+        <v>2221.20305737806</v>
       </c>
       <c r="C21" t="n">
         <v>1613.37549812159</v>
@@ -30870,7 +30870,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>198.489571674462</v>
+        <v>112.203057378063</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -30881,7 +30881,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2104.85776030096</v>
+        <v>2030.6399247087</v>
       </c>
       <c r="C22" t="n">
         <v>1324.53596280045</v>
@@ -30890,7 +30890,7 @@
         <v>1037.59271199634</v>
       </c>
       <c r="E22" t="n">
-        <v>2755.16774234195</v>
+        <v>2517.79344491355</v>
       </c>
       <c r="F22" t="n">
         <v>2848.95891007872</v>
@@ -30902,10 +30902,10 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>71.8577603009617</v>
+        <v>-2.36007529129984</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -30913,7 +30913,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1912.67044731751</v>
+        <v>1860.09802320476</v>
       </c>
       <c r="C23" t="n">
         <v>1157.04841858191</v>
@@ -30922,7 +30922,7 @@
         <v>873.740058233357</v>
       </c>
       <c r="E23" t="n">
-        <v>2490.36810977481</v>
+        <v>2421.54065682899</v>
       </c>
       <c r="F23" t="n">
         <v>2680.71182265508</v>
@@ -30934,7 +30934,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>66.6704473175087</v>
+        <v>14.0980232047643</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -30945,7 +30945,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1976.01849994089</v>
+        <v>1997.81282533988</v>
       </c>
       <c r="C24" t="n">
         <v>1366.42955163461</v>
@@ -30966,7 +30966,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-78.9815000591054</v>
+        <v>-57.1871746601205</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -30977,7 +30977,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2079.4719369973</v>
+        <v>2063.89123044105</v>
       </c>
       <c r="C25" t="n">
         <v>1376.4984500667</v>
@@ -30998,7 +30998,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-289.528063002702</v>
+        <v>-305.108769558955</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -31009,7 +31009,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2336.66154224266</v>
+        <v>2343.41996948268</v>
       </c>
       <c r="C26" t="n">
         <v>1702.85663697936</v>
@@ -31030,7 +31030,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-193.338457757345</v>
+        <v>-186.580030517322</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -31041,7 +31041,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2361.10101005286</v>
+        <v>2348.34922144009</v>
       </c>
       <c r="C27" t="n">
         <v>1549.17869206392</v>
@@ -31062,7 +31062,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-81.8989899471439</v>
+        <v>-94.6507785599074</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -31073,7 +31073,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3105.35122857636</v>
+        <v>3130.05353126023</v>
       </c>
       <c r="C28" t="n">
         <v>2500.05854268895</v>
@@ -31094,7 +31094,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-25.6487714236418</v>
+        <v>-0.946468739773536</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -31105,7 +31105,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2919.77044558658</v>
+        <v>2846.6108036025</v>
       </c>
       <c r="C29" t="n">
         <v>2124.1897906021</v>
@@ -31126,7 +31126,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>394.770445586578</v>
+        <v>321.610803602498</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -31137,7 +31137,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2683.25706271401</v>
+        <v>2648.04254453022</v>
       </c>
       <c r="C30" t="n">
         <v>1826.45994328058</v>
@@ -31146,7 +31146,7 @@
         <v>1491.70014190969</v>
       </c>
       <c r="E30" t="n">
-        <v>3513.47367653759</v>
+        <v>3492.2239995886</v>
       </c>
       <c r="F30" t="n">
         <v>3726.50171959944</v>
@@ -31158,7 +31158,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>180.257062714015</v>
+        <v>145.042544530215</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -31169,7 +31169,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2386.06396698502</v>
+        <v>2324.0682939393</v>
       </c>
       <c r="C31" t="n">
         <v>1535.38285428305</v>
@@ -31178,10 +31178,10 @@
         <v>1187.92953718914</v>
       </c>
       <c r="E31" t="n">
-        <v>3256.62891876828</v>
+        <v>3148.88499812821</v>
       </c>
       <c r="F31" t="n">
-        <v>3405.77336402739</v>
+        <v>3389.08110561058</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -31190,7 +31190,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-24.9360330149784</v>
+        <v>-86.9317060606954</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -31201,7 +31201,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2332.64074188691</v>
+        <v>2267.92272831003</v>
       </c>
       <c r="C32" t="n">
         <v>1530.37338296238</v>
@@ -31210,7 +31210,7 @@
         <v>1179.00491831281</v>
       </c>
       <c r="E32" t="n">
-        <v>3003.0114956541</v>
+        <v>2992.02527913244</v>
       </c>
       <c r="F32" t="n">
         <v>3407.65097756946</v>
@@ -31222,7 +31222,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>107.64074188691</v>
+        <v>42.9227283100317</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -31233,7 +31233,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2341.79970753442</v>
+        <v>2210.91810875177</v>
       </c>
       <c r="C33" t="n">
         <v>1485.31779691174</v>
@@ -31254,10 +31254,10 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>86.7997075344165</v>
+        <v>-44.0818912482277</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -31265,7 +31265,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2138.38991618228</v>
+        <v>2024.93520330599</v>
       </c>
       <c r="C34" t="n">
         <v>1203.20639154835</v>
@@ -31274,7 +31274,7 @@
         <v>862.121287121317</v>
       </c>
       <c r="E34" t="n">
-        <v>2822.60250873388</v>
+        <v>2667.61070061229</v>
       </c>
       <c r="F34" t="n">
         <v>3067.96465340143</v>
@@ -31286,7 +31286,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>192.389916182281</v>
+        <v>78.935203305987</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -31297,7 +31297,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1898.32818230952</v>
+        <v>1851.96358867609</v>
       </c>
       <c r="C35" t="n">
         <v>1040.61009755375</v>
@@ -31306,7 +31306,7 @@
         <v>706.79398874373</v>
       </c>
       <c r="E35" t="n">
-        <v>2575.7911691185</v>
+        <v>2543.02866662998</v>
       </c>
       <c r="F35" t="n">
         <v>2894.2099287285</v>
@@ -31318,7 +31318,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>215.328182309519</v>
+        <v>168.963588676091</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -31329,7 +31329,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2005.79966623401</v>
+        <v>1991.0840382738</v>
       </c>
       <c r="C36" t="n">
         <v>1247.59800613051</v>
@@ -31350,7 +31350,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>273.79966623401</v>
+        <v>259.084038273801</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -31361,7 +31361,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2043.41719851267</v>
+        <v>2063.55746616843</v>
       </c>
       <c r="C37" t="n">
         <v>1262.31968404026</v>
@@ -31382,7 +31382,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>856.417198512667</v>
+        <v>876.557466168433</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -31393,7 +31393,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2282.87620882314</v>
+        <v>2335.52925052468</v>
       </c>
       <c r="C38" t="n">
         <v>1585.10616716504</v>
@@ -31414,7 +31414,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1138.87620882314</v>
+        <v>1191.52925052468</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -31425,7 +31425,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2312.56989694435</v>
+        <v>2341.6021231147</v>
       </c>
       <c r="C39" t="n">
         <v>1434.9855194456</v>
@@ -31446,7 +31446,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>105.569896944346</v>
+        <v>134.602123114698</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -31457,7 +31457,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3095.39645900392</v>
+        <v>3113.805777147</v>
       </c>
       <c r="C40" t="n">
         <v>2322.50423205131</v>
@@ -31478,7 +31478,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-21.6035409960796</v>
+        <v>-3.19422285299697</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -31489,7 +31489,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2837.60245278001</v>
+        <v>2785.774798113</v>
       </c>
       <c r="C41" t="n">
         <v>1922.94091515846</v>
@@ -31510,7 +31510,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-168.397547219995</v>
+        <v>-220.225201886999</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -31521,7 +31521,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2710.93339879067</v>
+        <v>2647.27003401601</v>
       </c>
       <c r="C42" t="n">
         <v>1629.54594366023</v>
@@ -31530,7 +31530,7 @@
         <v>1224.52201229203</v>
       </c>
       <c r="E42" t="n">
-        <v>3639.29124535882</v>
+        <v>3533.69907081747</v>
       </c>
       <c r="F42" t="n">
         <v>3929.37594884486</v>
@@ -31542,7 +31542,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-111.066601209327</v>
+        <v>-174.729965983986</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -31553,7 +31553,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2447.57689113232</v>
+        <v>2349.39707636976</v>
       </c>
       <c r="C43" t="n">
         <v>1345.97286550332</v>
@@ -31562,10 +31562,10 @@
         <v>951.371490483535</v>
       </c>
       <c r="E43" t="n">
-        <v>3537.74220450238</v>
+        <v>3214.32682497725</v>
       </c>
       <c r="F43" t="n">
-        <v>3693.99808987638</v>
+        <v>3586.17671211366</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -31574,7 +31574,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-81.4231088676761</v>
+        <v>-179.602923630235</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -31585,7 +31585,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2376.74447186353</v>
+        <v>2291.57406178142</v>
       </c>
       <c r="C44" t="n">
         <v>1375.71465839011</v>
@@ -31594,7 +31594,7 @@
         <v>972.998786058635</v>
       </c>
       <c r="E44" t="n">
-        <v>3228.26777957995</v>
+        <v>3116.29658531482</v>
       </c>
       <c r="F44" t="n">
         <v>3602.87483107324</v>
@@ -31606,7 +31606,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-243.255528136473</v>
+        <v>-328.425938218582</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -31617,7 +31617,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2350.87571436121</v>
+        <v>2235.80773941187</v>
       </c>
       <c r="C45" t="n">
         <v>1373.08374987367</v>
@@ -31638,7 +31638,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-267.124285638786</v>
+        <v>-382.19226058813</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -31649,7 +31649,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2121.87665456284</v>
+        <v>2037.51955367242</v>
       </c>
       <c r="C46" t="n">
         <v>1102.50130970243</v>
@@ -31658,7 +31658,7 @@
         <v>719.054038854274</v>
       </c>
       <c r="E46" t="n">
-        <v>2849.3456849504</v>
+        <v>2839.56785315</v>
       </c>
       <c r="F46" t="n">
         <v>3341.39707978544</v>
@@ -31670,7 +31670,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-428.123345437157</v>
+        <v>-512.480446327582</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -31681,7 +31681,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1950.35027131147</v>
+        <v>1870.06255572892</v>
       </c>
       <c r="C47" t="n">
         <v>943.771617343281</v>
@@ -31690,7 +31690,7 @@
         <v>564.861887701913</v>
       </c>
       <c r="E47" t="n">
-        <v>2716.87911472057</v>
+        <v>2668.79728504788</v>
       </c>
       <c r="F47" t="n">
         <v>3172.42984970352</v>
@@ -31702,7 +31702,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-592.649728688534</v>
+        <v>-672.937444271078</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -31713,7 +31713,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2061.67242275054</v>
+        <v>2009.24878033999</v>
       </c>
       <c r="C48" t="n">
         <v>1147.9824543246</v>
@@ -31734,7 +31734,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-689.327577249462</v>
+        <v>-741.751219660012</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -31745,7 +31745,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2013.36496879549</v>
+        <v>2048.75578049957</v>
       </c>
       <c r="C49" t="n">
         <v>1149.49359229052</v>
@@ -31766,7 +31766,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-654.635031204509</v>
+        <v>-619.244219500432</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -36185,7 +36185,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>46607.3571681185</v>
+        <v>46594.4583181672</v>
       </c>
       <c r="C2" t="n">
         <v>41818.6623182063</v>
@@ -36194,10 +36194,10 @@
         <v>40194.5247681668</v>
       </c>
       <c r="E2" t="n">
-        <v>51257.7192143554</v>
+        <v>51195.6418289354</v>
       </c>
       <c r="F2" t="n">
-        <v>53758.0178141269</v>
+        <v>53689.3549707518</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -36206,7 +36206,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>6936.35716811845</v>
+        <v>6923.45831816716</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -36217,13 +36217,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>40970.9014998307</v>
+        <v>40963.4122349453</v>
       </c>
       <c r="C3" t="n">
-        <v>35741.1807140564</v>
+        <v>35781.1412097616</v>
       </c>
       <c r="D3" t="n">
-        <v>34067.774898438</v>
+        <v>34104.377549322</v>
       </c>
       <c r="E3" t="n">
         <v>45461.8541393762</v>
@@ -36238,7 +36238,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>19522.9014998307</v>
+        <v>19515.4122349453</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -36249,13 +36249,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54984.2784900136</v>
+        <v>55030.6403619823</v>
       </c>
       <c r="C4" t="n">
-        <v>48019.6550510103</v>
+        <v>48090.828031664</v>
       </c>
       <c r="D4" t="n">
-        <v>46082.0823237526</v>
+        <v>46016.5425442498</v>
       </c>
       <c r="E4" t="n">
         <v>60193.6133037065</v>
@@ -36270,7 +36270,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13830.2784900136</v>
+        <v>13876.6403619823</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -36281,13 +36281,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53207.2537237027</v>
+        <v>53229.7533746662</v>
       </c>
       <c r="C5" t="n">
-        <v>47577.5103895335</v>
+        <v>47704.0199363603</v>
       </c>
       <c r="D5" t="n">
-        <v>45590.0140242675</v>
+        <v>45719.0464903625</v>
       </c>
       <c r="E5" t="n">
         <v>57955.9300789496</v>
@@ -36302,7 +36302,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6479.25372370268</v>
+        <v>6501.75337466622</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -36313,13 +36313,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55370.7945219147</v>
+        <v>55405.4471689228</v>
       </c>
       <c r="C6" t="n">
-        <v>49002.4675599027</v>
+        <v>49142.9848633701</v>
       </c>
       <c r="D6" t="n">
-        <v>46519.362990503</v>
+        <v>46711.5848194543</v>
       </c>
       <c r="E6" t="n">
         <v>60802.5866876494</v>
@@ -36334,7 +36334,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8617.79452191472</v>
+        <v>8652.44716892279</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -36345,13 +36345,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54116.5398399992</v>
+        <v>54121.9883305329</v>
       </c>
       <c r="C7" t="n">
-        <v>47365.809629369</v>
+        <v>47473.9464002559</v>
       </c>
       <c r="D7" t="n">
-        <v>45077.2499447985</v>
+        <v>45108.3924563557</v>
       </c>
       <c r="E7" t="n">
         <v>60074.3960198284</v>
@@ -36366,7 +36366,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7578.53983999924</v>
+        <v>7583.98833053285</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -36377,13 +36377,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57736.6911365784</v>
+        <v>57783.622478278</v>
       </c>
       <c r="C8" t="n">
-        <v>51474.8703910175</v>
+        <v>51613.3175271674</v>
       </c>
       <c r="D8" t="n">
-        <v>49579.9738511402</v>
+        <v>49726.7167398529</v>
       </c>
       <c r="E8" t="n">
         <v>63179.2359659769</v>
@@ -36398,7 +36398,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10898.6911365784</v>
+        <v>10945.622478278</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -36409,13 +36409,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57373.3571665567</v>
+        <v>57382.6309248972</v>
       </c>
       <c r="C9" t="n">
-        <v>51168.9955265782</v>
+        <v>51219.9062238202</v>
       </c>
       <c r="D9" t="n">
-        <v>48744.8622607084</v>
+        <v>48798.2656152392</v>
       </c>
       <c r="E9" t="n">
         <v>62975.8556605989</v>
@@ -36430,7 +36430,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10535.3571665567</v>
+        <v>10544.6309248972</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -36441,13 +36441,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55804.1659422907</v>
+        <v>55803.1991806217</v>
       </c>
       <c r="C10" t="n">
-        <v>50979.0388590592</v>
+        <v>51049.4077238591</v>
       </c>
       <c r="D10" t="n">
-        <v>48432.2176261255</v>
+        <v>48542.8427140859</v>
       </c>
       <c r="E10" t="n">
         <v>61174.5869480688</v>
@@ -36462,7 +36462,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6839.1659422907</v>
+        <v>6838.19918062173</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -36473,7 +36473,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53488.3610217756</v>
+        <v>53483.7819275115</v>
       </c>
       <c r="C11" t="n">
         <v>48429.5189713469</v>
@@ -36482,10 +36482,10 @@
         <v>46082.1223157025</v>
       </c>
       <c r="E11" t="n">
-        <v>59792.2373819944</v>
+        <v>59889.3602301461</v>
       </c>
       <c r="F11" t="n">
-        <v>62462.1617473843</v>
+        <v>62400.611716038</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -36494,7 +36494,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9050.36102177559</v>
+        <v>9045.78192751148</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -36505,7 +36505,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>53823.6203828322</v>
+        <v>53810.4734542399</v>
       </c>
       <c r="C12" t="n">
         <v>48824.2608354331</v>
@@ -36526,7 +36526,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8518.62038283217</v>
+        <v>8505.47345423993</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -36537,7 +36537,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53103.9449684156</v>
+        <v>53088.367083323</v>
       </c>
       <c r="C13" t="n">
         <v>48229.4492736501</v>
@@ -36558,7 +36558,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8407.9449684156</v>
+        <v>8392.36708332301</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -36569,7 +36569,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>50383.1108249028</v>
+        <v>50357.414431917</v>
       </c>
       <c r="C14" t="n">
         <v>44552.7520433622</v>
@@ -36578,10 +36578,10 @@
         <v>42299.4651063399</v>
       </c>
       <c r="E14" t="n">
-        <v>57108.326069106</v>
+        <v>57110.7580892624</v>
       </c>
       <c r="F14" t="n">
-        <v>60342.4632191659</v>
+        <v>60203.3502927919</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -36590,7 +36590,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>10304.1108249028</v>
+        <v>10278.414431917</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -36601,19 +36601,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>45012.2558222886</v>
+        <v>44987.7060061212</v>
       </c>
       <c r="C15" t="n">
-        <v>40099.177493934</v>
+        <v>40109.0107071541</v>
       </c>
       <c r="D15" t="n">
-        <v>37360.7690407304</v>
+        <v>37215.3062050397</v>
       </c>
       <c r="E15" t="n">
-        <v>51052.165275975</v>
+        <v>50883.8122119177</v>
       </c>
       <c r="F15" t="n">
-        <v>53727.7390817551</v>
+        <v>53412.5514685131</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -36622,7 +36622,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>11397.2558222886</v>
+        <v>11372.7060061212</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -36633,13 +36633,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>58904.6836559073</v>
+        <v>59001.4706799518</v>
       </c>
       <c r="C16" t="n">
-        <v>49615.6062188475</v>
+        <v>49794.6593195035</v>
       </c>
       <c r="D16" t="n">
-        <v>46703.5816932849</v>
+        <v>46642.4770281913</v>
       </c>
       <c r="E16" t="n">
         <v>66532.1843046805</v>
@@ -36654,7 +36654,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8222.68365590731</v>
+        <v>8319.47067995181</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -36665,13 +36665,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>56943.4837200163</v>
+        <v>56995.7399326532</v>
       </c>
       <c r="C17" t="n">
-        <v>48671.6878631703</v>
+        <v>48754.9657962342</v>
       </c>
       <c r="D17" t="n">
-        <v>46092.002221464</v>
+        <v>46340.0548981927</v>
       </c>
       <c r="E17" t="n">
         <v>64384.2199971817</v>
@@ -36686,7 +36686,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>7830.4837200163</v>
+        <v>7882.73993265318</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -36697,13 +36697,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59138.4303532929</v>
+        <v>59182.9659609409</v>
       </c>
       <c r="C18" t="n">
-        <v>50112.0189396141</v>
+        <v>50275.992745793</v>
       </c>
       <c r="D18" t="n">
-        <v>47764.8307735758</v>
+        <v>47950.9134512476</v>
       </c>
       <c r="E18" t="n">
         <v>67617.9095646332</v>
@@ -36718,7 +36718,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11139.4303532929</v>
+        <v>11183.9659609409</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -36729,13 +36729,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>57867.6260108384</v>
+        <v>57873.9334537816</v>
       </c>
       <c r="C19" t="n">
-        <v>49280.9054770777</v>
+        <v>49313.9740484322</v>
       </c>
       <c r="D19" t="n">
-        <v>47068.2953133337</v>
+        <v>47257.483155954</v>
       </c>
       <c r="E19" t="n">
         <v>66198.4710972764</v>
@@ -36750,7 +36750,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10444.6260108384</v>
+        <v>10450.9334537816</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -36761,13 +36761,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>61198.8821994888</v>
+        <v>61253.9628355162</v>
       </c>
       <c r="C20" t="n">
-        <v>52024.1895863021</v>
+        <v>52189.1432586728</v>
       </c>
       <c r="D20" t="n">
-        <v>49592.5351782335</v>
+        <v>49579.6121437197</v>
       </c>
       <c r="E20" t="n">
         <v>70733.0145551571</v>
@@ -36782,7 +36782,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>9667.88219948883</v>
+        <v>9722.96283551615</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -36793,13 +36793,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>60799.4203142423</v>
+        <v>60798.843755685</v>
       </c>
       <c r="C21" t="n">
-        <v>51878.1624252014</v>
+        <v>51986.4430106353</v>
       </c>
       <c r="D21" t="n">
-        <v>49589.841750977</v>
+        <v>49590.6680903535</v>
       </c>
       <c r="E21" t="n">
         <v>70924.6690226764</v>
@@ -36814,7 +36814,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>14708.4203142423</v>
+        <v>14707.843755685</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -36825,13 +36825,13 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59319.6603692688</v>
+        <v>59319.5112787108</v>
       </c>
       <c r="C22" t="n">
-        <v>51692.9310962873</v>
+        <v>51791.6002604188</v>
       </c>
       <c r="D22" t="n">
-        <v>49447.9041658959</v>
+        <v>49609.85048724</v>
       </c>
       <c r="E22" t="n">
         <v>69199.4319986054</v>
@@ -36846,7 +36846,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13527.6603692688</v>
+        <v>13527.5112787108</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -36857,7 +36857,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56991.0727018303</v>
+        <v>56979.691836963</v>
       </c>
       <c r="C23" t="n">
         <v>49699.7484244802</v>
@@ -36878,7 +36878,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16091.0727018303</v>
+        <v>16079.691836963</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -36889,7 +36889,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>57383.819421751</v>
+        <v>57364.8443871592</v>
       </c>
       <c r="C24" t="n">
         <v>49950.2989302681</v>
@@ -36910,7 +36910,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>15209.819421751</v>
+        <v>15190.8443871592</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -36921,7 +36921,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>56716.7775750402</v>
+        <v>56694.0032561187</v>
       </c>
       <c r="C25" t="n">
         <v>49637.2578398367</v>
@@ -36942,7 +36942,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>14395.7775750402</v>
+        <v>14373.0032561187</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -36953,7 +36953,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>54072.270387305</v>
+        <v>54041.4722932974</v>
       </c>
       <c r="C26" t="n">
         <v>45361.0920067404</v>
@@ -36974,7 +36974,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>14486.270387305</v>
+        <v>14455.4722932974</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -36985,7 +36985,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>49148.1644206254</v>
+        <v>49106.2780234168</v>
       </c>
       <c r="C27" t="n">
         <v>41553.0617260608</v>
@@ -37006,7 +37006,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>14465.1644206254</v>
+        <v>14423.2780234168</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -37017,13 +37017,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>62483.1885861445</v>
+        <v>62633.1271664431</v>
       </c>
       <c r="C28" t="n">
-        <v>51709.3751052797</v>
+        <v>51758.585670421</v>
       </c>
       <c r="D28" t="n">
-        <v>48114.994476242</v>
+        <v>48000.6757073943</v>
       </c>
       <c r="E28" t="n">
         <v>76192.8652084955</v>
@@ -37038,7 +37038,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>15505.1885861445</v>
+        <v>15655.1271664431</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -37049,13 +37049,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>60423.7224188947</v>
+        <v>60507.4467751205</v>
       </c>
       <c r="C29" t="n">
-        <v>49992.3486629688</v>
+        <v>50070.208893789</v>
       </c>
       <c r="D29" t="n">
-        <v>47241.8699225194</v>
+        <v>47608.9548603028</v>
       </c>
       <c r="E29" t="n">
         <v>73995.010460374</v>
@@ -37070,7 +37070,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>20910.7224188947</v>
+        <v>20994.4467751205</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -37081,13 +37081,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>62661.9189129264</v>
+        <v>62723.4521208134</v>
       </c>
       <c r="C30" t="n">
-        <v>51887.8523291478</v>
+        <v>51972.1437596468</v>
       </c>
       <c r="D30" t="n">
-        <v>48950.8068734791</v>
+        <v>49119.149641174</v>
       </c>
       <c r="E30" t="n">
         <v>77586.8841735568</v>
@@ -37102,7 +37102,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>18910.9189129264</v>
+        <v>18972.4521208134</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -37113,13 +37113,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>61403.9751740702</v>
+        <v>61414.8912375131</v>
       </c>
       <c r="C31" t="n">
-        <v>51160.5073446228</v>
+        <v>51271.4056697296</v>
       </c>
       <c r="D31" t="n">
-        <v>48382.8533527661</v>
+        <v>48525.7324722195</v>
       </c>
       <c r="E31" t="n">
         <v>76164.944312686</v>
@@ -37134,7 +37134,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>12896.9751740702</v>
+        <v>12907.8912375131</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -37145,13 +37145,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>64556.1317847466</v>
+        <v>64612.9450016815</v>
       </c>
       <c r="C32" t="n">
-        <v>52924.7076204606</v>
+        <v>53146.2940829215</v>
       </c>
       <c r="D32" t="n">
-        <v>50281.3548254648</v>
+        <v>50361.486517917</v>
       </c>
       <c r="E32" t="n">
         <v>81153.0563826827</v>
@@ -37166,7 +37166,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>13165.1317847466</v>
+        <v>13221.9450016815</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -37177,13 +37177,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>64118.2960962417</v>
+        <v>64108.846078026</v>
       </c>
       <c r="C33" t="n">
-        <v>52623.0913547308</v>
+        <v>52789.8394041067</v>
       </c>
       <c r="D33" t="n">
-        <v>49751.5363247156</v>
+        <v>49921.1852348977</v>
       </c>
       <c r="E33" t="n">
         <v>81461.9155220833</v>
@@ -37198,7 +37198,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>13636.2960962417</v>
+        <v>13626.846078026</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -37209,10 +37209,10 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>62631.175889085</v>
+        <v>62637.9784520456</v>
       </c>
       <c r="C34" t="n">
-        <v>52703.9426700667</v>
+        <v>52871.2844720708</v>
       </c>
       <c r="D34" t="n">
         <v>48283.2720274896</v>
@@ -37230,7 +37230,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>18161.175889085</v>
+        <v>18167.9784520456</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -37241,7 +37241,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>60211.1198376411</v>
+        <v>60193.6609525188</v>
       </c>
       <c r="C35" t="n">
         <v>49598.1732429746</v>
@@ -37262,7 +37262,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>21157.1198376411</v>
+        <v>21139.6609525188</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -37273,7 +37273,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>60670.7468975421</v>
+        <v>60653.1068976225</v>
       </c>
       <c r="C36" t="n">
         <v>49765.8472690127</v>
@@ -37294,7 +37294,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>25518.7468975421</v>
+        <v>25501.1068976225</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -37305,7 +37305,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>60036.5779787897</v>
+        <v>60011.3627591091</v>
       </c>
       <c r="C37" t="n">
         <v>49458.8663957655</v>
@@ -37326,7 +37326,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>35669.5779787897</v>
+        <v>35644.3627591091</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -37337,7 +37337,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>57360.3233198923</v>
+        <v>57330.1448621323</v>
       </c>
       <c r="C38" t="n">
         <v>45039.7566473363</v>
@@ -37358,7 +37358,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>28652.3233198923</v>
+        <v>28622.1448621323</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -37369,7 +37369,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>52807.8534724924</v>
+        <v>52762.0189442643</v>
       </c>
       <c r="C39" t="n">
         <v>41181.4758393076</v>
@@ -37390,7 +37390,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>9233.85347249242</v>
+        <v>9188.01894426429</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -37401,10 +37401,10 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>65731.9987426974</v>
+        <v>65863.4563335257</v>
       </c>
       <c r="C40" t="n">
-        <v>52460.5059972868</v>
+        <v>52555.1427721779</v>
       </c>
       <c r="D40" t="n">
         <v>48906.0606449462</v>
@@ -37422,7 +37422,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>15876.9987426974</v>
+        <v>16008.4563335257</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -37433,7 +37433,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>63664.060446629</v>
+        <v>63733.0508239726</v>
       </c>
       <c r="C41" t="n">
         <v>51929.7796698681</v>
@@ -37454,7 +37454,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>14738.060446629</v>
+        <v>14807.0508239726</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -37465,10 +37465,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>65924.3395494983</v>
+        <v>65989.6534345626</v>
       </c>
       <c r="C42" t="n">
-        <v>52975.810142563</v>
+        <v>53047.2937315806</v>
       </c>
       <c r="D42" t="n">
         <v>48119.7414270635</v>
@@ -37486,7 +37486,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>12666.3395494983</v>
+        <v>12731.6534345626</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -37497,7 +37497,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>64695.8608698189</v>
+        <v>64704.1880392358</v>
       </c>
       <c r="C43" t="n">
         <v>52453.1266963323</v>
@@ -37518,7 +37518,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>12688.8608698189</v>
+        <v>12697.1880392358</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -37529,10 +37529,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>67799.4006089762</v>
+        <v>67850.4304606734</v>
       </c>
       <c r="C44" t="n">
-        <v>53184.1226719238</v>
+        <v>53376.8191447006</v>
       </c>
       <c r="D44" t="n">
         <v>49358.7644875962</v>
@@ -37550,7 +37550,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>9552.40060897617</v>
+        <v>9603.43046067336</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -37561,10 +37561,10 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>67347.0120356339</v>
+        <v>67332.463216341</v>
       </c>
       <c r="C45" t="n">
-        <v>53406.9479659313</v>
+        <v>53618.8300655382</v>
       </c>
       <c r="D45" t="n">
         <v>48200.8365547368</v>
@@ -37582,7 +37582,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>6279.0120356339</v>
+        <v>6264.46321634097</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -37593,7 +37593,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>65807.3720092397</v>
+        <v>65819.969084813</v>
       </c>
       <c r="C46" t="n">
         <v>52048.556326278</v>
@@ -37614,7 +37614,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>10040.3720092397</v>
+        <v>10052.969084813</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -37625,7 +37625,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>63298.4855779253</v>
+        <v>63276.9550409783</v>
       </c>
       <c r="C47" t="n">
         <v>48720.3124778242</v>
@@ -37646,7 +37646,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>6317.48557792527</v>
+        <v>6295.95504097828</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -37657,7 +37657,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>63797.2068007507</v>
+        <v>63784.2188621669</v>
       </c>
       <c r="C48" t="n">
         <v>48838.3729652722</v>
@@ -37678,7 +37678,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>6078.2068007507</v>
+        <v>6065.21886216692</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -37689,7 +37689,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>63160.6494476351</v>
+        <v>63134.5711815639</v>
       </c>
       <c r="C49" t="n">
         <v>48488.6113361646</v>
@@ -37710,7 +37710,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>12337.6494476351</v>
+        <v>12311.5711815639</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/Figure Data/Fig.4 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.4 data.xlsx
@@ -519,7 +519,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>40164.007155695</v>
+        <v>41933.2960456292</v>
       </c>
       <c r="C2" t="n">
         <v>16969.3616152968</v>
@@ -528,10 +528,10 @@
         <v>11567.1808221565</v>
       </c>
       <c r="E2" t="n">
-        <v>88508.248066381</v>
+        <v>98156.4036300151</v>
       </c>
       <c r="F2" t="n">
-        <v>106286.78312479</v>
+        <v>117714.991337292</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -540,7 +540,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>11809.007155695</v>
+        <v>13578.2960456292</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -551,7 +551,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>26625.9557901002</v>
+        <v>28498.9131744028</v>
       </c>
       <c r="C3" t="n">
         <v>3029.89708128877</v>
@@ -560,10 +560,10 @@
         <v>1047.19818451228</v>
       </c>
       <c r="E3" t="n">
-        <v>103253.561032738</v>
+        <v>116469.059241186</v>
       </c>
       <c r="F3" t="n">
-        <v>131814.405603026</v>
+        <v>147374.878940713</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -572,7 +572,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>23362.9557901002</v>
+        <v>25235.9131744028</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -583,7 +583,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>49881.2970433362</v>
+        <v>49261.2437854625</v>
       </c>
       <c r="C4" t="n">
         <v>11293.6214742715</v>
@@ -592,10 +592,10 @@
         <v>5224.26189745484</v>
       </c>
       <c r="E4" t="n">
-        <v>117881.484039125</v>
+        <v>123335.073555769</v>
       </c>
       <c r="F4" t="n">
-        <v>147966.380383094</v>
+        <v>152732.312531613</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -604,7 +604,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>47012.2970433362</v>
+        <v>46392.2437854625</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>134292.632732626</v>
+        <v>130638.506378801</v>
       </c>
       <c r="C5" t="n">
         <v>53361.7718949051</v>
@@ -636,7 +636,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>131291.632732626</v>
+        <v>127637.506378801</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -647,7 +647,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>258921.528619012</v>
+        <v>253992.504175672</v>
       </c>
       <c r="C6" t="n">
         <v>124915.021401074</v>
@@ -668,7 +668,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>255002.528619012</v>
+        <v>250073.504175672</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -679,7 +679,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>299995.331334834</v>
+        <v>297047.660429333</v>
       </c>
       <c r="C7" t="n">
         <v>139467.618027384</v>
@@ -700,7 +700,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>293735.331334834</v>
+        <v>290787.660429333</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -711,7 +711,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>255273.549027337</v>
+        <v>257853.623716744</v>
       </c>
       <c r="C8" t="n">
         <v>97563.4798726928</v>
@@ -732,7 +732,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>196130.549027337</v>
+        <v>198710.623716744</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -743,7 +743,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>159590.665364349</v>
+        <v>165149.199836224</v>
       </c>
       <c r="C9" t="n">
         <v>37221.7066070934</v>
@@ -752,7 +752,7 @@
         <v>16138.656264602</v>
       </c>
       <c r="E9" t="n">
-        <v>329302.287149674</v>
+        <v>352465.143848049</v>
       </c>
       <c r="F9" t="n">
         <v>443375.369413727</v>
@@ -764,7 +764,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>100447.665364349</v>
+        <v>106006.199836224</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -775,7 +775,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>155312.503860583</v>
+        <v>156186.493974779</v>
       </c>
       <c r="C10" t="n">
         <v>37904.9106667436</v>
@@ -796,7 +796,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>40142.5038605834</v>
+        <v>41016.4939747785</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -807,7 +807,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>140381.831438838</v>
+        <v>139594.218504904</v>
       </c>
       <c r="C11" t="n">
         <v>33218.8968124578</v>
@@ -828,7 +828,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-59493.1685611619</v>
+        <v>-60280.7814950955</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -839,7 +839,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>117622.476129339</v>
+        <v>116923.176838118</v>
       </c>
       <c r="C12" t="n">
         <v>20796.1922696631</v>
@@ -860,7 +860,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-71394.5238706613</v>
+        <v>-72093.8231618823</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -871,7 +871,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>88368.9785223465</v>
+        <v>87422.0541342418</v>
       </c>
       <c r="C13" t="n">
         <v>9900.17579102057</v>
@@ -892,7 +892,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-43429.0214776535</v>
+        <v>-44375.9458657582</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -903,7 +903,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51637.3549194063</v>
+        <v>52286.2157739597</v>
       </c>
       <c r="C14" t="n">
         <v>1451.44520281947</v>
@@ -924,7 +924,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-11571.6450805937</v>
+        <v>-10922.7842260403</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -935,7 +935,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>29942.6114836473</v>
+        <v>31356.6137338612</v>
       </c>
       <c r="C15" t="n">
         <v>0.166445454470808</v>
@@ -956,7 +956,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>11413.6114836473</v>
+        <v>12827.6137338612</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -967,7 +967,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>61585.8915629287</v>
+        <v>60784.7766028931</v>
       </c>
       <c r="C16" t="n">
         <v>1155.98843299379</v>
@@ -988,7 +988,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>25379.8915629287</v>
+        <v>24578.7766028931</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -999,7 +999,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>158519.798566305</v>
+        <v>153742.057868615</v>
       </c>
       <c r="C17" t="n">
         <v>19776.7665234654</v>
@@ -1020,7 +1020,7 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>14352.7985663046</v>
+        <v>9575.05786861462</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>294699.799952628</v>
+        <v>284405.41632631</v>
       </c>
       <c r="C18" t="n">
         <v>65076.5482224243</v>
@@ -1052,7 +1052,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>53861.7999526284</v>
+        <v>43567.4163263101</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -1063,7 +1063,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>334503.028863074</v>
+        <v>323520.857783823</v>
       </c>
       <c r="C19" t="n">
         <v>77356.3737302722</v>
@@ -1084,7 +1084,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>110077.028863074</v>
+        <v>99094.8577838232</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1095,7 +1095,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>277915.945017621</v>
+        <v>274630.806402726</v>
       </c>
       <c r="C20" t="n">
         <v>51117.9485255163</v>
@@ -1116,7 +1116,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>114928.945017621</v>
+        <v>111643.806402726</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1127,7 +1127,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>171737.243858548</v>
+        <v>172152.672434554</v>
       </c>
       <c r="C21" t="n">
         <v>14876.9129205413</v>
@@ -1148,7 +1148,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>100454.243858548</v>
+        <v>100869.672434554</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1159,7 +1159,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>168312.626334173</v>
+        <v>170040.510184414</v>
       </c>
       <c r="C22" t="n">
         <v>15873.1881741792</v>
@@ -1180,7 +1180,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>81677.6263341728</v>
+        <v>83405.5101844135</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1191,7 +1191,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>153166.350753464</v>
+        <v>152333.747875243</v>
       </c>
       <c r="C23" t="n">
         <v>13735.3302146054</v>
@@ -1212,7 +1212,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>21096.3507534642</v>
+        <v>20263.7478752426</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1223,7 +1223,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>131038.369567319</v>
+        <v>130298.722189757</v>
       </c>
       <c r="C24" t="n">
         <v>7367.72624024737</v>
@@ -1244,7 +1244,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>17565.3695673191</v>
+        <v>16825.7221897574</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1255,7 +1255,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>100733.581364989</v>
+        <v>98304.4437248791</v>
       </c>
       <c r="C25" t="n">
         <v>2459.45770717749</v>
@@ -1276,7 +1276,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>26312.5813649895</v>
+        <v>23883.4437248791</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1287,7 +1287,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>61120.5974950398</v>
+        <v>59480.2635064802</v>
       </c>
       <c r="C26" t="n">
         <v>27.4305813201427</v>
@@ -1308,7 +1308,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>16937.5974950398</v>
+        <v>15297.2635064802</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1319,7 +1319,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>35333.1600064059</v>
+        <v>35673.4705155926</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>17199.1600064059</v>
+        <v>17539.4705155926</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1351,7 +1351,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>71159.7373402074</v>
+        <v>70780.9692509437</v>
       </c>
       <c r="C28" t="n">
         <v>16.6480962398356</v>
@@ -1372,7 +1372,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>37872.7373402074</v>
+        <v>37493.9692509437</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1383,7 +1383,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>174372.104420504</v>
+        <v>172271.195784828</v>
       </c>
       <c r="C29" t="n">
         <v>8025.99920216501</v>
@@ -1404,7 +1404,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>129578.104420504</v>
+        <v>127477.195784828</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1415,7 +1415,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>313060.055632862</v>
+        <v>309625.428674793</v>
       </c>
       <c r="C30" t="n">
         <v>37887.1625174603</v>
@@ -1436,7 +1436,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>243018.055632862</v>
+        <v>239583.428674793</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1447,7 +1447,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>351338.174680075</v>
+        <v>347869.669583153</v>
       </c>
       <c r="C31" t="n">
         <v>47231.5228150507</v>
@@ -1468,7 +1468,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>210677.174680075</v>
+        <v>207208.669583153</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1479,7 +1479,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>293118.540852616</v>
+        <v>293017.113851282</v>
       </c>
       <c r="C32" t="n">
         <v>28979.0084271612</v>
@@ -1500,7 +1500,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>184145.540852616</v>
+        <v>184044.113851282</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1511,7 +1511,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>184367.304598676</v>
+        <v>185403.566830394</v>
       </c>
       <c r="C33" t="n">
         <v>5936.08830935258</v>
@@ -1532,7 +1532,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>129839.304598676</v>
+        <v>130875.566830394</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1543,7 +1543,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>181208.36783591</v>
+        <v>183652.463428508</v>
       </c>
       <c r="C34" t="n">
         <v>6624.767915963</v>
@@ -1564,7 +1564,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>136336.36783591</v>
+        <v>138780.463428508</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1575,7 +1575,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>166300.075249728</v>
+        <v>167378.034410658</v>
       </c>
       <c r="C35" t="n">
         <v>5536.39051589146</v>
@@ -1596,7 +1596,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>118905.075249728</v>
+        <v>119983.034410658</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1607,7 +1607,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>144293.546605781</v>
+        <v>146040.031292512</v>
       </c>
       <c r="C36" t="n">
         <v>2299.82069790093</v>
@@ -1628,7 +1628,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>93660.546605781</v>
+        <v>95407.0312925121</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1639,7 +1639,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>112414.472260467</v>
+        <v>112497.089271181</v>
       </c>
       <c r="C37" t="n">
         <v>362.552952218904</v>
@@ -1660,7 +1660,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>84667.4722604672</v>
+        <v>84750.0892711806</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1671,7 +1671,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>70705.5951116476</v>
+        <v>69773.5028059606</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>68221.5951116476</v>
+        <v>67289.5028059606</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1703,7 +1703,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>42669.2488443306</v>
+        <v>42654.730055987</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>38734.2488443306</v>
+        <v>38719.730055987</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1735,7 +1735,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>82579.8193242406</v>
+        <v>81630.2068740226</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>72948.8193242406</v>
+        <v>71999.2068740226</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1767,7 +1767,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>192924.751425835</v>
+        <v>190275.201586783</v>
       </c>
       <c r="C41" t="n">
         <v>2906.22644962133</v>
@@ -1788,7 +1788,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>172819.751425835</v>
+        <v>170170.201586783</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1799,7 +1799,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>337293.587625331</v>
+        <v>333774.474146971</v>
       </c>
       <c r="C42" t="n">
         <v>22332.6941477881</v>
@@ -1820,7 +1820,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>246034.587625331</v>
+        <v>242515.474146971</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1831,7 +1831,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>375732.751640509</v>
+        <v>373058.665848598</v>
       </c>
       <c r="C43" t="n">
         <v>29305.9672301651</v>
@@ -1852,7 +1852,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-57351.2483594914</v>
+        <v>-60025.3341514025</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1863,7 +1863,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>315110.083866656</v>
+        <v>315788.636438919</v>
       </c>
       <c r="C44" t="n">
         <v>16393.8039872645</v>
@@ -1884,7 +1884,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-142101.916133344</v>
+        <v>-141423.363561081</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1895,7 +1895,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>200112.57979471</v>
+        <v>202069.475104455</v>
       </c>
       <c r="C45" t="n">
         <v>2012.88440145311</v>
@@ -1916,7 +1916,7 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>6574.57979471004</v>
+        <v>8531.47510445534</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1927,7 +1927,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>195858.241747546</v>
+        <v>200075.090750977</v>
       </c>
       <c r="C46" t="n">
         <v>2401.21253373489</v>
@@ -1948,7 +1948,7 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>28878.2417475465</v>
+        <v>33095.0907509766</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1959,7 +1959,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>182128.880514158</v>
+        <v>184280.379858738</v>
       </c>
       <c r="C47" t="n">
         <v>1879.78259450977</v>
@@ -1980,7 +1980,7 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>16601.8805141582</v>
+        <v>18753.3798587384</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1991,7 +1991,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>160500.414528959</v>
+        <v>163225.843194668</v>
       </c>
       <c r="C48" t="n">
         <v>469.664275501941</v>
@@ -2012,7 +2012,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>67545.414528959</v>
+        <v>70270.8431946682</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -2023,7 +2023,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>126878.897985955</v>
+        <v>128485.497160848</v>
       </c>
       <c r="C49" t="n">
         <v>2.57199653831654</v>
@@ -2044,7 +2044,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>80728.8979859549</v>
+        <v>82335.4971608482</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -8429,7 +8429,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24358.577399554</v>
+        <v>24461.5359505928</v>
       </c>
       <c r="C2" t="n">
         <v>18092.6444447926</v>
@@ -8438,10 +8438,10 @@
         <v>16064.1090125885</v>
       </c>
       <c r="E2" t="n">
-        <v>38436.2516115876</v>
+        <v>38965.3981072151</v>
       </c>
       <c r="F2" t="n">
-        <v>49427.7782579771</v>
+        <v>50045.3189749633</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -8450,7 +8450,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7199.57739955404</v>
+        <v>7302.53595059279</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -8461,7 +8461,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13820.6143339575</v>
+        <v>13751.7745901086</v>
       </c>
       <c r="C3" t="n">
         <v>10127.0551220868</v>
@@ -8470,10 +8470,10 @@
         <v>9011.79078507316</v>
       </c>
       <c r="E3" t="n">
-        <v>19221.0119409549</v>
+        <v>18937.4695818333</v>
       </c>
       <c r="F3" t="n">
-        <v>22690.1597142649</v>
+        <v>22084.6511996782</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -8482,7 +8482,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5802.61433395746</v>
+        <v>5733.77459010856</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -8493,13 +8493,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18572.4056119828</v>
+        <v>18538.4450769877</v>
       </c>
       <c r="C4" t="n">
-        <v>12726.7359776422</v>
+        <v>12694.6554253341</v>
       </c>
       <c r="D4" t="n">
-        <v>11447.501962646</v>
+        <v>11441.6264016489</v>
       </c>
       <c r="E4" t="n">
         <v>28175.4522536776</v>
@@ -8514,7 +8514,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12544.4056119828</v>
+        <v>12510.4450769877</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -8525,13 +8525,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>27255.1099284259</v>
+        <v>27188.5952362007</v>
       </c>
       <c r="C5" t="n">
-        <v>15198.1373042539</v>
+        <v>14987.1804181161</v>
       </c>
       <c r="D5" t="n">
-        <v>12947.1496266373</v>
+        <v>12780.4867374626</v>
       </c>
       <c r="E5" t="n">
         <v>51322.829529277</v>
@@ -8546,7 +8546,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>21086.1099284259</v>
+        <v>21019.5952362007</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -8557,13 +8557,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36532.9008333867</v>
+        <v>36446.5684537737</v>
       </c>
       <c r="C6" t="n">
-        <v>17609.3391313264</v>
+        <v>17277.2105196283</v>
       </c>
       <c r="D6" t="n">
-        <v>15048.7519907714</v>
+        <v>14647.7331008109</v>
       </c>
       <c r="E6" t="n">
         <v>85572.486270753</v>
@@ -8578,7 +8578,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>27259.9008333867</v>
+        <v>27173.5684537737</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -8589,13 +8589,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39491.0217594978</v>
+        <v>39424.2224833897</v>
       </c>
       <c r="C7" t="n">
-        <v>19485.4516903577</v>
+        <v>19205.41845331</v>
       </c>
       <c r="D7" t="n">
-        <v>16354.3023066479</v>
+        <v>16018.2984224765</v>
       </c>
       <c r="E7" t="n">
         <v>99346.5360601493</v>
@@ -8610,7 +8610,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27496.0217594978</v>
+        <v>27429.2224833897</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -8621,7 +8621,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>33114.6738261357</v>
+        <v>33060.5906786407</v>
       </c>
       <c r="C8" t="n">
         <v>18361.3929195509</v>
@@ -8642,7 +8642,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>24106.6738261357</v>
+        <v>24052.5906786407</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -8653,7 +8653,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21285.7403404022</v>
+        <v>21377.2861751258</v>
       </c>
       <c r="C9" t="n">
         <v>12476.3200255059</v>
@@ -8662,7 +8662,7 @@
         <v>10243.5898437275</v>
       </c>
       <c r="E9" t="n">
-        <v>36270.3947389659</v>
+        <v>36693.2319133197</v>
       </c>
       <c r="F9" t="n">
         <v>54087.2769181549</v>
@@ -8674,7 +8674,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12277.7403404022</v>
+        <v>12369.2861751258</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -8685,7 +8685,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19402.8934322052</v>
+        <v>19533.3406833496</v>
       </c>
       <c r="C10" t="n">
         <v>11497.1825722379</v>
@@ -8694,7 +8694,7 @@
         <v>9462.00447103951</v>
       </c>
       <c r="E10" t="n">
-        <v>33732.863938446</v>
+        <v>34850.3596412676</v>
       </c>
       <c r="F10" t="n">
         <v>48433.1778172126</v>
@@ -8706,7 +8706,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6190.89343220517</v>
+        <v>6321.3406833496</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -8717,7 +8717,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20418.3198457485</v>
+        <v>20556.5407096913</v>
       </c>
       <c r="C11" t="n">
         <v>12016.8271575328</v>
@@ -8726,7 +8726,7 @@
         <v>9789.67296951087</v>
       </c>
       <c r="E11" t="n">
-        <v>36248.1742821249</v>
+        <v>36765.7237617603</v>
       </c>
       <c r="F11" t="n">
         <v>57483.9294762837</v>
@@ -8738,7 +8738,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7600.31984574854</v>
+        <v>7738.5407096913</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -8749,7 +8749,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>25035.5975242835</v>
+        <v>25092.9864667262</v>
       </c>
       <c r="C12" t="n">
         <v>14261.7481346777</v>
@@ -8770,7 +8770,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9824.59752428353</v>
+        <v>9881.9864667262</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -8781,7 +8781,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27719.8793534874</v>
+        <v>27728.3048946825</v>
       </c>
       <c r="C13" t="n">
         <v>15218.7116627951</v>
@@ -8802,7 +8802,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16282.8793534874</v>
+        <v>16291.3048946825</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -8813,7 +8813,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24441.9708130999</v>
+        <v>24462.2257899274</v>
       </c>
       <c r="C14" t="n">
         <v>13137.1502140118</v>
@@ -8834,7 +8834,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17363.9708130999</v>
+        <v>17384.2257899274</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -8845,7 +8845,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>14252.8074745722</v>
+        <v>13993.2920688145</v>
       </c>
       <c r="C15" t="n">
         <v>8260.56133907371</v>
@@ -8854,10 +8854,10 @@
         <v>6834.17978950791</v>
       </c>
       <c r="E15" t="n">
-        <v>28729.1878390283</v>
+        <v>28524.5981673961</v>
       </c>
       <c r="F15" t="n">
-        <v>36014.5616051917</v>
+        <v>35975.9047609483</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -8866,7 +8866,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9859.80747457219</v>
+        <v>9600.29206881454</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -8877,7 +8877,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18611.0925971313</v>
+        <v>18464.1487373481</v>
       </c>
       <c r="C16" t="n">
         <v>10809.4618368325</v>
@@ -8898,7 +8898,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>9007.0925971313</v>
+        <v>8860.14873734811</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -8909,10 +8909,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26692.0923544309</v>
+        <v>26589.0912794963</v>
       </c>
       <c r="C17" t="n">
-        <v>13407.0579422677</v>
+        <v>13277.8648708032</v>
       </c>
       <c r="D17" t="n">
         <v>10967.6489943652</v>
@@ -8930,7 +8930,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15191.0923544309</v>
+        <v>15088.0912794963</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -8941,13 +8941,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>35289.4016666568</v>
+        <v>35140.122205063</v>
       </c>
       <c r="C18" t="n">
-        <v>14964.7321839988</v>
+        <v>14944.719734274</v>
       </c>
       <c r="D18" t="n">
-        <v>12604.5175228342</v>
+        <v>12425.8685165999</v>
       </c>
       <c r="E18" t="n">
         <v>144760.36601956</v>
@@ -8962,7 +8962,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>23319.4016666568</v>
+        <v>23170.122205063</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -8973,10 +8973,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>37950.9460481407</v>
+        <v>37768.5659482412</v>
       </c>
       <c r="C19" t="n">
-        <v>16363.7954381981</v>
+        <v>16211.8616118503</v>
       </c>
       <c r="D19" t="n">
         <v>13004.5100822935</v>
@@ -8994,7 +8994,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25935.9460481407</v>
+        <v>25753.5659482412</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -9005,7 +9005,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>32092.3579260102</v>
+        <v>31906.7614493348</v>
       </c>
       <c r="C20" t="n">
         <v>15023.7949732691</v>
@@ -9026,7 +9026,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22725.3579260102</v>
+        <v>22539.7614493348</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -9037,7 +9037,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21577.519344483</v>
+        <v>21499.1943208056</v>
       </c>
       <c r="C21" t="n">
         <v>10679.949749488</v>
@@ -9058,7 +9058,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13224.519344483</v>
+        <v>13146.1943208056</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -9069,7 +9069,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>20002.2464060735</v>
+        <v>20100.8182111201</v>
       </c>
       <c r="C22" t="n">
         <v>9970.77061124087</v>
@@ -9078,7 +9078,7 @@
         <v>7857.72258165793</v>
       </c>
       <c r="E22" t="n">
-        <v>42129.2647666515</v>
+        <v>43268.4953080088</v>
       </c>
       <c r="F22" t="n">
         <v>78653.4080235126</v>
@@ -9090,7 +9090,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7396.24640607349</v>
+        <v>7494.8182111201</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -9101,7 +9101,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20900.3539169634</v>
+        <v>21104.3450208666</v>
       </c>
       <c r="C23" t="n">
         <v>10444.3007627042</v>
@@ -9122,7 +9122,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9784.35391696344</v>
+        <v>9988.34502086657</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -9133,7 +9133,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25125.1199144237</v>
+        <v>25260.6795519576</v>
       </c>
       <c r="C24" t="n">
         <v>12294.3409740703</v>
@@ -9154,7 +9154,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13244.1199144237</v>
+        <v>13379.6795519576</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -9165,7 +9165,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27668.2226876418</v>
+        <v>27736.6424954553</v>
       </c>
       <c r="C25" t="n">
         <v>13115.6534975643</v>
@@ -9186,7 +9186,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16776.2226876418</v>
+        <v>16844.6424954553</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -9197,7 +9197,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24463.0919676686</v>
+        <v>24496.9390469305</v>
       </c>
       <c r="C26" t="n">
         <v>11540.0256119915</v>
@@ -9218,7 +9218,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>17893.0919676686</v>
+        <v>17926.9390469305</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -9229,7 +9229,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15848.2113443777</v>
+        <v>15524.3032770952</v>
       </c>
       <c r="C27" t="n">
         <v>7508.31736126025</v>
@@ -9238,10 +9238,10 @@
         <v>6028.80690028605</v>
       </c>
       <c r="E27" t="n">
-        <v>38815.3308849224</v>
+        <v>38751.2723385486</v>
       </c>
       <c r="F27" t="n">
-        <v>54251.4025213225</v>
+        <v>53814.0992316784</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -9250,7 +9250,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>11357.2113443777</v>
+        <v>11033.3032770952</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -9261,7 +9261,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19549.9335353355</v>
+        <v>19333.023764692</v>
       </c>
       <c r="C28" t="n">
         <v>9721.64643941573</v>
@@ -9282,7 +9282,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9548.93353533551</v>
+        <v>9332.02376469202</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -9293,7 +9293,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>27092.3504418266</v>
+        <v>26950.9089810644</v>
       </c>
       <c r="C29" t="n">
         <v>12712.2919542595</v>
@@ -9314,7 +9314,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>17124.3504418266</v>
+        <v>16982.9089810644</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -9325,10 +9325,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>35219.3017903363</v>
+        <v>35088.2275010212</v>
       </c>
       <c r="C30" t="n">
-        <v>13634.3900621679</v>
+        <v>13576.3747642065</v>
       </c>
       <c r="D30" t="n">
         <v>10953.7595637456</v>
@@ -9346,7 +9346,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>24068.3017903363</v>
+        <v>23937.2275010212</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -9357,10 +9357,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37536.4811357329</v>
+        <v>37415.2258399519</v>
       </c>
       <c r="C31" t="n">
-        <v>14614.0891415861</v>
+        <v>14504.5921919688</v>
       </c>
       <c r="D31" t="n">
         <v>11155.8710716245</v>
@@ -9376,7 +9376,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25591.4811357329</v>
+        <v>25470.2258399519</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -9387,7 +9387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31603.6684235759</v>
+        <v>31418.0556653882</v>
       </c>
       <c r="C32" t="n">
         <v>13451.0581028725</v>
@@ -9408,7 +9408,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>22212.6684235759</v>
+        <v>22027.0556653882</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -9419,7 +9419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21442.1374022264</v>
+        <v>21255.9454386756</v>
       </c>
       <c r="C33" t="n">
         <v>9769.7192097405</v>
@@ -9440,7 +9440,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>12970.1374022264</v>
+        <v>12783.9454386756</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -9451,7 +9451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>20175.7919717471</v>
+        <v>20062.3624705834</v>
       </c>
       <c r="C34" t="n">
         <v>9171.78565403236</v>
@@ -9472,7 +9472,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>9134.79197174707</v>
+        <v>9021.36247058342</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -9483,7 +9483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21203.2593609534</v>
+        <v>21183.5275991687</v>
       </c>
       <c r="C35" t="n">
         <v>9606.48652750789</v>
@@ -9504,7 +9504,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11666.2593609534</v>
+        <v>11646.5275991687</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -9515,7 +9515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25347.4635023759</v>
+        <v>25365.3760418774</v>
       </c>
       <c r="C36" t="n">
         <v>11242.4952361484</v>
@@ -9536,7 +9536,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16645.4635023759</v>
+        <v>16663.3760418774</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -9547,7 +9547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27802.0741274798</v>
+        <v>27822.4130179549</v>
       </c>
       <c r="C37" t="n">
         <v>11977.8083646304</v>
@@ -9568,7 +9568,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23963.0741274798</v>
+        <v>23983.4130179549</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -9579,7 +9579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24584.0434780823</v>
+        <v>24597.4011873646</v>
       </c>
       <c r="C38" t="n">
         <v>10637.4505337609</v>
@@ -9600,7 +9600,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>22214.0434780823</v>
+        <v>22227.4011873646</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -9611,7 +9611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16867.2208699208</v>
+        <v>16839.4729831057</v>
       </c>
       <c r="C39" t="n">
         <v>7056.72193509203</v>
@@ -9620,10 +9620,10 @@
         <v>5560.97404019948</v>
       </c>
       <c r="E39" t="n">
-        <v>43320.8970556415</v>
+        <v>44451.2432879007</v>
       </c>
       <c r="F39" t="n">
-        <v>66942.0103275871</v>
+        <v>68826.5644353505</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
@@ -9632,7 +9632,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>12319.2208699208</v>
+        <v>12291.4729831057</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -9643,7 +9643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20552.5157480903</v>
+        <v>20532.3198370889</v>
       </c>
       <c r="C40" t="n">
         <v>9068.0307354836</v>
@@ -9664,7 +9664,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>13253.5157480903</v>
+        <v>13233.3198370889</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -9675,7 +9675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27861.4841191716</v>
+        <v>27867.1707166316</v>
       </c>
       <c r="C41" t="n">
         <v>11750.5270156756</v>
@@ -9696,7 +9696,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20833.4841191716</v>
+        <v>20839.1707166316</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -9707,10 +9707,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35684.4295037345</v>
+        <v>35701.3579121552</v>
       </c>
       <c r="C42" t="n">
-        <v>13171.3270967569</v>
+        <v>13048.548602695</v>
       </c>
       <c r="D42" t="n">
         <v>9871.7421132616</v>
@@ -9726,7 +9726,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26754.4295037345</v>
+        <v>26771.3579121552</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -9737,10 +9737,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37721.6133285675</v>
+        <v>37749.011355913</v>
       </c>
       <c r="C43" t="n">
-        <v>14174.3822488968</v>
+        <v>14045.4937767376</v>
       </c>
       <c r="D43" t="n">
         <v>10065.7646230228</v>
@@ -9756,7 +9756,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>27011.6133285675</v>
+        <v>27039.011355913</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -9767,7 +9767,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31620.833960472</v>
+        <v>31639.2901838467</v>
       </c>
       <c r="C44" t="n">
         <v>12467.7367931876</v>
@@ -9788,7 +9788,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22340.833960472</v>
+        <v>22359.2901838467</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -9799,7 +9799,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21451.444042213</v>
+        <v>21378.5771325739</v>
       </c>
       <c r="C45" t="n">
         <v>9179.01862585911</v>
@@ -9820,7 +9820,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13532.444042213</v>
+        <v>13459.5771325739</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -9831,7 +9831,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>20252.8792895879</v>
+        <v>20143.478384449</v>
       </c>
       <c r="C46" t="n">
         <v>8644.97016497651</v>
@@ -9852,7 +9852,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9385.87928958791</v>
+        <v>9276.47838444903</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -9863,7 +9863,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21365.0965116512</v>
+        <v>21269.8883947069</v>
       </c>
       <c r="C47" t="n">
         <v>9049.71196455794</v>
@@ -9884,7 +9884,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>13078.0965116512</v>
+        <v>12982.8883947069</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -9895,7 +9895,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25526.7923072146</v>
+        <v>25458.6812323659</v>
       </c>
       <c r="C48" t="n">
         <v>10543.7000165822</v>
@@ -9916,7 +9916,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>17884.7923072146</v>
+        <v>17816.6812323659</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -9927,7 +9927,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>27965.846441631</v>
+        <v>27919.9019948061</v>
       </c>
       <c r="C49" t="n">
         <v>11218.0042102211</v>
@@ -9948,7 +9948,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20873.846441631</v>
+        <v>20827.9019948061</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -15039,7 +15039,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2520.22608915359</v>
+        <v>2499.5183567505</v>
       </c>
       <c r="C2" t="n">
         <v>1991.94667052589</v>
@@ -15060,7 +15060,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>75.2260891535907</v>
+        <v>54.5183567504973</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -15071,7 +15071,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2601.1300606122</v>
+        <v>2572.81159379997</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4297907211</v>
@@ -15092,7 +15092,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1668.1300606122</v>
+        <v>1639.81159379997</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -15103,13 +15103,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4579.58257409743</v>
+        <v>4564.30686758376</v>
       </c>
       <c r="C4" t="n">
-        <v>3583.46847958981</v>
+        <v>3516.58659342595</v>
       </c>
       <c r="D4" t="n">
-        <v>3458.27291527576</v>
+        <v>3406.01186754749</v>
       </c>
       <c r="E4" t="n">
         <v>6059.97763513824</v>
@@ -15124,7 +15124,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1071.58257409743</v>
+        <v>1056.30686758376</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -15135,13 +15135,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5209.81028867889</v>
+        <v>5160.7768936451</v>
       </c>
       <c r="C5" t="n">
-        <v>4015.79375305297</v>
+        <v>3754.88327627754</v>
       </c>
       <c r="D5" t="n">
-        <v>3838.53275622135</v>
+        <v>3580.64703186017</v>
       </c>
       <c r="E5" t="n">
         <v>7086.92421038528</v>
@@ -15156,7 +15156,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-150.189711321113</v>
+        <v>-199.223106354897</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -15167,13 +15167,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6122.76281129194</v>
+        <v>6045.47843152312</v>
       </c>
       <c r="C6" t="n">
-        <v>4584.6519933116</v>
+        <v>4179.74185310249</v>
       </c>
       <c r="D6" t="n">
-        <v>4220.52092003925</v>
+        <v>3834.92948709128</v>
       </c>
       <c r="E6" t="n">
         <v>8215.79409716881</v>
@@ -15188,7 +15188,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>858.762811291938</v>
+        <v>781.478431523115</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -15199,13 +15199,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6507.49196784905</v>
+        <v>6400.93935985961</v>
       </c>
       <c r="C7" t="n">
-        <v>4830.01434364413</v>
+        <v>4599.86481061354</v>
       </c>
       <c r="D7" t="n">
-        <v>4265.19318711448</v>
+        <v>4163.71888182886</v>
       </c>
       <c r="E7" t="n">
         <v>8670.22519575541</v>
@@ -15220,7 +15220,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>314.491967849047</v>
+        <v>207.939359859613</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -15231,13 +15231,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6332.20644361887</v>
+        <v>6174.23920098852</v>
       </c>
       <c r="C8" t="n">
-        <v>4418.19850010239</v>
+        <v>4416.47475631294</v>
       </c>
       <c r="D8" t="n">
-        <v>3935.16308718223</v>
+        <v>4121.66369501346</v>
       </c>
       <c r="E8" t="n">
         <v>8416.9674434498</v>
@@ -15252,7 +15252,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1360.20644361887</v>
+        <v>1202.23920098852</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -15263,7 +15263,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5546.64864939087</v>
+        <v>5383.41921426064</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83189494892</v>
@@ -15284,7 +15284,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>574.648649390866</v>
+        <v>411.419214260643</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -15295,7 +15295,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4072.98190664041</v>
+        <v>3850.32131348732</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58054715183</v>
@@ -15304,10 +15304,10 @@
         <v>2224.76066630715</v>
       </c>
       <c r="E10" t="n">
-        <v>5909.08116029609</v>
+        <v>5368.3103318324</v>
       </c>
       <c r="F10" t="n">
-        <v>6211.64934226131</v>
+        <v>6016.43089291314</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -15316,7 +15316,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-419.018093359587</v>
+        <v>-641.678686512675</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -15327,7 +15327,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2973.47256755123</v>
+        <v>2808.34359226312</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16735152256</v>
@@ -15336,7 +15336,7 @@
         <v>1489.11877012796</v>
       </c>
       <c r="E11" t="n">
-        <v>4329.31540999517</v>
+        <v>4000.07775683539</v>
       </c>
       <c r="F11" t="n">
         <v>4708.01462847304</v>
@@ -15348,7 +15348,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-232.527432448774</v>
+        <v>-397.656407736879</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -15359,7 +15359,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3079.33797239095</v>
+        <v>2971.73113155808</v>
       </c>
       <c r="C12" t="n">
         <v>2120.53544403332</v>
@@ -15380,7 +15380,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-531.662027609047</v>
+        <v>-639.26886844192</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -15391,7 +15391,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3119.50908873943</v>
+        <v>3065.58137355917</v>
       </c>
       <c r="C13" t="n">
         <v>2176.18727763944</v>
@@ -15412,7 +15412,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-574.490911260571</v>
+        <v>-628.418626440831</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -15423,7 +15423,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2659.9969382211</v>
+        <v>2600.60698409385</v>
       </c>
       <c r="C14" t="n">
         <v>1630.70239110265</v>
@@ -15444,7 +15444,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-515.003061778902</v>
+        <v>-574.393015906146</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -15455,10 +15455,10 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2805.59178655453</v>
+        <v>2677.83936486815</v>
       </c>
       <c r="C15" t="n">
-        <v>1739.511421226</v>
+        <v>1669.35358350412</v>
       </c>
       <c r="D15" t="n">
         <v>1309.75218349487</v>
@@ -15476,7 +15476,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-619.408213445467</v>
+        <v>-747.160635131854</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -15487,13 +15487,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4434.54901708254</v>
+        <v>4412.19712534293</v>
       </c>
       <c r="C16" t="n">
-        <v>2555.24322441158</v>
+        <v>2368.88119195857</v>
       </c>
       <c r="D16" t="n">
-        <v>2348.33279195406</v>
+        <v>2144.89143594314</v>
       </c>
       <c r="E16" t="n">
         <v>7405.78804909315</v>
@@ -15508,7 +15508,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2785.45098291746</v>
+        <v>-2807.80287465707</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -15519,13 +15519,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5291.71071094716</v>
+        <v>5188.66949872935</v>
       </c>
       <c r="C17" t="n">
-        <v>3591.95716632299</v>
+        <v>3063.85344572253</v>
       </c>
       <c r="D17" t="n">
-        <v>3039.60259796516</v>
+        <v>2705.98458571268</v>
       </c>
       <c r="E17" t="n">
         <v>8494.68924107114</v>
@@ -15540,7 +15540,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2556.28928905284</v>
+        <v>-2659.33050127065</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -15551,13 +15551,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6201.54805873002</v>
+        <v>5934.7260396503</v>
       </c>
       <c r="C18" t="n">
-        <v>4058.27312921099</v>
+        <v>3278.04775288533</v>
       </c>
       <c r="D18" t="n">
-        <v>3564.3250414239</v>
+        <v>2811.77276626491</v>
       </c>
       <c r="E18" t="n">
         <v>9689.70911060613</v>
@@ -15572,7 +15572,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1894.45194126998</v>
+        <v>-2161.2739603497</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -15583,13 +15583,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6631.41633963561</v>
+        <v>6241.11540961488</v>
       </c>
       <c r="C19" t="n">
-        <v>4346.55437725983</v>
+        <v>3778.3376961019</v>
       </c>
       <c r="D19" t="n">
-        <v>3707.33132005967</v>
+        <v>3353.6368979253</v>
       </c>
       <c r="E19" t="n">
         <v>10141.1914479731</v>
@@ -15604,7 +15604,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3038.58366036439</v>
+        <v>-3428.88459038512</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -15615,10 +15615,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6689.09004452504</v>
+        <v>6125.08317192318</v>
       </c>
       <c r="C20" t="n">
-        <v>4381.89567560406</v>
+        <v>4241.43946751464</v>
       </c>
       <c r="D20" t="n">
         <v>3491.54840414504</v>
@@ -15636,7 +15636,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2532.90995547496</v>
+        <v>-3096.91682807682</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -15647,7 +15647,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6085.31317741155</v>
+        <v>5311.8800883987</v>
       </c>
       <c r="C21" t="n">
         <v>3572.24646133236</v>
@@ -15668,7 +15668,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-781.686822588455</v>
+        <v>-1555.1199116013</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -15679,7 +15679,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4617.05082421935</v>
+        <v>3881.57466336034</v>
       </c>
       <c r="C22" t="n">
         <v>2274.99752473612</v>
@@ -15688,10 +15688,10 @@
         <v>1645.25308091835</v>
       </c>
       <c r="E22" t="n">
-        <v>7117.36240885461</v>
+        <v>6300.13849596426</v>
       </c>
       <c r="F22" t="n">
-        <v>7583.42900695803</v>
+        <v>7551.56273391586</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
@@ -15700,7 +15700,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1314.94917578065</v>
+        <v>-2050.42533663966</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -15711,7 +15711,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3439.50255028697</v>
+        <v>2787.78180835005</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19149678273</v>
@@ -15720,7 +15720,7 @@
         <v>1036.14847407148</v>
       </c>
       <c r="E23" t="n">
-        <v>5348.35033048212</v>
+        <v>4866.72494197849</v>
       </c>
       <c r="F23" t="n">
         <v>6016.79481331413</v>
@@ -15732,7 +15732,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-182.497449713032</v>
+        <v>-834.218191649951</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -15743,7 +15743,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3314.69282551248</v>
+        <v>2858.44690328899</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72864932199</v>
@@ -15764,7 +15764,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-334.307174487524</v>
+        <v>-790.553096711012</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -15775,10 +15775,10 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3219.42423442739</v>
+        <v>3003.72585016267</v>
       </c>
       <c r="C25" t="n">
-        <v>1829.00664776947</v>
+        <v>1679.17274067448</v>
       </c>
       <c r="D25" t="n">
         <v>1240.28644452059</v>
@@ -15796,7 +15796,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1699.57576557261</v>
+        <v>-1915.27414983733</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -15807,10 +15807,10 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2800.68092353902</v>
+        <v>2578.59594913963</v>
       </c>
       <c r="C26" t="n">
-        <v>1423.24887290613</v>
+        <v>1274.39903375164</v>
       </c>
       <c r="D26" t="n">
         <v>900.410172952505</v>
@@ -15828,7 +15828,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1595.31907646098</v>
+        <v>-1817.40405086037</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -15839,10 +15839,10 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2949.76359088171</v>
+        <v>2636.29555131407</v>
       </c>
       <c r="C27" t="n">
-        <v>1434.76508825466</v>
+        <v>1246.91091622409</v>
       </c>
       <c r="D27" t="n">
         <v>895.199325928177</v>
@@ -15860,7 +15860,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1739.23640911829</v>
+        <v>-2052.70444868593</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -15871,13 +15871,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4583.91571278839</v>
+        <v>4246.798660274</v>
       </c>
       <c r="C28" t="n">
-        <v>2211.33564387758</v>
+        <v>1464.79754187174</v>
       </c>
       <c r="D28" t="n">
-        <v>1800.25577767751</v>
+        <v>1234.05437160573</v>
       </c>
       <c r="E28" t="n">
         <v>8519.52465684769</v>
@@ -15892,7 +15892,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2072.08428721161</v>
+        <v>-2409.201339726</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -15903,13 +15903,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5172.56523268995</v>
+        <v>5200.73329114052</v>
       </c>
       <c r="C29" t="n">
-        <v>2941.98779556963</v>
+        <v>2142.04282848902</v>
       </c>
       <c r="D29" t="n">
-        <v>2343.11284856902</v>
+        <v>1489.17108245865</v>
       </c>
       <c r="E29" t="n">
         <v>9679.54037829963</v>
@@ -15924,7 +15924,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1951.43476731005</v>
+        <v>-1923.26670885948</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -15935,13 +15935,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6436.16615609663</v>
+        <v>6049.68962963434</v>
       </c>
       <c r="C30" t="n">
-        <v>3839.23488708462</v>
+        <v>2998.47523940712</v>
       </c>
       <c r="D30" t="n">
-        <v>2854.30301121725</v>
+        <v>2385.62802207643</v>
       </c>
       <c r="E30" t="n">
         <v>10947.5111749827</v>
@@ -15956,7 +15956,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2387.83384390337</v>
+        <v>-2774.31037036566</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -15967,10 +15967,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6861.05456960715</v>
+        <v>6369.63562280809</v>
       </c>
       <c r="C31" t="n">
-        <v>4049.31326272684</v>
+        <v>3677.88420378451</v>
       </c>
       <c r="D31" t="n">
         <v>2917.30065609826</v>
@@ -15988,7 +15988,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3081.94543039285</v>
+        <v>-3573.36437719191</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -15999,7 +15999,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6993.30811374558</v>
+        <v>6289.62496318651</v>
       </c>
       <c r="C32" t="n">
         <v>3846.91026639935</v>
@@ -16020,7 +16020,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-2689.69188625442</v>
+        <v>-3393.37503681349</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -16031,7 +16031,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6300.27675078031</v>
+        <v>5583.3078550542</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90185126986</v>
@@ -16052,7 +16052,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-1586.72324921969</v>
+        <v>-2303.6921449458</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -16063,7 +16063,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4948.28518341289</v>
+        <v>4026.78098672855</v>
       </c>
       <c r="C34" t="n">
         <v>1908.87651100061</v>
@@ -16072,7 +16072,7 @@
         <v>1158.23136849766</v>
       </c>
       <c r="E34" t="n">
-        <v>7331.92561284433</v>
+        <v>7196.2425014789</v>
       </c>
       <c r="F34" t="n">
         <v>8948.05095962559</v>
@@ -16084,7 +16084,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-362.714816587108</v>
+        <v>-1284.21901327145</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -16095,7 +16095,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3878.15548611513</v>
+        <v>2904.29455209353</v>
       </c>
       <c r="C35" t="n">
         <v>1251.3782561686</v>
@@ -16104,7 +16104,7 @@
         <v>669.263043288077</v>
       </c>
       <c r="E35" t="n">
-        <v>6135.06885014175</v>
+        <v>5670.92569293253</v>
       </c>
       <c r="F35" t="n">
         <v>7309.70741139115</v>
@@ -16116,7 +16116,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>1343.15548611513</v>
+        <v>369.294552093527</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -16127,7 +16127,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3622.76585326116</v>
+        <v>2978.98236426928</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35462556352</v>
@@ -16148,7 +16148,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>1053.76585326116</v>
+        <v>409.982364269279</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -16159,10 +16159,10 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3296.66680200526</v>
+        <v>3116.12243529275</v>
       </c>
       <c r="C37" t="n">
-        <v>1501.83211585826</v>
+        <v>1376.03299995998</v>
       </c>
       <c r="D37" t="n">
         <v>825.299313086099</v>
@@ -16180,7 +16180,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1476.66680200526</v>
+        <v>1296.12243529275</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -16191,7 +16191,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2866.65523064283</v>
+        <v>2707.58079303788</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63294805888</v>
@@ -16212,7 +16212,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>548.655230642828</v>
+        <v>389.580793037882</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -16223,7 +16223,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3077.80608193305</v>
+        <v>2731.14513363903</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79777241534</v>
@@ -16244,7 +16244,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2584.19391806695</v>
+        <v>-2930.85486636097</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -16255,13 +16255,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4706.47475401458</v>
+        <v>4365.31031859338</v>
       </c>
       <c r="C40" t="n">
-        <v>1836.85599140829</v>
+        <v>1162.17051701505</v>
       </c>
       <c r="D40" t="n">
-        <v>1178.58295173923</v>
+        <v>976.220975602741</v>
       </c>
       <c r="E40" t="n">
         <v>9568.36934699627</v>
@@ -16276,7 +16276,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1836.52524598542</v>
+        <v>-2177.68968140662</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -16287,13 +16287,13 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5149.55004030307</v>
+        <v>5381.17211393562</v>
       </c>
       <c r="C41" t="n">
-        <v>2486.77774356609</v>
+        <v>1471.47832539291</v>
       </c>
       <c r="D41" t="n">
-        <v>1722.85011950393</v>
+        <v>1060.14540843188</v>
       </c>
       <c r="E41" t="n">
         <v>10796.6579388954</v>
@@ -16308,7 +16308,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2527.44995969693</v>
+        <v>-2295.82788606438</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -16319,10 +16319,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6406.60896867615</v>
+        <v>6303.01809675458</v>
       </c>
       <c r="C42" t="n">
-        <v>3418.60061292887</v>
+        <v>2882.99615025094</v>
       </c>
       <c r="D42" t="n">
         <v>2151.34369420497</v>
@@ -16340,7 +16340,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2660.39103132385</v>
+        <v>-2763.98190324542</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -16351,7 +16351,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6820.12389734799</v>
+        <v>6612.61453180103</v>
       </c>
       <c r="C43" t="n">
         <v>3513.08387032542</v>
@@ -16372,7 +16372,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1505.87610265201</v>
+        <v>-1713.38546819897</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -16383,7 +16383,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6903.81747366134</v>
+        <v>6566.2962390924</v>
       </c>
       <c r="C44" t="n">
         <v>3323.75248837071</v>
@@ -16404,7 +16404,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2260.18252633866</v>
+        <v>-2597.7037609076</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -16415,7 +16415,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6238.46039314897</v>
+        <v>5794.31686845813</v>
       </c>
       <c r="C45" t="n">
         <v>2633.37387178122</v>
@@ -16436,7 +16436,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2115.53960685103</v>
+        <v>-2559.68313154187</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -16447,7 +16447,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4881.76833898923</v>
+        <v>4210.26938612463</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35556188795</v>
@@ -16468,7 +16468,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1105.23166101077</v>
+        <v>-1776.73061387537</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -16479,7 +16479,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3809.70095215896</v>
+        <v>3083.9471661694</v>
       </c>
       <c r="C47" t="n">
         <v>979.514189731485</v>
@@ -16500,7 +16500,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-667.299047841044</v>
+        <v>-1393.0528338306</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -16511,7 +16511,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3649.39838524053</v>
+        <v>3113.10906076194</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49497256188</v>
@@ -16532,7 +16532,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-890.601614759466</v>
+        <v>-1426.89093923806</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -16543,7 +16543,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3385.65245294953</v>
+        <v>3251.30989715978</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38066689333</v>
@@ -16564,7 +16564,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-357.347547050473</v>
+        <v>-491.690102840225</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -20983,13 +20983,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>277.865830339977</v>
+        <v>277.665479297809</v>
       </c>
       <c r="C2" t="n">
-        <v>189.345189679115</v>
+        <v>188.806311936178</v>
       </c>
       <c r="D2" t="n">
-        <v>170.770103959806</v>
+        <v>170.344052473418</v>
       </c>
       <c r="E2" t="n">
         <v>440.627362179176</v>
@@ -21004,7 +21004,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.1341696600232</v>
+        <v>-70.3345207021912</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -21015,13 +21015,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>248.288514692825</v>
+        <v>248.288890625911</v>
       </c>
       <c r="C3" t="n">
-        <v>185.678128716803</v>
+        <v>185.514477780561</v>
       </c>
       <c r="D3" t="n">
-        <v>168.303618742774</v>
+        <v>167.99723675755</v>
       </c>
       <c r="E3" t="n">
         <v>377.788952082555</v>
@@ -21036,7 +21036,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>122.288514692825</v>
+        <v>122.288890625911</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -21047,7 +21047,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>192.912837326749</v>
+        <v>192.996465743396</v>
       </c>
       <c r="C4" t="n">
         <v>143.01186863588</v>
@@ -21068,7 +21068,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>100.912837326749</v>
+        <v>100.996465743396</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -21079,7 +21079,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>210.549287911194</v>
+        <v>210.465993195331</v>
       </c>
       <c r="C5" t="n">
         <v>151.169620017098</v>
@@ -21100,7 +21100,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>156.549287911194</v>
+        <v>156.465993195331</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -21111,7 +21111,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>238.182134870172</v>
+        <v>238.028154326735</v>
       </c>
       <c r="C6" t="n">
         <v>161.529209914064</v>
@@ -21132,7 +21132,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>198.182134870172</v>
+        <v>198.028154326735</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -21143,7 +21143,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>262.712803854876</v>
+        <v>262.552826401736</v>
       </c>
       <c r="C7" t="n">
         <v>173.974474251093</v>
@@ -21164,7 +21164,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>188.712803854876</v>
+        <v>188.552826401736</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -21175,7 +21175,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>272.531068565446</v>
+        <v>272.354320567028</v>
       </c>
       <c r="C8" t="n">
         <v>186.780385608902</v>
@@ -21196,7 +21196,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>215.531068565446</v>
+        <v>215.354320567028</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -21207,7 +21207,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>238.86900379417</v>
+        <v>238.906869506803</v>
       </c>
       <c r="C9" t="n">
         <v>170.178817301019</v>
@@ -21228,7 +21228,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>181.86900379417</v>
+        <v>181.906869506803</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -21239,7 +21239,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>226.274865091437</v>
+        <v>226.3727454996</v>
       </c>
       <c r="C10" t="n">
         <v>158.056003992552</v>
@@ -21260,7 +21260,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>145.274865091437</v>
+        <v>145.3727454996</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -21271,7 +21271,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>206.927295349362</v>
+        <v>207.029294210189</v>
       </c>
       <c r="C11" t="n">
         <v>143.297914456867</v>
@@ -21292,7 +21292,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>128.927295349362</v>
+        <v>129.029294210189</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -21303,7 +21303,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>224.060978649435</v>
+        <v>224.006233758253</v>
       </c>
       <c r="C12" t="n">
         <v>145.236259397156</v>
@@ -21324,7 +21324,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>161.060978649435</v>
+        <v>161.006233758253</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -21335,7 +21335,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>200.51267837448</v>
+        <v>200.604423664715</v>
       </c>
       <c r="C13" t="n">
         <v>130.640496742923</v>
@@ -21356,7 +21356,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>127.51267837448</v>
+        <v>127.604423664715</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -21367,7 +21367,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>263.036687365969</v>
+        <v>263.027932310936</v>
       </c>
       <c r="C14" t="n">
         <v>168.75127543887</v>
@@ -21388,7 +21388,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>195.036687365969</v>
+        <v>195.027932310936</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -21399,7 +21399,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>235.773261200813</v>
+        <v>235.813594676562</v>
       </c>
       <c r="C15" t="n">
         <v>149.465138407806</v>
@@ -21420,7 +21420,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>177.773261200813</v>
+        <v>177.813594676562</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -21431,7 +21431,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>189.918115604955</v>
+        <v>190.028123387636</v>
       </c>
       <c r="C16" t="n">
         <v>120.930459163208</v>
@@ -21452,7 +21452,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>126.918115604955</v>
+        <v>127.028123387636</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -21463,7 +21463,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>206.086574869316</v>
+        <v>206.103142438478</v>
       </c>
       <c r="C17" t="n">
         <v>129.298360432976</v>
@@ -21484,7 +21484,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>132.086574869316</v>
+        <v>132.103142438478</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -21495,7 +21495,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>231.238905551733</v>
+        <v>231.162166792109</v>
       </c>
       <c r="C18" t="n">
         <v>141.826013054688</v>
@@ -21516,7 +21516,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>134.238905551733</v>
+        <v>134.162166792109</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -21527,7 +21527,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>253.447496021489</v>
+        <v>253.331642609429</v>
       </c>
       <c r="C19" t="n">
         <v>153.909943721984</v>
@@ -21548,7 +21548,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>144.447496021489</v>
+        <v>144.331642609429</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -21559,7 +21559,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>261.144670645668</v>
+        <v>261.026623422431</v>
       </c>
       <c r="C20" t="n">
         <v>156.919104546279</v>
@@ -21580,7 +21580,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>169.144670645668</v>
+        <v>169.026623422431</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -21591,7 +21591,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>230.425473848545</v>
+        <v>230.429080373768</v>
       </c>
       <c r="C21" t="n">
         <v>137.722690745677</v>
@@ -21612,7 +21612,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>170.425473848545</v>
+        <v>170.429080373768</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -21623,7 +21623,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>219.026690022364</v>
+        <v>219.113536962381</v>
       </c>
       <c r="C22" t="n">
         <v>129.31702760824</v>
@@ -21644,7 +21644,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>170.026690022364</v>
+        <v>170.113536962381</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -21655,7 +21655,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>202.589607349981</v>
+        <v>202.712094157938</v>
       </c>
       <c r="C23" t="n">
         <v>116.783105600643</v>
@@ -21676,7 +21676,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>156.589607349981</v>
+        <v>156.712094157938</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -21687,7 +21687,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>218.064096253975</v>
+        <v>218.115464100946</v>
       </c>
       <c r="C24" t="n">
         <v>123.7084654199</v>
@@ -21708,7 +21708,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>156.064096253975</v>
+        <v>156.115464100946</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -21719,7 +21719,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>197.346032824699</v>
+        <v>197.452625333663</v>
       </c>
       <c r="C25" t="n">
         <v>108.328888348427</v>
@@ -21740,7 +21740,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>125.346032824699</v>
+        <v>125.452625333663</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -21751,7 +21751,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>254.615395678631</v>
+        <v>254.692327031846</v>
       </c>
       <c r="C26" t="n">
         <v>141.46341523127</v>
@@ -21772,7 +21772,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>228.615395678631</v>
+        <v>228.692327031846</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -21783,7 +21783,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>229.354315247034</v>
+        <v>229.43705795319</v>
       </c>
       <c r="C27" t="n">
         <v>127.271112255047</v>
@@ -21804,7 +21804,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>199.354315247034</v>
+        <v>199.43705795319</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -21815,7 +21815,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>187.016768608018</v>
+        <v>187.133967645228</v>
       </c>
       <c r="C28" t="n">
         <v>102.402055551194</v>
@@ -21836,7 +21836,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>156.016768608018</v>
+        <v>156.133967645228</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -21847,7 +21847,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>203.267819877926</v>
+        <v>203.349724010194</v>
       </c>
       <c r="C29" t="n">
         <v>108.955516169436</v>
@@ -21868,7 +21868,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>169.267819877926</v>
+        <v>169.349724010194</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -21879,7 +21879,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>226.86002393882</v>
+        <v>226.876825960591</v>
       </c>
       <c r="C30" t="n">
         <v>119.201223405021</v>
@@ -21900,7 +21900,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>189.86002393882</v>
+        <v>189.876825960591</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -21911,7 +21911,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>246.376425371712</v>
+        <v>246.345912501205</v>
       </c>
       <c r="C31" t="n">
         <v>127.777574385447</v>
@@ -21932,7 +21932,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>184.376425371712</v>
+        <v>184.345912501205</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -21943,7 +21943,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>252.136417478754</v>
+        <v>252.09095850747</v>
       </c>
       <c r="C32" t="n">
         <v>130.237359766019</v>
@@ -21964,7 +21964,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>173.136417478754</v>
+        <v>173.09095850747</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -21975,7 +21975,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>223.624418160636</v>
+        <v>223.631169703654</v>
       </c>
       <c r="C33" t="n">
         <v>116.118219718871</v>
@@ -21996,7 +21996,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>6.62441816063614</v>
+        <v>6.63116970365436</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -22007,7 +22007,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>213.23165876462</v>
+        <v>213.299097700413</v>
       </c>
       <c r="C34" t="n">
         <v>109.895473802937</v>
@@ -22028,7 +22028,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>117.23165876462</v>
+        <v>117.299097700413</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -22039,7 +22039,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>198.232955221152</v>
+        <v>198.342132721394</v>
       </c>
       <c r="C35" t="n">
         <v>100.353933030024</v>
@@ -22060,7 +22060,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>106.232955221152</v>
+        <v>106.342132721394</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -22071,7 +22071,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>211.154838766562</v>
+        <v>211.247570692797</v>
       </c>
       <c r="C36" t="n">
         <v>105.876923837182</v>
@@ -22092,7 +22092,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>137.154838766562</v>
+        <v>137.247570692797</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -22103,7 +22103,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>192.730125880723</v>
+        <v>192.842713208345</v>
       </c>
       <c r="C37" t="n">
         <v>93.9520022817952</v>
@@ -22124,7 +22124,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>113.730125880723</v>
+        <v>113.842713208345</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -22135,7 +22135,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>246.236768376964</v>
+        <v>246.344460076058</v>
       </c>
       <c r="C38" t="n">
         <v>120.172061969526</v>
@@ -22156,7 +22156,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2367683769638</v>
+        <v>97.3444600760585</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -22167,7 +22167,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>222.358511960042</v>
+        <v>222.465525832339</v>
       </c>
       <c r="C39" t="n">
         <v>109.336417498127</v>
@@ -22188,7 +22188,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>105.358511960042</v>
+        <v>105.465525832339</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -22199,7 +22199,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>183.213764031367</v>
+        <v>183.334803586605</v>
       </c>
       <c r="C40" t="n">
         <v>89.7284552740362</v>
@@ -22220,7 +22220,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>45.2137640313674</v>
+        <v>45.3348035866051</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -22231,7 +22231,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>199.138504209688</v>
+        <v>199.248821556037</v>
       </c>
       <c r="C41" t="n">
         <v>95.0744105932967</v>
@@ -22252,7 +22252,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>10.1385042096883</v>
+        <v>10.2488215560367</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -22263,7 +22263,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>221.805675910553</v>
+        <v>221.881118962847</v>
       </c>
       <c r="C42" t="n">
         <v>103.31833065883</v>
@@ -22284,7 +22284,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>9.80567591055308</v>
+        <v>9.88111896284747</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -22295,7 +22295,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>240.193500474653</v>
+        <v>240.232480933666</v>
       </c>
       <c r="C43" t="n">
         <v>110.175936899035</v>
@@ -22314,7 +22314,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-23.806499525347</v>
+        <v>-23.7675190663343</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -22325,7 +22325,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>245.063652007003</v>
+        <v>245.082044099709</v>
       </c>
       <c r="C44" t="n">
         <v>112.208012942677</v>
@@ -22344,7 +22344,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-43.936347992997</v>
+        <v>-43.9179559002907</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -22355,7 +22355,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>217.784136458075</v>
+        <v>217.817374851696</v>
       </c>
       <c r="C45" t="n">
         <v>101.139557790893</v>
@@ -22376,7 +22376,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-16.2158635419252</v>
+        <v>-16.1826251483036</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -22387,7 +22387,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>207.881562048221</v>
+        <v>207.947280003785</v>
       </c>
       <c r="C46" t="n">
         <v>96.2336517542998</v>
@@ -22408,7 +22408,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>14.8815620482211</v>
+        <v>14.9472800037852</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -22419,7 +22419,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>194.016907102939</v>
+        <v>194.113984190323</v>
       </c>
       <c r="C47" t="n">
         <v>88.5751739882669</v>
@@ -22440,7 +22440,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>1.01690710293903</v>
+        <v>1.11398419032309</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -22451,7 +22451,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>206.316352268705</v>
+        <v>206.419036461222</v>
       </c>
       <c r="C48" t="n">
         <v>93.1297191547481</v>
@@ -22472,7 +22472,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>23.3163522687047</v>
+        <v>23.4190364612221</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -22483,7 +22483,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>189.01992753818</v>
+        <v>189.133675067448</v>
       </c>
       <c r="C49" t="n">
         <v>83.4469401030609</v>
@@ -22504,7 +22504,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-55.9800724618204</v>
+        <v>-55.8663249325515</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -28801,7 +28801,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2301.14176551591</v>
+        <v>2300.54974976347</v>
       </c>
       <c r="C2" t="n">
         <v>1402.45845867814</v>
@@ -28822,7 +28822,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>162.141765515915</v>
+        <v>161.549749763474</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -28833,7 +28833,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1903.09417655727</v>
+        <v>1896.35266243444</v>
       </c>
       <c r="C3" t="n">
         <v>1074.38963336526</v>
@@ -28854,7 +28854,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>231.094176557268</v>
+        <v>224.35266243444</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -28865,7 +28865,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3057.28010983117</v>
+        <v>3084.53702557092</v>
       </c>
       <c r="C4" t="n">
         <v>1582.26540413731</v>
@@ -28886,7 +28886,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1046.28010983117</v>
+        <v>1073.53702557092</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -28897,7 +28897,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3545.04034997452</v>
+        <v>3612.4772784069</v>
       </c>
       <c r="C5" t="n">
         <v>1739.64431240911</v>
@@ -28918,7 +28918,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1315.04034997452</v>
+        <v>1382.4772784069</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -28929,7 +28929,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4221.06882325518</v>
+        <v>4274.39575024501</v>
       </c>
       <c r="C6" t="n">
         <v>1809.7782935037</v>
@@ -28950,7 +28950,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>1753.06882325518</v>
+        <v>1806.39575024501</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -28961,7 +28961,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>4973.85703953425</v>
+        <v>5006.37135056473</v>
       </c>
       <c r="C7" t="n">
         <v>1898.54742543883</v>
@@ -28980,7 +28980,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2185.85703953425</v>
+        <v>2218.37135056473</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -28991,7 +28991,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5621.70485298858</v>
+        <v>5637.95274486119</v>
       </c>
       <c r="C8" t="n">
         <v>2005.73417052012</v>
@@ -29010,7 +29010,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3060.70485298858</v>
+        <v>3076.95274486119</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -29021,7 +29021,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5468.1542946846</v>
+        <v>5384.09103664034</v>
       </c>
       <c r="C9" t="n">
         <v>1769.74578922137</v>
@@ -29040,7 +29040,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2907.1542946846</v>
+        <v>2823.09103664034</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -29051,7 +29051,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6087.49207483023</v>
+        <v>6053.45986927511</v>
       </c>
       <c r="C10" t="n">
         <v>1671.95009098248</v>
@@ -29068,7 +29068,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>3538.49207483023</v>
+        <v>3504.45986927511</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -29079,7 +29079,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4199.50127972044</v>
+        <v>4183.34369794319</v>
       </c>
       <c r="C11" t="n">
         <v>1408.21433272463</v>
@@ -29098,7 +29098,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1901.50127972044</v>
+        <v>1885.34369794319</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -29109,7 +29109,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3545.94845922953</v>
+        <v>3538.09146671031</v>
       </c>
       <c r="C12" t="n">
         <v>1143.88286409215</v>
@@ -29128,7 +29128,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1007.94845922953</v>
+        <v>1000.09146671031</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -29139,7 +29139,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3227.93686571901</v>
+        <v>3253.98636129934</v>
       </c>
       <c r="C13" t="n">
         <v>974.237994155916</v>
@@ -29158,7 +29158,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>644.93686571901</v>
+        <v>670.98636129934</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -29169,7 +29169,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2463.18178234539</v>
+        <v>2472.57961449066</v>
       </c>
       <c r="C14" t="n">
         <v>718.898811131472</v>
@@ -29190,7 +29190,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>158.18178234539</v>
+        <v>167.579614490663</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -29201,7 +29201,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1936.0888090963</v>
+        <v>1939.1207056887</v>
       </c>
       <c r="C15" t="n">
         <v>624.421895107958</v>
@@ -29222,7 +29222,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>63.0888090962969</v>
+        <v>66.1207056887033</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -29233,7 +29233,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3106.72822268123</v>
+        <v>3143.30005070225</v>
       </c>
       <c r="C16" t="n">
         <v>874.934646736935</v>
@@ -29252,7 +29252,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>221.728222681235</v>
+        <v>258.300050702252</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -29263,7 +29263,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3648.63449358906</v>
+        <v>3754.01001556605</v>
       </c>
       <c r="C17" t="n">
         <v>973.402100363647</v>
@@ -29282,7 +29282,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>840.634493589057</v>
+        <v>946.010015566054</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -29293,7 +29293,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4351.02937707594</v>
+        <v>4425.41264341047</v>
       </c>
       <c r="C18" t="n">
         <v>1032.76562489763</v>
@@ -29310,7 +29310,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>1803.02937707594</v>
+        <v>1877.41264341047</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -29321,7 +29321,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5199.04677992971</v>
+        <v>5273.06741307675</v>
       </c>
       <c r="C19" t="n">
         <v>1098.44077312814</v>
@@ -29338,7 +29338,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>2732.04677992971</v>
+        <v>2806.06741307675</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -29349,7 +29349,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5943.72092578541</v>
+        <v>5981.96522262336</v>
       </c>
       <c r="C20" t="n">
         <v>1183.13234495817</v>
@@ -29366,7 +29366,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>3377.72092578541</v>
+        <v>3415.96522262336</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -29377,7 +29377,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5801.46190432126</v>
+        <v>5703.26229625489</v>
       </c>
       <c r="C21" t="n">
         <v>1198.18797157789</v>
@@ -29394,7 +29394,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>3785.46190432126</v>
+        <v>3687.26229625489</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -29405,7 +29405,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6275.71075866895</v>
+        <v>6188.49374220328</v>
       </c>
       <c r="C22" t="n">
         <v>1157.71669924864</v>
@@ -29422,7 +29422,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>3954.71075866895</v>
+        <v>3867.49374220328</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -29433,7 +29433,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4423.61851970529</v>
+        <v>4370.48533809857</v>
       </c>
       <c r="C23" t="n">
         <v>998.62145681024</v>
@@ -29450,7 +29450,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2429.61851970529</v>
+        <v>2376.48533809857</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -29461,7 +29461,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3742.75193233892</v>
+        <v>3703.76486452103</v>
       </c>
       <c r="C24" t="n">
         <v>789.447732342427</v>
@@ -29478,7 +29478,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1524.75193233892</v>
+        <v>1485.76486452103</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -29489,7 +29489,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3356.94257203687</v>
+        <v>3382.18231903412</v>
       </c>
       <c r="C25" t="n">
         <v>696.057765222493</v>
@@ -29506,7 +29506,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>843.942572036869</v>
+        <v>869.182319034122</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -29517,7 +29517,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2579.32160164857</v>
+        <v>2591.93930963974</v>
       </c>
       <c r="C26" t="n">
         <v>539.890034502062</v>
@@ -29536,7 +29536,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>768.321601648573</v>
+        <v>780.939309639738</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -29547,7 +29547,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2027.34548663951</v>
+        <v>2039.77519044255</v>
       </c>
       <c r="C27" t="n">
         <v>480.367275153743</v>
@@ -29566,7 +29566,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>466.345486639506</v>
+        <v>478.775190442546</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -29577,7 +29577,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3152.62605460391</v>
+        <v>3201.17794531041</v>
       </c>
       <c r="C28" t="n">
         <v>649.772094417423</v>
@@ -29594,7 +29594,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>593.626054603911</v>
+        <v>642.177945310406</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -29605,7 +29605,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3782.43753968487</v>
+        <v>3923.53189426058</v>
       </c>
       <c r="C29" t="n">
         <v>717.54019831555</v>
@@ -29622,7 +29622,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>1327.43753968487</v>
+        <v>1468.53189426058</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -29633,7 +29633,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4537.19902633441</v>
+        <v>4645.08510566383</v>
       </c>
       <c r="C30" t="n">
         <v>760.183152837621</v>
@@ -29650,7 +29650,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>2028.19902633441</v>
+        <v>2136.08510566383</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -29661,7 +29661,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5440.99420757204</v>
+        <v>5556.16554158714</v>
       </c>
       <c r="C31" t="n">
         <v>806.820252497415</v>
@@ -29678,7 +29678,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>2535.99420757204</v>
+        <v>2651.16554158714</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -29689,7 +29689,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6286.9423103053</v>
+        <v>6354.781755022</v>
       </c>
       <c r="C32" t="n">
         <v>865.440714215065</v>
@@ -29706,7 +29706,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>3657.9423103053</v>
+        <v>3725.781755022</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -29717,7 +29717,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6054.71881185815</v>
+        <v>5982.39217070932</v>
       </c>
       <c r="C33" t="n">
         <v>897.91442000032</v>
@@ -29734,7 +29734,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>3787.71881185815</v>
+        <v>3715.39217070932</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -29745,7 +29745,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6463.31192156546</v>
+        <v>6352.28596084523</v>
       </c>
       <c r="C34" t="n">
         <v>916.041275246779</v>
@@ -29762,7 +29762,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4190.31192156546</v>
+        <v>4079.28596084523</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -29773,7 +29773,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4584.77089555395</v>
+        <v>4501.6460933452</v>
       </c>
       <c r="C35" t="n">
         <v>758.65507359426</v>
@@ -29790,7 +29790,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2575.77089555395</v>
+        <v>2492.6460933452</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -29801,7 +29801,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3879.66964552629</v>
+        <v>3814.60114129959</v>
       </c>
       <c r="C36" t="n">
         <v>618.934138868747</v>
@@ -29818,7 +29818,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2141.66964552629</v>
+        <v>2076.60114129959</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -29829,7 +29829,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3501.38361920113</v>
+        <v>3515.56521881807</v>
       </c>
       <c r="C37" t="n">
         <v>555.118159278263</v>
@@ -29846,7 +29846,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>1932.38361920113</v>
+        <v>1946.56521881807</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -29857,7 +29857,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2679.07375331944</v>
+        <v>2697.7968216493</v>
       </c>
       <c r="C38" t="n">
         <v>442.653526695428</v>
@@ -29874,7 +29874,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>1523.07375331944</v>
+        <v>1541.7968216493</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -29885,7 +29885,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2138.59942652013</v>
+        <v>2155.93047557963</v>
       </c>
       <c r="C39" t="n">
         <v>399.049257875761</v>
@@ -29904,7 +29904,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>180.599426520128</v>
+        <v>197.930475579629</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -29915,7 +29915,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3296.52492207697</v>
+        <v>3326.57871483008</v>
       </c>
       <c r="C40" t="n">
         <v>526.943448500921</v>
@@ -29932,7 +29932,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>1088.52492207697</v>
+        <v>1118.57871483008</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -29943,7 +29943,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>3932.98475501349</v>
+        <v>4075.41201442959</v>
       </c>
       <c r="C41" t="n">
         <v>578.143021176782</v>
@@ -29960,7 +29960,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>1722.98475501349</v>
+        <v>1865.41201442959</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -29971,7 +29971,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>4762.92795059367</v>
+        <v>4894.875187802</v>
       </c>
       <c r="C42" t="n">
         <v>610.886114991337</v>
@@ -29988,7 +29988,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>2451.92795059367</v>
+        <v>2583.875187802</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -29999,7 +29999,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>5751.78744369979</v>
+        <v>5907.27184807725</v>
       </c>
       <c r="C43" t="n">
         <v>646.459382909779</v>
@@ -30016,7 +30016,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>766.78744369979</v>
+        <v>922.271848077252</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -30027,7 +30027,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6634.62259765757</v>
+        <v>6765.59118980005</v>
       </c>
       <c r="C44" t="n">
         <v>690.564998954682</v>
@@ -30044,7 +30044,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-6790.37740234243</v>
+        <v>-6659.40881019995</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -30055,7 +30055,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6405.72817970038</v>
+        <v>6453.99508037672</v>
       </c>
       <c r="C45" t="n">
         <v>715.850315401207</v>
@@ -30072,7 +30072,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-6336.27182029962</v>
+        <v>-6288.00491962328</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -30083,7 +30083,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>6754.00045227895</v>
+        <v>6659.45931634619</v>
       </c>
       <c r="C46" t="n">
         <v>768.051438790466</v>
@@ -30100,7 +30100,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-118509.999547721</v>
+        <v>-118604.540683654</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -30111,7 +30111,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4891.18391246051</v>
+        <v>4801.42558959246</v>
       </c>
       <c r="C47" t="n">
         <v>618.071788619858</v>
@@ -30128,7 +30128,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-18219.8160875395</v>
+        <v>-18309.5744104075</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -30139,7 +30139,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>4139.9895375961</v>
+        <v>4071.67581654762</v>
       </c>
       <c r="C48" t="n">
         <v>514.5604806704</v>
@@ -30156,7 +30156,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-800.010462403896</v>
+        <v>-868.324183452378</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -30167,7 +30167,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3746.5970767429</v>
+        <v>3756.49938930968</v>
       </c>
       <c r="C49" t="n">
         <v>466.583399557315</v>
@@ -30184,7 +30184,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>-126.402923257102</v>
+        <v>-116.500610690318</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -30241,7 +30241,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2346.40878504279</v>
+        <v>2378.06569508192</v>
       </c>
       <c r="C2" t="n">
         <v>2069.81608400988</v>
@@ -30262,7 +30262,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>720.408785042791</v>
+        <v>752.065695081923</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -30273,7 +30273,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2400.75778646692</v>
+        <v>2343.66497734949</v>
       </c>
       <c r="C3" t="n">
         <v>1898.80573504816</v>
@@ -30282,10 +30282,10 @@
         <v>1736.77226910575</v>
       </c>
       <c r="E3" t="n">
-        <v>2829.25273460528</v>
+        <v>2649.05235760662</v>
       </c>
       <c r="F3" t="n">
-        <v>2897.28062906556</v>
+        <v>2831.65681407097</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -30294,7 +30294,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1355.75778646692</v>
+        <v>1298.66497734949</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -30305,13 +30305,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3138.85685091543</v>
+        <v>3103.1995245717</v>
       </c>
       <c r="C4" t="n">
-        <v>2718.40458887208</v>
+        <v>2579.09699842962</v>
       </c>
       <c r="D4" t="n">
-        <v>2663.18234379038</v>
+        <v>2518.22373248302</v>
       </c>
       <c r="E4" t="n">
         <v>3609.54540196867</v>
@@ -30326,7 +30326,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1497.85685091543</v>
+        <v>1462.1995245717</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -30337,7 +30337,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2881.341484753</v>
+        <v>2907.35067905523</v>
       </c>
       <c r="C5" t="n">
         <v>2469.15893727208</v>
@@ -30346,7 +30346,7 @@
         <v>2283.29332943847</v>
       </c>
       <c r="E5" t="n">
-        <v>3245.10923087099</v>
+        <v>3294.83628293049</v>
       </c>
       <c r="F5" t="n">
         <v>3449.57043252574</v>
@@ -30358,7 +30358,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1149.341484753</v>
+        <v>1175.35067905523</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -30369,7 +30369,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2649.30178225022</v>
+        <v>2630.29632699167</v>
       </c>
       <c r="C6" t="n">
         <v>2091.20256643864</v>
@@ -30378,10 +30378,10 @@
         <v>1933.77533026582</v>
       </c>
       <c r="E6" t="n">
-        <v>3249.93436438178</v>
+        <v>3168.26125267739</v>
       </c>
       <c r="F6" t="n">
-        <v>3323.50362037389</v>
+        <v>3238.77355413596</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -30390,7 +30390,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1064.30178225022</v>
+        <v>1045.29632699167</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -30401,7 +30401,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2327.28870202933</v>
+        <v>2269.50489783241</v>
       </c>
       <c r="C7" t="n">
         <v>1774.62555930224</v>
@@ -30410,10 +30410,10 @@
         <v>1615.47479646563</v>
       </c>
       <c r="E7" t="n">
-        <v>2889.39631271759</v>
+        <v>2664.1207550185</v>
       </c>
       <c r="F7" t="n">
-        <v>2954.0912336607</v>
+        <v>2847.89966836922</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -30422,7 +30422,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>619.288702029327</v>
+        <v>561.504897832414</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -30433,7 +30433,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2302.58120064145</v>
+        <v>2300.54913248253</v>
       </c>
       <c r="C8" t="n">
         <v>1797.57559027587</v>
@@ -30442,7 +30442,7 @@
         <v>1631.4387665512</v>
       </c>
       <c r="E8" t="n">
-        <v>2722.33943175664</v>
+        <v>2740.24638034679</v>
       </c>
       <c r="F8" t="n">
         <v>2877.57964442996</v>
@@ -30454,7 +30454,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>543.581200641448</v>
+        <v>541.549132482534</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -30465,7 +30465,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2222.55518081642</v>
+        <v>2271.11056592564</v>
       </c>
       <c r="C9" t="n">
         <v>1784.07136300567</v>
@@ -30486,7 +30486,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>463.555180816419</v>
+        <v>512.110565925638</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -30497,7 +30497,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2016.26489154487</v>
+        <v>2022.94335389799</v>
       </c>
       <c r="C10" t="n">
         <v>1485.01333771013</v>
@@ -30506,7 +30506,7 @@
         <v>1273.79837332286</v>
       </c>
       <c r="E10" t="n">
-        <v>2392.75737756933</v>
+        <v>2399.62059869856</v>
       </c>
       <c r="F10" t="n">
         <v>2599.81374849421</v>
@@ -30518,7 +30518,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>205.264891544875</v>
+        <v>211.943353897987</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -30529,7 +30529,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1871.19257390304</v>
+        <v>1867.69979525656</v>
       </c>
       <c r="C11" t="n">
         <v>1309.87954245619</v>
@@ -30538,10 +30538,10 @@
         <v>1097.39945707988</v>
       </c>
       <c r="E11" t="n">
-        <v>2331.93088812384</v>
+        <v>2304.32527005159</v>
       </c>
       <c r="F11" t="n">
-        <v>2429.69643840649</v>
+        <v>2429.22461669365</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -30550,7 +30550,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>365.192573903043</v>
+        <v>361.699795256563</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -30561,7 +30561,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2015.190722223</v>
+        <v>1999.15755542445</v>
       </c>
       <c r="C12" t="n">
         <v>1520.53678202122</v>
@@ -30582,7 +30582,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>376.190722222995</v>
+        <v>360.157555424453</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -30593,7 +30593,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2075.83297062333</v>
+        <v>2046.9955825325</v>
       </c>
       <c r="C13" t="n">
         <v>1520.75854291321</v>
@@ -30614,7 +30614,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>257.832970623331</v>
+        <v>228.9955825325</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -30625,7 +30625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2389.67705559816</v>
+        <v>2341.43493210799</v>
       </c>
       <c r="C14" t="n">
         <v>1850.19905729362</v>
@@ -30646,7 +30646,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>551.677055598162</v>
+        <v>503.434932107989</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -30657,7 +30657,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2361.64536187006</v>
+        <v>2336.87402497217</v>
       </c>
       <c r="C15" t="n">
         <v>1691.32586313986</v>
@@ -30666,7 +30666,7 @@
         <v>1427.24967986289</v>
       </c>
       <c r="E15" t="n">
-        <v>2786.69089640547</v>
+        <v>2785.02425391867</v>
       </c>
       <c r="F15" t="n">
         <v>3056.65482997381</v>
@@ -30678,7 +30678,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>512.645361870057</v>
+        <v>487.874024972174</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -30689,13 +30689,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3148.78437886839</v>
+        <v>3062.72866790939</v>
       </c>
       <c r="C16" t="n">
-        <v>2652.98639909881</v>
+        <v>2434.583887596</v>
       </c>
       <c r="D16" t="n">
-        <v>2356.84411180562</v>
+        <v>2316.1680831505</v>
       </c>
       <c r="E16" t="n">
         <v>3828.03840281131</v>
@@ -30710,7 +30710,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>157.784378868385</v>
+        <v>71.7286679093918</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -30721,7 +30721,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2906.0138419562</v>
+        <v>2904.28289574168</v>
       </c>
       <c r="C17" t="n">
         <v>2291.29284255078</v>
@@ -30730,7 +30730,7 @@
         <v>1997.8433759324</v>
       </c>
       <c r="E17" t="n">
-        <v>3463.61951289034</v>
+        <v>3484.54786297648</v>
       </c>
       <c r="F17" t="n">
         <v>3788.72147515193</v>
@@ -30742,7 +30742,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>109.013841956204</v>
+        <v>107.282895741678</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -30753,7 +30753,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2666.22159296237</v>
+        <v>2693.09625824875</v>
       </c>
       <c r="C18" t="n">
         <v>1956.12924199764</v>
@@ -30762,10 +30762,10 @@
         <v>1697.79979774635</v>
       </c>
       <c r="E18" t="n">
-        <v>3428.89483589381</v>
+        <v>3469.11058030745</v>
       </c>
       <c r="F18" t="n">
-        <v>3573.84763082156</v>
+        <v>3567.55666215005</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -30774,7 +30774,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>157.221592962368</v>
+        <v>184.09625824875</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -30785,7 +30785,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2324.24807184893</v>
+        <v>2305.04720534821</v>
       </c>
       <c r="C19" t="n">
         <v>1647.86883845053</v>
@@ -30794,10 +30794,10 @@
         <v>1382.46520906064</v>
       </c>
       <c r="E19" t="n">
-        <v>3046.32491575947</v>
+        <v>3017.94659653821</v>
       </c>
       <c r="F19" t="n">
-        <v>3155.65342957391</v>
+        <v>3162.40986262943</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -30806,7 +30806,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>58.2480718489305</v>
+        <v>39.0472053482094</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -30817,7 +30817,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2264.67661855708</v>
+        <v>2295.17546947856</v>
       </c>
       <c r="C20" t="n">
         <v>1661.07634421893</v>
@@ -30838,7 +30838,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>124.67661855708</v>
+        <v>155.17546947856</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -30849,7 +30849,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2221.20305737806</v>
+        <v>2258.72918208457</v>
       </c>
       <c r="C21" t="n">
         <v>1613.37549812159</v>
@@ -30870,7 +30870,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>112.203057378063</v>
+        <v>149.729182084568</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -30881,7 +30881,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2030.6399247087</v>
+        <v>2036.64981118202</v>
       </c>
       <c r="C22" t="n">
         <v>1324.53596280045</v>
@@ -30890,7 +30890,7 @@
         <v>1037.59271199634</v>
       </c>
       <c r="E22" t="n">
-        <v>2517.79344491355</v>
+        <v>2544.32579195792</v>
       </c>
       <c r="F22" t="n">
         <v>2848.95891007872</v>
@@ -30902,10 +30902,10 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.36007529129984</v>
+        <v>3.64981118201649</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -30913,7 +30913,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1860.09802320476</v>
+        <v>1884.75774798013</v>
       </c>
       <c r="C23" t="n">
         <v>1157.04841858191</v>
@@ -30922,7 +30922,7 @@
         <v>873.740058233357</v>
       </c>
       <c r="E23" t="n">
-        <v>2421.54065682899</v>
+        <v>2389.13528390233</v>
       </c>
       <c r="F23" t="n">
         <v>2680.71182265508</v>
@@ -30934,7 +30934,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>14.0980232047643</v>
+        <v>38.7577479801294</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -30945,7 +30945,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1997.81282533988</v>
+        <v>2002.25948934241</v>
       </c>
       <c r="C24" t="n">
         <v>1366.42955163461</v>
@@ -30966,7 +30966,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-57.1871746601205</v>
+        <v>-52.7405106575854</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -30977,7 +30977,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2063.89123044105</v>
+        <v>2020.77160986269</v>
       </c>
       <c r="C25" t="n">
         <v>1376.4984500667</v>
@@ -30998,7 +30998,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-305.108769558955</v>
+        <v>-348.22839013731</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -31009,7 +31009,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2343.41996948268</v>
+        <v>2291.62856058815</v>
       </c>
       <c r="C26" t="n">
         <v>1702.85663697936</v>
@@ -31030,7 +31030,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-186.580030517322</v>
+        <v>-238.37143941185</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -31041,7 +31041,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2348.34922144009</v>
+        <v>2252.12702590127</v>
       </c>
       <c r="C27" t="n">
         <v>1549.17869206392</v>
@@ -31062,7 +31062,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-94.6507785599074</v>
+        <v>-190.872974098728</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -31073,7 +31073,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3130.05353126023</v>
+        <v>3135.94356684826</v>
       </c>
       <c r="C28" t="n">
         <v>2500.05854268895</v>
@@ -31094,10 +31094,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.946468739773536</v>
+        <v>4.94356684825516</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -31105,7 +31105,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2846.6108036025</v>
+        <v>2785.89074918777</v>
       </c>
       <c r="C29" t="n">
         <v>2124.1897906021</v>
@@ -31126,7 +31126,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>321.610803602498</v>
+        <v>260.890749187771</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -31137,7 +31137,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2648.04254453022</v>
+        <v>2723.3634492245</v>
       </c>
       <c r="C30" t="n">
         <v>1826.45994328058</v>
@@ -31146,10 +31146,10 @@
         <v>1491.70014190969</v>
       </c>
       <c r="E30" t="n">
-        <v>3492.2239995886</v>
+        <v>3614.5359941938</v>
       </c>
       <c r="F30" t="n">
-        <v>3726.50171959944</v>
+        <v>3743.02424519787</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -31158,7 +31158,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>145.042544530215</v>
+        <v>220.363449224496</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -31169,7 +31169,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2324.0682939393</v>
+        <v>2408.58889218561</v>
       </c>
       <c r="C31" t="n">
         <v>1535.38285428305</v>
@@ -31178,10 +31178,10 @@
         <v>1187.92953718914</v>
       </c>
       <c r="E31" t="n">
-        <v>3148.88499812821</v>
+        <v>3354.52292458073</v>
       </c>
       <c r="F31" t="n">
-        <v>3389.08110561058</v>
+        <v>3513.55606574768</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -31190,7 +31190,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-86.9317060606954</v>
+        <v>-2.41110781439056</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -31201,7 +31201,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2267.92272831003</v>
+        <v>2353.78871191628</v>
       </c>
       <c r="C32" t="n">
         <v>1530.37338296238</v>
@@ -31222,7 +31222,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>42.9227283100317</v>
+        <v>128.788711916285</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -31233,7 +31233,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2210.91810875177</v>
+        <v>2231.76644336784</v>
       </c>
       <c r="C33" t="n">
         <v>1485.31779691174</v>
@@ -31254,7 +31254,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-44.0818912482277</v>
+        <v>-23.2335566321572</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -31265,7 +31265,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2024.93520330599</v>
+        <v>2052.10171754545</v>
       </c>
       <c r="C34" t="n">
         <v>1203.20639154835</v>
@@ -31286,7 +31286,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>78.935203305987</v>
+        <v>106.101717545454</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -31297,7 +31297,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1851.96358867609</v>
+        <v>1881.32265579249</v>
       </c>
       <c r="C35" t="n">
         <v>1040.61009755375</v>
@@ -31306,7 +31306,7 @@
         <v>706.79398874373</v>
       </c>
       <c r="E35" t="n">
-        <v>2543.02866662998</v>
+        <v>2497.10883653134</v>
       </c>
       <c r="F35" t="n">
         <v>2894.2099287285</v>
@@ -31318,7 +31318,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>168.963588676091</v>
+        <v>198.322655792489</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -31329,7 +31329,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1991.0840382738</v>
+        <v>2022.801690009</v>
       </c>
       <c r="C36" t="n">
         <v>1247.59800613051</v>
@@ -31350,7 +31350,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>259.084038273801</v>
+        <v>290.801690009004</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -31361,7 +31361,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2063.55746616843</v>
+        <v>2011.72801601862</v>
       </c>
       <c r="C37" t="n">
         <v>1262.31968404026</v>
@@ -31382,7 +31382,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>876.557466168433</v>
+        <v>824.728016018621</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -31393,7 +31393,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2335.52925052468</v>
+        <v>2290.83141823981</v>
       </c>
       <c r="C38" t="n">
         <v>1585.10616716504</v>
@@ -31414,7 +31414,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1191.52925052468</v>
+        <v>1146.83141823981</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -31425,7 +31425,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2341.6021231147</v>
+        <v>2261.25303197829</v>
       </c>
       <c r="C39" t="n">
         <v>1434.9855194456</v>
@@ -31446,7 +31446,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>134.602123114698</v>
+        <v>54.2530319782854</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -31457,7 +31457,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3113.805777147</v>
+        <v>3081.48039804365</v>
       </c>
       <c r="C40" t="n">
         <v>2322.50423205131</v>
@@ -31478,7 +31478,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-3.19422285299697</v>
+        <v>-35.5196019563487</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -31489,7 +31489,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2785.774798113</v>
+        <v>2755.12858811495</v>
       </c>
       <c r="C41" t="n">
         <v>1922.94091515846</v>
@@ -31510,7 +31510,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-220.225201886999</v>
+        <v>-250.871411885052</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -31521,7 +31521,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2647.27003401601</v>
+        <v>2732.88082350603</v>
       </c>
       <c r="C42" t="n">
         <v>1629.54594366023</v>
@@ -31530,7 +31530,7 @@
         <v>1224.52201229203</v>
       </c>
       <c r="E42" t="n">
-        <v>3533.69907081747</v>
+        <v>3702.32744057989</v>
       </c>
       <c r="F42" t="n">
         <v>3929.37594884486</v>
@@ -31542,7 +31542,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-174.729965983986</v>
+        <v>-89.1191764939731</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -31553,7 +31553,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2349.39707636976</v>
+        <v>2465.55531490631</v>
       </c>
       <c r="C43" t="n">
         <v>1345.97286550332</v>
@@ -31562,10 +31562,10 @@
         <v>951.371490483535</v>
       </c>
       <c r="E43" t="n">
-        <v>3214.32682497725</v>
+        <v>3551.72043461691</v>
       </c>
       <c r="F43" t="n">
-        <v>3586.17671211366</v>
+        <v>3663.30260049759</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -31574,7 +31574,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-179.602923630235</v>
+        <v>-63.4446850936879</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -31585,7 +31585,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2291.57406178142</v>
+        <v>2365.27328394649</v>
       </c>
       <c r="C44" t="n">
         <v>1375.71465839011</v>
@@ -31594,7 +31594,7 @@
         <v>972.998786058635</v>
       </c>
       <c r="E44" t="n">
-        <v>3116.29658531482</v>
+        <v>3145.86398992096</v>
       </c>
       <c r="F44" t="n">
         <v>3602.87483107324</v>
@@ -31606,7 +31606,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-328.425938218582</v>
+        <v>-254.726716053514</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -31617,7 +31617,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2235.80773941187</v>
+        <v>2263.27208721206</v>
       </c>
       <c r="C45" t="n">
         <v>1373.08374987367</v>
@@ -31638,7 +31638,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-382.19226058813</v>
+        <v>-354.727912787941</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -31649,7 +31649,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2037.51955367242</v>
+        <v>2051.0612074951</v>
       </c>
       <c r="C46" t="n">
         <v>1102.50130970243</v>
@@ -31670,7 +31670,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-512.480446327582</v>
+        <v>-498.9387925049</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -31681,7 +31681,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1870.06255572892</v>
+        <v>1903.63196583301</v>
       </c>
       <c r="C47" t="n">
         <v>943.771617343281</v>
@@ -31702,7 +31702,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-672.937444271078</v>
+        <v>-639.368034166995</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -31713,7 +31713,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2009.24878033999</v>
+        <v>2036.33958993833</v>
       </c>
       <c r="C48" t="n">
         <v>1147.9824543246</v>
@@ -31734,7 +31734,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-741.751219660012</v>
+        <v>-714.660410061669</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -31745,7 +31745,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2048.75578049957</v>
+        <v>2020.95736926911</v>
       </c>
       <c r="C49" t="n">
         <v>1149.49359229052</v>
@@ -31766,7 +31766,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-619.244219500432</v>
+        <v>-647.042630730891</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -36185,7 +36185,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>46594.4583181672</v>
+        <v>46587.3723067849</v>
       </c>
       <c r="C2" t="n">
         <v>41818.6623182063</v>
@@ -36194,10 +36194,10 @@
         <v>40194.5247681668</v>
       </c>
       <c r="E2" t="n">
-        <v>51195.6418289354</v>
+        <v>51196.1892930378</v>
       </c>
       <c r="F2" t="n">
-        <v>53689.3549707518</v>
+        <v>53708.3527843201</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -36206,7 +36206,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>6923.45831816716</v>
+        <v>6916.3723067849</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -36217,13 +36217,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>40963.4122349453</v>
+        <v>40880.0398238708</v>
       </c>
       <c r="C3" t="n">
-        <v>35781.1412097616</v>
+        <v>35398.2597798799</v>
       </c>
       <c r="D3" t="n">
-        <v>34104.377549322</v>
+        <v>33753.3437526218</v>
       </c>
       <c r="E3" t="n">
         <v>45461.8541393762</v>
@@ -36238,7 +36238,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>19515.4122349453</v>
+        <v>19432.0398238708</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -36249,13 +36249,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>55030.6403619823</v>
+        <v>54961.0256676177</v>
       </c>
       <c r="C4" t="n">
-        <v>48090.828031664</v>
+        <v>48019.6394282117</v>
       </c>
       <c r="D4" t="n">
-        <v>46016.5425442498</v>
+        <v>46041.6316924572</v>
       </c>
       <c r="E4" t="n">
         <v>60193.6133037065</v>
@@ -36270,7 +36270,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13876.6403619823</v>
+        <v>13807.0256676177</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -36281,13 +36281,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53229.7533746662</v>
+        <v>53208.8556693793</v>
       </c>
       <c r="C5" t="n">
-        <v>47704.0199363603</v>
+        <v>47627.8956849143</v>
       </c>
       <c r="D5" t="n">
-        <v>45719.0464903625</v>
+        <v>45702.5029661378</v>
       </c>
       <c r="E5" t="n">
         <v>57955.9300789496</v>
@@ -36302,7 +36302,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6501.75337466622</v>
+        <v>6480.85566937931</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -36313,13 +36313,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55405.4471689228</v>
+        <v>55380.1398370414</v>
       </c>
       <c r="C6" t="n">
-        <v>49142.9848633701</v>
+        <v>49221.533962318</v>
       </c>
       <c r="D6" t="n">
-        <v>46711.5848194543</v>
+        <v>46762.9630901841</v>
       </c>
       <c r="E6" t="n">
         <v>60802.5866876494</v>
@@ -36334,7 +36334,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8652.44716892279</v>
+        <v>8627.13983704143</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -36345,13 +36345,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54121.9883305329</v>
+        <v>54132.1549147528</v>
       </c>
       <c r="C7" t="n">
-        <v>47473.9464002559</v>
+        <v>47326.3808502299</v>
       </c>
       <c r="D7" t="n">
-        <v>45108.3924563557</v>
+        <v>45042.5042915925</v>
       </c>
       <c r="E7" t="n">
         <v>60074.3960198284</v>
@@ -36366,7 +36366,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7583.98833053285</v>
+        <v>7594.15491475281</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -36377,13 +36377,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57783.622478278</v>
+        <v>57788.9304815289</v>
       </c>
       <c r="C8" t="n">
-        <v>51613.3175271674</v>
+        <v>51550.2617191523</v>
       </c>
       <c r="D8" t="n">
-        <v>49726.7167398529</v>
+        <v>49648.3170404454</v>
       </c>
       <c r="E8" t="n">
         <v>63179.2359659769</v>
@@ -36398,7 +36398,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10945.622478278</v>
+        <v>10950.9304815289</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -36409,13 +36409,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57382.6309248972</v>
+        <v>57336.3867463526</v>
       </c>
       <c r="C9" t="n">
-        <v>51219.9062238202</v>
+        <v>51043.3584047773</v>
       </c>
       <c r="D9" t="n">
-        <v>48798.2656152392</v>
+        <v>48617.7999808013</v>
       </c>
       <c r="E9" t="n">
         <v>62975.8556605989</v>
@@ -36430,7 +36430,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10544.6309248972</v>
+        <v>10498.3867463526</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -36441,13 +36441,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55803.1991806217</v>
+        <v>55811.7721773807</v>
       </c>
       <c r="C10" t="n">
-        <v>51049.4077238591</v>
+        <v>50993.9086660262</v>
       </c>
       <c r="D10" t="n">
-        <v>48542.8427140859</v>
+        <v>48528.0208235751</v>
       </c>
       <c r="E10" t="n">
         <v>61174.5869480688</v>
@@ -36462,7 +36462,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6838.19918062173</v>
+        <v>6846.77217738073</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -36473,7 +36473,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53483.7819275115</v>
+        <v>53490.5662733249</v>
       </c>
       <c r="C11" t="n">
         <v>48429.5189713469</v>
@@ -36482,10 +36482,10 @@
         <v>46082.1223157025</v>
       </c>
       <c r="E11" t="n">
-        <v>59889.3602301461</v>
+        <v>59806.6295152657</v>
       </c>
       <c r="F11" t="n">
-        <v>62400.611716038</v>
+        <v>62607.8348206132</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -36494,7 +36494,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9045.78192751148</v>
+        <v>9052.56627332485</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -36505,7 +36505,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>53810.4734542399</v>
+        <v>53831.9317275381</v>
       </c>
       <c r="C12" t="n">
         <v>48824.2608354331</v>
@@ -36526,7 +36526,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8505.47345423993</v>
+        <v>8526.93172753807</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -36537,7 +36537,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53088.367083323</v>
+        <v>53116.2908240343</v>
       </c>
       <c r="C13" t="n">
         <v>48229.4492736501</v>
@@ -36558,7 +36558,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8392.36708332301</v>
+        <v>8420.29082403432</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -36569,7 +36569,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>50357.414431917</v>
+        <v>50375.1737232324</v>
       </c>
       <c r="C14" t="n">
         <v>44552.7520433622</v>
@@ -36578,10 +36578,10 @@
         <v>42299.4651063399</v>
       </c>
       <c r="E14" t="n">
-        <v>57110.7580892624</v>
+        <v>57033.6725959699</v>
       </c>
       <c r="F14" t="n">
-        <v>60203.3502927919</v>
+        <v>60406.8508024676</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -36590,7 +36590,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>10278.414431917</v>
+        <v>10296.1737232324</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -36601,19 +36601,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>44987.7060061212</v>
+        <v>44877.0415480318</v>
       </c>
       <c r="C15" t="n">
-        <v>40109.0107071541</v>
+        <v>39493.7625990074</v>
       </c>
       <c r="D15" t="n">
-        <v>37215.3062050397</v>
+        <v>36620.7555123896</v>
       </c>
       <c r="E15" t="n">
-        <v>50883.8122119177</v>
+        <v>50538.1119257871</v>
       </c>
       <c r="F15" t="n">
-        <v>53412.5514685131</v>
+        <v>53076.3055806049</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -36622,7 +36622,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>11372.7060061212</v>
+        <v>11262.0415480318</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -36633,13 +36633,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59001.4706799518</v>
+        <v>58919.2553935056</v>
       </c>
       <c r="C16" t="n">
-        <v>49794.6593195035</v>
+        <v>49638.4110313454</v>
       </c>
       <c r="D16" t="n">
-        <v>46642.4770281913</v>
+        <v>46608.2517880631</v>
       </c>
       <c r="E16" t="n">
         <v>66532.1843046805</v>
@@ -36654,7 +36654,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8319.47067995181</v>
+        <v>8237.25539350563</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -36665,13 +36665,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>56995.7399326532</v>
+        <v>56864.8590570676</v>
       </c>
       <c r="C17" t="n">
-        <v>48754.9657962342</v>
+        <v>48512.9752276283</v>
       </c>
       <c r="D17" t="n">
-        <v>46340.0548981927</v>
+        <v>45926.8012163</v>
       </c>
       <c r="E17" t="n">
         <v>64384.2199971817</v>
@@ -36686,7 +36686,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>7882.73993265318</v>
+        <v>7751.85905706759</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -36697,13 +36697,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59182.9659609409</v>
+        <v>59123.4642480049</v>
       </c>
       <c r="C18" t="n">
-        <v>50275.992745793</v>
+        <v>50097.5266750737</v>
       </c>
       <c r="D18" t="n">
-        <v>47950.9134512476</v>
+        <v>48019.1181431368</v>
       </c>
       <c r="E18" t="n">
         <v>67617.9095646332</v>
@@ -36718,7 +36718,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11183.9659609409</v>
+        <v>11124.4642480049</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -36729,13 +36729,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>57873.9334537816</v>
+        <v>57865.9146749818</v>
       </c>
       <c r="C19" t="n">
-        <v>49313.9740484322</v>
+        <v>49130.6985454978</v>
       </c>
       <c r="D19" t="n">
-        <v>47257.483155954</v>
+        <v>46975.9889889691</v>
       </c>
       <c r="E19" t="n">
         <v>66198.4710972764</v>
@@ -36750,7 +36750,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10450.9334537816</v>
+        <v>10442.9146749818</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -36761,13 +36761,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>61253.9628355162</v>
+        <v>61241.0936174398</v>
       </c>
       <c r="C20" t="n">
-        <v>52189.1432586728</v>
+        <v>52184.0019221491</v>
       </c>
       <c r="D20" t="n">
-        <v>49579.6121437197</v>
+        <v>49391.0500648189</v>
       </c>
       <c r="E20" t="n">
         <v>70733.0145551571</v>
@@ -36782,7 +36782,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>9722.96283551615</v>
+        <v>9710.09361743976</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -36793,13 +36793,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>60798.843755685</v>
+        <v>60759.6737059826</v>
       </c>
       <c r="C21" t="n">
-        <v>51986.4430106353</v>
+        <v>51787.4509278864</v>
       </c>
       <c r="D21" t="n">
-        <v>49590.6680903535</v>
+        <v>49464.8868088423</v>
       </c>
       <c r="E21" t="n">
         <v>70924.6690226764</v>
@@ -36814,7 +36814,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>14707.843755685</v>
+        <v>14668.6737059826</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -36825,13 +36825,13 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59319.5112787108</v>
+        <v>59334.1815641534</v>
       </c>
       <c r="C22" t="n">
-        <v>51791.6002604188</v>
+        <v>51770.1963604418</v>
       </c>
       <c r="D22" t="n">
-        <v>49609.85048724</v>
+        <v>49524.175585873</v>
       </c>
       <c r="E22" t="n">
         <v>69199.4319986054</v>
@@ -36846,7 +36846,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13527.5112787108</v>
+        <v>13542.1815641534</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -36857,7 +36857,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56979.691836963</v>
+        <v>56981.3524785629</v>
       </c>
       <c r="C23" t="n">
         <v>49699.7484244802</v>
@@ -36878,7 +36878,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16079.691836963</v>
+        <v>16081.3524785629</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -36889,7 +36889,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>57364.8443871592</v>
+        <v>57393.7477228114</v>
       </c>
       <c r="C24" t="n">
         <v>49950.2989302681</v>
@@ -36910,7 +36910,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>15190.8443871592</v>
+        <v>15219.7477228114</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -36921,7 +36921,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>56694.0032561187</v>
+        <v>56727.6052436585</v>
       </c>
       <c r="C25" t="n">
         <v>49637.2578398367</v>
@@ -36942,7 +36942,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>14373.0032561187</v>
+        <v>14406.6052436585</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -36953,7 +36953,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>54041.4722932974</v>
+        <v>54078.3799783448</v>
       </c>
       <c r="C26" t="n">
         <v>45361.0920067404</v>
@@ -36974,7 +36974,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>14455.4722932974</v>
+        <v>14492.3799783448</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -36985,7 +36985,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>49106.2780234168</v>
+        <v>49036.3748764608</v>
       </c>
       <c r="C27" t="n">
         <v>41553.0617260608</v>
@@ -37006,7 +37006,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>14423.2780234168</v>
+        <v>14353.3748764608</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -37017,13 +37017,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>62633.1271664431</v>
+        <v>62578.6187859992</v>
       </c>
       <c r="C28" t="n">
-        <v>51758.585670421</v>
+        <v>51629.3006580522</v>
       </c>
       <c r="D28" t="n">
-        <v>48000.6757073943</v>
+        <v>47959.7473417696</v>
       </c>
       <c r="E28" t="n">
         <v>76192.8652084955</v>
@@ -37038,7 +37038,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>15655.1271664431</v>
+        <v>15600.6187859992</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -37049,13 +37049,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>60507.4467751205</v>
+        <v>60342.3392906831</v>
       </c>
       <c r="C29" t="n">
-        <v>50070.208893789</v>
+        <v>49693.4992795452</v>
       </c>
       <c r="D29" t="n">
-        <v>47608.9548603028</v>
+        <v>46890.4675071195</v>
       </c>
       <c r="E29" t="n">
         <v>73995.010460374</v>
@@ -37070,7 +37070,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>20994.4467751205</v>
+        <v>20829.3392906831</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -37081,13 +37081,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>62723.4521208134</v>
+        <v>62677.9537925539</v>
       </c>
       <c r="C30" t="n">
-        <v>51972.1437596468</v>
+        <v>51865.9066446398</v>
       </c>
       <c r="D30" t="n">
-        <v>49119.149641174</v>
+        <v>48928.8678881641</v>
       </c>
       <c r="E30" t="n">
         <v>77586.8841735568</v>
@@ -37102,7 +37102,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>18972.4521208134</v>
+        <v>18926.9537925539</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -37113,13 +37113,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>61414.8912375131</v>
+        <v>61381.4170032993</v>
       </c>
       <c r="C31" t="n">
-        <v>51271.4056697296</v>
+        <v>50966.4554825506</v>
       </c>
       <c r="D31" t="n">
-        <v>48525.7324722195</v>
+        <v>48302.1117238534</v>
       </c>
       <c r="E31" t="n">
         <v>76164.944312686</v>
@@ -37134,7 +37134,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>12907.8912375131</v>
+        <v>12874.4170032993</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -37145,13 +37145,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>64612.9450016815</v>
+        <v>64593.458062834</v>
       </c>
       <c r="C32" t="n">
-        <v>53146.2940829215</v>
+        <v>52900.4000173944</v>
       </c>
       <c r="D32" t="n">
-        <v>50361.486517917</v>
+        <v>50222.9814298912</v>
       </c>
       <c r="E32" t="n">
         <v>81153.0563826827</v>
@@ -37166,7 +37166,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>13221.9450016815</v>
+        <v>13202.458062834</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -37177,13 +37177,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>64108.846078026</v>
+        <v>64075.3928887673</v>
       </c>
       <c r="C33" t="n">
-        <v>52789.8394041067</v>
+        <v>52482.2806734703</v>
       </c>
       <c r="D33" t="n">
-        <v>49921.1852348977</v>
+        <v>49734.6384747389</v>
       </c>
       <c r="E33" t="n">
         <v>81461.9155220833</v>
@@ -37198,7 +37198,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>13626.846078026</v>
+        <v>13593.3928887673</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -37209,10 +37209,10 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>62637.9784520456</v>
+        <v>62648.126492201</v>
       </c>
       <c r="C34" t="n">
-        <v>52871.2844720708</v>
+        <v>52671.7780907208</v>
       </c>
       <c r="D34" t="n">
         <v>48283.2720274896</v>
@@ -37230,7 +37230,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>18167.9784520456</v>
+        <v>18178.126492201</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -37241,7 +37241,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>60193.6609525188</v>
+        <v>60184.6026306049</v>
       </c>
       <c r="C35" t="n">
         <v>49598.1732429746</v>
@@ -37262,7 +37262,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>21139.6609525188</v>
+        <v>21130.6026306049</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -37273,7 +37273,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>60653.1068976225</v>
+        <v>60675.5428037335</v>
       </c>
       <c r="C36" t="n">
         <v>49765.8472690127</v>
@@ -37294,7 +37294,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>25501.1068976225</v>
+        <v>25523.5428037335</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -37305,7 +37305,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>60011.3627591091</v>
+        <v>60031.1910642567</v>
       </c>
       <c r="C37" t="n">
         <v>49458.8663957655</v>
@@ -37326,7 +37326,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>35644.3627591091</v>
+        <v>35664.1910642567</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -37337,7 +37337,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>57330.1448621323</v>
+        <v>57364.020579266</v>
       </c>
       <c r="C38" t="n">
         <v>45039.7566473363</v>
@@ -37358,7 +37358,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>28622.1448621323</v>
+        <v>28656.020579266</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -37369,7 +37369,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>52762.0189442643</v>
+        <v>52752.3143768248</v>
       </c>
       <c r="C39" t="n">
         <v>41181.4758393076</v>
@@ -37390,7 +37390,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>9188.01894426429</v>
+        <v>9178.31437682476</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -37401,10 +37401,10 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>65863.4563335257</v>
+        <v>65834.2323540432</v>
       </c>
       <c r="C40" t="n">
-        <v>52555.1427721779</v>
+        <v>52324.9025529785</v>
       </c>
       <c r="D40" t="n">
         <v>48906.0606449462</v>
@@ -37422,7 +37422,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>16008.4563335257</v>
+        <v>15979.2323540432</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -37433,10 +37433,10 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>63733.0508239726</v>
+        <v>63602.059682333</v>
       </c>
       <c r="C41" t="n">
-        <v>51929.7796698681</v>
+        <v>51647.036593035</v>
       </c>
       <c r="D41" t="n">
         <v>46513.8093175268</v>
@@ -37454,7 +37454,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>14807.0508239726</v>
+        <v>14676.059682333</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -37465,10 +37465,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>65989.6534345626</v>
+        <v>65976.4073627165</v>
       </c>
       <c r="C42" t="n">
-        <v>53047.2937315806</v>
+        <v>52870.6715846101</v>
       </c>
       <c r="D42" t="n">
         <v>48119.7414270635</v>
@@ -37486,7 +37486,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>12731.6534345626</v>
+        <v>12718.4073627165</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -37497,10 +37497,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>64704.1880392358</v>
+        <v>64658.089745557</v>
       </c>
       <c r="C43" t="n">
-        <v>52453.1266963323</v>
+        <v>52308.4488349807</v>
       </c>
       <c r="D43" t="n">
         <v>46764.7123524945</v>
@@ -37518,7 +37518,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>12697.1880392358</v>
+        <v>12651.089745557</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -37529,10 +37529,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>67850.4304606734</v>
+        <v>67838.3330456273</v>
       </c>
       <c r="C44" t="n">
-        <v>53376.8191447006</v>
+        <v>53060.7347435344</v>
       </c>
       <c r="D44" t="n">
         <v>49358.7644875962</v>
@@ -37550,7 +37550,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>9603.43046067336</v>
+        <v>9591.33304562733</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -37561,10 +37561,10 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>67332.463216341</v>
+        <v>67298.3204880051</v>
       </c>
       <c r="C45" t="n">
-        <v>53618.8300655382</v>
+        <v>53128.2230178537</v>
       </c>
       <c r="D45" t="n">
         <v>48200.8365547368</v>
@@ -37582,7 +37582,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>6264.46321634097</v>
+        <v>6230.32048800515</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -37593,7 +37593,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>65819.969084813</v>
+        <v>65823.2641768403</v>
       </c>
       <c r="C46" t="n">
         <v>52048.556326278</v>
@@ -37614,7 +37614,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>10052.969084813</v>
+        <v>10056.2641768403</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -37625,7 +37625,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>63276.9550409783</v>
+        <v>63257.3249657043</v>
       </c>
       <c r="C47" t="n">
         <v>48720.3124778242</v>
@@ -37646,7 +37646,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>6295.95504097828</v>
+        <v>6276.32496570428</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -37657,7 +37657,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>63784.2188621669</v>
+        <v>63795.5800737923</v>
       </c>
       <c r="C48" t="n">
         <v>48838.3729652722</v>
@@ -37678,7 +37678,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>6065.21886216692</v>
+        <v>6076.58007379228</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -37689,7 +37689,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>63134.5711815639</v>
+        <v>63135.8908141192</v>
       </c>
       <c r="C49" t="n">
         <v>48488.6113361646</v>
@@ -37710,7 +37710,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>12311.5711815639</v>
+        <v>12312.8908141192</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/Figure Data/Fig.4 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.4 data.xlsx
@@ -519,7 +519,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>41933.2960456292</v>
+        <v>40177.1022439771</v>
       </c>
       <c r="C2" t="n">
         <v>16969.3616152968</v>
@@ -528,10 +528,10 @@
         <v>11567.1808221565</v>
       </c>
       <c r="E2" t="n">
-        <v>98156.4036300151</v>
+        <v>88862.7376407396</v>
       </c>
       <c r="F2" t="n">
-        <v>117714.991337292</v>
+        <v>106879.658277039</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -540,7 +540,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>13578.2960456292</v>
+        <v>11822.1022439771</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -551,7 +551,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>28498.9131744028</v>
+        <v>25769.1696600403</v>
       </c>
       <c r="C3" t="n">
         <v>3029.89708128877</v>
@@ -560,10 +560,10 @@
         <v>1047.19818451228</v>
       </c>
       <c r="E3" t="n">
-        <v>116469.059241186</v>
+        <v>95489.5977776415</v>
       </c>
       <c r="F3" t="n">
-        <v>147374.878940713</v>
+        <v>119817.976154743</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -572,7 +572,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>25235.9131744028</v>
+        <v>22506.1696600403</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -583,7 +583,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>49261.2437854625</v>
+        <v>48935.0115710994</v>
       </c>
       <c r="C4" t="n">
         <v>11293.6214742715</v>
@@ -592,10 +592,10 @@
         <v>5224.26189745484</v>
       </c>
       <c r="E4" t="n">
-        <v>123335.073555769</v>
+        <v>106927.09197478</v>
       </c>
       <c r="F4" t="n">
-        <v>152732.312531613</v>
+        <v>147656.828741348</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -604,7 +604,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>46392.2437854625</v>
+        <v>46066.0115710994</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>130638.506378801</v>
+        <v>133349.002426305</v>
       </c>
       <c r="C5" t="n">
         <v>53361.7718949051</v>
@@ -636,7 +636,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>127637.506378801</v>
+        <v>130348.002426305</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -647,7 +647,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>253992.504175672</v>
+        <v>259915.505770354</v>
       </c>
       <c r="C6" t="n">
         <v>124915.021401074</v>
@@ -668,7 +668,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>250073.504175672</v>
+        <v>255996.505770354</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -679,7 +679,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>297047.660429333</v>
+        <v>301944.438976587</v>
       </c>
       <c r="C7" t="n">
         <v>139467.618027384</v>
@@ -700,7 +700,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>290787.660429333</v>
+        <v>295684.438976587</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -711,7 +711,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>257853.623716744</v>
+        <v>257954.942078507</v>
       </c>
       <c r="C8" t="n">
         <v>97563.4798726928</v>
@@ -732,7 +732,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>198710.623716744</v>
+        <v>198811.942078507</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -743,7 +743,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>165149.199836224</v>
+        <v>159470.244027219</v>
       </c>
       <c r="C9" t="n">
         <v>37221.7066070934</v>
@@ -752,7 +752,7 @@
         <v>16138.656264602</v>
       </c>
       <c r="E9" t="n">
-        <v>352465.143848049</v>
+        <v>342929.864523746</v>
       </c>
       <c r="F9" t="n">
         <v>443375.369413727</v>
@@ -764,7 +764,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>106006.199836224</v>
+        <v>100327.244027219</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -775,7 +775,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>156186.493974779</v>
+        <v>156035.667213736</v>
       </c>
       <c r="C10" t="n">
         <v>37904.9106667436</v>
@@ -796,7 +796,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>41016.4939747785</v>
+        <v>40865.6672137364</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -807,7 +807,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>139594.218504904</v>
+        <v>142843.311847505</v>
       </c>
       <c r="C11" t="n">
         <v>33218.8968124578</v>
@@ -828,7 +828,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-60280.7814950955</v>
+        <v>-57031.6881524951</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -839,7 +839,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>116923.176838118</v>
+        <v>120985.119736584</v>
       </c>
       <c r="C12" t="n">
         <v>20796.1922696631</v>
@@ -860,7 +860,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-72093.8231618823</v>
+        <v>-68031.8802634157</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -871,7 +871,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>87422.0541342418</v>
+        <v>89450.779603584</v>
       </c>
       <c r="C13" t="n">
         <v>9900.17579102057</v>
@@ -892,7 +892,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-44375.9458657582</v>
+        <v>-42347.220396416</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -903,7 +903,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>52286.2157739597</v>
+        <v>51513.92524808</v>
       </c>
       <c r="C14" t="n">
         <v>1451.44520281947</v>
@@ -924,7 +924,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-10922.7842260403</v>
+        <v>-11695.07475192</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -935,7 +935,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>31356.6137338612</v>
+        <v>29596.5527494463</v>
       </c>
       <c r="C15" t="n">
         <v>0.166445454470808</v>
@@ -956,7 +956,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>12827.6137338612</v>
+        <v>11067.5527494463</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -967,7 +967,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>60784.7766028931</v>
+        <v>59488.4891217952</v>
       </c>
       <c r="C16" t="n">
         <v>1155.98843299379</v>
@@ -988,7 +988,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>24578.7766028931</v>
+        <v>23282.4891217952</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -999,7 +999,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>153742.057868615</v>
+        <v>155507.10986807</v>
       </c>
       <c r="C17" t="n">
         <v>19776.7665234654</v>
@@ -1020,7 +1020,7 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>9575.05786861462</v>
+        <v>11340.1098680704</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>284405.41632631</v>
+        <v>292710.948957056</v>
       </c>
       <c r="C18" t="n">
         <v>65076.5482224243</v>
@@ -1052,7 +1052,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>43567.4163263101</v>
+        <v>51872.9489570563</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -1063,7 +1063,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>323520.857783823</v>
+        <v>334708.977540571</v>
       </c>
       <c r="C19" t="n">
         <v>77356.3737302722</v>
@@ -1084,7 +1084,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>99094.8577838232</v>
+        <v>110282.977540571</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1095,7 +1095,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>274630.806402726</v>
+        <v>283294.825995246</v>
       </c>
       <c r="C20" t="n">
         <v>51117.9485255163</v>
@@ -1116,7 +1116,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>111643.806402726</v>
+        <v>120307.825995246</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1127,7 +1127,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>172152.672434554</v>
+        <v>174921.955876165</v>
       </c>
       <c r="C21" t="n">
         <v>14876.9129205413</v>
@@ -1148,7 +1148,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>100869.672434554</v>
+        <v>103638.955876165</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1159,7 +1159,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>170040.510184414</v>
+        <v>169712.535232672</v>
       </c>
       <c r="C22" t="n">
         <v>15873.1881741792</v>
@@ -1180,7 +1180,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>83405.5101844135</v>
+        <v>83077.5352326723</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1191,7 +1191,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>152333.747875243</v>
+        <v>154778.352610841</v>
       </c>
       <c r="C23" t="n">
         <v>13735.3302146054</v>
@@ -1212,7 +1212,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>20263.7478752426</v>
+        <v>22708.352610841</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1223,7 +1223,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>130298.722189757</v>
+        <v>133760.586281392</v>
       </c>
       <c r="C24" t="n">
         <v>7367.72624024737</v>
@@ -1244,7 +1244,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>16825.7221897574</v>
+        <v>20287.5862813919</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1255,7 +1255,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>98304.4437248791</v>
+        <v>104371.45186723</v>
       </c>
       <c r="C25" t="n">
         <v>2459.45770717749</v>
@@ -1276,7 +1276,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>23883.4437248791</v>
+        <v>29950.4518672298</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1287,7 +1287,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>59480.2635064802</v>
+        <v>64842.1547980633</v>
       </c>
       <c r="C26" t="n">
         <v>27.4305813201427</v>
@@ -1308,7 +1308,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>15297.2635064802</v>
+        <v>20659.1547980633</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1319,7 +1319,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>35673.4705155926</v>
+        <v>36437.9594248114</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>17539.4705155926</v>
+        <v>18303.9594248114</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1351,7 +1351,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>70780.9692509437</v>
+        <v>65020.7923337705</v>
       </c>
       <c r="C28" t="n">
         <v>16.6480962398356</v>
@@ -1372,7 +1372,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>37493.9692509437</v>
+        <v>31733.7923337705</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1383,7 +1383,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>172271.195784828</v>
+        <v>162621.133035637</v>
       </c>
       <c r="C29" t="n">
         <v>8025.99920216501</v>
@@ -1404,7 +1404,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>127477.195784828</v>
+        <v>117827.133035637</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1415,7 +1415,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>309625.428674793</v>
+        <v>300084.122310934</v>
       </c>
       <c r="C30" t="n">
         <v>37887.1625174603</v>
@@ -1436,7 +1436,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>239583.428674793</v>
+        <v>230042.122310934</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1447,7 +1447,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>347869.669583153</v>
+        <v>345117.420313256</v>
       </c>
       <c r="C31" t="n">
         <v>47231.5228150507</v>
@@ -1468,7 +1468,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>207208.669583153</v>
+        <v>204456.420313256</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1479,7 +1479,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>293017.113851282</v>
+        <v>299553.281507999</v>
       </c>
       <c r="C32" t="n">
         <v>28979.0084271612</v>
@@ -1500,7 +1500,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>184044.113851282</v>
+        <v>190580.281507999</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1511,7 +1511,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>185403.566830394</v>
+        <v>191968.033697034</v>
       </c>
       <c r="C33" t="n">
         <v>5936.08830935258</v>
@@ -1532,7 +1532,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>130875.566830394</v>
+        <v>137440.033697034</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1543,7 +1543,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>183652.463428508</v>
+        <v>186177.755250716</v>
       </c>
       <c r="C34" t="n">
         <v>6624.767915963</v>
@@ -1564,7 +1564,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>138780.463428508</v>
+        <v>141305.755250716</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1575,7 +1575,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>167378.034410658</v>
+        <v>168764.922668157</v>
       </c>
       <c r="C35" t="n">
         <v>5536.39051589146</v>
@@ -1596,7 +1596,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>119983.034410658</v>
+        <v>121369.922668157</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1607,7 +1607,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>146040.031292512</v>
+        <v>146389.96790621</v>
       </c>
       <c r="C36" t="n">
         <v>2299.82069790093</v>
@@ -1628,7 +1628,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>95407.0312925121</v>
+        <v>95756.96790621</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1639,7 +1639,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>112497.089271181</v>
+        <v>116142.74795159</v>
       </c>
       <c r="C37" t="n">
         <v>362.552952218904</v>
@@ -1660,7 +1660,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>84750.0892711806</v>
+        <v>88395.7479515904</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1671,7 +1671,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>69773.5028059606</v>
+        <v>77809.5495471991</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>67289.5028059606</v>
+        <v>75325.5495471991</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1703,7 +1703,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>42654.730055987</v>
+        <v>47157.9883559624</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>38719.730055987</v>
+        <v>43222.9883559624</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1735,7 +1735,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>81630.2068740226</v>
+        <v>71494.5968501535</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>71999.2068740226</v>
+        <v>61863.5968501535</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1767,7 +1767,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>190275.201586783</v>
+        <v>171303.964370679</v>
       </c>
       <c r="C41" t="n">
         <v>2906.22644962133</v>
@@ -1788,7 +1788,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>170170.201586783</v>
+        <v>151198.964370679</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1799,7 +1799,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>333774.474146971</v>
+        <v>311674.595194842</v>
       </c>
       <c r="C42" t="n">
         <v>22332.6941477881</v>
@@ -1820,7 +1820,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>242515.474146971</v>
+        <v>220415.595194842</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1831,7 +1831,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>373058.665848598</v>
+        <v>362645.123257044</v>
       </c>
       <c r="C43" t="n">
         <v>29305.9672301651</v>
@@ -1852,7 +1852,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-60025.3341514025</v>
+        <v>-70438.8767429563</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1863,7 +1863,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>315788.636438919</v>
+        <v>328438.973641284</v>
       </c>
       <c r="C44" t="n">
         <v>16393.8039872645</v>
@@ -1884,7 +1884,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-141423.363561081</v>
+        <v>-128773.026358716</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1895,7 +1895,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>202069.475104455</v>
+        <v>221203.884830806</v>
       </c>
       <c r="C45" t="n">
         <v>2012.88440145311</v>
@@ -1916,7 +1916,7 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>8531.47510445534</v>
+        <v>27665.8848308059</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1927,7 +1927,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>200075.090750977</v>
+        <v>206698.593631119</v>
       </c>
       <c r="C46" t="n">
         <v>2401.21253373489</v>
@@ -1948,7 +1948,7 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>33095.0907509766</v>
+        <v>39718.593631119</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1959,7 +1959,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>184280.379858738</v>
+        <v>184131.154896708</v>
       </c>
       <c r="C47" t="n">
         <v>1879.78259450977</v>
@@ -1980,7 +1980,7 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>18753.3798587384</v>
+        <v>18604.154896708</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1991,7 +1991,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>163225.843194668</v>
+        <v>162064.687215282</v>
       </c>
       <c r="C48" t="n">
         <v>469.664275501941</v>
@@ -2012,7 +2012,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>70270.8431946682</v>
+        <v>69109.6872152817</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -2023,7 +2023,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>128485.497160848</v>
+        <v>132484.875632229</v>
       </c>
       <c r="C49" t="n">
         <v>2.57199653831654</v>
@@ -2044,7 +2044,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>82335.4971608482</v>
+        <v>86334.8756322285</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -8429,7 +8429,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24461.5359505928</v>
+        <v>24347.552189803</v>
       </c>
       <c r="C2" t="n">
         <v>18092.6444447926</v>
@@ -8438,10 +8438,10 @@
         <v>16064.1090125885</v>
       </c>
       <c r="E2" t="n">
-        <v>38965.3981072151</v>
+        <v>38428.3380984097</v>
       </c>
       <c r="F2" t="n">
-        <v>50045.3189749633</v>
+        <v>49477.1154040873</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -8450,7 +8450,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7302.53595059279</v>
+        <v>7188.55218980305</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -8461,7 +8461,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13751.7745901086</v>
+        <v>13839.0317173025</v>
       </c>
       <c r="C3" t="n">
         <v>10127.0551220868</v>
@@ -8470,10 +8470,10 @@
         <v>9011.79078507316</v>
       </c>
       <c r="E3" t="n">
-        <v>18937.4695818333</v>
+        <v>19364.7258809618</v>
       </c>
       <c r="F3" t="n">
-        <v>22084.6511996782</v>
+        <v>22908.0937606201</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -8482,7 +8482,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5733.77459010856</v>
+        <v>5821.03171730247</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -8493,13 +8493,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18538.4450769877</v>
+        <v>18577.2355528925</v>
       </c>
       <c r="C4" t="n">
-        <v>12694.6554253341</v>
+        <v>12746.4606840234</v>
       </c>
       <c r="D4" t="n">
-        <v>11441.6264016489</v>
+        <v>11484.3926173507</v>
       </c>
       <c r="E4" t="n">
         <v>28175.4522536776</v>
@@ -8514,7 +8514,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12510.4450769877</v>
+        <v>12549.2355528925</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -8525,13 +8525,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>27188.5952362007</v>
+        <v>27272.6410621977</v>
       </c>
       <c r="C5" t="n">
-        <v>14987.1804181161</v>
+        <v>15185.4713442938</v>
       </c>
       <c r="D5" t="n">
-        <v>12780.4867374626</v>
+        <v>12954.1315694326</v>
       </c>
       <c r="E5" t="n">
         <v>51322.829529277</v>
@@ -8546,7 +8546,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>21019.5952362007</v>
+        <v>21103.6410621977</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -8557,13 +8557,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36446.5684537737</v>
+        <v>36584.221322</v>
       </c>
       <c r="C6" t="n">
-        <v>17277.2105196283</v>
+        <v>17699.2445989261</v>
       </c>
       <c r="D6" t="n">
-        <v>14647.7331008109</v>
+        <v>15056.5705778674</v>
       </c>
       <c r="E6" t="n">
         <v>85572.486270753</v>
@@ -8578,7 +8578,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>27173.5684537737</v>
+        <v>27311.221322</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -8589,13 +8589,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39424.2224833897</v>
+        <v>39548.414126807</v>
       </c>
       <c r="C7" t="n">
-        <v>19205.41845331</v>
+        <v>19614.0752033108</v>
       </c>
       <c r="D7" t="n">
-        <v>16018.2984224765</v>
+        <v>16467.2020840626</v>
       </c>
       <c r="E7" t="n">
         <v>99346.5360601493</v>
@@ -8610,7 +8610,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27429.2224833897</v>
+        <v>27553.414126807</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -8621,7 +8621,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>33060.5906786407</v>
+        <v>33142.4250049916</v>
       </c>
       <c r="C8" t="n">
         <v>18361.3929195509</v>
@@ -8642,7 +8642,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>24052.5906786407</v>
+        <v>24134.4250049916</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -8653,7 +8653,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21377.2861751258</v>
+        <v>21264.5395423215</v>
       </c>
       <c r="C9" t="n">
         <v>12476.3200255059</v>
@@ -8662,7 +8662,7 @@
         <v>10243.5898437275</v>
       </c>
       <c r="E9" t="n">
-        <v>36693.2319133197</v>
+        <v>35959.3246096087</v>
       </c>
       <c r="F9" t="n">
         <v>54087.2769181549</v>
@@ -8674,7 +8674,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12369.2861751258</v>
+        <v>12256.5395423215</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -8685,7 +8685,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19533.3406833496</v>
+        <v>19370.8312302146</v>
       </c>
       <c r="C10" t="n">
         <v>11497.1825722379</v>
@@ -8694,7 +8694,7 @@
         <v>9462.00447103951</v>
       </c>
       <c r="E10" t="n">
-        <v>34850.3596412676</v>
+        <v>33465.2966452422</v>
       </c>
       <c r="F10" t="n">
         <v>48433.1778172126</v>
@@ -8706,7 +8706,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6321.3406833496</v>
+        <v>6158.8312302146</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -8717,7 +8717,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20556.5407096913</v>
+        <v>20391.011023817</v>
       </c>
       <c r="C11" t="n">
         <v>12016.8271575328</v>
@@ -8726,7 +8726,7 @@
         <v>9789.67296951087</v>
       </c>
       <c r="E11" t="n">
-        <v>36765.7237617603</v>
+        <v>36248.1742821249</v>
       </c>
       <c r="F11" t="n">
         <v>57483.9294762837</v>
@@ -8738,7 +8738,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7738.5407096913</v>
+        <v>7573.01102381703</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -8749,7 +8749,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>25092.9864667262</v>
+        <v>25024.494761348</v>
       </c>
       <c r="C12" t="n">
         <v>14261.7481346777</v>
@@ -8770,7 +8770,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9881.9864667262</v>
+        <v>9813.49476134796</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -8781,7 +8781,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27728.3048946825</v>
+        <v>27714.4555588177</v>
       </c>
       <c r="C13" t="n">
         <v>15218.7116627951</v>
@@ -8802,7 +8802,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16291.3048946825</v>
+        <v>16277.4555588177</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -8813,7 +8813,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24462.2257899274</v>
+        <v>24430.9046897231</v>
       </c>
       <c r="C14" t="n">
         <v>13137.1502140118</v>
@@ -8834,7 +8834,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17384.2257899274</v>
+        <v>17352.9046897231</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -8845,7 +8845,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>13993.2920688145</v>
+        <v>14355.5802748744</v>
       </c>
       <c r="C15" t="n">
         <v>8260.56133907371</v>
@@ -8854,10 +8854,10 @@
         <v>6834.17978950791</v>
       </c>
       <c r="E15" t="n">
-        <v>28524.5981673961</v>
+        <v>28869.6716629208</v>
       </c>
       <c r="F15" t="n">
-        <v>35975.9047609483</v>
+        <v>36077.4978566217</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -8866,7 +8866,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9600.29206881454</v>
+        <v>9962.58027487443</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -8877,7 +8877,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18464.1487373481</v>
+        <v>18647.3132843542</v>
       </c>
       <c r="C16" t="n">
         <v>10809.4618368325</v>
@@ -8898,7 +8898,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>8860.14873734811</v>
+        <v>9043.31328435419</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -8909,10 +8909,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26589.0912794963</v>
+        <v>26709.5397726338</v>
       </c>
       <c r="C17" t="n">
-        <v>13277.8648708032</v>
+        <v>13401.6625853645</v>
       </c>
       <c r="D17" t="n">
         <v>10967.6489943652</v>
@@ -8930,7 +8930,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15088.0912794963</v>
+        <v>15208.5397726338</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -8941,13 +8941,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>35140.122205063</v>
+        <v>35319.7438386566</v>
       </c>
       <c r="C18" t="n">
-        <v>14944.719734274</v>
+        <v>14953.8505022459</v>
       </c>
       <c r="D18" t="n">
-        <v>12425.8685165999</v>
+        <v>12580.504151311</v>
       </c>
       <c r="E18" t="n">
         <v>144760.36601956</v>
@@ -8962,7 +8962,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>23170.122205063</v>
+        <v>23349.7438386566</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -8973,10 +8973,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>37768.5659482412</v>
+        <v>38004.4400644632</v>
       </c>
       <c r="C19" t="n">
-        <v>16211.8616118503</v>
+        <v>16392.4372659473</v>
       </c>
       <c r="D19" t="n">
         <v>13004.5100822935</v>
@@ -8994,7 +8994,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25753.5659482412</v>
+        <v>25989.4400644632</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -9005,7 +9005,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>31906.7614493348</v>
+        <v>32148.4224370966</v>
       </c>
       <c r="C20" t="n">
         <v>15023.7949732691</v>
@@ -9026,7 +9026,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22539.7614493348</v>
+        <v>22781.4224370966</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -9037,7 +9037,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21499.1943208056</v>
+        <v>21596.3583123729</v>
       </c>
       <c r="C21" t="n">
         <v>10679.949749488</v>
@@ -9058,7 +9058,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13146.1943208056</v>
+        <v>13243.3583123729</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -9069,7 +9069,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>20100.8182111201</v>
+        <v>19988.2081279258</v>
       </c>
       <c r="C22" t="n">
         <v>9970.77061124087</v>
@@ -9078,7 +9078,7 @@
         <v>7857.72258165793</v>
       </c>
       <c r="E22" t="n">
-        <v>43268.4953080088</v>
+        <v>41928.3435571219</v>
       </c>
       <c r="F22" t="n">
         <v>78653.4080235126</v>
@@ -9090,7 +9090,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7494.8182111201</v>
+        <v>7382.20812792579</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -9101,7 +9101,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>21104.3450208666</v>
+        <v>20872.4639507214</v>
       </c>
       <c r="C23" t="n">
         <v>10444.3007627042</v>
@@ -9122,7 +9122,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9988.34502086657</v>
+        <v>9756.46395072139</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -9133,7 +9133,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25260.6795519576</v>
+        <v>25101.1902110233</v>
       </c>
       <c r="C24" t="n">
         <v>12294.3409740703</v>
@@ -9154,7 +9154,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13379.6795519576</v>
+        <v>13220.1902110233</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -9165,7 +9165,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27736.6424954553</v>
+        <v>27649.3606653986</v>
       </c>
       <c r="C25" t="n">
         <v>13115.6534975643</v>
@@ -9186,7 +9186,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16844.6424954553</v>
+        <v>16757.3606653986</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -9197,7 +9197,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24496.9390469305</v>
+        <v>24443.5577867121</v>
       </c>
       <c r="C26" t="n">
         <v>11540.0256119915</v>
@@ -9218,7 +9218,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>17926.9390469305</v>
+        <v>17873.5577867121</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -9229,7 +9229,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15524.3032770952</v>
+        <v>15891.2056883325</v>
       </c>
       <c r="C27" t="n">
         <v>7508.31736126025</v>
@@ -9238,10 +9238,10 @@
         <v>6028.80690028605</v>
       </c>
       <c r="E27" t="n">
-        <v>38751.2723385486</v>
+        <v>38807.5107889808</v>
       </c>
       <c r="F27" t="n">
-        <v>53814.0992316784</v>
+        <v>53902.7970516696</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -9250,7 +9250,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>11033.3032770952</v>
+        <v>11400.2056883325</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -9261,7 +9261,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19333.023764692</v>
+        <v>19563.5703859681</v>
       </c>
       <c r="C28" t="n">
         <v>9721.64643941573</v>
@@ -9282,7 +9282,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9332.02376469202</v>
+        <v>9562.57038596812</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -9293,7 +9293,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>26950.9089810644</v>
+        <v>27092.6545831058</v>
       </c>
       <c r="C29" t="n">
         <v>12712.2919542595</v>
@@ -9314,7 +9314,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>16982.9089810644</v>
+        <v>17124.6545831058</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -9325,10 +9325,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>35088.2275010212</v>
+        <v>35228.5405928235</v>
       </c>
       <c r="C30" t="n">
-        <v>13576.3747642065</v>
+        <v>13626.6730379984</v>
       </c>
       <c r="D30" t="n">
         <v>10953.7595637456</v>
@@ -9346,7 +9346,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>23937.2275010212</v>
+        <v>24077.5405928235</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -9357,10 +9357,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37415.2258399519</v>
+        <v>37562.2105385546</v>
       </c>
       <c r="C31" t="n">
-        <v>14504.5921919688</v>
+        <v>14607.6140274331</v>
       </c>
       <c r="D31" t="n">
         <v>11155.8710716245</v>
@@ -9376,7 +9376,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25470.2258399519</v>
+        <v>25617.2105385546</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -9387,7 +9387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31418.0556653882</v>
+        <v>31643.8673616314</v>
       </c>
       <c r="C32" t="n">
         <v>13451.0581028725</v>
@@ -9408,7 +9408,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>22027.0556653882</v>
+        <v>22252.8673616314</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -9419,7 +9419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21255.9454386756</v>
+        <v>21475.882692046</v>
       </c>
       <c r="C33" t="n">
         <v>9769.7192097405</v>
@@ -9440,7 +9440,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>12783.9454386756</v>
+        <v>13003.882692046</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -9451,7 +9451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>20062.3624705834</v>
+        <v>20187.8151125151</v>
       </c>
       <c r="C34" t="n">
         <v>9171.78565403236</v>
@@ -9472,7 +9472,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>9021.36247058342</v>
+        <v>9146.81511251513</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -9483,7 +9483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21183.5275991687</v>
+        <v>21194.0072463916</v>
       </c>
       <c r="C35" t="n">
         <v>9606.48652750789</v>
@@ -9504,7 +9504,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11646.5275991687</v>
+        <v>11657.0072463916</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -9515,7 +9515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25365.3760418774</v>
+        <v>25327.5044214897</v>
       </c>
       <c r="C36" t="n">
         <v>11242.4952361484</v>
@@ -9536,7 +9536,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16663.3760418774</v>
+        <v>16625.5044214897</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -9547,7 +9547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27822.4130179549</v>
+        <v>27777.5702382675</v>
       </c>
       <c r="C37" t="n">
         <v>11977.8083646304</v>
@@ -9568,7 +9568,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23983.4130179549</v>
+        <v>23938.5702382675</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -9579,7 +9579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24597.4011873646</v>
+        <v>24555.4447332538</v>
       </c>
       <c r="C38" t="n">
         <v>10637.4505337609</v>
@@ -9600,7 +9600,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>22227.4011873646</v>
+        <v>22185.4447332538</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -9611,7 +9611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16839.4729831057</v>
+        <v>16855.5089740382</v>
       </c>
       <c r="C39" t="n">
         <v>7056.72193509203</v>
@@ -9620,10 +9620,10 @@
         <v>5560.97404019948</v>
       </c>
       <c r="E39" t="n">
-        <v>44451.2432879007</v>
+        <v>43643.3795567264</v>
       </c>
       <c r="F39" t="n">
-        <v>68826.5644353505</v>
+        <v>66386.9801635944</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
@@ -9632,7 +9632,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>12291.4729831057</v>
+        <v>12307.5089740382</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -9643,7 +9643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20532.3198370889</v>
+        <v>20535.4855986722</v>
       </c>
       <c r="C40" t="n">
         <v>9068.0307354836</v>
@@ -9664,7 +9664,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>13233.3198370889</v>
+        <v>13236.4855986722</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -9675,7 +9675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27867.1707166316</v>
+        <v>27837.4605580025</v>
       </c>
       <c r="C41" t="n">
         <v>11750.5270156756</v>
@@ -9696,7 +9696,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20839.1707166316</v>
+        <v>20809.4605580025</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -9707,10 +9707,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35701.3579121552</v>
+        <v>35664.4888107044</v>
       </c>
       <c r="C42" t="n">
-        <v>13048.548602695</v>
+        <v>13099.5217503033</v>
       </c>
       <c r="D42" t="n">
         <v>9871.7421132616</v>
@@ -9726,7 +9726,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26771.3579121552</v>
+        <v>26734.4888107044</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -9737,10 +9737,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37749.011355913</v>
+        <v>37714.8146309982</v>
       </c>
       <c r="C43" t="n">
-        <v>14045.4937767376</v>
+        <v>14056.6700929626</v>
       </c>
       <c r="D43" t="n">
         <v>10065.7646230228</v>
@@ -9756,7 +9756,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>27039.011355913</v>
+        <v>27004.8146309982</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -9767,7 +9767,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31639.2901838467</v>
+        <v>31630.0178162172</v>
       </c>
       <c r="C44" t="n">
         <v>12467.7367931876</v>
@@ -9788,7 +9788,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22359.2901838467</v>
+        <v>22350.0178162172</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -9799,7 +9799,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21378.5771325739</v>
+        <v>21468.5161484603</v>
       </c>
       <c r="C45" t="n">
         <v>9179.01862585911</v>
@@ -9820,7 +9820,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13459.5771325739</v>
+        <v>13549.5161484603</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -9831,7 +9831,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>20143.478384449</v>
+        <v>20265.3176770665</v>
       </c>
       <c r="C46" t="n">
         <v>8644.97016497651</v>
@@ -9852,7 +9852,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9276.47838444903</v>
+        <v>9398.31767706646</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -9863,7 +9863,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21269.8883947069</v>
+        <v>21364.4919331532</v>
       </c>
       <c r="C47" t="n">
         <v>9049.71196455794</v>
@@ -9884,7 +9884,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>12982.8883947069</v>
+        <v>13077.4919331532</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -9895,7 +9895,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25458.6812323659</v>
+        <v>25512.5857104808</v>
       </c>
       <c r="C48" t="n">
         <v>10543.7000165822</v>
@@ -9916,7 +9916,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>17816.6812323659</v>
+        <v>17870.5857104808</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -9927,7 +9927,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>27919.9019948061</v>
+        <v>27940.4074223899</v>
       </c>
       <c r="C49" t="n">
         <v>11218.0042102211</v>
@@ -9948,7 +9948,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20827.9019948061</v>
+        <v>20848.4074223899</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -15039,7 +15039,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2499.5183567505</v>
+        <v>2554.05784906726</v>
       </c>
       <c r="C2" t="n">
         <v>1991.94667052589</v>
@@ -15060,7 +15060,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>54.5183567504973</v>
+        <v>109.057849067263</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -15071,7 +15071,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2572.81159379997</v>
+        <v>2619.75006196415</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4297907211</v>
@@ -15092,7 +15092,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1639.81159379997</v>
+        <v>1686.75006196415</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -15103,13 +15103,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4564.30686758376</v>
+        <v>4604.89477369981</v>
       </c>
       <c r="C4" t="n">
-        <v>3516.58659342595</v>
+        <v>3657.19283689755</v>
       </c>
       <c r="D4" t="n">
-        <v>3406.01186754749</v>
+        <v>3485.59788473942</v>
       </c>
       <c r="E4" t="n">
         <v>6059.97763513824</v>
@@ -15124,7 +15124,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1056.30686758376</v>
+        <v>1096.89477369981</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -15135,13 +15135,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5160.7768936451</v>
+        <v>5258.17043206857</v>
       </c>
       <c r="C5" t="n">
-        <v>3754.88327627754</v>
+        <v>4167.63603231541</v>
       </c>
       <c r="D5" t="n">
-        <v>3580.64703186017</v>
+        <v>3868.95154727896</v>
       </c>
       <c r="E5" t="n">
         <v>7086.92421038528</v>
@@ -15156,7 +15156,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-199.223106354897</v>
+        <v>-101.829567931427</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -15167,13 +15167,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6045.47843152312</v>
+        <v>6225.16680982734</v>
       </c>
       <c r="C6" t="n">
-        <v>4179.74185310249</v>
+        <v>4830.82597472165</v>
       </c>
       <c r="D6" t="n">
-        <v>3834.92948709128</v>
+        <v>4399.75161981965</v>
       </c>
       <c r="E6" t="n">
         <v>8215.79409716881</v>
@@ -15188,7 +15188,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>781.478431523115</v>
+        <v>961.166809827337</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -15199,13 +15199,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6400.93935985961</v>
+        <v>6647.07832383379</v>
       </c>
       <c r="C7" t="n">
-        <v>4599.86481061354</v>
+        <v>5190.68248524955</v>
       </c>
       <c r="D7" t="n">
-        <v>4163.71888182886</v>
+        <v>4615.31545913593</v>
       </c>
       <c r="E7" t="n">
         <v>8670.22519575541</v>
@@ -15220,7 +15220,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>207.939359859613</v>
+        <v>454.078323833786</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -15231,13 +15231,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6174.23920098852</v>
+        <v>6553.11920460119</v>
       </c>
       <c r="C8" t="n">
-        <v>4416.47475631294</v>
+        <v>4930.10962584384</v>
       </c>
       <c r="D8" t="n">
-        <v>4121.66369501346</v>
+        <v>4325.48088487394</v>
       </c>
       <c r="E8" t="n">
         <v>8416.9674434498</v>
@@ -15252,7 +15252,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1202.23920098852</v>
+        <v>1581.11920460119</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -15263,7 +15263,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5383.41921426064</v>
+        <v>5703.11088362786</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83189494892</v>
@@ -15284,7 +15284,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>411.419214260643</v>
+        <v>731.110883627864</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -15295,7 +15295,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3850.32131348732</v>
+        <v>4230.73294012255</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58054715183</v>
@@ -15304,10 +15304,10 @@
         <v>2224.76066630715</v>
       </c>
       <c r="E10" t="n">
-        <v>5368.3103318324</v>
+        <v>6113.26596034152</v>
       </c>
       <c r="F10" t="n">
-        <v>6016.43089291314</v>
+        <v>6353.22426501658</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -15316,7 +15316,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-641.678686512675</v>
+        <v>-261.267059877448</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -15327,7 +15327,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2808.34359226312</v>
+        <v>3208.26168802262</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16735152256</v>
@@ -15336,10 +15336,10 @@
         <v>1489.11877012796</v>
       </c>
       <c r="E11" t="n">
-        <v>4000.07775683539</v>
+        <v>4940.04018441525</v>
       </c>
       <c r="F11" t="n">
-        <v>4708.01462847304</v>
+        <v>5298.35406832749</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
@@ -15348,10 +15348,10 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-397.656407736879</v>
+        <v>2.26168802261964</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -15359,7 +15359,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2971.73113155808</v>
+        <v>3218.0666403121</v>
       </c>
       <c r="C12" t="n">
         <v>2120.53544403332</v>
@@ -15380,7 +15380,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-639.26886844192</v>
+        <v>-392.933359687898</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -15391,7 +15391,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3065.58137355917</v>
+        <v>3205.73956502267</v>
       </c>
       <c r="C13" t="n">
         <v>2176.18727763944</v>
@@ -15412,7 +15412,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-628.418626440831</v>
+        <v>-488.260434977327</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -15423,7 +15423,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2600.60698409385</v>
+        <v>2708.21559493809</v>
       </c>
       <c r="C14" t="n">
         <v>1630.70239110265</v>
@@ -15444,7 +15444,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-574.393015906146</v>
+        <v>-466.784405061912</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -15455,10 +15455,10 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2677.83936486815</v>
+        <v>2813.01480209488</v>
       </c>
       <c r="C15" t="n">
-        <v>1669.35358350412</v>
+        <v>1739.511421226</v>
       </c>
       <c r="D15" t="n">
         <v>1309.75218349487</v>
@@ -15476,7 +15476,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-747.160635131854</v>
+        <v>-611.985197905125</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -15487,13 +15487,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4412.19712534293</v>
+        <v>4452.06520055205</v>
       </c>
       <c r="C16" t="n">
-        <v>2368.88119195857</v>
+        <v>2621.59858095478</v>
       </c>
       <c r="D16" t="n">
-        <v>2144.89143594314</v>
+        <v>2436.89087428613</v>
       </c>
       <c r="E16" t="n">
         <v>7405.78804909315</v>
@@ -15508,7 +15508,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2807.80287465707</v>
+        <v>-2767.93479944795</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -15519,13 +15519,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5188.66949872935</v>
+        <v>5200.81375803505</v>
       </c>
       <c r="C17" t="n">
-        <v>3063.85344572253</v>
+        <v>3282.21763413367</v>
       </c>
       <c r="D17" t="n">
-        <v>2705.98458571268</v>
+        <v>2985.98714134414</v>
       </c>
       <c r="E17" t="n">
         <v>8494.68924107114</v>
@@ -15540,7 +15540,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2659.33050127065</v>
+        <v>-2647.18624196495</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -15551,13 +15551,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5934.7260396503</v>
+        <v>6096.14687846316</v>
       </c>
       <c r="C18" t="n">
-        <v>3278.04775288533</v>
+        <v>3831.207622359</v>
       </c>
       <c r="D18" t="n">
-        <v>2811.77276626491</v>
+        <v>3463.3292702407</v>
       </c>
       <c r="E18" t="n">
         <v>9689.70911060613</v>
@@ -15572,7 +15572,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-2161.2739603497</v>
+        <v>-1999.85312153684</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -15583,13 +15583,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6241.11540961488</v>
+        <v>6422.86557617782</v>
       </c>
       <c r="C19" t="n">
-        <v>3778.3376961019</v>
+        <v>4113.00361417104</v>
       </c>
       <c r="D19" t="n">
-        <v>3353.6368979253</v>
+        <v>3633.1504405902</v>
       </c>
       <c r="E19" t="n">
         <v>10141.1914479731</v>
@@ -15604,7 +15604,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3428.88459038512</v>
+        <v>-3247.13442382218</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -15615,10 +15615,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6125.08317192318</v>
+        <v>6276.83468386286</v>
       </c>
       <c r="C20" t="n">
-        <v>4241.43946751464</v>
+        <v>4338.00581906646</v>
       </c>
       <c r="D20" t="n">
         <v>3491.54840414504</v>
@@ -15636,7 +15636,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-3096.91682807682</v>
+        <v>-2945.16531613714</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -15647,7 +15647,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5311.8800883987</v>
+        <v>5515.75629751937</v>
       </c>
       <c r="C21" t="n">
         <v>3572.24646133236</v>
@@ -15668,7 +15668,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1555.1199116013</v>
+        <v>-1351.24370248063</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -15679,7 +15679,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3881.57466336034</v>
+        <v>4188.77428312046</v>
       </c>
       <c r="C22" t="n">
         <v>2274.99752473612</v>
@@ -15688,7 +15688,7 @@
         <v>1645.25308091835</v>
       </c>
       <c r="E22" t="n">
-        <v>6300.13849596426</v>
+        <v>6529.08546925863</v>
       </c>
       <c r="F22" t="n">
         <v>7551.56273391586</v>
@@ -15700,7 +15700,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2050.42533663966</v>
+        <v>-1743.22571687954</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -15711,7 +15711,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2787.78180835005</v>
+        <v>3226.8789052484</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19149678273</v>
@@ -15720,10 +15720,10 @@
         <v>1036.14847407148</v>
       </c>
       <c r="E23" t="n">
-        <v>4866.72494197849</v>
+        <v>5444.65589875805</v>
       </c>
       <c r="F23" t="n">
-        <v>6016.79481331413</v>
+        <v>6029.42772236003</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -15732,7 +15732,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-834.218191649951</v>
+        <v>-395.121094751596</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -15743,7 +15743,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2858.44690328899</v>
+        <v>3231.39442165279</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72864932199</v>
@@ -15764,7 +15764,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-790.553096711012</v>
+        <v>-417.605578347213</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -15775,10 +15775,10 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3003.72585016267</v>
+        <v>3208.9805681149</v>
       </c>
       <c r="C25" t="n">
-        <v>1679.17274067448</v>
+        <v>1829.00664776947</v>
       </c>
       <c r="D25" t="n">
         <v>1240.28644452059</v>
@@ -15796,7 +15796,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1915.27414983733</v>
+        <v>-1710.0194318851</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -15807,10 +15807,10 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2578.59594913963</v>
+        <v>2782.53970601424</v>
       </c>
       <c r="C26" t="n">
-        <v>1274.39903375164</v>
+        <v>1423.24887290613</v>
       </c>
       <c r="D26" t="n">
         <v>900.410172952505</v>
@@ -15828,7 +15828,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1817.40405086037</v>
+        <v>-1613.46029398576</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -15839,10 +15839,10 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2636.29555131407</v>
+        <v>2901.02374228052</v>
       </c>
       <c r="C27" t="n">
-        <v>1246.91091622409</v>
+        <v>1434.76508825466</v>
       </c>
       <c r="D27" t="n">
         <v>895.199325928177</v>
@@ -15860,7 +15860,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-2052.70444868593</v>
+        <v>-1787.97625771948</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -15871,13 +15871,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4246.798660274</v>
+        <v>4492.49120697023</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.79754187174</v>
+        <v>1966.39079028843</v>
       </c>
       <c r="D28" t="n">
-        <v>1234.05437160573</v>
+        <v>1535.41727108716</v>
       </c>
       <c r="E28" t="n">
         <v>8519.52465684769</v>
@@ -15892,7 +15892,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2409.201339726</v>
+        <v>-2163.50879302977</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -15903,13 +15903,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5200.73329114052</v>
+        <v>5099.40619556925</v>
       </c>
       <c r="C29" t="n">
-        <v>2142.04282848902</v>
+        <v>2250.60716164607</v>
       </c>
       <c r="D29" t="n">
-        <v>1489.17108245865</v>
+        <v>1752.80362725417</v>
       </c>
       <c r="E29" t="n">
         <v>9679.54037829963</v>
@@ -15924,7 +15924,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1923.26670885948</v>
+        <v>-2024.59380443075</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -15935,13 +15935,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6049.68962963434</v>
+        <v>6050.60374396076</v>
       </c>
       <c r="C30" t="n">
-        <v>2998.47523940712</v>
+        <v>2765.0224828787</v>
       </c>
       <c r="D30" t="n">
-        <v>2385.62802207643</v>
+        <v>2255.47681938644</v>
       </c>
       <c r="E30" t="n">
         <v>10947.5111749827</v>
@@ -15956,7 +15956,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2774.31037036566</v>
+        <v>-2773.39625603924</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -15967,13 +15967,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6369.63562280809</v>
+        <v>6280.2282244919</v>
       </c>
       <c r="C31" t="n">
-        <v>3677.88420378451</v>
+        <v>3328.12089579642</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.30065609826</v>
+        <v>2767.58894615949</v>
       </c>
       <c r="E31" t="n">
         <v>11414.5143524357</v>
@@ -15988,7 +15988,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3573.36437719191</v>
+        <v>-3662.7717755081</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -15999,10 +15999,10 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6289.62496318651</v>
+        <v>6154.97589926117</v>
       </c>
       <c r="C32" t="n">
-        <v>3846.91026639935</v>
+        <v>3692.28111209629</v>
       </c>
       <c r="D32" t="n">
         <v>2726.75566049589</v>
@@ -16020,7 +16020,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3393.37503681349</v>
+        <v>-3528.02410073883</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -16031,7 +16031,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5583.3078550542</v>
+        <v>5431.84514267366</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90185126986</v>
@@ -16052,7 +16052,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2303.6921449458</v>
+        <v>-2455.15485732634</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -16063,7 +16063,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4026.78098672855</v>
+        <v>4063.49757659111</v>
       </c>
       <c r="C34" t="n">
         <v>1908.87651100061</v>
@@ -16084,7 +16084,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1284.21901327145</v>
+        <v>-1247.50242340889</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -16095,7 +16095,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2904.29455209353</v>
+        <v>3199.6656779107</v>
       </c>
       <c r="C35" t="n">
         <v>1251.3782561686</v>
@@ -16104,7 +16104,7 @@
         <v>669.263043288077</v>
       </c>
       <c r="E35" t="n">
-        <v>5670.92569293253</v>
+        <v>6086.88751748843</v>
       </c>
       <c r="F35" t="n">
         <v>7309.70741139115</v>
@@ -16116,7 +16116,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>369.294552093527</v>
+        <v>664.665677910702</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -16127,7 +16127,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2978.98236426928</v>
+        <v>3223.3038939989</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35462556352</v>
@@ -16148,7 +16148,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>409.982364269279</v>
+        <v>654.303893998904</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -16159,10 +16159,10 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3116.12243529275</v>
+        <v>3153.59398599711</v>
       </c>
       <c r="C37" t="n">
-        <v>1376.03299995998</v>
+        <v>1501.83211585826</v>
       </c>
       <c r="D37" t="n">
         <v>825.299313086099</v>
@@ -16180,7 +16180,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1296.12243529275</v>
+        <v>1333.59398599711</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -16191,7 +16191,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2707.58079303788</v>
+        <v>2770.06325645664</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63294805888</v>
@@ -16212,7 +16212,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>389.580793037882</v>
+        <v>452.063256456635</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -16223,7 +16223,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2731.14513363903</v>
+        <v>2897.56474961428</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79777241534</v>
@@ -16244,7 +16244,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2930.85486636097</v>
+        <v>-2764.43525038572</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -16255,13 +16255,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4365.31031859338</v>
+        <v>4520.96512971617</v>
       </c>
       <c r="C40" t="n">
-        <v>1162.17051701505</v>
+        <v>1333.53513567636</v>
       </c>
       <c r="D40" t="n">
-        <v>976.220975602741</v>
+        <v>1125.05589416026</v>
       </c>
       <c r="E40" t="n">
         <v>9568.36934699627</v>
@@ -16276,7 +16276,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-2177.68968140662</v>
+        <v>-2022.03487028383</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -16287,13 +16287,13 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5381.17211393562</v>
+        <v>4975.50714692157</v>
       </c>
       <c r="C41" t="n">
-        <v>1471.47832539291</v>
+        <v>1377.24683688247</v>
       </c>
       <c r="D41" t="n">
-        <v>1060.14540843188</v>
+        <v>1070.1652241003</v>
       </c>
       <c r="E41" t="n">
         <v>10796.6579388954</v>
@@ -16308,7 +16308,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2295.82788606438</v>
+        <v>-2701.49285307843</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -16319,13 +16319,13 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6303.01809675458</v>
+        <v>6011.66763725157</v>
       </c>
       <c r="C42" t="n">
-        <v>2882.99615025094</v>
+        <v>1768.47620439158</v>
       </c>
       <c r="D42" t="n">
-        <v>2151.34369420497</v>
+        <v>1217.89994251328</v>
       </c>
       <c r="E42" t="n">
         <v>12134.7960344282</v>
@@ -16340,7 +16340,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2763.98190324542</v>
+        <v>-3055.33236274843</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -16351,13 +16351,13 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6612.61453180103</v>
+        <v>6292.73234303618</v>
       </c>
       <c r="C43" t="n">
-        <v>3513.08387032542</v>
+        <v>2597.21389604538</v>
       </c>
       <c r="D43" t="n">
-        <v>2201.5017212826</v>
+        <v>1831.14561875674</v>
       </c>
       <c r="E43" t="n">
         <v>12620.2865184947</v>
@@ -16372,7 +16372,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1713.38546819897</v>
+        <v>-2033.26765696382</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -16383,10 +16383,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6566.2962390924</v>
+        <v>6132.1769948323</v>
       </c>
       <c r="C44" t="n">
-        <v>3323.75248837071</v>
+        <v>3282.84319608845</v>
       </c>
       <c r="D44" t="n">
         <v>2036.41531244868</v>
@@ -16404,7 +16404,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2597.7037609076</v>
+        <v>-3031.8230051677</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -16415,7 +16415,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5794.31686845813</v>
+        <v>5430.25271895209</v>
       </c>
       <c r="C45" t="n">
         <v>2633.37387178122</v>
@@ -16436,7 +16436,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2559.68313154187</v>
+        <v>-2923.74728104791</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -16447,7 +16447,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4210.26938612463</v>
+        <v>4190.4078379091</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35556188795</v>
@@ -16468,7 +16468,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1776.73061387537</v>
+        <v>-1796.5921620909</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -16479,7 +16479,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3083.9471661694</v>
+        <v>3240.90746205797</v>
       </c>
       <c r="C47" t="n">
         <v>979.514189731485</v>
@@ -16500,7 +16500,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1393.0528338306</v>
+        <v>-1236.09253794203</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -16511,7 +16511,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3113.10906076194</v>
+        <v>3252.88459366779</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49497256188</v>
@@ -16532,7 +16532,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1426.89093923806</v>
+        <v>-1287.11540633221</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -16543,7 +16543,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3251.30989715978</v>
+        <v>3223.54084587535</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38066689333</v>
@@ -16564,7 +16564,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-491.690102840225</v>
+        <v>-519.459154124646</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -20983,13 +20983,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>277.665479297809</v>
+        <v>277.754285936539</v>
       </c>
       <c r="C2" t="n">
-        <v>188.806311936178</v>
+        <v>189.032243958065</v>
       </c>
       <c r="D2" t="n">
-        <v>170.344052473418</v>
+        <v>170.515208523878</v>
       </c>
       <c r="E2" t="n">
         <v>440.627362179176</v>
@@ -21004,7 +21004,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.3345207021912</v>
+        <v>-70.2457140634614</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -21015,13 +21015,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>248.288890625911</v>
+        <v>248.259618022897</v>
       </c>
       <c r="C3" t="n">
-        <v>185.514477780561</v>
+        <v>185.525875117934</v>
       </c>
       <c r="D3" t="n">
-        <v>167.99723675755</v>
+        <v>168.334561604841</v>
       </c>
       <c r="E3" t="n">
         <v>377.788952082555</v>
@@ -21036,7 +21036,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>122.288890625911</v>
+        <v>122.259618022897</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -21047,7 +21047,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>192.996465743396</v>
+        <v>192.990385189317</v>
       </c>
       <c r="C4" t="n">
         <v>143.01186863588</v>
@@ -21068,7 +21068,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>100.996465743396</v>
+        <v>100.990385189317</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -21079,7 +21079,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>210.465993195331</v>
+        <v>210.485436330761</v>
       </c>
       <c r="C5" t="n">
         <v>151.169620017098</v>
@@ -21100,7 +21100,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>156.465993195331</v>
+        <v>156.485436330761</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -21111,7 +21111,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>238.028154326735</v>
+        <v>238.090020608073</v>
       </c>
       <c r="C6" t="n">
         <v>161.529209914064</v>
@@ -21132,7 +21132,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>198.028154326735</v>
+        <v>198.090020608073</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -21143,7 +21143,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>262.552826401736</v>
+        <v>262.61286610835</v>
       </c>
       <c r="C7" t="n">
         <v>173.974474251093</v>
@@ -21164,7 +21164,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>188.552826401736</v>
+        <v>188.61286610835</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -21175,7 +21175,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>272.354320567028</v>
+        <v>272.412189425834</v>
       </c>
       <c r="C8" t="n">
         <v>186.780385608902</v>
@@ -21196,7 +21196,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>215.354320567028</v>
+        <v>215.412189425834</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -21207,7 +21207,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>238.906869506803</v>
+        <v>238.858596290968</v>
       </c>
       <c r="C9" t="n">
         <v>170.178817301019</v>
@@ -21228,7 +21228,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>181.906869506803</v>
+        <v>181.858596290968</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -21239,7 +21239,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>226.3727454996</v>
+        <v>226.309594940351</v>
       </c>
       <c r="C10" t="n">
         <v>158.056003992552</v>
@@ -21260,7 +21260,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>145.3727454996</v>
+        <v>145.309594940351</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -21271,7 +21271,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>207.029294210189</v>
+        <v>207.006139158168</v>
       </c>
       <c r="C11" t="n">
         <v>143.297914456867</v>
@@ -21292,7 +21292,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>129.029294210189</v>
+        <v>129.006139158168</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -21303,7 +21303,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>224.006233758253</v>
+        <v>224.026319830191</v>
       </c>
       <c r="C12" t="n">
         <v>145.236259397156</v>
@@ -21324,7 +21324,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>161.006233758253</v>
+        <v>161.026319830191</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -21335,7 +21335,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>200.604423664715</v>
+        <v>200.587772867066</v>
       </c>
       <c r="C13" t="n">
         <v>130.640496742923</v>
@@ -21356,7 +21356,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>127.604423664715</v>
+        <v>127.587772867066</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -21367,7 +21367,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>263.027932310936</v>
+        <v>263.026051867338</v>
       </c>
       <c r="C14" t="n">
         <v>168.75127543887</v>
@@ -21388,7 +21388,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>195.027932310936</v>
+        <v>195.026051867338</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -21399,7 +21399,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>235.813594676562</v>
+        <v>235.768858819454</v>
       </c>
       <c r="C15" t="n">
         <v>149.465138407806</v>
@@ -21420,7 +21420,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>177.813594676562</v>
+        <v>177.768858819454</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -21431,7 +21431,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>190.028123387636</v>
+        <v>190.00875255173</v>
       </c>
       <c r="C16" t="n">
         <v>120.930459163208</v>
@@ -21452,7 +21452,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>127.028123387636</v>
+        <v>127.00875255173</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -21463,7 +21463,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>206.103142438478</v>
+        <v>206.128018916811</v>
       </c>
       <c r="C17" t="n">
         <v>129.298360432976</v>
@@ -21484,7 +21484,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>132.103142438478</v>
+        <v>132.128018916811</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -21495,7 +21495,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>231.162166792109</v>
+        <v>231.227096933607</v>
       </c>
       <c r="C18" t="n">
         <v>141.826013054688</v>
@@ -21516,7 +21516,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>134.162166792109</v>
+        <v>134.227096933607</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -21527,7 +21527,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>253.331642609429</v>
+        <v>253.400331849491</v>
       </c>
       <c r="C19" t="n">
         <v>153.909943721984</v>
@@ -21548,7 +21548,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>144.331642609429</v>
+        <v>144.400331849491</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -21559,7 +21559,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>261.026623422431</v>
+        <v>261.063507914059</v>
       </c>
       <c r="C20" t="n">
         <v>156.919104546279</v>
@@ -21580,7 +21580,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>169.026623422431</v>
+        <v>169.063507914059</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -21591,7 +21591,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>230.429080373768</v>
+        <v>230.397389389721</v>
       </c>
       <c r="C21" t="n">
         <v>137.722690745677</v>
@@ -21612,7 +21612,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>170.429080373768</v>
+        <v>170.397389389721</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -21623,7 +21623,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>219.113536962381</v>
+        <v>219.048904678928</v>
       </c>
       <c r="C22" t="n">
         <v>129.31702760824</v>
@@ -21644,7 +21644,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>170.113536962381</v>
+        <v>170.048904678928</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -21655,7 +21655,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>202.712094157938</v>
+        <v>202.664009449246</v>
       </c>
       <c r="C23" t="n">
         <v>116.783105600643</v>
@@ -21676,7 +21676,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>156.712094157938</v>
+        <v>156.664009449246</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -21687,7 +21687,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>218.115464100946</v>
+        <v>218.075500202083</v>
       </c>
       <c r="C24" t="n">
         <v>123.7084654199</v>
@@ -21708,7 +21708,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>156.115464100946</v>
+        <v>156.075500202083</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -21719,7 +21719,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>197.452625333663</v>
+        <v>197.408154516907</v>
       </c>
       <c r="C25" t="n">
         <v>108.328888348427</v>
@@ -21740,7 +21740,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>125.452625333663</v>
+        <v>125.408154516907</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -21751,7 +21751,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>254.692327031846</v>
+        <v>254.652841766415</v>
       </c>
       <c r="C26" t="n">
         <v>141.46341523127</v>
@@ -21772,7 +21772,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>228.692327031846</v>
+        <v>228.652841766415</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -21783,7 +21783,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>229.43705795319</v>
+        <v>229.382924971597</v>
       </c>
       <c r="C27" t="n">
         <v>127.271112255047</v>
@@ -21804,7 +21804,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>199.43705795319</v>
+        <v>199.382924971597</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -21815,7 +21815,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>187.133967645228</v>
+        <v>187.093681111247</v>
       </c>
       <c r="C28" t="n">
         <v>102.402055551194</v>
@@ -21836,7 +21836,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>156.133967645228</v>
+        <v>156.093681111247</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -21847,7 +21847,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>203.349724010194</v>
+        <v>203.345565118726</v>
       </c>
       <c r="C29" t="n">
         <v>108.955516169436</v>
@@ -21868,7 +21868,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>169.349724010194</v>
+        <v>169.345565118726</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -21879,7 +21879,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>226.876825960591</v>
+        <v>226.909030599381</v>
       </c>
       <c r="C30" t="n">
         <v>119.201223405021</v>
@@ -21900,7 +21900,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>189.876825960591</v>
+        <v>189.909030599381</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -21911,7 +21911,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>246.345912501205</v>
+        <v>246.391523461183</v>
       </c>
       <c r="C31" t="n">
         <v>127.777574385447</v>
@@ -21932,7 +21932,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>184.345912501205</v>
+        <v>184.391523461183</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -21943,7 +21943,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>252.09095850747</v>
+        <v>252.11880287314</v>
       </c>
       <c r="C32" t="n">
         <v>130.237359766019</v>
@@ -21964,7 +21964,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>173.09095850747</v>
+        <v>173.11880287314</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -21975,7 +21975,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>223.631169703654</v>
+        <v>223.617555974129</v>
       </c>
       <c r="C33" t="n">
         <v>116.118219718871</v>
@@ -21996,7 +21996,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>6.63116970365436</v>
+        <v>6.61755597412946</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -22007,7 +22007,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>213.299097700413</v>
+        <v>213.252662356864</v>
       </c>
       <c r="C34" t="n">
         <v>109.895473802937</v>
@@ -22028,7 +22028,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>117.299097700413</v>
+        <v>117.252662356864</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -22039,7 +22039,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>198.342132721394</v>
+        <v>198.291118387014</v>
       </c>
       <c r="C35" t="n">
         <v>100.353933030024</v>
@@ -22060,7 +22060,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>106.342132721394</v>
+        <v>106.291118387014</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -22071,7 +22071,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>211.247570692797</v>
+        <v>211.194581792143</v>
       </c>
       <c r="C36" t="n">
         <v>105.876923837182</v>
@@ -22092,7 +22092,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>137.247570692797</v>
+        <v>137.194581792143</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -22103,7 +22103,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>192.842713208345</v>
+        <v>192.787690464356</v>
       </c>
       <c r="C37" t="n">
         <v>93.9520022817952</v>
@@ -22124,7 +22124,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>113.842713208345</v>
+        <v>113.787690464356</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -22135,7 +22135,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>246.344460076058</v>
+        <v>246.291091123152</v>
       </c>
       <c r="C38" t="n">
         <v>120.172061969526</v>
@@ -22156,7 +22156,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>97.3444600760585</v>
+        <v>97.2910911231518</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -22167,7 +22167,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>222.465525832339</v>
+        <v>222.407473299027</v>
       </c>
       <c r="C39" t="n">
         <v>109.336417498127</v>
@@ -22188,7 +22188,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>105.465525832339</v>
+        <v>105.407473299027</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -22199,7 +22199,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>183.334803586605</v>
+        <v>183.283012686082</v>
       </c>
       <c r="C40" t="n">
         <v>89.7284552740362</v>
@@ -22220,7 +22220,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>45.3348035866051</v>
+        <v>45.2830126860815</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -22231,7 +22231,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>199.248821556037</v>
+        <v>199.218708000106</v>
       </c>
       <c r="C41" t="n">
         <v>95.0744105932967</v>
@@ -22252,7 +22252,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>10.2488215560367</v>
+        <v>10.2187080001061</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -22263,7 +22263,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>221.881118962847</v>
+        <v>221.877850849468</v>
       </c>
       <c r="C42" t="n">
         <v>103.31833065883</v>
@@ -22284,7 +22284,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>9.88111896284747</v>
+        <v>9.87785084946842</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -22295,7 +22295,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>240.232480933666</v>
+        <v>240.24585488336</v>
       </c>
       <c r="C43" t="n">
         <v>110.175936899035</v>
@@ -22314,7 +22314,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-23.7675190663343</v>
+        <v>-23.7541451166395</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -22325,7 +22325,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>245.082044099709</v>
+        <v>245.092296915587</v>
       </c>
       <c r="C44" t="n">
         <v>112.208012942677</v>
@@ -22344,7 +22344,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-43.9179559002907</v>
+        <v>-43.9077030844129</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -22355,7 +22355,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>217.817374851696</v>
+        <v>217.807138170104</v>
       </c>
       <c r="C45" t="n">
         <v>101.139557790893</v>
@@ -22376,7 +22376,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-16.1826251483036</v>
+        <v>-16.1928618298964</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -22387,7 +22387,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>207.947280003785</v>
+        <v>207.913898018791</v>
       </c>
       <c r="C46" t="n">
         <v>96.2336517542998</v>
@@ -22408,7 +22408,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>14.9472800037852</v>
+        <v>14.9138980187911</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -22419,7 +22419,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>194.113984190323</v>
+        <v>194.069094413296</v>
       </c>
       <c r="C47" t="n">
         <v>88.5751739882669</v>
@@ -22440,7 +22440,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>1.11398419032309</v>
+        <v>1.06909441329577</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -22451,7 +22451,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>206.419036461222</v>
+        <v>206.367690370927</v>
       </c>
       <c r="C48" t="n">
         <v>93.1297191547481</v>
@@ -22472,7 +22472,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>23.4190364612221</v>
+        <v>23.3676903709269</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -22483,7 +22483,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>189.133675067448</v>
+        <v>189.078628648095</v>
       </c>
       <c r="C49" t="n">
         <v>83.4469401030609</v>
@@ -22504,7 +22504,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-55.8663249325515</v>
+        <v>-55.9213713519052</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -28801,7 +28801,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2300.54974976347</v>
+        <v>2332.34698123695</v>
       </c>
       <c r="C2" t="n">
         <v>1402.45845867814</v>
@@ -28822,7 +28822,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>161.549749763474</v>
+        <v>193.346981236953</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -28833,7 +28833,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1896.35266243444</v>
+        <v>1915.22081844539</v>
       </c>
       <c r="C3" t="n">
         <v>1074.38963336526</v>
@@ -28854,7 +28854,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>224.35266243444</v>
+        <v>243.22081844539</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -28865,7 +28865,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3084.53702557092</v>
+        <v>3014.51614519195</v>
       </c>
       <c r="C4" t="n">
         <v>1582.26540413731</v>
@@ -28886,7 +28886,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1073.53702557092</v>
+        <v>1003.51614519195</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -28897,7 +28897,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3612.4772784069</v>
+        <v>3599.76721692688</v>
       </c>
       <c r="C5" t="n">
         <v>1739.64431240911</v>
@@ -28918,7 +28918,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1382.4772784069</v>
+        <v>1369.76721692688</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -28929,7 +28929,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4274.39575024501</v>
+        <v>4246.30002644646</v>
       </c>
       <c r="C6" t="n">
         <v>1809.7782935037</v>
@@ -28950,7 +28950,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>1806.39575024501</v>
+        <v>1778.30002644646</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -28961,7 +28961,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5006.37135056473</v>
+        <v>4998.72422779812</v>
       </c>
       <c r="C7" t="n">
         <v>1898.54742543883</v>
@@ -28980,7 +28980,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2218.37135056473</v>
+        <v>2210.72422779812</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -28991,7 +28991,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5637.95274486119</v>
+        <v>5715.81948026677</v>
       </c>
       <c r="C8" t="n">
         <v>2005.73417052012</v>
@@ -29010,7 +29010,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3076.95274486119</v>
+        <v>3154.81948026677</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -29021,7 +29021,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5384.09103664034</v>
+        <v>5575.33601978507</v>
       </c>
       <c r="C9" t="n">
         <v>1769.74578922137</v>
@@ -29040,7 +29040,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2823.09103664034</v>
+        <v>3014.33601978507</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -29051,7 +29051,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6053.45986927511</v>
+        <v>6025.60452039181</v>
       </c>
       <c r="C10" t="n">
         <v>1671.95009098248</v>
@@ -29068,7 +29068,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>3504.45986927511</v>
+        <v>3476.60452039181</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -29079,7 +29079,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4183.34369794319</v>
+        <v>4174.51471839304</v>
       </c>
       <c r="C11" t="n">
         <v>1408.21433272463</v>
@@ -29098,7 +29098,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1885.34369794319</v>
+        <v>1876.51471839304</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -29109,7 +29109,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3538.09146671031</v>
+        <v>3505.27664977402</v>
       </c>
       <c r="C12" t="n">
         <v>1143.88286409215</v>
@@ -29128,7 +29128,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1000.09146671031</v>
+        <v>967.276649774017</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -29139,7 +29139,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3253.98636129934</v>
+        <v>3233.11488899426</v>
       </c>
       <c r="C13" t="n">
         <v>974.237994155916</v>
@@ -29158,7 +29158,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>670.98636129934</v>
+        <v>650.114888994256</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -29169,7 +29169,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2472.57961449066</v>
+        <v>2486.35296712465</v>
       </c>
       <c r="C14" t="n">
         <v>718.898811131472</v>
@@ -29190,7 +29190,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>167.579614490663</v>
+        <v>181.352967124654</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -29201,7 +29201,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1939.1207056887</v>
+        <v>1956.85117058213</v>
       </c>
       <c r="C15" t="n">
         <v>624.421895107958</v>
@@ -29222,7 +29222,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>66.1207056887033</v>
+        <v>83.8511705821338</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -29233,7 +29233,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3143.30005070225</v>
+        <v>3005.38972017024</v>
       </c>
       <c r="C16" t="n">
         <v>874.934646736935</v>
@@ -29252,7 +29252,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>258.300050702252</v>
+        <v>120.38972017024</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -29263,7 +29263,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3754.01001556605</v>
+        <v>3649.32548951151</v>
       </c>
       <c r="C17" t="n">
         <v>973.402100363647</v>
@@ -29282,7 +29282,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>946.010015566054</v>
+        <v>841.325489511507</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -29293,7 +29293,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4425.41264341047</v>
+        <v>4317.72861512231</v>
       </c>
       <c r="C18" t="n">
         <v>1032.76562489763</v>
@@ -29310,7 +29310,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>1877.41264341047</v>
+        <v>1769.72861512231</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -29321,7 +29321,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5273.06741307675</v>
+        <v>5177.36313377682</v>
       </c>
       <c r="C19" t="n">
         <v>1098.44077312814</v>
@@ -29338,7 +29338,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>2806.06741307675</v>
+        <v>2710.36313377682</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -29349,7 +29349,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5981.96522262336</v>
+        <v>5963.50573474867</v>
       </c>
       <c r="C20" t="n">
         <v>1183.13234495817</v>
@@ -29366,7 +29366,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>3415.96522262336</v>
+        <v>3397.50573474867</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -29377,7 +29377,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5703.26229625489</v>
+        <v>5849.5132557682</v>
       </c>
       <c r="C21" t="n">
         <v>1198.18797157789</v>
@@ -29394,7 +29394,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>3687.26229625489</v>
+        <v>3833.5132557682</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -29405,7 +29405,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6188.49374220328</v>
+        <v>6244.32214801761</v>
       </c>
       <c r="C22" t="n">
         <v>1157.71669924864</v>
@@ -29422,7 +29422,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>3867.49374220328</v>
+        <v>3923.32214801761</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -29433,7 +29433,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4370.48533809857</v>
+        <v>4438.70993924164</v>
       </c>
       <c r="C23" t="n">
         <v>998.62145681024</v>
@@ -29450,7 +29450,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2376.48533809857</v>
+        <v>2444.70993924164</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -29461,7 +29461,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3703.76486452103</v>
+        <v>3664.5177292711</v>
       </c>
       <c r="C24" t="n">
         <v>789.447732342427</v>
@@ -29478,7 +29478,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1485.76486452103</v>
+        <v>1446.5177292711</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -29489,7 +29489,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3382.18231903412</v>
+        <v>3340.87677674951</v>
       </c>
       <c r="C25" t="n">
         <v>696.057765222493</v>
@@ -29506,7 +29506,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>869.182319034122</v>
+        <v>827.876776749509</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -29517,7 +29517,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2591.93930963974</v>
+        <v>2605.16361362248</v>
       </c>
       <c r="C26" t="n">
         <v>539.890034502062</v>
@@ -29536,7 +29536,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>780.939309639738</v>
+        <v>794.16361362248</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -29547,7 +29547,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2039.77519044255</v>
+        <v>2081.21138690808</v>
       </c>
       <c r="C27" t="n">
         <v>480.367275153743</v>
@@ -29566,7 +29566,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>478.775190442546</v>
+        <v>520.211386908079</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -29577,7 +29577,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3201.17794531041</v>
+        <v>3047.83083328836</v>
       </c>
       <c r="C28" t="n">
         <v>649.772094417423</v>
@@ -29594,7 +29594,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>642.177945310406</v>
+        <v>488.83083328836</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -29605,7 +29605,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3923.53189426058</v>
+        <v>3766.36135895413</v>
       </c>
       <c r="C29" t="n">
         <v>717.54019831555</v>
@@ -29622,7 +29622,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>1468.53189426058</v>
+        <v>1311.36135895413</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -29633,7 +29633,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4645.08510566383</v>
+        <v>4532.35080094879</v>
       </c>
       <c r="C30" t="n">
         <v>760.183152837621</v>
@@ -29650,7 +29650,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>2136.08510566383</v>
+        <v>2023.35080094879</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -29661,7 +29661,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5556.16554158714</v>
+        <v>5391.28562405106</v>
       </c>
       <c r="C31" t="n">
         <v>806.820252497415</v>
@@ -29678,7 +29678,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>2651.16554158714</v>
+        <v>2486.28562405106</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -29689,7 +29689,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6354.781755022</v>
+        <v>6255.33344242919</v>
       </c>
       <c r="C32" t="n">
         <v>865.440714215065</v>
@@ -29706,7 +29706,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>3725.781755022</v>
+        <v>3626.33344242919</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -29717,7 +29717,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5982.39217070932</v>
+        <v>6068.3635003449</v>
       </c>
       <c r="C33" t="n">
         <v>897.91442000032</v>
@@ -29734,7 +29734,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>3715.39217070932</v>
+        <v>3801.3635003449</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -29745,7 +29745,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6352.28596084523</v>
+        <v>6450.81849625868</v>
       </c>
       <c r="C34" t="n">
         <v>916.041275246779</v>
@@ -29762,7 +29762,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4079.28596084523</v>
+        <v>4177.81849625868</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -29773,7 +29773,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4501.6460933452</v>
+        <v>4611.77206069134</v>
       </c>
       <c r="C35" t="n">
         <v>758.65507359426</v>
@@ -29790,7 +29790,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2492.6460933452</v>
+        <v>2602.77206069134</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -29801,7 +29801,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3814.60114129959</v>
+        <v>3807.10159874035</v>
       </c>
       <c r="C36" t="n">
         <v>618.934138868747</v>
@@ -29818,7 +29818,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2076.60114129959</v>
+        <v>2069.10159874035</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -29829,7 +29829,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3515.56521881807</v>
+        <v>3478.87066252573</v>
       </c>
       <c r="C37" t="n">
         <v>555.118159278263</v>
@@ -29846,7 +29846,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>1946.56521881807</v>
+        <v>1909.87066252573</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -29857,7 +29857,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2697.7968216493</v>
+        <v>2721.50292136982</v>
       </c>
       <c r="C38" t="n">
         <v>442.653526695428</v>
@@ -29874,7 +29874,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>1541.7968216493</v>
+        <v>1565.50292136982</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -29885,7 +29885,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2155.93047557963</v>
+        <v>2220.28361699491</v>
       </c>
       <c r="C39" t="n">
         <v>399.049257875761</v>
@@ -29904,7 +29904,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>197.930475579629</v>
+        <v>262.283616994911</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -29915,7 +29915,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3326.57871483008</v>
+        <v>3263.98460349818</v>
       </c>
       <c r="C40" t="n">
         <v>526.943448500921</v>
@@ -29932,7 +29932,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>1118.57871483008</v>
+        <v>1055.98460349818</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -29943,7 +29943,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>4075.41201442959</v>
+        <v>3924.78527962295</v>
       </c>
       <c r="C41" t="n">
         <v>578.143021176782</v>
@@ -29960,7 +29960,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>1865.41201442959</v>
+        <v>1714.78527962295</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -29971,7 +29971,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>4894.875187802</v>
+        <v>4823.8964736406</v>
       </c>
       <c r="C42" t="n">
         <v>610.886114991337</v>
@@ -29988,7 +29988,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>2583.875187802</v>
+        <v>2512.8964736406</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -29999,7 +29999,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>5907.27184807725</v>
+        <v>5730.83678387194</v>
       </c>
       <c r="C43" t="n">
         <v>646.459382909779</v>
@@ -30016,7 +30016,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>922.271848077252</v>
+        <v>745.836783871942</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -30027,7 +30027,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6765.59118980005</v>
+        <v>6641.23134551702</v>
       </c>
       <c r="C44" t="n">
         <v>690.564998954682</v>
@@ -30044,7 +30044,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-6659.40881019995</v>
+        <v>-6783.76865448298</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -30055,7 +30055,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6453.99508037672</v>
+        <v>6441.11039462377</v>
       </c>
       <c r="C45" t="n">
         <v>715.850315401207</v>
@@ -30072,7 +30072,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-6288.00491962328</v>
+        <v>-6300.88960537623</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -30083,7 +30083,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>6659.45931634619</v>
+        <v>6768.40239639744</v>
       </c>
       <c r="C46" t="n">
         <v>768.051438790466</v>
@@ -30100,7 +30100,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-118604.540683654</v>
+        <v>-118495.597603603</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -30111,7 +30111,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4801.42558959246</v>
+        <v>4839.4381343276</v>
       </c>
       <c r="C47" t="n">
         <v>618.071788619858</v>
@@ -30128,7 +30128,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-18309.5744104075</v>
+        <v>-18271.5618656724</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -30139,7 +30139,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>4071.67581654762</v>
+        <v>4087.66719058101</v>
       </c>
       <c r="C48" t="n">
         <v>514.5604806704</v>
@@ -30156,7 +30156,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-868.324183452378</v>
+        <v>-852.332809418995</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -30167,7 +30167,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3756.49938930968</v>
+        <v>3714.50769315771</v>
       </c>
       <c r="C49" t="n">
         <v>466.583399557315</v>
@@ -30184,7 +30184,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>-116.500610690318</v>
+        <v>-158.492306842294</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -30241,7 +30241,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2378.06569508192</v>
+        <v>2344.15042245488</v>
       </c>
       <c r="C2" t="n">
         <v>2069.81608400988</v>
@@ -30262,7 +30262,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>752.065695081923</v>
+        <v>718.150422454882</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -30273,7 +30273,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2343.66497734949</v>
+        <v>2348.80824144073</v>
       </c>
       <c r="C3" t="n">
         <v>1898.80573504816</v>
@@ -30294,7 +30294,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1298.66497734949</v>
+        <v>1303.80824144073</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -30305,13 +30305,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3103.1995245717</v>
+        <v>3175.40579609195</v>
       </c>
       <c r="C4" t="n">
-        <v>2579.09699842962</v>
+        <v>2810.07144879092</v>
       </c>
       <c r="D4" t="n">
-        <v>2518.22373248302</v>
+        <v>2683.70772955674</v>
       </c>
       <c r="E4" t="n">
         <v>3609.54540196867</v>
@@ -30326,7 +30326,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1462.1995245717</v>
+        <v>1534.40579609195</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -30337,7 +30337,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2907.35067905523</v>
+        <v>2900.21767204264</v>
       </c>
       <c r="C5" t="n">
         <v>2469.15893727208</v>
@@ -30346,7 +30346,7 @@
         <v>2283.29332943847</v>
       </c>
       <c r="E5" t="n">
-        <v>3294.83628293049</v>
+        <v>3255.79218136504</v>
       </c>
       <c r="F5" t="n">
         <v>3449.57043252574</v>
@@ -30358,7 +30358,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1175.35067905523</v>
+        <v>1168.21767204264</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -30369,7 +30369,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2630.29632699167</v>
+        <v>2636.4844944893</v>
       </c>
       <c r="C6" t="n">
         <v>2091.20256643864</v>
@@ -30378,10 +30378,10 @@
         <v>1933.77533026582</v>
       </c>
       <c r="E6" t="n">
-        <v>3168.26125267739</v>
+        <v>3204.62507106042</v>
       </c>
       <c r="F6" t="n">
-        <v>3238.77355413596</v>
+        <v>3271.57008177342</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -30390,7 +30390,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1045.29632699167</v>
+        <v>1051.4844944893</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -30401,7 +30401,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2269.50489783241</v>
+        <v>2287.51867919566</v>
       </c>
       <c r="C7" t="n">
         <v>1774.62555930224</v>
@@ -30410,10 +30410,10 @@
         <v>1615.47479646563</v>
       </c>
       <c r="E7" t="n">
-        <v>2664.1207550185</v>
+        <v>2830.21100965837</v>
       </c>
       <c r="F7" t="n">
-        <v>2847.89966836922</v>
+        <v>2911.94874138571</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -30422,7 +30422,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>561.504897832414</v>
+        <v>579.518679195656</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -30433,7 +30433,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2300.54913248253</v>
+        <v>2274.69148866721</v>
       </c>
       <c r="C8" t="n">
         <v>1797.57559027587</v>
@@ -30442,7 +30442,7 @@
         <v>1631.4387665512</v>
       </c>
       <c r="E8" t="n">
-        <v>2740.24638034679</v>
+        <v>2670.66663029362</v>
       </c>
       <c r="F8" t="n">
         <v>2877.57964442996</v>
@@ -30454,7 +30454,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>541.549132482534</v>
+        <v>515.691488667212</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -30465,7 +30465,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2271.11056592564</v>
+        <v>2226.92663071821</v>
       </c>
       <c r="C9" t="n">
         <v>1784.07136300567</v>
@@ -30486,7 +30486,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>512.110565925638</v>
+        <v>467.926630718206</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -30497,7 +30497,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2022.94335389799</v>
+        <v>2021.78745861173</v>
       </c>
       <c r="C10" t="n">
         <v>1485.01333771013</v>
@@ -30506,7 +30506,7 @@
         <v>1273.79837332286</v>
       </c>
       <c r="E10" t="n">
-        <v>2399.62059869856</v>
+        <v>2422.84929210715</v>
       </c>
       <c r="F10" t="n">
         <v>2599.81374849421</v>
@@ -30518,7 +30518,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>211.943353897987</v>
+        <v>210.787458611729</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -30529,7 +30529,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1867.69979525656</v>
+        <v>1851.70008956733</v>
       </c>
       <c r="C11" t="n">
         <v>1309.87954245619</v>
@@ -30538,7 +30538,7 @@
         <v>1097.39945707988</v>
       </c>
       <c r="E11" t="n">
-        <v>2304.32527005159</v>
+        <v>2264.13815101206</v>
       </c>
       <c r="F11" t="n">
         <v>2429.22461669365</v>
@@ -30550,7 +30550,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>361.699795256563</v>
+        <v>345.700089567333</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -30561,7 +30561,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1999.15755542445</v>
+        <v>1988.60940389406</v>
       </c>
       <c r="C12" t="n">
         <v>1520.53678202122</v>
@@ -30582,7 +30582,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>360.157555424453</v>
+        <v>349.609403894064</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -30593,7 +30593,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2046.9955825325</v>
+        <v>2033.740912065</v>
       </c>
       <c r="C13" t="n">
         <v>1520.75854291321</v>
@@ -30614,7 +30614,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>228.9955825325</v>
+        <v>215.740912065004</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -30625,7 +30625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2341.43493210799</v>
+        <v>2348.16429504077</v>
       </c>
       <c r="C14" t="n">
         <v>1850.19905729362</v>
@@ -30646,7 +30646,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>503.434932107989</v>
+        <v>510.16429504077</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -30657,7 +30657,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2336.87402497217</v>
+        <v>2384.92046581058</v>
       </c>
       <c r="C15" t="n">
         <v>1691.32586313986</v>
@@ -30666,7 +30666,7 @@
         <v>1427.24967986289</v>
       </c>
       <c r="E15" t="n">
-        <v>2785.02425391867</v>
+        <v>2819.96447106481</v>
       </c>
       <c r="F15" t="n">
         <v>3056.65482997381</v>
@@ -30678,7 +30678,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>487.874024972174</v>
+        <v>535.920465810576</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -30689,13 +30689,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3062.72866790939</v>
+        <v>3133.56554617138</v>
       </c>
       <c r="C16" t="n">
-        <v>2434.583887596</v>
+        <v>2652.98639909881</v>
       </c>
       <c r="D16" t="n">
-        <v>2316.1680831505</v>
+        <v>2356.84411180562</v>
       </c>
       <c r="E16" t="n">
         <v>3828.03840281131</v>
@@ -30710,7 +30710,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>71.7286679093918</v>
+        <v>142.56554617138</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -30721,7 +30721,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2904.28289574168</v>
+        <v>2896.675030112</v>
       </c>
       <c r="C17" t="n">
         <v>2291.29284255078</v>
@@ -30730,7 +30730,7 @@
         <v>1997.8433759324</v>
       </c>
       <c r="E17" t="n">
-        <v>3484.54786297648</v>
+        <v>3463.61951289034</v>
       </c>
       <c r="F17" t="n">
         <v>3788.72147515193</v>
@@ -30742,7 +30742,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>107.282895741678</v>
+        <v>99.6750301120019</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -30753,7 +30753,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2693.09625824875</v>
+        <v>2678.07014788296</v>
       </c>
       <c r="C18" t="n">
         <v>1956.12924199764</v>
@@ -30762,10 +30762,10 @@
         <v>1697.79979774635</v>
       </c>
       <c r="E18" t="n">
-        <v>3469.11058030745</v>
+        <v>3519.89421079827</v>
       </c>
       <c r="F18" t="n">
-        <v>3567.55666215005</v>
+        <v>3640.78010235157</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -30774,7 +30774,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>184.09625824875</v>
+        <v>169.070147882962</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -30785,7 +30785,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2305.04720534821</v>
+        <v>2342.90585903729</v>
       </c>
       <c r="C19" t="n">
         <v>1647.86883845053</v>
@@ -30794,10 +30794,10 @@
         <v>1382.46520906064</v>
       </c>
       <c r="E19" t="n">
-        <v>3017.94659653821</v>
+        <v>3067.74678763933</v>
       </c>
       <c r="F19" t="n">
-        <v>3162.40986262943</v>
+        <v>3185.69699218325</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -30806,7 +30806,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>39.0472053482094</v>
+        <v>76.9058590372938</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -30817,7 +30817,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2295.17546947856</v>
+        <v>2269.62664883032</v>
       </c>
       <c r="C20" t="n">
         <v>1661.07634421893</v>
@@ -30838,7 +30838,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>155.17546947856</v>
+        <v>129.626648830322</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -30849,7 +30849,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2258.72918208457</v>
+        <v>2221.9093314889</v>
       </c>
       <c r="C21" t="n">
         <v>1613.37549812159</v>
@@ -30870,7 +30870,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>149.729182084568</v>
+        <v>112.909331488897</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -30881,7 +30881,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2036.64981118202</v>
+        <v>2038.30228074735</v>
       </c>
       <c r="C22" t="n">
         <v>1324.53596280045</v>
@@ -30890,7 +30890,7 @@
         <v>1037.59271199634</v>
       </c>
       <c r="E22" t="n">
-        <v>2544.32579195792</v>
+        <v>2517.79344491355</v>
       </c>
       <c r="F22" t="n">
         <v>2848.95891007872</v>
@@ -30902,7 +30902,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>3.64981118201649</v>
+        <v>5.30228074735214</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -30913,7 +30913,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1884.75774798013</v>
+        <v>1880.5216941088</v>
       </c>
       <c r="C23" t="n">
         <v>1157.04841858191</v>
@@ -30922,7 +30922,7 @@
         <v>873.740058233357</v>
       </c>
       <c r="E23" t="n">
-        <v>2389.13528390233</v>
+        <v>2390.88097062713</v>
       </c>
       <c r="F23" t="n">
         <v>2680.71182265508</v>
@@ -30934,7 +30934,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>38.7577479801294</v>
+        <v>34.5216941087972</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -30945,7 +30945,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2002.25948934241</v>
+        <v>1985.15063154715</v>
       </c>
       <c r="C24" t="n">
         <v>1366.42955163461</v>
@@ -30966,7 +30966,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-52.7405106575854</v>
+        <v>-69.8493684528512</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -30977,7 +30977,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2020.77160986269</v>
+        <v>2034.62447243079</v>
       </c>
       <c r="C25" t="n">
         <v>1376.4984500667</v>
@@ -30998,7 +30998,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-348.22839013731</v>
+        <v>-334.375527569214</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -31009,7 +31009,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2291.62856058815</v>
+        <v>2338.93096930352</v>
       </c>
       <c r="C26" t="n">
         <v>1702.85663697936</v>
@@ -31030,7 +31030,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-238.37143941185</v>
+        <v>-191.069030696483</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -31041,7 +31041,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2252.12702590127</v>
+        <v>2359.91035425295</v>
       </c>
       <c r="C27" t="n">
         <v>1549.17869206392</v>
@@ -31062,7 +31062,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-190.872974098728</v>
+        <v>-83.0896457470471</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -31073,7 +31073,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3135.94356684826</v>
+        <v>3111.54360096493</v>
       </c>
       <c r="C28" t="n">
         <v>2500.05854268895</v>
@@ -31094,10 +31094,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>4.94356684825516</v>
+        <v>-19.4563990350721</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -31105,7 +31105,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2785.89074918777</v>
+        <v>2854.37614140524</v>
       </c>
       <c r="C29" t="n">
         <v>2124.1897906021</v>
@@ -31126,7 +31126,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>260.890749187771</v>
+        <v>329.376141405236</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -31137,7 +31137,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2723.3634492245</v>
+        <v>2690.36191611943</v>
       </c>
       <c r="C30" t="n">
         <v>1826.45994328058</v>
@@ -31146,10 +31146,10 @@
         <v>1491.70014190969</v>
       </c>
       <c r="E30" t="n">
-        <v>3614.5359941938</v>
+        <v>3581.79281198108</v>
       </c>
       <c r="F30" t="n">
-        <v>3743.02424519787</v>
+        <v>3743.40702674165</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -31158,7 +31158,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>220.363449224496</v>
+        <v>187.361916119434</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -31169,7 +31169,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2408.58889218561</v>
+        <v>2347.13377038444</v>
       </c>
       <c r="C31" t="n">
         <v>1535.38285428305</v>
@@ -31178,10 +31178,10 @@
         <v>1187.92953718914</v>
       </c>
       <c r="E31" t="n">
-        <v>3354.52292458073</v>
+        <v>3196.27200269032</v>
       </c>
       <c r="F31" t="n">
-        <v>3513.55606574768</v>
+        <v>3389.08110561058</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -31190,7 +31190,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.41110781439056</v>
+        <v>-63.8662296155617</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -31201,7 +31201,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2353.78871191628</v>
+        <v>2262.52796510318</v>
       </c>
       <c r="C32" t="n">
         <v>1530.37338296238</v>
@@ -31222,7 +31222,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>128.788711916285</v>
+        <v>37.5279651031833</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -31233,7 +31233,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2231.76644336784</v>
+        <v>2217.93969366209</v>
       </c>
       <c r="C33" t="n">
         <v>1485.31779691174</v>
@@ -31254,7 +31254,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-23.2335566321572</v>
+        <v>-37.0603063379108</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -31265,7 +31265,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2052.10171754545</v>
+        <v>2035.85957196909</v>
       </c>
       <c r="C34" t="n">
         <v>1203.20639154835</v>
@@ -31286,7 +31286,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>106.101717545454</v>
+        <v>89.8595719690913</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -31297,7 +31297,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1881.32265579249</v>
+        <v>1883.55818589219</v>
       </c>
       <c r="C35" t="n">
         <v>1040.61009755375</v>
@@ -31318,7 +31318,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>198.322655792489</v>
+        <v>200.558185892185</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -31329,7 +31329,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2022.801690009</v>
+        <v>1997.54606718142</v>
       </c>
       <c r="C36" t="n">
         <v>1247.59800613051</v>
@@ -31350,7 +31350,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>290.801690009004</v>
+        <v>265.546067181423</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -31361,7 +31361,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2011.72801601862</v>
+        <v>2028.00574123567</v>
       </c>
       <c r="C37" t="n">
         <v>1262.31968404026</v>
@@ -31382,7 +31382,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>824.728016018621</v>
+        <v>841.00574123567</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -31393,7 +31393,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2290.83141823981</v>
+        <v>2303.7974785629</v>
       </c>
       <c r="C38" t="n">
         <v>1585.10616716504</v>
@@ -31414,7 +31414,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1146.83141823981</v>
+        <v>1159.7974785629</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -31425,7 +31425,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2261.25303197829</v>
+        <v>2308.23469197555</v>
       </c>
       <c r="C39" t="n">
         <v>1434.9855194456</v>
@@ -31446,7 +31446,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>54.2530319782854</v>
+        <v>101.234691975552</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -31457,7 +31457,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3081.48039804365</v>
+        <v>3112.89519574638</v>
       </c>
       <c r="C40" t="n">
         <v>2322.50423205131</v>
@@ -31478,7 +31478,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-35.5196019563487</v>
+        <v>-4.10480425361993</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -31489,7 +31489,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2755.12858811495</v>
+        <v>2729.71292544244</v>
       </c>
       <c r="C41" t="n">
         <v>1922.94091515846</v>
@@ -31510,7 +31510,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-250.871411885052</v>
+        <v>-276.287074557561</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -31521,7 +31521,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2732.88082350603</v>
+        <v>2683.24350305839</v>
       </c>
       <c r="C42" t="n">
         <v>1629.54594366023</v>
@@ -31530,7 +31530,7 @@
         <v>1224.52201229203</v>
       </c>
       <c r="E42" t="n">
-        <v>3702.32744057989</v>
+        <v>3590.0950725375</v>
       </c>
       <c r="F42" t="n">
         <v>3929.37594884486</v>
@@ -31542,7 +31542,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-89.1191764939731</v>
+        <v>-138.756496941607</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -31553,7 +31553,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2465.55531490631</v>
+        <v>2380.80375662875</v>
       </c>
       <c r="C43" t="n">
         <v>1345.97286550332</v>
@@ -31562,10 +31562,10 @@
         <v>951.371490483535</v>
       </c>
       <c r="E43" t="n">
-        <v>3551.72043461691</v>
+        <v>3278.73215010997</v>
       </c>
       <c r="F43" t="n">
-        <v>3663.30260049759</v>
+        <v>3586.17671211366</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -31574,7 +31574,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-63.4446850936879</v>
+        <v>-148.196243371245</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -31585,7 +31585,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2365.27328394649</v>
+        <v>2314.90664545768</v>
       </c>
       <c r="C44" t="n">
         <v>1375.71465839011</v>
@@ -31594,7 +31594,7 @@
         <v>972.998786058635</v>
       </c>
       <c r="E44" t="n">
-        <v>3145.86398992096</v>
+        <v>3116.29658531482</v>
       </c>
       <c r="F44" t="n">
         <v>3602.87483107324</v>
@@ -31606,7 +31606,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-254.726716053514</v>
+        <v>-305.093354542317</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -31617,7 +31617,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2263.27208721206</v>
+        <v>2234.43499678099</v>
       </c>
       <c r="C45" t="n">
         <v>1373.08374987367</v>
@@ -31638,7 +31638,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-354.727912787941</v>
+        <v>-383.565003219011</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -31649,7 +31649,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2051.0612074951</v>
+        <v>2034.3678621721</v>
       </c>
       <c r="C46" t="n">
         <v>1102.50130970243</v>
@@ -31670,7 +31670,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-498.9387925049</v>
+        <v>-515.632137827901</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -31681,7 +31681,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1903.63196583301</v>
+        <v>1893.5748747454</v>
       </c>
       <c r="C47" t="n">
         <v>943.771617343281</v>
@@ -31702,7 +31702,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-639.368034166995</v>
+        <v>-649.425125254597</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -31713,7 +31713,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2036.33958993833</v>
+        <v>2029.61191138835</v>
       </c>
       <c r="C48" t="n">
         <v>1147.9824543246</v>
@@ -31734,7 +31734,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-714.660410061669</v>
+        <v>-721.388088611649</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -31745,7 +31745,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2020.95736926911</v>
+        <v>1999.82605039338</v>
       </c>
       <c r="C49" t="n">
         <v>1149.49359229052</v>
@@ -31766,7 +31766,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-647.042630730891</v>
+        <v>-668.173949606621</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -36185,7 +36185,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>46587.3723067849</v>
+        <v>46649.1624204744</v>
       </c>
       <c r="C2" t="n">
         <v>41818.6623182063</v>
@@ -36194,10 +36194,10 @@
         <v>40194.5247681668</v>
       </c>
       <c r="E2" t="n">
-        <v>51196.1892930378</v>
+        <v>51445.2250966457</v>
       </c>
       <c r="F2" t="n">
-        <v>53708.3527843201</v>
+        <v>53958.1517477369</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -36206,7 +36206,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>6916.3723067849</v>
+        <v>6978.16242047436</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -36217,13 +36217,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>40880.0398238708</v>
+        <v>41024.1673566663</v>
       </c>
       <c r="C3" t="n">
-        <v>35398.2597798799</v>
+        <v>35850.5148174316</v>
       </c>
       <c r="D3" t="n">
-        <v>33753.3437526218</v>
+        <v>34190.9419471408</v>
       </c>
       <c r="E3" t="n">
         <v>45461.8541393762</v>
@@ -36238,7 +36238,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>19432.0398238708</v>
+        <v>19576.1673566663</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -36249,13 +36249,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54961.0256676177</v>
+        <v>54988.4709930327</v>
       </c>
       <c r="C4" t="n">
-        <v>48019.6394282117</v>
+        <v>47950.3404474335</v>
       </c>
       <c r="D4" t="n">
-        <v>46041.6316924572</v>
+        <v>46142.8420779734</v>
       </c>
       <c r="E4" t="n">
         <v>60193.6133037065</v>
@@ -36270,7 +36270,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13807.0256676177</v>
+        <v>13834.4709930327</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -36281,13 +36281,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53208.8556693793</v>
+        <v>53263.123141972</v>
       </c>
       <c r="C5" t="n">
-        <v>47627.8956849143</v>
+        <v>47566.6549984256</v>
       </c>
       <c r="D5" t="n">
-        <v>45702.5029661378</v>
+        <v>45530.8522285033</v>
       </c>
       <c r="E5" t="n">
         <v>57955.9300789496</v>
@@ -36302,7 +36302,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6480.85566937931</v>
+        <v>6535.12314197204</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -36313,13 +36313,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55380.1398370414</v>
+        <v>55431.350149374</v>
       </c>
       <c r="C6" t="n">
-        <v>49221.533962318</v>
+        <v>48949.5038819658</v>
       </c>
       <c r="D6" t="n">
-        <v>46762.9630901841</v>
+        <v>46603.3655912602</v>
       </c>
       <c r="E6" t="n">
         <v>60802.5866876494</v>
@@ -36334,7 +36334,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8627.13983704143</v>
+        <v>8678.35014937395</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -36345,13 +36345,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>54132.1549147528</v>
+        <v>54153.2448277687</v>
       </c>
       <c r="C7" t="n">
-        <v>47326.3808502299</v>
+        <v>47426.394781037</v>
       </c>
       <c r="D7" t="n">
-        <v>45042.5042915925</v>
+        <v>45175.4338193836</v>
       </c>
       <c r="E7" t="n">
         <v>60074.3960198284</v>
@@ -36366,7 +36366,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7594.15491475281</v>
+        <v>7615.24482776872</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -36377,13 +36377,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>57788.9304815289</v>
+        <v>57784.1672495928</v>
       </c>
       <c r="C8" t="n">
-        <v>51550.2617191523</v>
+        <v>51717.9770923236</v>
       </c>
       <c r="D8" t="n">
-        <v>49648.3170404454</v>
+        <v>49807.1668908026</v>
       </c>
       <c r="E8" t="n">
         <v>63179.2359659769</v>
@@ -36398,7 +36398,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>10950.9304815289</v>
+        <v>10946.1672495928</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -36409,13 +36409,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57336.3867463526</v>
+        <v>57516.4052016237</v>
       </c>
       <c r="C9" t="n">
-        <v>51043.3584047773</v>
+        <v>51628.3300863825</v>
       </c>
       <c r="D9" t="n">
-        <v>48617.7999808013</v>
+        <v>49093.1446565781</v>
       </c>
       <c r="E9" t="n">
         <v>62975.8556605989</v>
@@ -36430,7 +36430,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10498.3867463526</v>
+        <v>10678.4052016237</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -36441,13 +36441,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55811.7721773807</v>
+        <v>55916.3280829103</v>
       </c>
       <c r="C10" t="n">
-        <v>50993.9086660262</v>
+        <v>50898.239109095</v>
       </c>
       <c r="D10" t="n">
-        <v>48528.0208235751</v>
+        <v>48691.4725085667</v>
       </c>
       <c r="E10" t="n">
         <v>61174.5869480688</v>
@@ -36462,7 +36462,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6846.77217738073</v>
+        <v>6951.32808291035</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -36473,7 +36473,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53490.5662733249</v>
+        <v>53563.8407685408</v>
       </c>
       <c r="C11" t="n">
         <v>48429.5189713469</v>
@@ -36482,10 +36482,10 @@
         <v>46082.1223157025</v>
       </c>
       <c r="E11" t="n">
-        <v>59806.6295152657</v>
+        <v>60093.2702271684</v>
       </c>
       <c r="F11" t="n">
-        <v>62607.8348206132</v>
+        <v>62656.3480668785</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -36494,7 +36494,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>9052.56627332485</v>
+        <v>9125.84076854081</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -36505,7 +36505,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>53831.9317275381</v>
+        <v>53908.1742367864</v>
       </c>
       <c r="C12" t="n">
         <v>48824.2608354331</v>
@@ -36526,7 +36526,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8526.93172753807</v>
+        <v>8603.17423678641</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -36537,7 +36537,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53116.2908240343</v>
+        <v>53156.6407484443</v>
       </c>
       <c r="C13" t="n">
         <v>48229.4492736501</v>
@@ -36558,7 +36558,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8420.29082403432</v>
+        <v>8460.64074844428</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -36569,7 +36569,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>50375.1737232324</v>
+        <v>50465.8000428524</v>
       </c>
       <c r="C14" t="n">
         <v>44552.7520433622</v>
@@ -36578,10 +36578,10 @@
         <v>42299.4651063399</v>
       </c>
       <c r="E14" t="n">
-        <v>57033.6725959699</v>
+        <v>57223.1510253981</v>
       </c>
       <c r="F14" t="n">
-        <v>60406.8508024676</v>
+        <v>60323.4246857017</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -36590,7 +36590,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>10296.1737232324</v>
+        <v>10386.8000428524</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -36601,19 +36601,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>44877.0415480318</v>
+        <v>45109.2965104059</v>
       </c>
       <c r="C15" t="n">
-        <v>39493.7625990074</v>
+        <v>40086.4830886189</v>
       </c>
       <c r="D15" t="n">
-        <v>36620.7555123896</v>
+        <v>37493.7934811689</v>
       </c>
       <c r="E15" t="n">
-        <v>50538.1119257871</v>
+        <v>50874.637404929</v>
       </c>
       <c r="F15" t="n">
-        <v>53076.3055806049</v>
+        <v>53387.7708924639</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -36622,7 +36622,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>11262.0415480318</v>
+        <v>11494.2965104059</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -36633,13 +36633,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>58919.2553935056</v>
+        <v>58860.0160737982</v>
       </c>
       <c r="C16" t="n">
-        <v>49638.4110313454</v>
+        <v>49887.7791649911</v>
       </c>
       <c r="D16" t="n">
-        <v>46608.2517880631</v>
+        <v>46784.7819113103</v>
       </c>
       <c r="E16" t="n">
         <v>66532.1843046805</v>
@@ -36654,7 +36654,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8237.25539350563</v>
+        <v>8178.01607379819</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -36665,13 +36665,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>56864.8590570676</v>
+        <v>57033.3039588021</v>
       </c>
       <c r="C17" t="n">
-        <v>48512.9752276283</v>
+        <v>48759.157742888</v>
       </c>
       <c r="D17" t="n">
-        <v>45926.8012163</v>
+        <v>46138.5727773376</v>
       </c>
       <c r="E17" t="n">
         <v>64384.2199971817</v>
@@ -36686,7 +36686,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>7751.85905706759</v>
+        <v>7920.30395880213</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -36697,13 +36697,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59123.4642480049</v>
+        <v>59284.9270899967</v>
       </c>
       <c r="C18" t="n">
-        <v>50097.5266750737</v>
+        <v>50182.6198700056</v>
       </c>
       <c r="D18" t="n">
-        <v>48019.1181431368</v>
+        <v>47720.544980106</v>
       </c>
       <c r="E18" t="n">
         <v>67617.9095646332</v>
@@ -36718,7 +36718,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11124.4642480049</v>
+        <v>11285.9270899967</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -36729,13 +36729,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>57865.9146749818</v>
+        <v>57971.5643787989</v>
       </c>
       <c r="C19" t="n">
-        <v>49130.6985454978</v>
+        <v>49470.219544965</v>
       </c>
       <c r="D19" t="n">
-        <v>46975.9889889691</v>
+        <v>47269.0524939381</v>
       </c>
       <c r="E19" t="n">
         <v>66198.4710972764</v>
@@ -36750,7 +36750,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10442.9146749818</v>
+        <v>10548.5643787989</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -36761,13 +36761,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>61241.0936174398</v>
+        <v>61312.7233508724</v>
       </c>
       <c r="C20" t="n">
-        <v>52184.0019221491</v>
+        <v>52180.6505389934</v>
       </c>
       <c r="D20" t="n">
-        <v>49391.0500648189</v>
+        <v>49675.9275699048</v>
       </c>
       <c r="E20" t="n">
         <v>70733.0145551571</v>
@@ -36782,7 +36782,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>9710.09361743976</v>
+        <v>9781.72335087244</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -36793,13 +36793,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>60759.6737059826</v>
+        <v>61023.4626535763</v>
       </c>
       <c r="C21" t="n">
-        <v>51787.4509278864</v>
+        <v>52535.2394231769</v>
       </c>
       <c r="D21" t="n">
-        <v>49464.8868088423</v>
+        <v>49974.7143224059</v>
       </c>
       <c r="E21" t="n">
         <v>70924.6690226764</v>
@@ -36814,7 +36814,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>14668.6737059826</v>
+        <v>14932.4626535763</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -36825,13 +36825,13 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59334.1815641534</v>
+        <v>59513.5138841581</v>
       </c>
       <c r="C22" t="n">
-        <v>51770.1963604418</v>
+        <v>51957.696180435</v>
       </c>
       <c r="D22" t="n">
-        <v>49524.175585873</v>
+        <v>49678.9100225075</v>
       </c>
       <c r="E22" t="n">
         <v>69199.4319986054</v>
@@ -36846,7 +36846,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13542.1815641534</v>
+        <v>13721.5138841581</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -36857,7 +36857,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56981.3524785629</v>
+        <v>57157.4005655262</v>
       </c>
       <c r="C23" t="n">
         <v>49699.7484244802</v>
@@ -36878,7 +36878,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16081.3524785629</v>
+        <v>16257.4005655262</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -36889,7 +36889,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>57393.7477228114</v>
+        <v>57548.0697364212</v>
       </c>
       <c r="C24" t="n">
         <v>49950.2989302681</v>
@@ -36910,7 +36910,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>15219.7477228114</v>
+        <v>15374.0697364212</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -36921,7 +36921,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>56727.6052436585</v>
+        <v>56847.3139091566</v>
       </c>
       <c r="C25" t="n">
         <v>49637.2578398367</v>
@@ -36942,7 +36942,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>14406.6052436585</v>
+        <v>14526.3139091566</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -36953,7 +36953,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>54078.3799783448</v>
+        <v>54211.8743772871</v>
       </c>
       <c r="C26" t="n">
         <v>45361.0920067404</v>
@@ -36974,7 +36974,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>14492.3799783448</v>
+        <v>14625.8743772871</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -36985,7 +36985,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>49036.3748764608</v>
+        <v>49269.517726622</v>
       </c>
       <c r="C27" t="n">
         <v>41553.0617260608</v>
@@ -37006,7 +37006,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>14353.3748764608</v>
+        <v>14586.517726622</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -37017,13 +37017,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>62578.6187859992</v>
+        <v>62483.4057875622</v>
       </c>
       <c r="C28" t="n">
-        <v>51629.3006580522</v>
+        <v>51996.089213864</v>
       </c>
       <c r="D28" t="n">
-        <v>47959.7473417696</v>
+        <v>48053.9115355766</v>
       </c>
       <c r="E28" t="n">
         <v>76192.8652084955</v>
@@ -37038,7 +37038,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>15600.6187859992</v>
+        <v>15505.4057875622</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -37049,13 +37049,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>60342.3392906831</v>
+        <v>60571.2109620281</v>
       </c>
       <c r="C29" t="n">
-        <v>49693.4992795452</v>
+        <v>50169.9119788652</v>
       </c>
       <c r="D29" t="n">
-        <v>46890.4675071195</v>
+        <v>47473.7012500342</v>
       </c>
       <c r="E29" t="n">
         <v>73995.010460374</v>
@@ -37070,7 +37070,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>20829.3392906831</v>
+        <v>21058.2109620281</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -37081,13 +37081,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>62677.9537925539</v>
+        <v>62880.9157796444</v>
       </c>
       <c r="C30" t="n">
-        <v>51865.9066446398</v>
+        <v>52055.0751142071</v>
       </c>
       <c r="D30" t="n">
-        <v>48928.8678881641</v>
+        <v>49206.3335521717</v>
       </c>
       <c r="E30" t="n">
         <v>77586.8841735568</v>
@@ -37102,7 +37102,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>18926.9537925539</v>
+        <v>19129.9157796444</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -37113,13 +37113,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>61381.4170032993</v>
+        <v>61587.7460867421</v>
       </c>
       <c r="C31" t="n">
-        <v>50966.4554825506</v>
+        <v>51622.9064852889</v>
       </c>
       <c r="D31" t="n">
-        <v>48302.1117238534</v>
+        <v>48603.7991409992</v>
       </c>
       <c r="E31" t="n">
         <v>76164.944312686</v>
@@ -37134,7 +37134,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>12874.4170032993</v>
+        <v>13080.7460867421</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -37145,13 +37145,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>64593.458062834</v>
+        <v>64732.2886840289</v>
       </c>
       <c r="C32" t="n">
-        <v>52900.4000173944</v>
+        <v>53261.4220517634</v>
       </c>
       <c r="D32" t="n">
-        <v>50222.9814298912</v>
+        <v>50463.8347102922</v>
       </c>
       <c r="E32" t="n">
         <v>81153.0563826827</v>
@@ -37166,7 +37166,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>13202.458062834</v>
+        <v>13341.2886840289</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -37177,13 +37177,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>64075.3928887673</v>
+        <v>64393.0203422955</v>
       </c>
       <c r="C33" t="n">
-        <v>52482.2806734703</v>
+        <v>53404.6292136298</v>
       </c>
       <c r="D33" t="n">
-        <v>49734.6384747389</v>
+        <v>50117.1070681487</v>
       </c>
       <c r="E33" t="n">
         <v>81461.9155220833</v>
@@ -37198,7 +37198,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>13593.3928887673</v>
+        <v>13911.0203422955</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -37209,10 +37209,10 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>62648.126492201</v>
+        <v>62873.9521806226</v>
       </c>
       <c r="C34" t="n">
-        <v>52671.7780907208</v>
+        <v>52905.550318871</v>
       </c>
       <c r="D34" t="n">
         <v>48283.2720274896</v>
@@ -37230,7 +37230,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>18178.126492201</v>
+        <v>18403.9521806226</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -37241,7 +37241,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>60184.6026306049</v>
+        <v>60453.1305579744</v>
       </c>
       <c r="C35" t="n">
         <v>49598.1732429746</v>
@@ -37262,7 +37262,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>21130.6026306049</v>
+        <v>21399.1305579744</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -37273,7 +37273,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>60675.5428037335</v>
+        <v>60900.7170163572</v>
       </c>
       <c r="C36" t="n">
         <v>49765.8472690127</v>
@@ -37294,7 +37294,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>25523.5428037335</v>
+        <v>25748.7170163572</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -37305,7 +37305,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>60031.1910642567</v>
+        <v>60243.7285478673</v>
       </c>
       <c r="C37" t="n">
         <v>49458.8663957655</v>
@@ -37326,7 +37326,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>35664.1910642567</v>
+        <v>35876.7285478673</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -37337,7 +37337,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>57364.020579266</v>
+        <v>57564.4543609717</v>
       </c>
       <c r="C38" t="n">
         <v>45039.7566473363</v>
@@ -37358,7 +37358,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>28656.020579266</v>
+        <v>28856.4543609717</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -37369,7 +37369,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>52752.3143768248</v>
+        <v>52966.1967117177</v>
       </c>
       <c r="C39" t="n">
         <v>41181.4758393076</v>
@@ -37390,7 +37390,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>9178.31437682476</v>
+        <v>9392.19671171766</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -37401,10 +37401,10 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>65834.2323540432</v>
+        <v>65831.5774268439</v>
       </c>
       <c r="C40" t="n">
-        <v>52324.9025529785</v>
+        <v>53058.5569678464</v>
       </c>
       <c r="D40" t="n">
         <v>48906.0606449462</v>
@@ -37422,7 +37422,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>15979.2323540432</v>
+        <v>15976.5774268439</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -37433,10 +37433,10 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>63602.059682333</v>
+        <v>63889.4288247075</v>
       </c>
       <c r="C41" t="n">
-        <v>51647.036593035</v>
+        <v>51929.7796698681</v>
       </c>
       <c r="D41" t="n">
         <v>46513.8093175268</v>
@@ -37454,7 +37454,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>14676.059682333</v>
+        <v>14963.4288247075</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -37465,10 +37465,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>65976.4073627165</v>
+        <v>66172.8034590741</v>
       </c>
       <c r="C42" t="n">
-        <v>52870.6715846101</v>
+        <v>53481.6023752737</v>
       </c>
       <c r="D42" t="n">
         <v>48119.7414270635</v>
@@ -37486,7 +37486,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>12718.4073627165</v>
+        <v>12914.8034590741</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -37497,10 +37497,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>64658.089745557</v>
+        <v>64949.5050701624</v>
       </c>
       <c r="C43" t="n">
-        <v>52308.4488349807</v>
+        <v>52453.1266963323</v>
       </c>
       <c r="D43" t="n">
         <v>46764.7123524945</v>
@@ -37518,7 +37518,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>12651.089745557</v>
+        <v>12942.5050701624</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -37529,10 +37529,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>67838.3330456273</v>
+        <v>68030.544605018</v>
       </c>
       <c r="C44" t="n">
-        <v>53060.7347435344</v>
+        <v>53922.1034220889</v>
       </c>
       <c r="D44" t="n">
         <v>49358.7644875962</v>
@@ -37550,7 +37550,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>9591.33304562733</v>
+        <v>9783.54460501796</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -37561,10 +37561,10 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>67298.3204880051</v>
+        <v>67657.908422898</v>
       </c>
       <c r="C45" t="n">
-        <v>53128.2230178537</v>
+        <v>54062.4859667061</v>
       </c>
       <c r="D45" t="n">
         <v>48200.8365547368</v>
@@ -37582,7 +37582,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>6230.32048800515</v>
+        <v>6589.90842289804</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -37593,7 +37593,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>65823.2641768403</v>
+        <v>66086.1944633341</v>
       </c>
       <c r="C46" t="n">
         <v>52048.556326278</v>
@@ -37614,7 +37614,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>10056.2641768403</v>
+        <v>10319.1944633341</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -37625,7 +37625,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>63257.3249657043</v>
+        <v>63594.206915328</v>
       </c>
       <c r="C47" t="n">
         <v>48720.3124778242</v>
@@ -37646,7 +37646,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>6276.32496570428</v>
+        <v>6613.20691532803</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -37657,7 +37657,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>63795.5800737923</v>
+        <v>64076.8035180231</v>
       </c>
       <c r="C48" t="n">
         <v>48838.3729652722</v>
@@ -37678,7 +37678,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>6076.58007379228</v>
+        <v>6357.80351802315</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -37689,7 +37689,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>63135.8908141192</v>
+        <v>63429.5279724667</v>
       </c>
       <c r="C49" t="n">
         <v>48488.6113361646</v>
@@ -37710,7 +37710,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>12312.8908141192</v>
+        <v>12606.5279724667</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/Figure Data/Fig.4 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.4 data.xlsx
@@ -519,7 +519,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>40818.042910086</v>
+        <v>41876.3648801867</v>
       </c>
       <c r="C2" t="n">
         <v>16969.3413389773</v>
@@ -528,10 +528,10 @@
         <v>11799.1096832131</v>
       </c>
       <c r="E2" t="n">
-        <v>91580.800353859</v>
+        <v>96698.8092201677</v>
       </c>
       <c r="F2" t="n">
-        <v>109991.305899868</v>
+        <v>115656.720208955</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -540,7 +540,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>12463.042910086</v>
+        <v>13521.3648801867</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -551,7 +551,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>27123.3059108151</v>
+        <v>27498.4615932094</v>
       </c>
       <c r="C3" t="n">
         <v>3029.84599671253</v>
@@ -560,10 +560,10 @@
         <v>1047.12759951786</v>
       </c>
       <c r="E3" t="n">
-        <v>106617.546434718</v>
+        <v>107065.401764351</v>
       </c>
       <c r="F3" t="n">
-        <v>135700.866561421</v>
+        <v>135890.5330414</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -572,7 +572,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>23860.3059108151</v>
+        <v>24235.4615932094</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -583,7 +583,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>48825.067791414</v>
+        <v>46566.7100896596</v>
       </c>
       <c r="C4" t="n">
         <v>11293.5985326989</v>
@@ -592,10 +592,10 @@
         <v>5224.22035001796</v>
       </c>
       <c r="E4" t="n">
-        <v>118993.31721143</v>
+        <v>106807.58639617</v>
       </c>
       <c r="F4" t="n">
-        <v>149585.235931885</v>
+        <v>146684.308106586</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -604,7 +604,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>45956.067791414</v>
+        <v>43697.7100896596</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>132442.004735931</v>
+        <v>125684.134140611</v>
       </c>
       <c r="C5" t="n">
         <v>53361.7669474565</v>
@@ -636,7 +636,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>129441.004735931</v>
+        <v>122683.134140611</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -647,13 +647,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>258161.128878756</v>
+        <v>248798.752007555</v>
       </c>
       <c r="C6" t="n">
-        <v>124914.982993537</v>
+        <v>112100.807916015</v>
       </c>
       <c r="D6" t="n">
-        <v>84280.3201959349</v>
+        <v>82553.6475778845</v>
       </c>
       <c r="E6" t="n">
         <v>490492.591485906</v>
@@ -668,7 +668,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>254242.128878756</v>
+        <v>244879.752007555</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -679,7 +679,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>297249.544712104</v>
+        <v>295382.559620346</v>
       </c>
       <c r="C7" t="n">
         <v>139467.571233064</v>
@@ -700,7 +700,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>290989.544712104</v>
+        <v>289122.559620346</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -711,7 +711,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>253146.64626667</v>
+        <v>262103.083603862</v>
       </c>
       <c r="C8" t="n">
         <v>97563.460311081</v>
@@ -732,7 +732,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>194003.64626667</v>
+        <v>202960.083603862</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -743,7 +743,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>156469.94900374</v>
+        <v>171848.803124517</v>
       </c>
       <c r="C9" t="n">
         <v>37221.7075011407</v>
@@ -752,7 +752,7 @@
         <v>15832.917725148</v>
       </c>
       <c r="E9" t="n">
-        <v>327212.782412879</v>
+        <v>371990.868996217</v>
       </c>
       <c r="F9" t="n">
         <v>440637.388400578</v>
@@ -764,7 +764,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>97326.9490037398</v>
+        <v>112705.803124517</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -775,7 +775,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>153359.096712315</v>
+        <v>154835.519854294</v>
       </c>
       <c r="C10" t="n">
         <v>37904.9116323652</v>
@@ -796,7 +796,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>38189.0967123155</v>
+        <v>39665.519854294</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -807,7 +807,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>139994.219979486</v>
+        <v>139346.099948251</v>
       </c>
       <c r="C11" t="n">
         <v>33218.8968236763</v>
@@ -828,7 +828,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-59880.780020514</v>
+        <v>-60528.9000517486</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -839,7 +839,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>116688.759912146</v>
+        <v>118956.352470534</v>
       </c>
       <c r="C12" t="n">
         <v>20796.1861955972</v>
@@ -860,7 +860,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-72328.2400878536</v>
+        <v>-70060.6475294656</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -871,7 +871,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>86721.9179422011</v>
+        <v>92640.4797161837</v>
       </c>
       <c r="C13" t="n">
         <v>9900.15329465601</v>
@@ -892,7 +892,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-45076.0820577989</v>
+        <v>-39157.5202838163</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -903,7 +903,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>50454.5508122049</v>
+        <v>57838.7201634386</v>
       </c>
       <c r="C14" t="n">
         <v>1451.38074800366</v>
@@ -924,7 +924,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-12754.4491877951</v>
+        <v>-5370.27983656144</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -935,7 +935,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>29516.4615028746</v>
+        <v>33627.1544384413</v>
       </c>
       <c r="C15" t="n">
         <v>0.0666228425815785</v>
@@ -956,7 +956,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>10987.4615028746</v>
+        <v>15098.1544384413</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -967,7 +967,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59253.1789248169</v>
+        <v>52757.7892403959</v>
       </c>
       <c r="C16" t="n">
         <v>1155.9204430413</v>
@@ -988,7 +988,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>23047.1789248169</v>
+        <v>16551.7892403959</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -999,7 +999,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>154596.032677217</v>
+        <v>136960.256965505</v>
       </c>
       <c r="C17" t="n">
         <v>19776.7590418918</v>
@@ -1020,10 +1020,10 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>10429.0326772172</v>
+        <v>-7206.74303449484</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1031,7 +1031,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>288026.917783123</v>
+        <v>263505.875779251</v>
       </c>
       <c r="C18" t="n">
         <v>65076.5351090309</v>
@@ -1052,7 +1052,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>47188.9177831233</v>
+        <v>22667.8757792508</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -1063,7 +1063,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>325074.487408575</v>
+        <v>314036.606287151</v>
       </c>
       <c r="C19" t="n">
         <v>77356.3530865548</v>
@@ -1084,7 +1084,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>100648.487408575</v>
+        <v>89610.6062871513</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1095,7 +1095,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>272810.224844852</v>
+        <v>286350.637392849</v>
       </c>
       <c r="C20" t="n">
         <v>51117.9441410542</v>
@@ -1116,7 +1116,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>109823.224844852</v>
+        <v>123363.637392849</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1127,7 +1127,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>167539.932700804</v>
+        <v>188441.923958985</v>
       </c>
       <c r="C21" t="n">
         <v>14876.9013203059</v>
@@ -1148,7 +1148,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>96256.9327008041</v>
+        <v>117158.923958985</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1159,7 +1159,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>165087.766767776</v>
+        <v>168534.946337614</v>
       </c>
       <c r="C22" t="n">
         <v>15873.1778253594</v>
@@ -1180,7 +1180,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>78452.7667677758</v>
+        <v>81899.9463376144</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1191,7 +1191,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>151158.423248932</v>
+        <v>149086.540108256</v>
       </c>
       <c r="C23" t="n">
         <v>13735.3165220967</v>
@@ -1212,7 +1212,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>19088.423248932</v>
+        <v>17016.5401082555</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1223,7 +1223,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>129167.332911146</v>
+        <v>130596.52247905</v>
       </c>
       <c r="C24" t="n">
         <v>7367.6976223084</v>
@@ -1244,7 +1244,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>15694.3329111463</v>
+        <v>17123.5224790497</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1255,7 +1255,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>97752.8789037603</v>
+        <v>108057.271994653</v>
       </c>
       <c r="C25" t="n">
         <v>2459.40366549666</v>
@@ -1276,7 +1276,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>23331.8789037603</v>
+        <v>33636.2719946527</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1287,7 +1287,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>57793.6040910923</v>
+        <v>73976.4506348854</v>
       </c>
       <c r="C26" t="n">
         <v>27.3346761133149</v>
@@ -1308,7 +1308,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>13610.6040910923</v>
+        <v>29793.4506348854</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1319,7 +1319,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>33326.2543472187</v>
+        <v>43631.639282736</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>15192.2543472187</v>
+        <v>25497.639282736</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1351,7 +1351,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>68243.6312986068</v>
+        <v>60269.6588007294</v>
       </c>
       <c r="C28" t="n">
         <v>16.551143429864</v>
@@ -1372,7 +1372,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>34956.6312986068</v>
+        <v>26982.6588007294</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1383,7 +1383,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>172886.107111505</v>
+        <v>150394.25460422</v>
       </c>
       <c r="C29" t="n">
         <v>8025.97219429125</v>
@@ -1404,7 +1404,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>128092.107111505</v>
+        <v>105600.25460422</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1415,7 +1415,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>313795.920255571</v>
+        <v>284568.332300173</v>
       </c>
       <c r="C30" t="n">
         <v>37887.15521905</v>
@@ -1436,7 +1436,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>243753.920255571</v>
+        <v>214526.332300173</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1447,7 +1447,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>350411.044489776</v>
+        <v>338826.222817409</v>
       </c>
       <c r="C31" t="n">
         <v>47231.5118673195</v>
@@ -1468,7 +1468,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>209750.044489776</v>
+        <v>198165.222817409</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1479,7 +1479,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>292238.051167772</v>
+        <v>311091.420382998</v>
       </c>
       <c r="C32" t="n">
         <v>28979.0037320135</v>
@@ -1500,7 +1500,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>183265.051167772</v>
+        <v>202118.420382998</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1511,7 +1511,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>179448.18040895</v>
+        <v>206278.57541389</v>
       </c>
       <c r="C33" t="n">
         <v>5936.0547578556</v>
@@ -1532,7 +1532,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>124920.18040895</v>
+        <v>151750.57541389</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1543,7 +1543,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>177269.191719826</v>
+        <v>182691.287931286</v>
       </c>
       <c r="C34" t="n">
         <v>6624.73695444284</v>
@@ -1564,7 +1564,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>132397.191719826</v>
+        <v>137819.287931286</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1575,7 +1575,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>165212.043904712</v>
+        <v>162747.055037124</v>
       </c>
       <c r="C35" t="n">
         <v>5536.35507267767</v>
@@ -1596,7 +1596,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>117817.043904712</v>
+        <v>115352.055037124</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1607,7 +1607,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>144308.611421153</v>
+        <v>144881.238831924</v>
       </c>
       <c r="C36" t="n">
         <v>2299.76561530569</v>
@@ -1628,7 +1628,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>93675.6114211527</v>
+        <v>94248.238831924</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1639,7 +1639,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>111748.301033135</v>
+        <v>121135.399212847</v>
       </c>
       <c r="C37" t="n">
         <v>362.470853275504</v>
@@ -1660,7 +1660,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>84001.301033135</v>
+        <v>93388.3992128469</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1671,7 +1671,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>68118.8211009642</v>
+        <v>84504.2911625022</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>65634.8211009642</v>
+        <v>82020.2911625022</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1703,7 +1703,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>39979.494963539</v>
+        <v>53522.3894208592</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>36044.494963539</v>
+        <v>49587.3894208592</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1735,7 +1735,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>78199.3178494901</v>
+        <v>71924.0476560869</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>68568.3178494901</v>
+        <v>62293.0476560869</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1767,7 +1767,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>189517.694717563</v>
+        <v>167517.152099575</v>
       </c>
       <c r="C41" t="n">
         <v>2906.17593480596</v>
@@ -1788,7 +1788,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>169412.694717563</v>
+        <v>147412.152099575</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1799,7 +1799,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>336617.372550921</v>
+        <v>305957.811928176</v>
       </c>
       <c r="C42" t="n">
         <v>22332.6835203763</v>
@@ -1820,7 +1820,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>245358.372550921</v>
+        <v>214698.811928176</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1831,7 +1831,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>375090.491909221</v>
+        <v>356991.938167909</v>
       </c>
       <c r="C43" t="n">
         <v>29305.9571781386</v>
@@ -1852,7 +1852,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-57993.5080907785</v>
+        <v>-76092.0618320913</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1863,7 +1863,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>315360.342342879</v>
+        <v>326893.430571655</v>
       </c>
       <c r="C44" t="n">
         <v>16393.7910800158</v>
@@ -1884,7 +1884,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-141851.657657121</v>
+        <v>-130318.569428345</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1895,7 +1895,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>195741.1886999</v>
+        <v>221885.722752484</v>
       </c>
       <c r="C45" t="n">
         <v>2012.82683996765</v>
@@ -1916,7 +1916,7 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>2203.18869990038</v>
+        <v>28347.7227524836</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1927,7 +1927,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>193076.394941924</v>
+        <v>201293.5696612</v>
       </c>
       <c r="C46" t="n">
         <v>2401.15841797127</v>
@@ -1948,7 +1948,7 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>26096.3949419236</v>
+        <v>34313.5696612001</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1959,7 +1959,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>181345.479967299</v>
+        <v>179890.815172356</v>
       </c>
       <c r="C47" t="n">
         <v>1879.72362453686</v>
@@ -1980,7 +1980,7 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>15818.4799672989</v>
+        <v>14363.8151723563</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1991,7 +1991,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>160857.404064464</v>
+        <v>160502.748528239</v>
       </c>
       <c r="C48" t="n">
         <v>469.584905577334</v>
@@ -2012,7 +2012,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>67902.4040644639</v>
+        <v>67547.7485282389</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -2023,7 +2023,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>127122.545706426</v>
+        <v>134652.984822761</v>
       </c>
       <c r="C49" t="n">
         <v>2.47297933419781</v>
@@ -2044,7 +2044,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>80972.5457064258</v>
+        <v>88502.984822761</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -8429,7 +8429,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>24345.720002228</v>
+        <v>24427.5641012367</v>
       </c>
       <c r="C2" t="n">
         <v>18092.4924455434</v>
@@ -8438,10 +8438,10 @@
         <v>16063.915397324</v>
       </c>
       <c r="E2" t="n">
-        <v>38176.0303686458</v>
+        <v>38774.6544918429</v>
       </c>
       <c r="F2" t="n">
-        <v>48914.5421515018</v>
+        <v>49825.3447963252</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -8450,7 +8450,7 @@
         <v>17159</v>
       </c>
       <c r="I2" t="n">
-        <v>7186.72000222797</v>
+        <v>7268.56410123665</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -8461,7 +8461,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>13722.578714287</v>
+        <v>13781.3579254822</v>
       </c>
       <c r="C3" t="n">
         <v>10126.9698353231</v>
@@ -8470,10 +8470,10 @@
         <v>9011.67914485231</v>
       </c>
       <c r="E3" t="n">
-        <v>18683.9746325249</v>
+        <v>19061.2478401936</v>
       </c>
       <c r="F3" t="n">
-        <v>21833.2920561376</v>
+        <v>22331.2478955794</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -8482,7 +8482,7 @@
         <v>8018</v>
       </c>
       <c r="I3" t="n">
-        <v>5704.57871428695</v>
+        <v>5763.35792548217</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -8493,13 +8493,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>18536.8268197417</v>
+        <v>18575.0899678734</v>
       </c>
       <c r="C4" t="n">
-        <v>12639.4128959579</v>
+        <v>12656.3626443526</v>
       </c>
       <c r="D4" t="n">
-        <v>11368.3486874683</v>
+        <v>11388.7555271537</v>
       </c>
       <c r="E4" t="n">
         <v>28175.9255301128</v>
@@ -8514,7 +8514,7 @@
         <v>6028</v>
       </c>
       <c r="I4" t="n">
-        <v>12508.8268197417</v>
+        <v>12547.0899678734</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -8525,13 +8525,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>27202.8550129773</v>
+        <v>27202.4601482025</v>
       </c>
       <c r="C5" t="n">
-        <v>15003.3558146986</v>
+        <v>15032.791428126</v>
       </c>
       <c r="D5" t="n">
-        <v>12810.179274395</v>
+        <v>12875.5685437185</v>
       </c>
       <c r="E5" t="n">
         <v>51324.1619474972</v>
@@ -8546,7 +8546,7 @@
         <v>6169</v>
       </c>
       <c r="I5" t="n">
-        <v>21033.8550129773</v>
+        <v>21033.4601482025</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -8557,13 +8557,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>36433.7550115936</v>
+        <v>36451.3056794192</v>
       </c>
       <c r="C6" t="n">
-        <v>17427.4556341115</v>
+        <v>17456.7397910294</v>
       </c>
       <c r="D6" t="n">
-        <v>14839.1252447025</v>
+        <v>14841.2940348269</v>
       </c>
       <c r="E6" t="n">
         <v>85575.7827524761</v>
@@ -8578,7 +8578,7 @@
         <v>9273</v>
       </c>
       <c r="I6" t="n">
-        <v>27160.7550115936</v>
+        <v>27178.3056794192</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -8589,13 +8589,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>39338.5856958</v>
+        <v>39349.8473487291</v>
       </c>
       <c r="C7" t="n">
-        <v>19282.3272044312</v>
+        <v>19362.1876153397</v>
       </c>
       <c r="D7" t="n">
-        <v>16226.5231104775</v>
+        <v>16177.7050138511</v>
       </c>
       <c r="E7" t="n">
         <v>99350.9916094001</v>
@@ -8610,7 +8610,7 @@
         <v>11995</v>
       </c>
       <c r="I7" t="n">
-        <v>27343.5856958</v>
+        <v>27354.8473487291</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -8621,7 +8621,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>32994.6759290356</v>
+        <v>33117.115689903</v>
       </c>
       <c r="C8" t="n">
         <v>18361.0789628703</v>
@@ -8642,7 +8642,7 @@
         <v>9008</v>
       </c>
       <c r="I8" t="n">
-        <v>23986.6759290356</v>
+        <v>24109.115689903</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -8653,7 +8653,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>21262.6117867352</v>
+        <v>21336.7649947006</v>
       </c>
       <c r="C9" t="n">
         <v>12476.1395462347</v>
@@ -8662,7 +8662,7 @@
         <v>10243.3840724705</v>
       </c>
       <c r="E9" t="n">
-        <v>36255.4868073133</v>
+        <v>36328.5698350155</v>
       </c>
       <c r="F9" t="n">
         <v>54090.0036762822</v>
@@ -8674,7 +8674,7 @@
         <v>9008</v>
       </c>
       <c r="I9" t="n">
-        <v>12254.6117867352</v>
+        <v>12328.7649947006</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -8685,7 +8685,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>19393.778172098</v>
+        <v>19476.0657317897</v>
       </c>
       <c r="C10" t="n">
         <v>11497.0176937693</v>
@@ -8694,7 +8694,7 @@
         <v>9461.81499520606</v>
       </c>
       <c r="E10" t="n">
-        <v>34038.3052050015</v>
+        <v>34126.2912113885</v>
       </c>
       <c r="F10" t="n">
         <v>48435.5481817018</v>
@@ -8706,7 +8706,7 @@
         <v>13212</v>
       </c>
       <c r="I10" t="n">
-        <v>6181.77817209799</v>
+        <v>6264.06573178967</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -8717,7 +8717,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20393.9020415401</v>
+        <v>20515.6397297873</v>
       </c>
       <c r="C11" t="n">
         <v>12016.6463063526</v>
@@ -8738,7 +8738,7 @@
         <v>12818</v>
       </c>
       <c r="I11" t="n">
-        <v>7575.90204154009</v>
+        <v>7697.63972978734</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -8749,7 +8749,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>24975.8235103986</v>
+        <v>25176.0179394952</v>
       </c>
       <c r="C12" t="n">
         <v>14261.5088032256</v>
@@ -8770,7 +8770,7 @@
         <v>15211</v>
       </c>
       <c r="I12" t="n">
-        <v>9764.82351039861</v>
+        <v>9965.01793949517</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -8781,7 +8781,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>27639.2613657263</v>
+        <v>27881.2164058611</v>
       </c>
       <c r="C13" t="n">
         <v>15218.4410585252</v>
@@ -8802,7 +8802,7 @@
         <v>11437</v>
       </c>
       <c r="I13" t="n">
-        <v>16202.2613657263</v>
+        <v>16444.2164058611</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -8813,7 +8813,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>24366.4975306578</v>
+        <v>24647.8388534317</v>
       </c>
       <c r="C14" t="n">
         <v>13136.9238160693</v>
@@ -8834,7 +8834,7 @@
         <v>7078</v>
       </c>
       <c r="I14" t="n">
-        <v>17288.4975306578</v>
+        <v>17569.8388534317</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -8845,7 +8845,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>13947.4213643768</v>
+        <v>14100.7228588727</v>
       </c>
       <c r="C15" t="n">
         <v>8260.44110091534</v>
@@ -8854,10 +8854,10 @@
         <v>6834.03814556186</v>
       </c>
       <c r="E15" t="n">
-        <v>28046.8726476533</v>
+        <v>28518.9616898132</v>
       </c>
       <c r="F15" t="n">
-        <v>34874.7869421486</v>
+        <v>35837.8954815899</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -8866,7 +8866,7 @@
         <v>4393</v>
       </c>
       <c r="I15" t="n">
-        <v>9554.42136437684</v>
+        <v>9707.72285887266</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -8877,7 +8877,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>18462.0513841259</v>
+        <v>18549.3548673372</v>
       </c>
       <c r="C16" t="n">
         <v>10809.2808317434</v>
@@ -8898,7 +8898,7 @@
         <v>9604</v>
       </c>
       <c r="I16" t="n">
-        <v>8858.05138412592</v>
+        <v>8945.35486733719</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -8909,10 +8909,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26599.7222248452</v>
+        <v>26667.2707589235</v>
       </c>
       <c r="C17" t="n">
-        <v>13265.6301655309</v>
+        <v>13317.5920122176</v>
       </c>
       <c r="D17" t="n">
         <v>10967.3606792469</v>
@@ -8930,7 +8930,7 @@
         <v>11501</v>
       </c>
       <c r="I17" t="n">
-        <v>15098.7222248452</v>
+        <v>15166.2707589235</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -8941,13 +8941,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>35203.289558956</v>
+        <v>35287.3160875356</v>
       </c>
       <c r="C18" t="n">
-        <v>14927.9527463849</v>
+        <v>14943.7708054143</v>
       </c>
       <c r="D18" t="n">
-        <v>12571.3706235277</v>
+        <v>12542.7105148772</v>
       </c>
       <c r="E18" t="n">
         <v>144771.906230013</v>
@@ -8962,7 +8962,7 @@
         <v>11970</v>
       </c>
       <c r="I18" t="n">
-        <v>23233.289558956</v>
+        <v>23317.3160875356</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -8973,10 +8973,10 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>37793.7110249877</v>
+        <v>37933.349480562</v>
       </c>
       <c r="C19" t="n">
-        <v>16236.474327046</v>
+        <v>16303.3002593077</v>
       </c>
       <c r="D19" t="n">
         <v>13004.1222608266</v>
@@ -8994,7 +8994,7 @@
         <v>12015</v>
       </c>
       <c r="I19" t="n">
-        <v>25778.7110249877</v>
+        <v>25918.349480562</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -9005,7 +9005,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>31909.0564078313</v>
+        <v>32158.5030795156</v>
       </c>
       <c r="C20" t="n">
         <v>15023.4728482719</v>
@@ -9026,7 +9026,7 @@
         <v>9367</v>
       </c>
       <c r="I20" t="n">
-        <v>22542.0564078313</v>
+        <v>22791.5030795156</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -9037,7 +9037,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>21430.0333538536</v>
+        <v>21701.9862677064</v>
       </c>
       <c r="C21" t="n">
         <v>10679.7538028968</v>
@@ -9058,7 +9058,7 @@
         <v>8353</v>
       </c>
       <c r="I21" t="n">
-        <v>13077.0333538536</v>
+        <v>13348.9862677064</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -9069,7 +9069,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>19894.9692373322</v>
+        <v>20168.1618262594</v>
       </c>
       <c r="C22" t="n">
         <v>9970.59116267544</v>
@@ -9078,7 +9078,7 @@
         <v>7857.52806555665</v>
       </c>
       <c r="E22" t="n">
-        <v>41839.0102975576</v>
+        <v>42727.8222698892</v>
       </c>
       <c r="F22" t="n">
         <v>78660.2796988942</v>
@@ -9090,7 +9090,7 @@
         <v>12606</v>
       </c>
       <c r="I22" t="n">
-        <v>7288.96923733221</v>
+        <v>7562.16182625938</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -9101,7 +9101,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>20811.0077442978</v>
+        <v>21104.0989428935</v>
       </c>
       <c r="C23" t="n">
         <v>10444.1069619848</v>
@@ -9122,7 +9122,7 @@
         <v>11116</v>
       </c>
       <c r="I23" t="n">
-        <v>9695.00774429783</v>
+        <v>9988.09894289354</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -9133,7 +9133,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>25017.9461075787</v>
+        <v>25369.4848062146</v>
       </c>
       <c r="C24" t="n">
         <v>12294.0925930535</v>
@@ -9154,7 +9154,7 @@
         <v>11881</v>
       </c>
       <c r="I24" t="n">
-        <v>13136.9461075787</v>
+        <v>13488.4848062146</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -9165,7 +9165,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>27538.6798534659</v>
+        <v>27949.9306168033</v>
       </c>
       <c r="C25" t="n">
         <v>13115.3768707123</v>
@@ -9186,7 +9186,7 @@
         <v>10892</v>
       </c>
       <c r="I25" t="n">
-        <v>16646.6798534659</v>
+        <v>17057.9306168033</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -9197,7 +9197,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>24335.0663452209</v>
+        <v>24797.7984750112</v>
       </c>
       <c r="C26" t="n">
         <v>11539.7918772032</v>
@@ -9218,7 +9218,7 @@
         <v>6570</v>
       </c>
       <c r="I26" t="n">
-        <v>17765.0663452209</v>
+        <v>18227.7984750112</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -9229,7 +9229,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>15357.3128352908</v>
+        <v>15743.2895101169</v>
       </c>
       <c r="C27" t="n">
         <v>7508.18726410201</v>
@@ -9238,10 +9238,10 @@
         <v>6028.65954784603</v>
       </c>
       <c r="E27" t="n">
-        <v>37903.1089964917</v>
+        <v>39215.5189828467</v>
       </c>
       <c r="F27" t="n">
-        <v>51908.9887819916</v>
+        <v>53716.5274023874</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -9250,7 +9250,7 @@
         <v>4491</v>
       </c>
       <c r="I27" t="n">
-        <v>10866.3128352908</v>
+        <v>11252.2895101169</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -9261,7 +9261,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19254.0948799403</v>
+        <v>19488.5477513409</v>
       </c>
       <c r="C28" t="n">
         <v>9721.45787856784</v>
@@ -9282,7 +9282,7 @@
         <v>10001</v>
       </c>
       <c r="I28" t="n">
-        <v>9253.09487994033</v>
+        <v>9487.54775134088</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -9293,10 +9293,10 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>26921.125670245</v>
+        <v>27063.2293328747</v>
       </c>
       <c r="C29" t="n">
-        <v>12598.9547223937</v>
+        <v>12683.1396911342</v>
       </c>
       <c r="D29" t="n">
         <v>9443.45388996134</v>
@@ -9314,7 +9314,7 @@
         <v>9968</v>
       </c>
       <c r="I29" t="n">
-        <v>16953.125670245</v>
+        <v>17095.2293328747</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -9325,10 +9325,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>35080.0786372405</v>
+        <v>35237.4175433273</v>
       </c>
       <c r="C30" t="n">
-        <v>13573.5561225336</v>
+        <v>13623.9938595092</v>
       </c>
       <c r="D30" t="n">
         <v>10953.4100773992</v>
@@ -9346,7 +9346,7 @@
         <v>11151</v>
       </c>
       <c r="I30" t="n">
-        <v>23929.0786372405</v>
+        <v>24086.4175433273</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -9357,10 +9357,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>37348.5048695738</v>
+        <v>37587.122169978</v>
       </c>
       <c r="C31" t="n">
-        <v>14565.3779312737</v>
+        <v>14558.5458915357</v>
       </c>
       <c r="D31" t="n">
         <v>11155.508108668</v>
@@ -9376,7 +9376,7 @@
         <v>11945</v>
       </c>
       <c r="I31" t="n">
-        <v>25403.5048695738</v>
+        <v>25642.122169978</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -9387,7 +9387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>31386.3830121291</v>
+        <v>31732.6102135905</v>
       </c>
       <c r="C32" t="n">
         <v>13450.7391326698</v>
@@ -9408,7 +9408,7 @@
         <v>9391</v>
       </c>
       <c r="I32" t="n">
-        <v>21995.3830121291</v>
+        <v>22341.6102135905</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -9419,7 +9419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>21216.073721019</v>
+        <v>21640.0359098841</v>
       </c>
       <c r="C33" t="n">
         <v>9769.51864829506</v>
@@ -9440,7 +9440,7 @@
         <v>8472</v>
       </c>
       <c r="I33" t="n">
-        <v>12744.073721019</v>
+        <v>13168.0359098841</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -9451,7 +9451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>19969.3542803837</v>
+        <v>20432.4480295351</v>
       </c>
       <c r="C34" t="n">
         <v>9171.60113917578</v>
@@ -9472,7 +9472,7 @@
         <v>11041</v>
       </c>
       <c r="I34" t="n">
-        <v>8928.35428038367</v>
+        <v>9391.44802953506</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -9483,7 +9483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>21025.0080835236</v>
+        <v>21513.4863113908</v>
       </c>
       <c r="C35" t="n">
         <v>9606.28840658525</v>
@@ -9504,7 +9504,7 @@
         <v>9537</v>
       </c>
       <c r="I35" t="n">
-        <v>11488.0080835236</v>
+        <v>11976.4863113908</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -9515,7 +9515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>25171.7962182551</v>
+        <v>25700.1102686597</v>
       </c>
       <c r="C36" t="n">
         <v>11242.2453237966</v>
@@ -9536,7 +9536,7 @@
         <v>8702</v>
       </c>
       <c r="I36" t="n">
-        <v>16469.7962182551</v>
+        <v>16998.1102686597</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -9547,7 +9547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>27616.9652262582</v>
+        <v>28194.7804759144</v>
       </c>
       <c r="C37" t="n">
         <v>11977.5319767506</v>
@@ -9568,7 +9568,7 @@
         <v>3839</v>
       </c>
       <c r="I37" t="n">
-        <v>23777.9652262582</v>
+        <v>24355.7804759144</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -9579,7 +9579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24406.1173386381</v>
+        <v>25033.8397073355</v>
       </c>
       <c r="C38" t="n">
         <v>10637.2149873172</v>
@@ -9600,7 +9600,7 @@
         <v>2370</v>
       </c>
       <c r="I38" t="n">
-        <v>22036.1173386381</v>
+        <v>22663.8397073355</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -9611,7 +9611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16528.2844906199</v>
+        <v>17115.6557896816</v>
       </c>
       <c r="C39" t="n">
         <v>7056.58676675973</v>
@@ -9620,10 +9620,10 @@
         <v>5560.82450054179</v>
       </c>
       <c r="E39" t="n">
-        <v>42866.9186280565</v>
+        <v>43674.8663041445</v>
       </c>
       <c r="F39" t="n">
-        <v>66086.7907040786</v>
+        <v>65923.659448087</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
@@ -9632,7 +9632,7 @@
         <v>4548</v>
       </c>
       <c r="I39" t="n">
-        <v>11980.2844906199</v>
+        <v>12567.6557896816</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -9643,7 +9643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>20223.326816756</v>
+        <v>20711.4368614594</v>
       </c>
       <c r="C40" t="n">
         <v>9067.83892013057</v>
@@ -9664,7 +9664,7 @@
         <v>7299</v>
       </c>
       <c r="I40" t="n">
-        <v>12924.326816756</v>
+        <v>13412.4368614594</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -9675,7 +9675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>27581.5401355928</v>
+        <v>27981.8174259261</v>
       </c>
       <c r="C41" t="n">
         <v>11750.2450752071</v>
@@ -9696,7 +9696,7 @@
         <v>7028</v>
       </c>
       <c r="I41" t="n">
-        <v>20553.5401355928</v>
+        <v>20953.8174259261</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -9707,10 +9707,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>35445.1469689538</v>
+        <v>35817.3090016161</v>
       </c>
       <c r="C42" t="n">
-        <v>13119.9379341246</v>
+        <v>13089.7813165989</v>
       </c>
       <c r="D42" t="n">
         <v>9871.40831393216</v>
@@ -9726,7 +9726,7 @@
         <v>8930</v>
       </c>
       <c r="I42" t="n">
-        <v>26515.1469689538</v>
+        <v>26887.3090016161</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -9737,10 +9737,10 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>37468.0256002217</v>
+        <v>37870.3534992594</v>
       </c>
       <c r="C43" t="n">
-        <v>13960.2968679098</v>
+        <v>14125.9025871167</v>
       </c>
       <c r="D43" t="n">
         <v>10065.4185912971</v>
@@ -9756,7 +9756,7 @@
         <v>10710</v>
       </c>
       <c r="I43" t="n">
-        <v>26758.0256002217</v>
+        <v>27160.3534992594</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -9767,7 +9767,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>31357.1319569215</v>
+        <v>31830.8896491844</v>
       </c>
       <c r="C44" t="n">
         <v>12467.421530378</v>
@@ -9788,7 +9788,7 @@
         <v>9280</v>
       </c>
       <c r="I44" t="n">
-        <v>22077.1319569215</v>
+        <v>22550.8896491844</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -9799,7 +9799,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>21173.0483848368</v>
+        <v>21726.5056905229</v>
       </c>
       <c r="C45" t="n">
         <v>9178.81590599966</v>
@@ -9820,7 +9820,7 @@
         <v>7919</v>
       </c>
       <c r="I45" t="n">
-        <v>13254.0483848368</v>
+        <v>13807.5056905229</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -9831,7 +9831,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>19977.4073345476</v>
+        <v>20595.136280008</v>
       </c>
       <c r="C46" t="n">
         <v>8644.78299636455</v>
@@ -9852,7 +9852,7 @@
         <v>10867</v>
       </c>
       <c r="I46" t="n">
-        <v>9110.4073345476</v>
+        <v>9728.136280008</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -9863,7 +9863,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>21109.6728174872</v>
+        <v>21773.0703492249</v>
       </c>
       <c r="C47" t="n">
         <v>9049.5116891526</v>
@@ -9884,7 +9884,7 @@
         <v>8287</v>
       </c>
       <c r="I47" t="n">
-        <v>12822.6728174872</v>
+        <v>13486.0703492249</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -9895,7 +9895,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>25279.1436100233</v>
+        <v>25982.5401543486</v>
       </c>
       <c r="C48" t="n">
         <v>10543.4500390557</v>
@@ -9916,7 +9916,7 @@
         <v>7642</v>
       </c>
       <c r="I48" t="n">
-        <v>17637.1436100233</v>
+        <v>18340.5401543486</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -9927,7 +9927,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>27718.5402509355</v>
+        <v>28462.7952851139</v>
       </c>
       <c r="C49" t="n">
         <v>11217.7290213158</v>
@@ -9948,7 +9948,7 @@
         <v>7092</v>
       </c>
       <c r="I49" t="n">
-        <v>20626.5402509355</v>
+        <v>21370.7952851139</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -15005,7 +15005,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2572.20275205026</v>
+        <v>2556.10339907203</v>
       </c>
       <c r="C2" t="n">
         <v>1990.94552565737</v>
@@ -15026,7 +15026,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>127.202752050257</v>
+        <v>111.103399072029</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -15037,7 +15037,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2639.78918530566</v>
+        <v>2628.86049520973</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4324254085</v>
@@ -15058,7 +15058,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1706.78918530566</v>
+        <v>1695.86049520973</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -15069,10 +15069,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4621.17256902415</v>
+        <v>4624.80752977741</v>
       </c>
       <c r="C4" t="n">
-        <v>3747.1947461551</v>
+        <v>3772.50607652774</v>
       </c>
       <c r="D4" t="n">
         <v>3485.60328678076</v>
@@ -15090,7 +15090,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1113.17256902415</v>
+        <v>1116.80752977741</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -15101,10 +15101,10 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5278.81200040951</v>
+        <v>5276.01440003021</v>
       </c>
       <c r="C5" t="n">
-        <v>4197.8071637364</v>
+        <v>4188.89868761321</v>
       </c>
       <c r="D5" t="n">
         <v>3868.95838552112</v>
@@ -15122,7 +15122,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-81.1879995904874</v>
+        <v>-83.9855999697911</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -15133,13 +15133,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6258.88281186788</v>
+        <v>6227.22527828576</v>
       </c>
       <c r="C6" t="n">
-        <v>4939.60753901473</v>
+        <v>4856.69171320561</v>
       </c>
       <c r="D6" t="n">
-        <v>4467.99106945891</v>
+        <v>4441.20658287854</v>
       </c>
       <c r="E6" t="n">
         <v>8224.06638318932</v>
@@ -15154,7 +15154,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>994.882811867878</v>
+        <v>963.225278285759</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -15165,7 +15165,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6687.01749759365</v>
+        <v>6591.05017268654</v>
       </c>
       <c r="C7" t="n">
         <v>5190.68809885786</v>
@@ -15186,7 +15186,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>494.017497593653</v>
+        <v>398.050172686535</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -15197,7 +15197,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6559.71436554418</v>
+        <v>6472.67999490258</v>
       </c>
       <c r="C8" t="n">
         <v>4956.82440771123</v>
@@ -15218,7 +15218,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1587.71436554418</v>
+        <v>1500.67999490258</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -15229,7 +15229,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5717.93740788259</v>
+        <v>5713.83299414923</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83587090505</v>
@@ -15238,7 +15238,7 @@
         <v>3531.61468845555</v>
       </c>
       <c r="E9" t="n">
-        <v>7287.25501368303</v>
+        <v>7324.10139639973</v>
       </c>
       <c r="F9" t="n">
         <v>8189.15969989382</v>
@@ -15250,7 +15250,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>745.937407882593</v>
+        <v>741.832994149228</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -15261,7 +15261,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4160.35369060345</v>
+        <v>4184.4150534632</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58312230565</v>
@@ -15270,10 +15270,10 @@
         <v>2224.76351174621</v>
       </c>
       <c r="E10" t="n">
-        <v>5761.73653600922</v>
+        <v>5903.31002580408</v>
       </c>
       <c r="F10" t="n">
-        <v>6035.95909454476</v>
+        <v>6122.71265704546</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -15282,7 +15282,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-331.64630939655</v>
+        <v>-307.584946536801</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -15293,7 +15293,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3083.78511749756</v>
+        <v>3088.10104534332</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16803940872</v>
@@ -15302,10 +15302,10 @@
         <v>1489.11814114028</v>
       </c>
       <c r="E11" t="n">
-        <v>4425.0552576025</v>
+        <v>4495.88333402727</v>
       </c>
       <c r="F11" t="n">
-        <v>4735.03967863949</v>
+        <v>4815.15280423821</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
@@ -15314,7 +15314,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-122.214882502443</v>
+        <v>-117.898954656681</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -15325,7 +15325,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3160.00533464243</v>
+        <v>3137.78900342003</v>
       </c>
       <c r="C12" t="n">
         <v>2115.39107714259</v>
@@ -15346,7 +15346,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-450.994665357574</v>
+        <v>-473.210996579973</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -15357,7 +15357,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3191.4404749693</v>
+        <v>3157.3474223041</v>
       </c>
       <c r="C13" t="n">
         <v>2175.51158214506</v>
@@ -15378,7 +15378,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-502.559525030699</v>
+        <v>-536.652577695901</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -15389,7 +15389,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2737.03540391541</v>
+        <v>2695.0501283648</v>
       </c>
       <c r="C14" t="n">
         <v>1627.62592593388</v>
@@ -15410,7 +15410,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-437.964596084594</v>
+        <v>-479.949871635198</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -15421,7 +15421,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2830.34866332889</v>
+        <v>2811.99000585156</v>
       </c>
       <c r="C15" t="n">
         <v>1739.51274386672</v>
@@ -15442,7 +15442,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-594.651336671109</v>
+        <v>-613.009994148441</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -15453,13 +15453,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4456.74281602137</v>
+        <v>4433.38080688788</v>
       </c>
       <c r="C16" t="n">
-        <v>2675.16314910194</v>
+        <v>2565.7516415889</v>
       </c>
       <c r="D16" t="n">
-        <v>2467.48430094496</v>
+        <v>2361.12111988153</v>
       </c>
       <c r="E16" t="n">
         <v>7427.23358128313</v>
@@ -15474,7 +15474,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2763.25718397863</v>
+        <v>-2786.61919311212</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -15485,10 +15485,10 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5439.895494049</v>
+        <v>5312.16111256642</v>
       </c>
       <c r="C17" t="n">
-        <v>3780.98595055333</v>
+        <v>3542.59087162433</v>
       </c>
       <c r="D17" t="n">
         <v>3039.60984448802</v>
@@ -15506,7 +15506,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2408.104505951</v>
+        <v>-2535.83888743358</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -15517,10 +15517,10 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6393.94183436342</v>
+        <v>6231.19580251419</v>
       </c>
       <c r="C18" t="n">
-        <v>4348.03242544676</v>
+        <v>4088.735236529</v>
       </c>
       <c r="D18" t="n">
         <v>3632.09876793245</v>
@@ -15538,7 +15538,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1702.05816563658</v>
+        <v>-1864.80419748581</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -15549,7 +15549,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6873.31076837848</v>
+        <v>6695.42425368426</v>
       </c>
       <c r="C19" t="n">
         <v>4597.30798659913</v>
@@ -15570,7 +15570,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-2796.68923162152</v>
+        <v>-2974.57574631574</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -15581,7 +15581,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6809.64560121458</v>
+        <v>6668.47415684773</v>
       </c>
       <c r="C20" t="n">
         <v>4381.9010556836</v>
@@ -15602,7 +15602,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2412.35439878542</v>
+        <v>-2553.52584315227</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -15613,7 +15613,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6211.42708879464</v>
+        <v>6120.63472218058</v>
       </c>
       <c r="C21" t="n">
         <v>3572.25164044213</v>
@@ -15634,7 +15634,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-655.572911205359</v>
+        <v>-746.365277819421</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -15645,7 +15645,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4727.51960831672</v>
+        <v>4765.1164375778</v>
       </c>
       <c r="C22" t="n">
         <v>2275.00073445183</v>
@@ -15654,10 +15654,10 @@
         <v>1645.25522478535</v>
       </c>
       <c r="E22" t="n">
-        <v>7229.65640388393</v>
+        <v>7342.87847512405</v>
       </c>
       <c r="F22" t="n">
-        <v>7624.33668018669</v>
+        <v>7885.86855600154</v>
       </c>
       <c r="G22" t="s">
         <v>29</v>
@@ -15666,7 +15666,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1204.48039168328</v>
+        <v>-1166.8835624222</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -15677,7 +15677,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3355.83040760534</v>
+        <v>3558.39840751773</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19153963388</v>
@@ -15686,10 +15686,10 @@
         <v>1036.14414539061</v>
       </c>
       <c r="E23" t="n">
-        <v>5270.55310961148</v>
+        <v>5904.80368830401</v>
       </c>
       <c r="F23" t="n">
-        <v>6063.53863786345</v>
+        <v>6453.98378213673</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -15698,7 +15698,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-266.16959239466</v>
+        <v>-63.6015924822746</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -15709,7 +15709,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3202.17195444035</v>
+        <v>3368.2012632962</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72958252457</v>
@@ -15730,7 +15730,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-446.828045559646</v>
+        <v>-280.798736703802</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -15741,7 +15741,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3248.37574806157</v>
+        <v>3239.25842044471</v>
       </c>
       <c r="C25" t="n">
         <v>1829.00792712152</v>
@@ -15762,7 +15762,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1670.62425193843</v>
+        <v>-1679.74157955529</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -15773,7 +15773,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2842.38299575163</v>
+        <v>2805.19327642847</v>
       </c>
       <c r="C26" t="n">
         <v>1423.24823245191</v>
@@ -15794,7 +15794,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1553.61700424837</v>
+        <v>-1590.80672357153</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -15805,7 +15805,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2946.72023296707</v>
+        <v>2930.63333900556</v>
       </c>
       <c r="C27" t="n">
         <v>1434.76554859017</v>
@@ -15826,7 +15826,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1742.27976703293</v>
+        <v>-1758.36666099444</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -15837,13 +15837,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4534.11860889966</v>
+        <v>4591.79494979957</v>
       </c>
       <c r="C28" t="n">
-        <v>2238.81758237349</v>
+        <v>2193.61713400555</v>
       </c>
       <c r="D28" t="n">
-        <v>1937.22633815293</v>
+        <v>1872.29249367273</v>
       </c>
       <c r="E28" t="n">
         <v>8559.27469317333</v>
@@ -15858,7 +15858,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2121.88139110034</v>
+        <v>-2064.20505020043</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -15869,13 +15869,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5445.78511760666</v>
+        <v>5103.09388095192</v>
       </c>
       <c r="C29" t="n">
-        <v>2991.79526356516</v>
+        <v>2581.27530225082</v>
       </c>
       <c r="D29" t="n">
-        <v>2343.12151936284</v>
+        <v>2311.09760064396</v>
       </c>
       <c r="E29" t="n">
         <v>9743.94465460174</v>
@@ -15890,7 +15890,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1678.21488239334</v>
+        <v>-2020.90611904808</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -15901,10 +15901,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6433.40511856202</v>
+        <v>6313.87189593881</v>
       </c>
       <c r="C30" t="n">
-        <v>3943.61197979879</v>
+        <v>3573.38391604042</v>
       </c>
       <c r="D30" t="n">
         <v>2854.31259377546</v>
@@ -15922,7 +15922,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2390.59488143798</v>
+        <v>-2510.12810406119</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -15933,7 +15933,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6883.69903510923</v>
+        <v>6757.85862463856</v>
       </c>
       <c r="C31" t="n">
         <v>4049.32147167665</v>
@@ -15954,7 +15954,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3059.30096489077</v>
+        <v>-3185.14137536144</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -15965,7 +15965,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6855.42496972553</v>
+        <v>6950.08190264226</v>
       </c>
       <c r="C32" t="n">
         <v>3846.91782069451</v>
@@ -15986,7 +15986,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-2827.57503027447</v>
+        <v>-2732.91809735774</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -15997,7 +15997,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6114.33631737048</v>
+        <v>6203.06499425315</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90904541359</v>
@@ -16018,7 +16018,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-1772.66368262952</v>
+        <v>-1683.93500574685</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -16029,7 +16029,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4441.37332308244</v>
+        <v>4941.59183484561</v>
       </c>
       <c r="C34" t="n">
         <v>1908.88040072469</v>
@@ -16038,7 +16038,7 @@
         <v>1158.23099992112</v>
       </c>
       <c r="E34" t="n">
-        <v>7242.60089429465</v>
+        <v>7826.13543646799</v>
       </c>
       <c r="F34" t="n">
         <v>9015.11955247209</v>
@@ -16050,7 +16050,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-869.626676917561</v>
+        <v>-369.408165154389</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -16061,7 +16061,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3347.88070298965</v>
+        <v>3907.34355407412</v>
       </c>
       <c r="C35" t="n">
         <v>1251.37715529486</v>
@@ -16070,10 +16070,10 @@
         <v>669.251999531072</v>
       </c>
       <c r="E35" t="n">
-        <v>6107.33219804012</v>
+        <v>6991.89597918518</v>
       </c>
       <c r="F35" t="n">
-        <v>7309.69618277535</v>
+        <v>7703.20223561679</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -16082,7 +16082,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>812.880702989649</v>
+        <v>1372.34355407412</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -16093,7 +16093,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3253.90167179179</v>
+        <v>3764.26014914195</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35524299054</v>
@@ -16114,7 +16114,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>684.90167179179</v>
+        <v>1195.26014914195</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -16125,7 +16125,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3317.82169140708</v>
+        <v>3428.29580229241</v>
       </c>
       <c r="C37" t="n">
         <v>1501.83321574786</v>
@@ -16146,7 +16146,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1497.82169140708</v>
+        <v>1608.29580229241</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -16157,7 +16157,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2897.72076535064</v>
+        <v>2891.89515951413</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63075446668</v>
@@ -16178,7 +16178,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>579.720765350643</v>
+        <v>573.895159514133</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -16189,7 +16189,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2998.52868347216</v>
+        <v>3060.66114961885</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79662291997</v>
@@ -16210,7 +16210,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2663.47131652784</v>
+        <v>-2601.33885038115</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -16221,13 +16221,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4591.46710992684</v>
+        <v>4724.06658152033</v>
       </c>
       <c r="C40" t="n">
-        <v>2178.21345746216</v>
+        <v>2136.58670845365</v>
       </c>
       <c r="D40" t="n">
-        <v>1466.26693452937</v>
+        <v>1364.5991134202</v>
       </c>
       <c r="E40" t="n">
         <v>9626.85909095167</v>
@@ -16242,7 +16242,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1951.53289007316</v>
+        <v>-1818.93341847967</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -16253,10 +16253,10 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5575.88840939652</v>
+        <v>5171.60614288838</v>
       </c>
       <c r="C41" t="n">
-        <v>2457.96395624202</v>
+        <v>2328.40787880818</v>
       </c>
       <c r="D41" t="n">
         <v>1722.85889423402</v>
@@ -16274,7 +16274,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2101.11159060348</v>
+        <v>-2505.39385711162</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -16285,10 +16285,10 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6504.33734878289</v>
+        <v>6308.84791653362</v>
       </c>
       <c r="C42" t="n">
-        <v>3367.37763206215</v>
+        <v>2755.07926365032</v>
       </c>
       <c r="D42" t="n">
         <v>2151.35488903287</v>
@@ -16306,7 +16306,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2562.66265121711</v>
+        <v>-2758.15208346638</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -16317,7 +16317,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6947.79573341074</v>
+        <v>6757.01078635157</v>
       </c>
       <c r="C43" t="n">
         <v>3513.09465527914</v>
@@ -16338,7 +16338,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1378.20426658926</v>
+        <v>-1568.98921364843</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -16349,7 +16349,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6932.55777368015</v>
+        <v>6797.38368130709</v>
       </c>
       <c r="C44" t="n">
         <v>3323.76263503061</v>
@@ -16370,7 +16370,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2231.44222631985</v>
+        <v>-2366.61631869291</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -16381,7 +16381,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6115.13398027428</v>
+        <v>6261.04647513945</v>
       </c>
       <c r="C45" t="n">
         <v>2633.38312573204</v>
@@ -16402,7 +16402,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2238.86601972572</v>
+        <v>-2092.95352486055</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -16413,7 +16413,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4647.95850199331</v>
+        <v>4920.80545499908</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35945544672</v>
@@ -16434,7 +16434,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1339.04149800669</v>
+        <v>-1066.19454500092</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -16445,7 +16445,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3490.12463691313</v>
+        <v>3933.33536214867</v>
       </c>
       <c r="C47" t="n">
         <v>979.510719062474</v>
@@ -16454,7 +16454,7 @@
         <v>378.127908550929</v>
       </c>
       <c r="E47" t="n">
-        <v>6662.38774852714</v>
+        <v>7388.3286515364</v>
       </c>
       <c r="F47" t="n">
         <v>9211.86541815484</v>
@@ -16466,7 +16466,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-986.875363086866</v>
+        <v>-543.664637851328</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -16477,7 +16477,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3373.25019801092</v>
+        <v>3886.60099848003</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49419393134</v>
@@ -16498,7 +16498,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-1166.74980198908</v>
+        <v>-653.399001519974</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -16509,7 +16509,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3413.7670729748</v>
+        <v>3523.16401936947</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38050103066</v>
@@ -16530,7 +16530,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-329.232927025202</v>
+        <v>-219.835980630529</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -20949,13 +20949,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>277.970115200967</v>
+        <v>277.927547070762</v>
       </c>
       <c r="C2" t="n">
-        <v>188.954164732518</v>
+        <v>188.887952431574</v>
       </c>
       <c r="D2" t="n">
-        <v>170.476297442889</v>
+        <v>170.451858450659</v>
       </c>
       <c r="E2" t="n">
         <v>446.001520911706</v>
@@ -20970,7 +20970,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.0298847990333</v>
+        <v>-70.0724529292382</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -20981,13 +20981,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>247.006854313176</v>
+        <v>246.876436412653</v>
       </c>
       <c r="C3" t="n">
-        <v>185.639673917351</v>
+        <v>185.544644475386</v>
       </c>
       <c r="D3" t="n">
-        <v>167.541053574534</v>
+        <v>168.835279582405</v>
       </c>
       <c r="E3" t="n">
         <v>374.266896725025</v>
@@ -21002,7 +21002,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>121.006854313176</v>
+        <v>120.876436412653</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -21013,7 +21013,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>191.601660020089</v>
+        <v>191.564891268417</v>
       </c>
       <c r="C4" t="n">
         <v>143.003749894084</v>
@@ -21034,7 +21034,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>99.6016600200888</v>
+        <v>99.5648912684169</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -21045,7 +21045,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>208.143127432556</v>
+        <v>208.244373889974</v>
       </c>
       <c r="C5" t="n">
         <v>151.161642041185</v>
@@ -21066,7 +21066,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>154.143127432556</v>
+        <v>154.244373889974</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -21077,7 +21077,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>234.731900778436</v>
+        <v>234.886899793435</v>
       </c>
       <c r="C6" t="n">
         <v>161.52139030586</v>
@@ -21098,7 +21098,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>194.731900778436</v>
+        <v>194.886899793435</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -21109,7 +21109,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>258.371024493202</v>
+        <v>258.468893867614</v>
       </c>
       <c r="C7" t="n">
         <v>173.967038769648</v>
@@ -21130,7 +21130,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>184.371024493202</v>
+        <v>184.468893867614</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -21141,10 +21141,10 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>268.005045092618</v>
+        <v>267.947214069073</v>
       </c>
       <c r="C8" t="n">
-        <v>186.695224365279</v>
+        <v>186.7738875094</v>
       </c>
       <c r="D8" t="n">
         <v>159.636877748982</v>
@@ -21162,7 +21162,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>211.005045092618</v>
+        <v>210.947214069073</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -21173,7 +21173,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>236.016673069564</v>
+        <v>235.870597847928</v>
       </c>
       <c r="C9" t="n">
         <v>164.224550637793</v>
@@ -21194,7 +21194,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>179.016673069564</v>
+        <v>178.870597847928</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -21205,7 +21205,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>223.883666254289</v>
+        <v>223.739205718445</v>
       </c>
       <c r="C10" t="n">
         <v>152.113955086947</v>
@@ -21226,7 +21226,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>142.883666254289</v>
+        <v>142.739205718445</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -21237,7 +21237,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>205.511941638851</v>
+        <v>205.429572310834</v>
       </c>
       <c r="C11" t="n">
         <v>136.117978142177</v>
@@ -21258,7 +21258,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>127.511941638851</v>
+        <v>127.429572310834</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -21269,7 +21269,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>222.34735168661</v>
+        <v>222.223929157583</v>
       </c>
       <c r="C12" t="n">
         <v>144.395950491197</v>
@@ -21290,7 +21290,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>159.34735168661</v>
+        <v>159.223929157583</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -21301,7 +21301,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>200.523665759597</v>
+        <v>200.409032108012</v>
       </c>
       <c r="C13" t="n">
         <v>126.62266373062</v>
@@ -21322,7 +21322,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>127.523665759597</v>
+        <v>127.409032108012</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -21333,7 +21333,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>263.012170970561</v>
+        <v>262.897367734926</v>
       </c>
       <c r="C14" t="n">
         <v>168.728267274852</v>
@@ -21354,7 +21354,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>195.012170970561</v>
+        <v>194.897367734926</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -21365,7 +21365,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>234.533363786213</v>
+        <v>234.373545098351</v>
       </c>
       <c r="C15" t="n">
         <v>147.185539051811</v>
@@ -21386,7 +21386,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>176.533363786213</v>
+        <v>176.373545098351</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -21397,7 +21397,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>188.699446817409</v>
+        <v>188.59624290652</v>
       </c>
       <c r="C16" t="n">
         <v>114.537973114805</v>
@@ -21418,7 +21418,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>125.699446817409</v>
+        <v>125.59624290652</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -21429,7 +21429,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>203.942754089223</v>
+        <v>203.958992214967</v>
       </c>
       <c r="C17" t="n">
         <v>120.844028200813</v>
@@ -21450,7 +21450,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>129.942754089223</v>
+        <v>129.958992214967</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -21461,7 +21461,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>228.173154783307</v>
+        <v>228.268077980506</v>
       </c>
       <c r="C18" t="n">
         <v>132.108691920976</v>
@@ -21482,7 +21482,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>131.173154783307</v>
+        <v>131.268077980506</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -21493,7 +21493,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>249.599486249158</v>
+        <v>249.683334760452</v>
       </c>
       <c r="C19" t="n">
         <v>141.591922699766</v>
@@ -21514,7 +21514,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>140.599486249158</v>
+        <v>140.683334760452</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -21525,7 +21525,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>257.154784852474</v>
+        <v>257.134405066178</v>
       </c>
       <c r="C20" t="n">
         <v>144.140923165108</v>
@@ -21546,7 +21546,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>165.154784852474</v>
+        <v>165.134405066178</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -21557,7 +21557,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>227.804928601402</v>
+        <v>227.68172195689</v>
       </c>
       <c r="C21" t="n">
         <v>127.635849300179</v>
@@ -21578,7 +21578,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>167.804928601402</v>
+        <v>167.68172195689</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -21589,7 +21589,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>216.835882803209</v>
+        <v>216.670872089603</v>
       </c>
       <c r="C22" t="n">
         <v>120.079556375382</v>
@@ -21610,7 +21610,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>167.835882803209</v>
+        <v>167.670872089603</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -21621,7 +21621,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>201.2839206918</v>
+        <v>201.143741113104</v>
       </c>
       <c r="C23" t="n">
         <v>109.497831444703</v>
@@ -21642,7 +21642,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>155.2839206918</v>
+        <v>155.143741113104</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -21653,7 +21653,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>216.546234453499</v>
+        <v>216.39023552157</v>
       </c>
       <c r="C24" t="n">
         <v>115.67442137399</v>
@@ -21674,7 +21674,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>154.546234453499</v>
+        <v>154.39023552157</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -21685,7 +21685,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>197.29114999019</v>
+        <v>197.132924139907</v>
       </c>
       <c r="C25" t="n">
         <v>103.457221520362</v>
@@ -21706,7 +21706,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>125.29114999019</v>
+        <v>125.132924139907</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -21717,7 +21717,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>254.457587764971</v>
+        <v>254.303321129452</v>
       </c>
       <c r="C26" t="n">
         <v>134.157979114921</v>
@@ -21738,7 +21738,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>228.457587764971</v>
+        <v>228.303321129452</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -21749,7 +21749,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>228.172879311007</v>
+        <v>228.001842104848</v>
       </c>
       <c r="C27" t="n">
         <v>119.319157338402</v>
@@ -21770,7 +21770,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>198.172879311007</v>
+        <v>198.001842104848</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -21781,7 +21781,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>185.870753584355</v>
+        <v>185.724912452573</v>
       </c>
       <c r="C28" t="n">
         <v>95.7986239623335</v>
@@ -21802,7 +21802,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>154.870753584355</v>
+        <v>154.724912452573</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -21813,7 +21813,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>201.340010777765</v>
+        <v>201.267529978539</v>
       </c>
       <c r="C29" t="n">
         <v>100.67916568893</v>
@@ -21834,7 +21834,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>167.340010777765</v>
+        <v>167.267529978539</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -21845,7 +21845,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>224.143210128358</v>
+        <v>224.139989764082</v>
       </c>
       <c r="C30" t="n">
         <v>109.176162567026</v>
@@ -21866,7 +21866,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>187.143210128358</v>
+        <v>187.139989764082</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -21877,7 +21877,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>242.979179314435</v>
+        <v>242.996482802531</v>
       </c>
       <c r="C31" t="n">
         <v>116.290654176761</v>
@@ -21898,7 +21898,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>180.979179314435</v>
+        <v>180.996482802531</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -21909,7 +21909,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>248.607480857384</v>
+        <v>248.580584738038</v>
       </c>
       <c r="C32" t="n">
         <v>118.346324692068</v>
@@ -21930,7 +21930,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>169.607480857384</v>
+        <v>169.580584738038</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -21941,7 +21941,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>221.224724678546</v>
+        <v>221.128840406422</v>
       </c>
       <c r="C33" t="n">
         <v>106.424616810178</v>
@@ -21962,7 +21962,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>4.22472467854558</v>
+        <v>4.12884040642234</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -21973,7 +21973,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>211.198953388804</v>
+        <v>211.053920074947</v>
       </c>
       <c r="C34" t="n">
         <v>100.927547719168</v>
@@ -21994,7 +21994,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>115.198953388804</v>
+        <v>115.053920074947</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -22005,7 +22005,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>196.99305622989</v>
+        <v>196.84028103001</v>
       </c>
       <c r="C35" t="n">
         <v>93.0236020266313</v>
@@ -22026,7 +22026,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>104.99305622989</v>
+        <v>104.84028103001</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -22037,7 +22037,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>209.760677943712</v>
+        <v>209.597403124517</v>
       </c>
       <c r="C36" t="n">
         <v>97.8581936242163</v>
@@ -22058,7 +22058,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>135.760677943712</v>
+        <v>135.597403124517</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -22069,7 +22069,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>192.61402203265</v>
+        <v>192.445091333447</v>
       </c>
       <c r="C37" t="n">
         <v>88.5834279649098</v>
@@ -22090,7 +22090,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>113.61402203265</v>
+        <v>113.445091333447</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -22101,7 +22101,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>245.95844501625</v>
+        <v>245.790031746996</v>
       </c>
       <c r="C38" t="n">
         <v>112.308180206335</v>
@@ -22122,7 +22122,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>96.9584450162503</v>
+        <v>96.7900317469961</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -22133,7 +22133,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>221.228557228092</v>
+        <v>221.054212178759</v>
       </c>
       <c r="C39" t="n">
         <v>101.207949838748</v>
@@ -22154,7 +22154,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>104.228557228092</v>
+        <v>104.054212178759</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -22165,7 +22165,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>182.131901250481</v>
+        <v>181.967648563646</v>
       </c>
       <c r="C40" t="n">
         <v>83.0116631349196</v>
@@ -22186,7 +22186,7 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>44.1319012504806</v>
+        <v>43.9676485636462</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -22197,7 +22197,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>197.378386954624</v>
+        <v>197.252236599127</v>
       </c>
       <c r="C41" t="n">
         <v>86.9334213348252</v>
@@ -22218,7 +22218,7 @@
         <v>189</v>
       </c>
       <c r="I41" t="n">
-        <v>8.37838695462355</v>
+        <v>8.25223659912749</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -22229,7 +22229,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>219.371402312582</v>
+        <v>219.292279022977</v>
       </c>
       <c r="C42" t="n">
         <v>93.6571044391284</v>
@@ -22250,7 +22250,7 @@
         <v>212</v>
       </c>
       <c r="I42" t="n">
-        <v>7.37140231258218</v>
+        <v>7.29227902297689</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -22261,7 +22261,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>237.174838257185</v>
+        <v>237.12362307858</v>
       </c>
       <c r="C43" t="n">
         <v>99.2517317100058</v>
@@ -22280,7 +22280,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="n">
-        <v>-26.8251617428153</v>
+        <v>-26.8763769214198</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -22291,7 +22291,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>241.924922817947</v>
+        <v>241.864892033402</v>
       </c>
       <c r="C44" t="n">
         <v>100.920066976276</v>
@@ -22310,7 +22310,7 @@
         <v>289</v>
       </c>
       <c r="I44" t="n">
-        <v>-47.075077182053</v>
+        <v>-47.1351079665985</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -22321,7 +22321,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>215.595537770263</v>
+        <v>215.501262808985</v>
       </c>
       <c r="C45" t="n">
         <v>91.7275272606993</v>
@@ -22342,7 +22342,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="n">
-        <v>-18.4044622297369</v>
+        <v>-18.4987371910153</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -22353,7 +22353,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>205.998205137904</v>
+        <v>205.868193659065</v>
       </c>
       <c r="C46" t="n">
         <v>87.4616264499305</v>
@@ -22374,7 +22374,7 @@
         <v>193</v>
       </c>
       <c r="I46" t="n">
-        <v>12.9982051379036</v>
+        <v>12.8681936590648</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -22385,7 +22385,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>192.833854852692</v>
+        <v>192.685831612078</v>
       </c>
       <c r="C47" t="n">
         <v>81.2251701356311</v>
@@ -22406,7 +22406,7 @@
         <v>193</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.166145147307532</v>
+        <v>-0.314168387921683</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -22417,7 +22417,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>205.008907561576</v>
+        <v>204.849063984109</v>
       </c>
       <c r="C48" t="n">
         <v>85.1393611578737</v>
@@ -22438,7 +22438,7 @@
         <v>183</v>
       </c>
       <c r="I48" t="n">
-        <v>22.0089075615764</v>
+        <v>21.8490639841088</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -22449,7 +22449,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>188.850666234453</v>
+        <v>188.68348462555</v>
       </c>
       <c r="C49" t="n">
         <v>77.7493379541003</v>
@@ -22470,7 +22470,7 @@
         <v>245</v>
       </c>
       <c r="I49" t="n">
-        <v>-56.1493337655474</v>
+        <v>-56.3165153744503</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -25623,13 +25623,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>6.61339403085633</v>
+        <v>6.66250749374146</v>
       </c>
       <c r="C2" t="n">
-        <v>1.71384632632436</v>
+        <v>1.76906389731537</v>
       </c>
       <c r="D2" t="n">
-        <v>0.935400721088749</v>
+        <v>0.96170599535778</v>
       </c>
       <c r="E2" t="n">
         <v>25.7547460729481</v>
@@ -25644,7 +25644,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.61339403085633</v>
+        <v>3.66250749374146</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -25655,7 +25655,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1.53924752541824</v>
+        <v>1.58846376328979</v>
       </c>
       <c r="C3" t="n">
         <v>0.372758635171077</v>
@@ -25664,10 +25664,10 @@
         <v>0.212583929330075</v>
       </c>
       <c r="E3" t="n">
-        <v>8.02461657638883</v>
+        <v>8.16701083035635</v>
       </c>
       <c r="F3" t="n">
-        <v>14.690560017861</v>
+        <v>14.8167721498363</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.53924752541824</v>
+        <v>1.58846376328979</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -25687,19 +25687,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2.42068284632312</v>
+        <v>2.36988938610457</v>
       </c>
       <c r="C4" t="n">
         <v>0.815138299490079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.434828833843475</v>
+        <v>0.441591867678531</v>
       </c>
       <c r="E4" t="n">
-        <v>8.82953447217458</v>
+        <v>8.4085993483013</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0548393590242</v>
+        <v>13.7841235172095</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -25708,7 +25708,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.579317153676882</v>
+        <v>-0.630110613895432</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -25719,7 +25719,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2.72859039055575</v>
+        <v>2.74826721932213</v>
       </c>
       <c r="C5" t="n">
         <v>0.552248972702635</v>
@@ -25728,10 +25728,10 @@
         <v>0.332762486233109</v>
       </c>
       <c r="E5" t="n">
-        <v>14.526428013088</v>
+        <v>14.0112846343969</v>
       </c>
       <c r="F5" t="n">
-        <v>29.1425376584722</v>
+        <v>28.9519540635226</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -25740,7 +25740,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.27140960944425</v>
+        <v>-1.25173278067787</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -25751,13 +25751,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4.44662128559198</v>
+        <v>4.49774878103156</v>
       </c>
       <c r="C6" t="n">
-        <v>1.1714321483582</v>
+        <v>1.20901257096149</v>
       </c>
       <c r="D6" t="n">
-        <v>0.676263424827495</v>
+        <v>0.708512463542788</v>
       </c>
       <c r="E6" t="n">
         <v>15.0770033838258</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.44662128559198</v>
+        <v>4.49774878103156</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -25783,13 +25783,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5610129694072</v>
+        <v>21.6312823228682</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0646540763626</v>
+        <v>3.01984371100018</v>
       </c>
       <c r="D7" t="n">
-        <v>1.67759538443593</v>
+        <v>1.6813934317748</v>
       </c>
       <c r="E7" t="n">
         <v>98.2266998395015</v>
@@ -25804,7 +25804,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>15.5610129694072</v>
+        <v>15.6312823228682</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -25815,13 +25815,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>125.596975177098</v>
+        <v>126.658815983117</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0489842657416</v>
+        <v>13.0421700823995</v>
       </c>
       <c r="D8" t="n">
-        <v>6.30756629395682</v>
+        <v>5.9181619613134</v>
       </c>
       <c r="E8" t="n">
         <v>768.650592561731</v>
@@ -25836,7 +25836,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>56.5969751770983</v>
+        <v>57.6588159831166</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -25847,13 +25847,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>273.749845313821</v>
+        <v>273.376318624738</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0245062476217</v>
+        <v>29.7794273734614</v>
       </c>
       <c r="D9" t="n">
-        <v>14.5697391733797</v>
+        <v>14.7627610042268</v>
       </c>
       <c r="E9" t="n">
         <v>2019.64011076494</v>
@@ -25868,7 +25868,7 @@
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>204.749845313821</v>
+        <v>204.376318624738</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -25879,13 +25879,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>157.978974079823</v>
+        <v>156.841991135017</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7298303797906</v>
+        <v>23.842544515427</v>
       </c>
       <c r="D10" t="n">
-        <v>11.3144969223489</v>
+        <v>10.9318220498921</v>
       </c>
       <c r="E10" t="n">
         <v>972.339310577595</v>
@@ -25900,7 +25900,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>20.9789740798229</v>
+        <v>19.8419911350173</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -25911,19 +25911,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>51.0001191234924</v>
+        <v>50.2497369891864</v>
       </c>
       <c r="C11" t="n">
-        <v>9.78737362753133</v>
+        <v>9.38459727026473</v>
       </c>
       <c r="D11" t="n">
-        <v>5.17704003076194</v>
+        <v>5.29300640975775</v>
       </c>
       <c r="E11" t="n">
-        <v>256.907739872795</v>
+        <v>256.700705213884</v>
       </c>
       <c r="F11" t="n">
-        <v>1034.83477979007</v>
+        <v>1071.50449785233</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -25932,7 +25932,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>9.00011912349243</v>
+        <v>8.24973698918642</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -25943,13 +25943,13 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>14.7039920128763</v>
+        <v>14.6401000753397</v>
       </c>
       <c r="C12" t="n">
-        <v>2.13910060301132</v>
+        <v>2.08760937265144</v>
       </c>
       <c r="D12" t="n">
-        <v>1.19998487173094</v>
+        <v>1.18503664008385</v>
       </c>
       <c r="E12" t="n">
         <v>62.4445051708795</v>
@@ -25964,7 +25964,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>4.70399201287634</v>
+        <v>4.6401000753397</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -25975,13 +25975,13 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>13.4071591749619</v>
+        <v>13.4665560660487</v>
       </c>
       <c r="C13" t="n">
-        <v>2.67087669452912</v>
+        <v>2.7539174882069</v>
       </c>
       <c r="D13" t="n">
-        <v>1.48357795351629</v>
+        <v>1.4861405811425</v>
       </c>
       <c r="E13" t="n">
         <v>52.5553612907009</v>
@@ -25996,7 +25996,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.40715917496191</v>
+        <v>5.46655606604865</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -26007,13 +26007,13 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>6.04577558998583</v>
+        <v>6.07652245921715</v>
       </c>
       <c r="C14" t="n">
-        <v>1.09401856097545</v>
+        <v>1.13011053953625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.591108601445739</v>
+        <v>0.624567652232813</v>
       </c>
       <c r="E14" t="n">
         <v>24.7313709130127</v>
@@ -26028,7 +26028,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.04577558998583</v>
+        <v>2.07652245921715</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -26039,7 +26039,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1.62292073304155</v>
+        <v>1.70050439459169</v>
       </c>
       <c r="C15" t="n">
         <v>0.34173902786974</v>
@@ -26048,10 +26048,10 @@
         <v>0.18988574898875</v>
       </c>
       <c r="E15" t="n">
-        <v>10.6000074624961</v>
+        <v>10.4895234420534</v>
       </c>
       <c r="F15" t="n">
-        <v>21.3597192738367</v>
+        <v>21.5462517647767</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -26060,7 +26060,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.62292073304155</v>
+        <v>1.70050439459169</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -26071,7 +26071,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2.43902170556623</v>
+        <v>2.46288204011034</v>
       </c>
       <c r="C16" t="n">
         <v>0.731120047637031</v>
@@ -26080,10 +26080,10 @@
         <v>0.440554484730014</v>
       </c>
       <c r="E16" t="n">
-        <v>11.2997721703474</v>
+        <v>10.6822742249433</v>
       </c>
       <c r="F16" t="n">
-        <v>21.3150661704143</v>
+        <v>21.093720200504</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -26092,7 +26092,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.43902170556623</v>
+        <v>2.46288204011034</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -26103,7 +26103,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2.52382018049095</v>
+        <v>2.57122028212419</v>
       </c>
       <c r="C17" t="n">
         <v>0.482897148267451</v>
@@ -26112,10 +26112,10 @@
         <v>0.288536235127918</v>
       </c>
       <c r="E17" t="n">
-        <v>14.5166187509783</v>
+        <v>14.6911576658988</v>
       </c>
       <c r="F17" t="n">
-        <v>35.6869458469313</v>
+        <v>35.9441694586046</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -26124,7 +26124,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.52382018049095</v>
+        <v>2.57122028212419</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -26135,19 +26135,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4.25684094189626</v>
+        <v>4.32743205941899</v>
       </c>
       <c r="C18" t="n">
-        <v>0.981655983715411</v>
+        <v>1.0256770092516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.489218228380278</v>
+        <v>0.49281724821458</v>
       </c>
       <c r="E18" t="n">
-        <v>13.6222248831502</v>
+        <v>13.6771339236151</v>
       </c>
       <c r="F18" t="n">
-        <v>28.2079069945859</v>
+        <v>28.8802287237437</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -26156,7 +26156,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.25684094189626</v>
+        <v>2.32743205941899</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -26167,13 +26167,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>19.179806796231</v>
+        <v>19.3073622763229</v>
       </c>
       <c r="C19" t="n">
-        <v>1.75802182797102</v>
+        <v>1.79915410255924</v>
       </c>
       <c r="D19" t="n">
-        <v>0.890876647434352</v>
+        <v>0.890409130677</v>
       </c>
       <c r="E19" t="n">
         <v>92.6280768794243</v>
@@ -26188,7 +26188,7 @@
         <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>9.17980679623097</v>
+        <v>9.30736227632294</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -26199,13 +26199,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>106.750522498635</v>
+        <v>107.878250969663</v>
       </c>
       <c r="C20" t="n">
-        <v>4.31595614090595</v>
+        <v>4.27627336423925</v>
       </c>
       <c r="D20" t="n">
-        <v>2.13476502923437</v>
+        <v>2.10519286867444</v>
       </c>
       <c r="E20" t="n">
         <v>724.209356355475</v>
@@ -26220,7 +26220,7 @@
         <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>89.7505224986348</v>
+        <v>90.8782509696626</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -26231,13 +26231,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>240.552039084227</v>
+        <v>240.321684070477</v>
       </c>
       <c r="C21" t="n">
-        <v>11.1450217297426</v>
+        <v>10.8706433739138</v>
       </c>
       <c r="D21" t="n">
-        <v>4.58824055514309</v>
+        <v>4.47040584545298</v>
       </c>
       <c r="E21" t="n">
         <v>1889.68824444474</v>
@@ -26252,7 +26252,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>168.552039084227</v>
+        <v>168.321684070477</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -26263,19 +26263,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>145.09923233357</v>
+        <v>143.283120550459</v>
       </c>
       <c r="C22" t="n">
-        <v>12.0533161045344</v>
+        <v>11.8340802230896</v>
       </c>
       <c r="D22" t="n">
-        <v>5.03637241486694</v>
+        <v>4.90405950658008</v>
       </c>
       <c r="E22" t="n">
-        <v>969.818121777602</v>
+        <v>981.005736516422</v>
       </c>
       <c r="F22" t="n">
-        <v>3083.12274191528</v>
+        <v>3341.49426729651</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
@@ -26284,7 +26284,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="n">
-        <v>82.0992323335703</v>
+        <v>80.2831205504591</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -26295,19 +26295,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>49.2217327009639</v>
+        <v>47.5183156700205</v>
       </c>
       <c r="C23" t="n">
-        <v>7.14278759551399</v>
+        <v>6.99093389603094</v>
       </c>
       <c r="D23" t="n">
-        <v>2.24365412714104</v>
+        <v>2.11070058155268</v>
       </c>
       <c r="E23" t="n">
-        <v>642.333375213425</v>
+        <v>644.170350125728</v>
       </c>
       <c r="F23" t="n">
-        <v>2534.94540742405</v>
+        <v>2415.60222045247</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -26316,7 +26316,7 @@
         <v>39</v>
       </c>
       <c r="I23" t="n">
-        <v>10.2217327009639</v>
+        <v>8.51831567002051</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -26327,19 +26327,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>13.402162519522</v>
+        <v>13.2588187322911</v>
       </c>
       <c r="C24" t="n">
-        <v>1.47237125653532</v>
+        <v>1.48444926025171</v>
       </c>
       <c r="D24" t="n">
-        <v>0.503537323851039</v>
+        <v>0.50065891057571</v>
       </c>
       <c r="E24" t="n">
-        <v>97.7290696513368</v>
+        <v>101.641783645994</v>
       </c>
       <c r="F24" t="n">
-        <v>537.68325547293</v>
+        <v>573.974041560065</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -26348,7 +26348,7 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.597837480477974</v>
+        <v>-0.741181267708876</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -26359,19 +26359,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0909540809456</v>
+        <v>12.1800619026977</v>
       </c>
       <c r="C25" t="n">
-        <v>1.72223693293004</v>
+        <v>1.78233666568696</v>
       </c>
       <c r="D25" t="n">
-        <v>0.930168218638825</v>
+        <v>0.954139038702333</v>
       </c>
       <c r="E25" t="n">
         <v>49.6664732142419</v>
       </c>
       <c r="F25" t="n">
-        <v>165.655916322209</v>
+        <v>172.582270609358</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -26380,7 +26380,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>8.0909540809456</v>
+        <v>8.18006190269771</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -26391,19 +26391,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>5.6997444904522</v>
+        <v>5.74084085250191</v>
       </c>
       <c r="C26" t="n">
-        <v>0.913003237728339</v>
+        <v>0.942275908612807</v>
       </c>
       <c r="D26" t="n">
-        <v>0.393746166523519</v>
+        <v>0.408946871956239</v>
       </c>
       <c r="E26" t="n">
         <v>23.7328525940006</v>
       </c>
       <c r="F26" t="n">
-        <v>67.5647409664475</v>
+        <v>81.933312454281</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -26412,7 +26412,7 @@
         <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.3002555095478</v>
+        <v>-3.25915914749809</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -26423,7 +26423,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1.65009420745574</v>
+        <v>1.7329381633125</v>
       </c>
       <c r="C27" t="n">
         <v>0.313189897416424</v>
@@ -26432,10 +26432,10 @@
         <v>0.16921703356528</v>
       </c>
       <c r="E27" t="n">
-        <v>13.1313423908524</v>
+        <v>13.2851476460021</v>
       </c>
       <c r="F27" t="n">
-        <v>29.950827594058</v>
+        <v>31.3866541433433</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
@@ -26444,7 +26444,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.650094207455735</v>
+        <v>0.732938163312498</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -26455,7 +26455,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2.39360623182382</v>
+        <v>2.44687304446995</v>
       </c>
       <c r="C28" t="n">
         <v>0.638145684924395</v>
@@ -26464,10 +26464,10 @@
         <v>0.385724239402212</v>
       </c>
       <c r="E28" t="n">
-        <v>11.7176337247246</v>
+        <v>11.7893029578396</v>
       </c>
       <c r="F28" t="n">
-        <v>22.4464979989067</v>
+        <v>23.3539064831524</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -26476,7 +26476,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0.393606231823819</v>
+        <v>0.446873044469947</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -26487,7 +26487,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2.39792134067767</v>
+        <v>2.45886492128332</v>
       </c>
       <c r="C29" t="n">
         <v>0.419940569894246</v>
@@ -26496,10 +26496,10 @@
         <v>0.247603854009502</v>
       </c>
       <c r="E29" t="n">
-        <v>17.0347056553286</v>
+        <v>17.5857680944272</v>
       </c>
       <c r="F29" t="n">
-        <v>36.5104241355259</v>
+        <v>38.3799753197744</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
@@ -26508,7 +26508,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.39792134067767</v>
+        <v>2.45886492128332</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -26519,19 +26519,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4.0778551198391</v>
+        <v>4.15364456296338</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0729176389548</v>
+        <v>1.11172738665813</v>
       </c>
       <c r="D30" t="n">
-        <v>0.501455385180562</v>
+        <v>0.519495775985453</v>
       </c>
       <c r="E30" t="n">
-        <v>13.5115994945804</v>
+        <v>14.007803981349</v>
       </c>
       <c r="F30" t="n">
-        <v>34.0758130591032</v>
+        <v>38.1558092179143</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -26540,7 +26540,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4.0778551198391</v>
+        <v>4.15364456296338</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -26551,13 +26551,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>17.5368831800512</v>
+        <v>17.7305841680022</v>
       </c>
       <c r="C31" t="n">
-        <v>1.42454852203846</v>
+        <v>1.44214403538917</v>
       </c>
       <c r="D31" t="n">
-        <v>0.688705847681886</v>
+        <v>0.70556354262532</v>
       </c>
       <c r="E31" t="n">
         <v>88.306501050473</v>
@@ -26572,7 +26572,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>10.5368831800512</v>
+        <v>10.7305841680022</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -26583,13 +26583,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>94.3481199203058</v>
+        <v>95.1801356600107</v>
       </c>
       <c r="C32" t="n">
-        <v>2.39942201414265</v>
+        <v>2.45289376297276</v>
       </c>
       <c r="D32" t="n">
-        <v>1.26198826247827</v>
+        <v>1.25820370165965</v>
       </c>
       <c r="E32" t="n">
         <v>681.768118514751</v>
@@ -26604,7 +26604,7 @@
         <v>13</v>
       </c>
       <c r="I32" t="n">
-        <v>81.3481199203058</v>
+        <v>82.1801356600107</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -26615,13 +26615,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>213.412200077051</v>
+        <v>213.954088474444</v>
       </c>
       <c r="C33" t="n">
-        <v>4.75641585458975</v>
+        <v>4.72428541804821</v>
       </c>
       <c r="D33" t="n">
-        <v>1.98792327830748</v>
+        <v>1.93508405131803</v>
       </c>
       <c r="E33" t="n">
         <v>1766.54616836627</v>
@@ -26636,7 +26636,7 @@
         <v>57</v>
       </c>
       <c r="I33" t="n">
-        <v>156.412200077051</v>
+        <v>156.954088474444</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -26647,19 +26647,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>131.446075449515</v>
+        <v>129.674793559262</v>
       </c>
       <c r="C34" t="n">
-        <v>6.71441155522144</v>
+        <v>6.46409056423479</v>
       </c>
       <c r="D34" t="n">
-        <v>2.48742097344252</v>
+        <v>2.3273801105923</v>
       </c>
       <c r="E34" t="n">
-        <v>979.130527688672</v>
+        <v>1084.29190614508</v>
       </c>
       <c r="F34" t="n">
-        <v>4229.35570659628</v>
+        <v>4668.51771802788</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -26668,7 +26668,7 @@
         <v>53</v>
       </c>
       <c r="I34" t="n">
-        <v>78.4460754495154</v>
+        <v>76.6747935592616</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -26679,19 +26679,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>46.6536933379487</v>
+        <v>44.1895205741822</v>
       </c>
       <c r="C35" t="n">
-        <v>4.36788628278593</v>
+        <v>4.26799904504562</v>
       </c>
       <c r="D35" t="n">
-        <v>1.49914787964616</v>
+        <v>1.56671280425708</v>
       </c>
       <c r="E35" t="n">
-        <v>809.775280323818</v>
+        <v>821.701763725472</v>
       </c>
       <c r="F35" t="n">
-        <v>4777.6702048788</v>
+        <v>5160.6472963893</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
@@ -26700,7 +26700,7 @@
         <v>27</v>
       </c>
       <c r="I35" t="n">
-        <v>19.6536933379487</v>
+        <v>17.1895205741822</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -26711,19 +26711,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>12.3225060397798</v>
+        <v>12.1599372841704</v>
       </c>
       <c r="C36" t="n">
-        <v>1.24593167612044</v>
+        <v>1.27237417225759</v>
       </c>
       <c r="D36" t="n">
-        <v>0.372217547701713</v>
+        <v>0.364188473510942</v>
       </c>
       <c r="E36" t="n">
-        <v>268.039687132664</v>
+        <v>297.45159745632</v>
       </c>
       <c r="F36" t="n">
-        <v>1101.99130829413</v>
+        <v>1112.77659050935</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -26732,7 +26732,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>11.3225060397798</v>
+        <v>11.1599372841704</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -26743,19 +26743,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>11.1050299655315</v>
+        <v>11.1242292588161</v>
       </c>
       <c r="C37" t="n">
-        <v>1.27423473434756</v>
+        <v>1.28015175054352</v>
       </c>
       <c r="D37" t="n">
-        <v>0.549206696041159</v>
+        <v>0.584771951014659</v>
       </c>
       <c r="E37" t="n">
-        <v>59.9241721993283</v>
+        <v>66.4277193777843</v>
       </c>
       <c r="F37" t="n">
-        <v>432.165417577036</v>
+        <v>404.289913511121</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
@@ -26764,7 +26764,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>8.10502996553152</v>
+        <v>8.12422925881605</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -26775,19 +26775,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>5.45846069159718</v>
+        <v>5.52538893360663</v>
       </c>
       <c r="C38" t="n">
-        <v>0.891907986448042</v>
+        <v>0.953780896786742</v>
       </c>
       <c r="D38" t="n">
-        <v>0.416515218708507</v>
+        <v>0.481719220190893</v>
       </c>
       <c r="E38" t="n">
-        <v>23.8729886508541</v>
+        <v>26.7082245159605</v>
       </c>
       <c r="F38" t="n">
-        <v>111.696434443747</v>
+        <v>137.670110105824</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -26796,7 +26796,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>1.45846069159718</v>
+        <v>1.52538893360663</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -26807,7 +26807,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1.64001137138711</v>
+        <v>1.71932139481406</v>
       </c>
       <c r="C39" t="n">
         <v>0.286870901848305</v>
@@ -26816,10 +26816,10 @@
         <v>0.150355146974437</v>
       </c>
       <c r="E39" t="n">
-        <v>15.0937948714504</v>
+        <v>15.5097611921752</v>
       </c>
       <c r="F39" t="n">
-        <v>33.8474482546117</v>
+        <v>39.8683849904379</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -26828,7 +26828,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.640011371387111</v>
+        <v>0.719321394814062</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -26839,7 +26839,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>2.33059486625546</v>
+        <v>2.39538242792128</v>
       </c>
       <c r="C40" t="n">
         <v>0.552956021993513</v>
@@ -26848,10 +26848,10 @@
         <v>0.330024661116695</v>
       </c>
       <c r="E40" t="n">
-        <v>12.8461928629345</v>
+        <v>13.1890722822479</v>
       </c>
       <c r="F40" t="n">
-        <v>26.0098536209067</v>
+        <v>27.6988586476406</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -26860,7 +26860,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.66940513374454</v>
+        <v>-0.604617572078722</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -26871,7 +26871,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2.3089810558588</v>
+        <v>2.37621342742611</v>
       </c>
       <c r="C41" t="n">
         <v>0.361895627584684</v>
@@ -26880,10 +26880,10 @@
         <v>0.208902342815684</v>
       </c>
       <c r="E41" t="n">
-        <v>15.5195118945883</v>
+        <v>16.5051434597949</v>
       </c>
       <c r="F41" t="n">
-        <v>51.2074960803895</v>
+        <v>56.7768407367513</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -26892,7 +26892,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1.3089810558588</v>
+        <v>1.37621342742611</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -26903,19 +26903,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>3.91001799842678</v>
+        <v>3.98613145113743</v>
       </c>
       <c r="C42" t="n">
-        <v>1.09091211148444</v>
+        <v>1.1070500103349</v>
       </c>
       <c r="D42" t="n">
-        <v>0.528964959742493</v>
+        <v>0.541927961568761</v>
       </c>
       <c r="E42" t="n">
-        <v>13.6768363037465</v>
+        <v>15.0517366293281</v>
       </c>
       <c r="F42" t="n">
-        <v>29.2622644187955</v>
+        <v>32.4006054176893</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
@@ -26924,7 +26924,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.91001799842678</v>
+        <v>3.98613145113743</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -26935,13 +26935,13 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>16.2719020176282</v>
+        <v>16.3796020055178</v>
       </c>
       <c r="C43" t="n">
-        <v>1.36819185675874</v>
+        <v>1.3889206674761</v>
       </c>
       <c r="D43" t="n">
-        <v>0.656037750783199</v>
+        <v>0.676485546057017</v>
       </c>
       <c r="E43" t="n">
         <v>84.1320743576588</v>
@@ -26956,7 +26956,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>13.2719020176282</v>
+        <v>13.3796020055178</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -26967,13 +26967,13 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>85.8339067379157</v>
+        <v>86.2409458167449</v>
       </c>
       <c r="C44" t="n">
-        <v>1.80486250515511</v>
+        <v>1.81202740657455</v>
       </c>
       <c r="D44" t="n">
-        <v>0.891986956058679</v>
+        <v>0.879477884525557</v>
       </c>
       <c r="E44" t="n">
         <v>642.299905529382</v>
@@ -26988,7 +26988,7 @@
         <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>52.8339067379157</v>
+        <v>53.2409458167449</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -26999,13 +26999,13 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>190.803056315349</v>
+        <v>191.972103798058</v>
       </c>
       <c r="C45" t="n">
-        <v>2.89456086123589</v>
+        <v>2.93477224333723</v>
       </c>
       <c r="D45" t="n">
-        <v>1.32896278732901</v>
+        <v>1.31469422001896</v>
       </c>
       <c r="E45" t="n">
         <v>1719.43553183778</v>
@@ -27020,7 +27020,7 @@
         <v>80</v>
       </c>
       <c r="I45" t="n">
-        <v>110.803056315349</v>
+        <v>111.972103798058</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -27031,19 +27031,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>118.194740534741</v>
+        <v>116.876008155329</v>
       </c>
       <c r="C46" t="n">
-        <v>3.81738017557257</v>
+        <v>3.68904673874995</v>
       </c>
       <c r="D46" t="n">
-        <v>1.40758869465625</v>
+        <v>1.3760231124291</v>
       </c>
       <c r="E46" t="n">
-        <v>969.651391951747</v>
+        <v>1061.17329511052</v>
       </c>
       <c r="F46" t="n">
-        <v>4008.2417794671</v>
+        <v>4461.96982786221</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -27052,7 +27052,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="n">
-        <v>56.194740534741</v>
+        <v>54.876008155329</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -27063,19 +27063,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>42.9089483472547</v>
+        <v>40.2208495643069</v>
       </c>
       <c r="C47" t="n">
-        <v>3.47438097015093</v>
+        <v>3.30374837038492</v>
       </c>
       <c r="D47" t="n">
-        <v>1.2611293282039</v>
+        <v>1.29027919333591</v>
       </c>
       <c r="E47" t="n">
-        <v>999.590100033081</v>
+        <v>1053.45349807477</v>
       </c>
       <c r="F47" t="n">
-        <v>3526.58492230075</v>
+        <v>3818.43650351315</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -27084,7 +27084,7 @@
         <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>10.9089483472547</v>
+        <v>8.22084956430689</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -27095,19 +27095,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>11.3941267956448</v>
+        <v>11.2682824482455</v>
       </c>
       <c r="C48" t="n">
-        <v>1.27215907253003</v>
+        <v>1.34822877353143</v>
       </c>
       <c r="D48" t="n">
-        <v>0.423909226153399</v>
+        <v>0.474149971162477</v>
       </c>
       <c r="E48" t="n">
-        <v>384.624038843627</v>
+        <v>410.629249077295</v>
       </c>
       <c r="F48" t="n">
-        <v>1878.84754389759</v>
+        <v>1964.73213857857</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -27116,7 +27116,7 @@
         <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.60587320435519</v>
+        <v>-0.731717551754496</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -27127,19 +27127,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>10.3951075335447</v>
+        <v>10.3866343766905</v>
       </c>
       <c r="C49" t="n">
-        <v>1.24965742686655</v>
+        <v>1.2615261125239</v>
       </c>
       <c r="D49" t="n">
-        <v>0.467758899440549</v>
+        <v>0.526802574452713</v>
       </c>
       <c r="E49" t="n">
-        <v>138.525814502984</v>
+        <v>148.890168756189</v>
       </c>
       <c r="F49" t="n">
-        <v>885.922915122015</v>
+        <v>958.886497285805</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -27148,7 +27148,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>6.39510753354473</v>
+        <v>6.38663437669055</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -28787,7 +28787,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2402.70771303565</v>
+        <v>2407.26005985234</v>
       </c>
       <c r="C2" t="n">
         <v>1633.27197842897</v>
@@ -28808,7 +28808,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>263.707713035646</v>
+        <v>268.260059852337</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -28819,7 +28819,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2001.48026539679</v>
+        <v>2018.8998822743</v>
       </c>
       <c r="C3" t="n">
         <v>1286.3292057678</v>
@@ -28840,7 +28840,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>329.480265396795</v>
+        <v>346.8998822743</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -28851,7 +28851,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3303.14656355986</v>
+        <v>3329.38216340279</v>
       </c>
       <c r="C4" t="n">
         <v>1861.59646857859</v>
@@ -28872,7 +28872,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1292.14656355986</v>
+        <v>1318.38216340279</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -28883,7 +28883,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3862.47123435148</v>
+        <v>3863.88302031525</v>
       </c>
       <c r="C5" t="n">
         <v>1869.92943209503</v>
@@ -28904,7 +28904,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1632.47123435148</v>
+        <v>1633.88302031525</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -28915,7 +28915,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4703.07151478457</v>
+        <v>4699.73474512466</v>
       </c>
       <c r="C6" t="n">
         <v>1950.39123042886</v>
@@ -28934,7 +28934,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>2235.07151478457</v>
+        <v>2231.73474512466</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -28945,7 +28945,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5479.18520963283</v>
+        <v>5473.83545062425</v>
       </c>
       <c r="C7" t="n">
         <v>1978.30536581012</v>
@@ -28964,7 +28964,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2691.18520963283</v>
+        <v>2685.83545062425</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -28975,7 +28975,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5831.63552480539</v>
+        <v>5866.59335341536</v>
       </c>
       <c r="C8" t="n">
         <v>1833.29797695987</v>
@@ -28994,7 +28994,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3270.63552480539</v>
+        <v>3305.59335341536</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -29005,7 +29005,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5536.96770723621</v>
+        <v>5521.43998099211</v>
       </c>
       <c r="C9" t="n">
         <v>1762.8312812186</v>
@@ -29022,7 +29022,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2975.96770723621</v>
+        <v>2960.43998099211</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -29033,7 +29033,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>5768.8377841194</v>
+        <v>5743.47124526783</v>
       </c>
       <c r="C10" t="n">
         <v>1671.98302734375</v>
@@ -29050,7 +29050,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>3219.8377841194</v>
+        <v>3194.47124526783</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -29061,7 +29061,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4137.77005626341</v>
+        <v>4138.56377056243</v>
       </c>
       <c r="C11" t="n">
         <v>1261.99042438784</v>
@@ -29078,7 +29078,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1839.77005626341</v>
+        <v>1840.56377056243</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -29089,7 +29089,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3585.27852827111</v>
+        <v>3581.73618091591</v>
       </c>
       <c r="C12" t="n">
         <v>969.884891962845</v>
@@ -29108,7 +29108,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1047.27852827111</v>
+        <v>1043.73618091591</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -29119,7 +29119,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3400.5790400826</v>
+        <v>3358.21554474726</v>
       </c>
       <c r="C13" t="n">
         <v>869.151839116258</v>
@@ -29138,7 +29138,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>817.579040082598</v>
+        <v>775.215544747256</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -29149,7 +29149,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2666.94836943159</v>
+        <v>2634.07828418953</v>
       </c>
       <c r="C14" t="n">
         <v>704.009170897208</v>
@@ -29168,7 +29168,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>361.948369431594</v>
+        <v>329.078284189532</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -29179,7 +29179,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2111.01013958924</v>
+        <v>2124.71474965008</v>
       </c>
       <c r="C15" t="n">
         <v>620.810268875412</v>
@@ -29198,7 +29198,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>238.010139589237</v>
+        <v>251.714749650082</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -29209,7 +29209,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3560.90270146014</v>
+        <v>3630.19251646588</v>
       </c>
       <c r="C16" t="n">
         <v>826.880181493472</v>
@@ -29226,7 +29226,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>675.902701460135</v>
+        <v>745.192516465883</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -29237,7 +29237,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4287.16347024264</v>
+        <v>4320.58659716922</v>
       </c>
       <c r="C17" t="n">
         <v>858.952611988526</v>
@@ -29254,7 +29254,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>1479.16347024264</v>
+        <v>1512.58659716922</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -29265,7 +29265,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5318.80127227683</v>
+        <v>5323.74142614634</v>
       </c>
       <c r="C18" t="n">
         <v>895.596690032804</v>
@@ -29282,7 +29282,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>2770.80127227683</v>
+        <v>2775.74142614634</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -29293,7 +29293,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6302.64851567387</v>
+        <v>6316.81722334845</v>
       </c>
       <c r="C19" t="n">
         <v>881.072998909501</v>
@@ -29310,7 +29310,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>3835.64851567387</v>
+        <v>3849.81722334845</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -29321,7 +29321,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6785.41798584851</v>
+        <v>6796.63931037023</v>
       </c>
       <c r="C20" t="n">
         <v>838.993547247307</v>
@@ -29338,7 +29338,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>4219.41798584851</v>
+        <v>4230.63931037023</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -29349,7 +29349,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6578.57463473791</v>
+        <v>6496.64523287042</v>
       </c>
       <c r="C21" t="n">
         <v>817.637357323032</v>
@@ -29366,7 +29366,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>4562.57463473791</v>
+        <v>4480.64523287042</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -29377,7 +29377,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7039.96563853553</v>
+        <v>7012.06497656716</v>
       </c>
       <c r="C22" t="n">
         <v>831.376402430949</v>
@@ -29394,7 +29394,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>4718.96563853553</v>
+        <v>4691.06497656716</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -29405,7 +29405,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4758.21348127281</v>
+        <v>4749.79352760644</v>
       </c>
       <c r="C23" t="n">
         <v>644.002529459521</v>
@@ -29422,7 +29422,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2764.21348127281</v>
+        <v>2755.79352760644</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -29433,7 +29433,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3977.0024738841</v>
+        <v>3963.84516926215</v>
       </c>
       <c r="C24" t="n">
         <v>529.289324195627</v>
@@ -29450,7 +29450,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1759.0024738841</v>
+        <v>1745.84516926215</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -29461,7 +29461,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3723.80738543777</v>
+        <v>3655.09879317301</v>
       </c>
       <c r="C25" t="n">
         <v>486.206679596038</v>
@@ -29478,7 +29478,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>1210.80738543777</v>
+        <v>1142.09879317301</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -29489,7 +29489,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2930.82299282115</v>
+        <v>2842.95192899957</v>
       </c>
       <c r="C26" t="n">
         <v>412.59358200493</v>
@@ -29506,7 +29506,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1119.82299282115</v>
+        <v>1031.95192899957</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -29517,7 +29517,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2327.83724354733</v>
+        <v>2310.93269990942</v>
       </c>
       <c r="C27" t="n">
         <v>373.028901856287</v>
@@ -29534,7 +29534,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>766.837243547332</v>
+        <v>749.932699909424</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -29545,7 +29545,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3899.33224917551</v>
+        <v>4031.52322080693</v>
       </c>
       <c r="C28" t="n">
         <v>464.194486355487</v>
@@ -29562,7 +29562,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>1340.33224917551</v>
+        <v>1472.52322080693</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -29573,7 +29573,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>4882.40766957884</v>
+        <v>4954.20338559115</v>
       </c>
       <c r="C29" t="n">
         <v>476.177766463081</v>
@@ -29590,7 +29590,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>2427.40766957884</v>
+        <v>2499.20338559115</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -29601,7 +29601,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6239.55667771609</v>
+        <v>6279.8752145587</v>
       </c>
       <c r="C30" t="n">
         <v>489.634288162944</v>
@@ -29618,7 +29618,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>3730.55667771609</v>
+        <v>3770.8752145587</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -29629,7 +29629,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7438.61048195994</v>
+        <v>7486.9677543891</v>
       </c>
       <c r="C31" t="n">
         <v>481.829606275177</v>
@@ -29646,7 +29646,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>4533.61048195994</v>
+        <v>4581.9677543891</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -29657,7 +29657,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8067.95444923309</v>
+        <v>8089.73202577776</v>
       </c>
       <c r="C32" t="n">
         <v>462.609879544857</v>
@@ -29674,7 +29674,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>5438.95444923309</v>
+        <v>5460.73202577776</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -29685,7 +29685,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>8017.27685795281</v>
+        <v>7870.76745816951</v>
       </c>
       <c r="C33" t="n">
         <v>451.915901865992</v>
@@ -29702,7 +29702,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>5750.27685795281</v>
+        <v>5603.76745816951</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -29713,7 +29713,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>9114.38352647233</v>
+        <v>9055.33050385817</v>
       </c>
       <c r="C34" t="n">
         <v>455.790631074488</v>
@@ -29730,7 +29730,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>6841.38352647233</v>
+        <v>6782.33050385817</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -29741,7 +29741,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5498.08976634855</v>
+        <v>5467.28669573564</v>
       </c>
       <c r="C35" t="n">
         <v>373.688438016733</v>
@@ -29758,7 +29758,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>3489.08976634855</v>
+        <v>3458.28669573564</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -29769,7 +29769,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>4401.76012320064</v>
+        <v>4379.98854504579</v>
       </c>
       <c r="C36" t="n">
         <v>319.503549808776</v>
@@ -29786,7 +29786,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2663.76012320064</v>
+        <v>2641.98854504579</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -29797,7 +29797,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>4130.66224082151</v>
+        <v>4039.45106721789</v>
       </c>
       <c r="C37" t="n">
         <v>297.73148947968</v>
@@ -29814,7 +29814,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>2561.66224082151</v>
+        <v>2470.45106721789</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -29825,7 +29825,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3228.09523297912</v>
+        <v>3076.57510938606</v>
       </c>
       <c r="C38" t="n">
         <v>260.285302625306</v>
@@ -29842,7 +29842,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>2072.09523297912</v>
+        <v>1920.57510938606</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -29853,7 +29853,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2598.9045410717</v>
+        <v>2529.6618615194</v>
       </c>
       <c r="C39" t="n">
         <v>239.17294926951</v>
@@ -29870,7 +29870,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>640.904541071697</v>
+        <v>571.661861519399</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -29881,7 +29881,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4464.92660154191</v>
+        <v>4656.81699760469</v>
       </c>
       <c r="C40" t="n">
         <v>284.017885206015</v>
@@ -29898,7 +29898,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>2256.92660154191</v>
+        <v>2448.81699760469</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -29909,7 +29909,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5740.36449480839</v>
+        <v>5830.93670650761</v>
       </c>
       <c r="C41" t="n">
         <v>288.783617936611</v>
@@ -29926,7 +29926,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>3530.36449480839</v>
+        <v>3620.93670650761</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -29937,7 +29937,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>7647.62828626251</v>
+        <v>7711.91496244647</v>
       </c>
       <c r="C42" t="n">
         <v>294.140923419574</v>
@@ -29954,7 +29954,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>5336.62828626251</v>
+        <v>5400.91496244647</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -29965,7 +29965,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>9229.14436338499</v>
+        <v>9351.4530621272</v>
       </c>
       <c r="C43" t="n">
         <v>289.41780500164</v>
@@ -29982,7 +29982,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>4244.14436338499</v>
+        <v>4366.4530621272</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -29993,7 +29993,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>10091.8999476586</v>
+        <v>10112.6852209278</v>
       </c>
       <c r="C44" t="n">
         <v>279.312250831187</v>
@@ -30010,7 +30010,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-3333.10005234145</v>
+        <v>-3312.31477907216</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>10495.8093384189</v>
+        <v>10298.3624216335</v>
       </c>
       <c r="C45" t="n">
         <v>273.258946939084</v>
@@ -30038,7 +30038,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-2246.19066158111</v>
+        <v>-2443.63757836652</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -30049,7 +30049,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>13160.8096358545</v>
+        <v>13023.05875165</v>
       </c>
       <c r="C46" t="n">
         <v>274.145278265379</v>
@@ -30066,7 +30066,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-112103.190364146</v>
+        <v>-112240.94124835</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -30077,7 +30077,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>6783.51432919974</v>
+        <v>6687.96012936425</v>
       </c>
       <c r="C47" t="n">
         <v>233.411535381495</v>
@@ -30094,7 +30094,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-16327.4856708003</v>
+        <v>-16423.0398706357</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -30105,7 +30105,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>5147.58087891026</v>
+        <v>5074.62523025919</v>
       </c>
       <c r="C48" t="n">
         <v>205.103379075145</v>
@@ -30122,7 +30122,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>207.580878910259</v>
+        <v>134.625230259192</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -30133,7 +30133,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>4793.7758168203</v>
+        <v>4647.81820001556</v>
       </c>
       <c r="C49" t="n">
         <v>193.094486033486</v>
@@ -30150,7 +30150,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>920.7758168203</v>
+        <v>774.818200015562</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -30207,7 +30207,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2396.15698482</v>
+        <v>2342.11090283977</v>
       </c>
       <c r="C2" t="n">
         <v>2074.74358712598</v>
@@ -30228,7 +30228,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>770.156984819999</v>
+        <v>716.110902839766</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -30239,7 +30239,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2355.78933647953</v>
+        <v>2369.82755284611</v>
       </c>
       <c r="C3" t="n">
         <v>1902.94386889777</v>
@@ -30248,7 +30248,7 @@
         <v>1740.12941333072</v>
       </c>
       <c r="E3" t="n">
-        <v>2649.05219559445</v>
+        <v>2703.96123434024</v>
       </c>
       <c r="F3" t="n">
         <v>2831.65664537367</v>
@@ -30260,7 +30260,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1310.78933647953</v>
+        <v>1324.82755284611</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -30271,10 +30271,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3161.47464179483</v>
+        <v>3201.90941307947</v>
       </c>
       <c r="C4" t="n">
-        <v>2800.17773113967</v>
+        <v>2874.32135025737</v>
       </c>
       <c r="D4" t="n">
         <v>2686.87310350413</v>
@@ -30292,7 +30292,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1520.47464179483</v>
+        <v>1560.90941307947</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -30303,7 +30303,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2868.44359967871</v>
+        <v>2878.13102002152</v>
       </c>
       <c r="C5" t="n">
         <v>2469.15889503408</v>
@@ -30324,7 +30324,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1136.44359967871</v>
+        <v>1146.13102002152</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -30335,7 +30335,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2653.55643028384</v>
+        <v>2610.97194283237</v>
       </c>
       <c r="C6" t="n">
         <v>2091.08626750756</v>
@@ -30344,10 +30344,10 @@
         <v>1933.63906509065</v>
       </c>
       <c r="E6" t="n">
-        <v>3248.31054098741</v>
+        <v>3105.28536265745</v>
       </c>
       <c r="F6" t="n">
-        <v>3322.95176171576</v>
+        <v>3174.0295177805</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -30356,7 +30356,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1068.55643028384</v>
+        <v>1025.97194283237</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -30367,7 +30367,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2314.18859358888</v>
+        <v>2283.69027375363</v>
       </c>
       <c r="C7" t="n">
         <v>1774.50504731511</v>
@@ -30376,10 +30376,10 @@
         <v>1615.3313586993</v>
       </c>
       <c r="E7" t="n">
-        <v>2848.26982825396</v>
+        <v>2739.3254741668</v>
       </c>
       <c r="F7" t="n">
-        <v>2912.20658705948</v>
+        <v>2852.4348524719</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -30388,7 +30388,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>606.188593588877</v>
+        <v>575.690273753625</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -30399,7 +30399,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2311.85554968245</v>
+        <v>2283.84513656023</v>
       </c>
       <c r="C8" t="n">
         <v>1797.44739751347</v>
@@ -30408,7 +30408,7 @@
         <v>1631.28398115487</v>
       </c>
       <c r="E8" t="n">
-        <v>2737.45738054273</v>
+        <v>2656.51849707012</v>
       </c>
       <c r="F8" t="n">
         <v>2881.3693858783</v>
@@ -30420,7 +30420,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>552.855549682453</v>
+        <v>524.845136560231</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -30431,7 +30431,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2247.68117250253</v>
+        <v>2242.7782879547</v>
       </c>
       <c r="C9" t="n">
         <v>1787.94706622197</v>
@@ -30452,7 +30452,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>488.681172502531</v>
+        <v>483.778287954703</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -30463,7 +30463,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2013.90991220116</v>
+        <v>2014.88330579479</v>
       </c>
       <c r="C10" t="n">
         <v>1487.92437176737</v>
@@ -30484,7 +30484,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>202.909912201157</v>
+        <v>203.883305794786</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -30495,7 +30495,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1877.12235761036</v>
+        <v>1826.3667549706</v>
       </c>
       <c r="C11" t="n">
         <v>1312.09264959247</v>
@@ -30504,7 +30504,7 @@
         <v>1100.08017520421</v>
       </c>
       <c r="E11" t="n">
-        <v>2295.18333516226</v>
+        <v>2221.39745251194</v>
       </c>
       <c r="F11" t="n">
         <v>2429.22432351356</v>
@@ -30516,7 +30516,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>371.122357610358</v>
+        <v>320.366754970602</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -30527,7 +30527,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2002.98728163082</v>
+        <v>2029.66418568461</v>
       </c>
       <c r="C12" t="n">
         <v>1523.7001386378</v>
@@ -30548,7 +30548,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>363.987281630819</v>
+        <v>390.664185684609</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -30559,7 +30559,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2022.92222705577</v>
+        <v>2084.82754830573</v>
       </c>
       <c r="C13" t="n">
         <v>1523.74248139883</v>
@@ -30580,7 +30580,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>204.922227055766</v>
+        <v>266.827548305726</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -30591,7 +30591,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2375.88732577731</v>
+        <v>2407.42813305335</v>
       </c>
       <c r="C14" t="n">
         <v>1858.14432727866</v>
@@ -30612,7 +30612,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>537.88732577731</v>
+        <v>569.428133053346</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -30623,7 +30623,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2335.63103476218</v>
+        <v>2370.61081447678</v>
       </c>
       <c r="C15" t="n">
         <v>1698.14854920581</v>
@@ -30644,7 +30644,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>486.631034762181</v>
+        <v>521.61081447678</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -30655,7 +30655,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3136.66494318366</v>
+        <v>3194.10822284297</v>
       </c>
       <c r="C16" t="n">
         <v>2659.44292598204</v>
@@ -30676,7 +30676,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>145.664943183656</v>
+        <v>203.108222842966</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -30687,7 +30687,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2872.4499043859</v>
+        <v>2897.96130349579</v>
       </c>
       <c r="C17" t="n">
         <v>2297.25120383607</v>
@@ -30708,7 +30708,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>75.4499043859041</v>
+        <v>100.961303495791</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -30719,7 +30719,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2716.87241411877</v>
+        <v>2608.39539654242</v>
       </c>
       <c r="C18" t="n">
         <v>1955.94218842289</v>
@@ -30728,10 +30728,10 @@
         <v>1704.88960390638</v>
       </c>
       <c r="E18" t="n">
-        <v>3523.87355654413</v>
+        <v>3294.65816687637</v>
       </c>
       <c r="F18" t="n">
-        <v>3625.94541858313</v>
+        <v>3486.09999392378</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
@@ -30740,7 +30740,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>207.872414118768</v>
+        <v>99.3953965424166</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -30751,7 +30751,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2358.17605743576</v>
+        <v>2295.80609994063</v>
       </c>
       <c r="C19" t="n">
         <v>1647.6835908283</v>
@@ -30760,10 +30760,10 @@
         <v>1389.68525221468</v>
       </c>
       <c r="E19" t="n">
-        <v>3124.9135234089</v>
+        <v>2887.12506443986</v>
       </c>
       <c r="F19" t="n">
-        <v>3257.82322026661</v>
+        <v>3156.77700009565</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -30772,7 +30772,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>92.1760574357604</v>
+        <v>29.8060999406307</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -30783,7 +30783,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2307.25569976594</v>
+        <v>2283.41500776191</v>
       </c>
       <c r="C20" t="n">
         <v>1667.34261158203</v>
@@ -30804,7 +30804,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>167.255699765943</v>
+        <v>143.415007761912</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -30815,7 +30815,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2211.45780194046</v>
+        <v>2254.83847749969</v>
       </c>
       <c r="C21" t="n">
         <v>1618.95617210155</v>
@@ -30836,7 +30836,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>102.457801940461</v>
+        <v>145.838477499688</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -30847,7 +30847,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2011.18779830125</v>
+        <v>2025.44292383996</v>
       </c>
       <c r="C22" t="n">
         <v>1329.0042844572</v>
@@ -30868,7 +30868,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>-21.8122016987504</v>
+        <v>-7.55707616003883</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -30879,7 +30879,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1885.60311715456</v>
+        <v>1845.68307006635</v>
       </c>
       <c r="C23" t="n">
         <v>1160.70852568231</v>
@@ -30888,7 +30888,7 @@
         <v>878.476424825937</v>
       </c>
       <c r="E23" t="n">
-        <v>2360.80018812945</v>
+        <v>2347.15139859697</v>
       </c>
       <c r="F23" t="n">
         <v>2677.47035918278</v>
@@ -30900,10 +30900,10 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>39.6031171545569</v>
+        <v>-0.316929933645724</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -30911,7 +30911,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1987.15940435439</v>
+        <v>2028.34309328755</v>
       </c>
       <c r="C24" t="n">
         <v>1371.00389919662</v>
@@ -30932,7 +30932,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-67.8405956456052</v>
+        <v>-26.6569067124481</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -30943,7 +30943,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2001.29752828425</v>
+        <v>2085.25010144531</v>
       </c>
       <c r="C25" t="n">
         <v>1380.91361978547</v>
@@ -30964,7 +30964,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-367.702471715746</v>
+        <v>-283.749898554694</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -30975,7 +30975,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2335.22287337564</v>
+        <v>2389.46207612263</v>
       </c>
       <c r="C26" t="n">
         <v>1712.16464734682</v>
@@ -30996,7 +30996,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-194.777126624357</v>
+        <v>-140.53792387737</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -31007,7 +31007,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2302.20124121075</v>
+        <v>2376.52496270837</v>
       </c>
       <c r="C27" t="n">
         <v>1557.29236281552</v>
@@ -31028,7 +31028,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-140.798758789246</v>
+        <v>-66.4750372916296</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -31039,7 +31039,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3119.7777634169</v>
+        <v>3145.68149772522</v>
       </c>
       <c r="C28" t="n">
         <v>2507.92752975527</v>
@@ -31060,10 +31060,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-11.222236583098</v>
+        <v>14.6814977252202</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -31071,7 +31071,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2799.30423161841</v>
+        <v>2924.84782766298</v>
       </c>
       <c r="C29" t="n">
         <v>2124.18978717059</v>
@@ -31092,7 +31092,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>274.304231618408</v>
+        <v>399.847827662981</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -31103,7 +31103,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2792.48938483915</v>
+        <v>2617.25688715253</v>
       </c>
       <c r="C30" t="n">
         <v>1826.46010739815</v>
@@ -31112,10 +31112,10 @@
         <v>1500.12282719398</v>
       </c>
       <c r="E30" t="n">
-        <v>3695.54122704235</v>
+        <v>3398.40143895741</v>
       </c>
       <c r="F30" t="n">
-        <v>3840.51074395438</v>
+        <v>3725.45871612853</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -31124,7 +31124,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>289.489384839146</v>
+        <v>114.25688715253</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -31135,7 +31135,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2404.96053190129</v>
+        <v>2296.20687110544</v>
       </c>
       <c r="C31" t="n">
         <v>1537.75287428998</v>
@@ -31144,10 +31144,10 @@
         <v>1196.71499487345</v>
       </c>
       <c r="E31" t="n">
-        <v>3330.23912839964</v>
+        <v>2992.38832242655</v>
       </c>
       <c r="F31" t="n">
-        <v>3489.94181260382</v>
+        <v>3388.04584588888</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
@@ -31156,7 +31156,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-6.0394680987115</v>
+        <v>-114.793128894557</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -31167,7 +31167,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2315.81468718231</v>
+        <v>2264.82660894824</v>
       </c>
       <c r="C32" t="n">
         <v>1537.72148846457</v>
@@ -31188,7 +31188,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>90.8146871823114</v>
+        <v>39.826608948244</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -31199,7 +31199,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2173.15010510432</v>
+        <v>2245.42655532661</v>
       </c>
       <c r="C33" t="n">
         <v>1491.94809291584</v>
@@ -31220,7 +31220,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-81.8498948956785</v>
+        <v>-9.57344467339044</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -31231,7 +31231,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1989.0705433091</v>
+        <v>2021.21423812113</v>
       </c>
       <c r="C34" t="n">
         <v>1208.65308845422</v>
@@ -31252,7 +31252,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>43.0705433090986</v>
+        <v>75.2142381211318</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -31263,7 +31263,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1848.7862571643</v>
+        <v>1851.70620809396</v>
       </c>
       <c r="C35" t="n">
         <v>1045.19795472743</v>
@@ -31284,7 +31284,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>165.786257164304</v>
+        <v>168.706208093959</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -31295,7 +31295,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1978.90669727396</v>
+        <v>2007.40210538828</v>
       </c>
       <c r="C36" t="n">
         <v>1253.10271669522</v>
@@ -31316,7 +31316,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>246.906697273963</v>
+        <v>275.402105388278</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -31327,7 +31327,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1996.58736491689</v>
+        <v>2081.72976911441</v>
       </c>
       <c r="C37" t="n">
         <v>1267.69746333184</v>
@@ -31348,7 +31348,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>809.587364916894</v>
+        <v>894.729769114409</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -31359,7 +31359,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2293.04411825805</v>
+        <v>2374.22632057693</v>
       </c>
       <c r="C38" t="n">
         <v>1595.34249124102</v>
@@ -31380,7 +31380,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1149.04411825805</v>
+        <v>1230.22632057693</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -31391,7 +31391,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2257.64403272898</v>
+        <v>2362.57745766725</v>
       </c>
       <c r="C39" t="n">
         <v>1443.99105896231</v>
@@ -31412,7 +31412,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>50.644032728977</v>
+        <v>155.577457667253</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -31423,7 +31423,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3067.07859658873</v>
+        <v>3085.71793150711</v>
       </c>
       <c r="C40" t="n">
         <v>2322.50390195783</v>
@@ -31444,7 +31444,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-49.9214034112697</v>
+        <v>-31.2820684928897</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -31455,7 +31455,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2764.26735806444</v>
+        <v>2956.44305647745</v>
       </c>
       <c r="C41" t="n">
         <v>1922.94096246526</v>
@@ -31476,7 +31476,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-241.732641935563</v>
+        <v>-49.5569435225498</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -31487,7 +31487,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2790.81011336391</v>
+        <v>2638.67305278411</v>
       </c>
       <c r="C42" t="n">
         <v>1629.54614113802</v>
@@ -31496,7 +31496,7 @@
         <v>1224.52214370858</v>
       </c>
       <c r="E42" t="n">
-        <v>3754.44032238344</v>
+        <v>3467.77124430248</v>
       </c>
       <c r="F42" t="n">
         <v>3926.56730670314</v>
@@ -31508,7 +31508,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-31.1898866360866</v>
+        <v>-183.326947215895</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -31519,7 +31519,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2402.69914027334</v>
+        <v>2305.48884679844</v>
       </c>
       <c r="C43" t="n">
         <v>1345.97301361568</v>
@@ -31528,7 +31528,7 @@
         <v>951.371117627761</v>
       </c>
       <c r="E43" t="n">
-        <v>3427.31188266166</v>
+        <v>3104.30505260598</v>
       </c>
       <c r="F43" t="n">
         <v>3583.4431641608</v>
@@ -31540,7 +31540,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-126.300859726658</v>
+        <v>-223.511153201557</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -31551,7 +31551,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2300.30223625939</v>
+        <v>2246.27520836472</v>
       </c>
       <c r="C44" t="n">
         <v>1375.71483376163</v>
@@ -31572,7 +31572,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-319.697763740613</v>
+        <v>-373.724791635278</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -31583,7 +31583,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2179.22796985156</v>
+        <v>2229.19978403744</v>
       </c>
       <c r="C45" t="n">
         <v>1373.08392182877</v>
@@ -31604,7 +31604,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-438.772030148443</v>
+        <v>-388.800215962558</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -31615,7 +31615,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1990.78640302566</v>
+        <v>2019.59601082296</v>
       </c>
       <c r="C46" t="n">
         <v>1108.68101636751</v>
@@ -31636,7 +31636,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-559.213596974345</v>
+        <v>-530.403989177037</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -31647,7 +31647,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1841.14815683974</v>
+        <v>1849.39215209954</v>
       </c>
       <c r="C47" t="n">
         <v>949.05769758474</v>
@@ -31668,7 +31668,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-701.851843160258</v>
+        <v>-693.607847900457</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -31679,7 +31679,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1981.61674936554</v>
+        <v>1964.3742326996</v>
       </c>
       <c r="C48" t="n">
         <v>1147.98240197264</v>
@@ -31700,7 +31700,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-769.383250634462</v>
+        <v>-786.625767300396</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -31711,7 +31711,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2005.41156049934</v>
+        <v>2064.74047651631</v>
       </c>
       <c r="C49" t="n">
         <v>1149.49352022431</v>
@@ -31732,7 +31732,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-662.588439500658</v>
+        <v>-603.259523483691</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -36151,19 +36151,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>47143.2748783612</v>
+        <v>46548.1874247757</v>
       </c>
       <c r="C2" t="n">
-        <v>44818.9340865651</v>
+        <v>41627.7271844246</v>
       </c>
       <c r="D2" t="n">
-        <v>43667.4525187955</v>
+        <v>40010.423559187</v>
       </c>
       <c r="E2" t="n">
-        <v>50190.7615374506</v>
+        <v>51251.0955842692</v>
       </c>
       <c r="F2" t="n">
-        <v>51096.4048619153</v>
+        <v>53767.9183235919</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -36172,7 +36172,7 @@
         <v>39671</v>
       </c>
       <c r="I2" t="n">
-        <v>7472.27487836117</v>
+        <v>6877.18742477572</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -36183,19 +36183,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>42940.2621192623</v>
+        <v>40832.1812665575</v>
       </c>
       <c r="C3" t="n">
-        <v>39967.1952699306</v>
+        <v>35330.1661567498</v>
       </c>
       <c r="D3" t="n">
-        <v>38026.7628134791</v>
+        <v>33705.7234160027</v>
       </c>
       <c r="E3" t="n">
-        <v>45289.441954916</v>
+        <v>45461.8541012749</v>
       </c>
       <c r="F3" t="n">
-        <v>46217.2305951596</v>
+        <v>47067.8086132521</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -36204,7 +36204,7 @@
         <v>21448</v>
       </c>
       <c r="I3" t="n">
-        <v>21492.2621192623</v>
+        <v>19384.1812665575</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -36215,19 +36215,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>54861.1237072721</v>
+        <v>54904.8279638594</v>
       </c>
       <c r="C4" t="n">
-        <v>51943.4146445844</v>
+        <v>48015.0495791441</v>
       </c>
       <c r="D4" t="n">
-        <v>50630.5184971209</v>
+        <v>46114.4907812218</v>
       </c>
       <c r="E4" t="n">
-        <v>57333.8672168171</v>
+        <v>60193.6148123528</v>
       </c>
       <c r="F4" t="n">
-        <v>58992.5860593244</v>
+        <v>62183.7665078656</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -36236,7 +36236,7 @@
         <v>41154</v>
       </c>
       <c r="I4" t="n">
-        <v>13707.1237072721</v>
+        <v>13750.8279638594</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -36247,19 +36247,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>53181.7715913498</v>
+        <v>53207.9267047333</v>
       </c>
       <c r="C5" t="n">
-        <v>50610.9293624842</v>
+        <v>47670.6231361871</v>
       </c>
       <c r="D5" t="n">
-        <v>49648.1779235596</v>
+        <v>45618.5533464188</v>
       </c>
       <c r="E5" t="n">
-        <v>56618.4062952207</v>
+        <v>57955.9314397206</v>
       </c>
       <c r="F5" t="n">
-        <v>58158.7528831881</v>
+        <v>60023.1328004844</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -36268,7 +36268,7 @@
         <v>46728</v>
       </c>
       <c r="I5" t="n">
-        <v>6453.77159134982</v>
+        <v>6479.92670473333</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -36279,19 +36279,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>55417.7426364816</v>
+        <v>55367.0269765961</v>
       </c>
       <c r="C6" t="n">
-        <v>52505.8252373717</v>
+        <v>49159.344700059</v>
       </c>
       <c r="D6" t="n">
-        <v>51454.4626175508</v>
+        <v>46714.7603119744</v>
       </c>
       <c r="E6" t="n">
-        <v>57519.9947384322</v>
+        <v>60802.588426699</v>
       </c>
       <c r="F6" t="n">
-        <v>58566.0296595061</v>
+        <v>63036.4042140843</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -36300,7 +36300,7 @@
         <v>46753</v>
       </c>
       <c r="I6" t="n">
-        <v>8664.74263648163</v>
+        <v>8614.02697659615</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -36311,19 +36311,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>53741.9375247547</v>
+        <v>54132.7866939208</v>
       </c>
       <c r="C7" t="n">
-        <v>50870.4126701883</v>
+        <v>47357.3255293252</v>
       </c>
       <c r="D7" t="n">
-        <v>47419.5342641412</v>
+        <v>45141.1992594562</v>
       </c>
       <c r="E7" t="n">
-        <v>57606.3422406599</v>
+        <v>60074.3977589419</v>
       </c>
       <c r="F7" t="n">
-        <v>58503.5620813945</v>
+        <v>62401.3657386832</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -36332,7 +36332,7 @@
         <v>46538</v>
       </c>
       <c r="I7" t="n">
-        <v>7203.93752475474</v>
+        <v>7594.78669392075</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -36343,19 +36343,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>58391.6418628782</v>
+        <v>57842.2712865972</v>
       </c>
       <c r="C8" t="n">
-        <v>54652.1239046587</v>
+        <v>51674.8443140835</v>
       </c>
       <c r="D8" t="n">
-        <v>52226.8549108444</v>
+        <v>49795.7239947237</v>
       </c>
       <c r="E8" t="n">
-        <v>62395.8526194835</v>
+        <v>63179.2385590723</v>
       </c>
       <c r="F8" t="n">
-        <v>64566.1965662661</v>
+        <v>65674.6929900017</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -36364,7 +36364,7 @@
         <v>46838</v>
       </c>
       <c r="I8" t="n">
-        <v>11553.6418628782</v>
+        <v>11004.2712865972</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -36375,19 +36375,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>57337.7679314464</v>
+        <v>57506.6130079996</v>
       </c>
       <c r="C9" t="n">
-        <v>53840.9910972361</v>
+        <v>51341.226327247</v>
       </c>
       <c r="D9" t="n">
-        <v>52929.9810485667</v>
+        <v>49013.1149836218</v>
       </c>
       <c r="E9" t="n">
-        <v>60794.9936691613</v>
+        <v>62975.8578784225</v>
       </c>
       <c r="F9" t="n">
-        <v>62806.9445729388</v>
+        <v>65568.2461166286</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -36396,7 +36396,7 @@
         <v>46838</v>
       </c>
       <c r="I9" t="n">
-        <v>10499.7679314464</v>
+        <v>10668.6130079996</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -36407,19 +36407,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>55430.1696665096</v>
+        <v>55855.758353404</v>
       </c>
       <c r="C10" t="n">
-        <v>51048.8923706923</v>
+        <v>51026.8783005282</v>
       </c>
       <c r="D10" t="n">
-        <v>50019.5370171225</v>
+        <v>48608.0330551546</v>
       </c>
       <c r="E10" t="n">
-        <v>59171.169276109</v>
+        <v>61174.5887779274</v>
       </c>
       <c r="F10" t="n">
-        <v>60763.644581193</v>
+        <v>63823.4832852707</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -36428,7 +36428,7 @@
         <v>48965</v>
       </c>
       <c r="I10" t="n">
-        <v>6465.16966650963</v>
+        <v>6890.75835340404</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -36439,19 +36439,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>53420.8607837668</v>
+        <v>53576.8901383832</v>
       </c>
       <c r="C11" t="n">
-        <v>50471.36735277</v>
+        <v>48442.4316825291</v>
       </c>
       <c r="D11" t="n">
-        <v>49674.5833888247</v>
+        <v>46082.1230121099</v>
       </c>
       <c r="E11" t="n">
-        <v>57109.7372269865</v>
+        <v>59955.7234094319</v>
       </c>
       <c r="F11" t="n">
-        <v>58118.3479083339</v>
+        <v>62653.1794027134</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -36460,7 +36460,7 @@
         <v>44438</v>
       </c>
       <c r="I11" t="n">
-        <v>8982.86078376677</v>
+        <v>9138.89013838324</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -36471,19 +36471,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>54133.7946246996</v>
+        <v>53971.5282330813</v>
       </c>
       <c r="C12" t="n">
-        <v>50501.7906941143</v>
+        <v>48973.9475436837</v>
       </c>
       <c r="D12" t="n">
-        <v>49080.2082698555</v>
+        <v>46523.8524244654</v>
       </c>
       <c r="E12" t="n">
-        <v>59219.7372663096</v>
+        <v>59072.3991127985</v>
       </c>
       <c r="F12" t="n">
-        <v>59764.3041107643</v>
+        <v>61614.1033150753</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -36492,7 +36492,7 @@
         <v>45305</v>
       </c>
       <c r="I12" t="n">
-        <v>8828.79462469959</v>
+        <v>8666.5282330813</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -36503,19 +36503,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>52715.0433056583</v>
+        <v>53159.1236826519</v>
       </c>
       <c r="C13" t="n">
-        <v>48798.3448936161</v>
+        <v>48229.4500516909</v>
       </c>
       <c r="D13" t="n">
-        <v>47376.149097387</v>
+        <v>45727.458843203</v>
       </c>
       <c r="E13" t="n">
-        <v>56195.7449290369</v>
+        <v>58328.4702571078</v>
       </c>
       <c r="F13" t="n">
-        <v>57773.0842423352</v>
+        <v>61173.7251478791</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -36524,7 +36524,7 @@
         <v>44696</v>
       </c>
       <c r="I13" t="n">
-        <v>8019.04330565829</v>
+        <v>8463.12368265195</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -36535,19 +36535,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51797.9134642957</v>
+        <v>50401.7709597161</v>
       </c>
       <c r="C14" t="n">
-        <v>48306.119687813</v>
+        <v>44506.195254705</v>
       </c>
       <c r="D14" t="n">
-        <v>47542.1195507293</v>
+        <v>42279.994644785</v>
       </c>
       <c r="E14" t="n">
-        <v>55401.9971466098</v>
+        <v>57029.1454397481</v>
       </c>
       <c r="F14" t="n">
-        <v>55940.4653122019</v>
+        <v>60148.4402667408</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -36556,7 +36556,7 @@
         <v>40079</v>
       </c>
       <c r="I14" t="n">
-        <v>11718.9134642957</v>
+        <v>10322.7709597161</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -36567,19 +36567,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>46851.9601903607</v>
+        <v>44865.8300267125</v>
       </c>
       <c r="C15" t="n">
-        <v>42123.9469715038</v>
+        <v>39298.6448227485</v>
       </c>
       <c r="D15" t="n">
-        <v>41100.0112228011</v>
+        <v>36560.2541510884</v>
       </c>
       <c r="E15" t="n">
-        <v>49972.202503434</v>
+        <v>50363.0449896184</v>
       </c>
       <c r="F15" t="n">
-        <v>51496.9464044158</v>
+        <v>52936.3587533328</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -36588,7 +36588,7 @@
         <v>33615</v>
       </c>
       <c r="I15" t="n">
-        <v>13236.9601903607</v>
+        <v>11250.8300267125</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -36599,19 +36599,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59611.4282689991</v>
+        <v>58902.3191234587</v>
       </c>
       <c r="C16" t="n">
-        <v>55015.2159741996</v>
+        <v>49830.5598135045</v>
       </c>
       <c r="D16" t="n">
-        <v>52992.9789157015</v>
+        <v>46575.5886410607</v>
       </c>
       <c r="E16" t="n">
-        <v>64298.0884812064</v>
+        <v>66532.2016151798</v>
       </c>
       <c r="F16" t="n">
-        <v>65322.910709777</v>
+        <v>69372.208764452</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -36620,7 +36620,7 @@
         <v>50682</v>
       </c>
       <c r="I16" t="n">
-        <v>8929.42826899911</v>
+        <v>8220.31912345871</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -36631,19 +36631,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>57267.4963287651</v>
+        <v>56986.2087208306</v>
       </c>
       <c r="C17" t="n">
-        <v>53550.9342741683</v>
+        <v>48565.5616863747</v>
       </c>
       <c r="D17" t="n">
-        <v>50419.3921056307</v>
+        <v>46097.3400032939</v>
       </c>
       <c r="E17" t="n">
-        <v>61315.1096942935</v>
+        <v>64384.2369582452</v>
       </c>
       <c r="F17" t="n">
-        <v>63579.2754169423</v>
+        <v>67289.3069954731</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
@@ -36652,7 +36652,7 @@
         <v>49113</v>
       </c>
       <c r="I17" t="n">
-        <v>8154.49632876505</v>
+        <v>7873.2087208306</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -36663,19 +36663,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>59769.742160599</v>
+        <v>59168.6692795098</v>
       </c>
       <c r="C18" t="n">
-        <v>55607.0681404936</v>
+        <v>50226.7594714462</v>
       </c>
       <c r="D18" t="n">
-        <v>54309.084715825</v>
+        <v>47955.7157251843</v>
       </c>
       <c r="E18" t="n">
-        <v>63862.095737522</v>
+        <v>67617.92841472</v>
       </c>
       <c r="F18" t="n">
-        <v>66002.8062515582</v>
+        <v>70722.3009890299</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -36684,7 +36684,7 @@
         <v>47999</v>
       </c>
       <c r="I18" t="n">
-        <v>11770.742160599</v>
+        <v>11169.6692795098</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -36695,19 +36695,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>58385.8028459653</v>
+        <v>57974.2101509399</v>
       </c>
       <c r="C19" t="n">
-        <v>54227.5460071832</v>
+        <v>49351.6056789541</v>
       </c>
       <c r="D19" t="n">
-        <v>51619.2068075157</v>
+        <v>47109.1991996915</v>
       </c>
       <c r="E19" t="n">
-        <v>62022.8622712953</v>
+        <v>66198.4898917514</v>
       </c>
       <c r="F19" t="n">
-        <v>64248.3861395083</v>
+        <v>69395.6579895482</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
@@ -36716,7 +36716,7 @@
         <v>47423</v>
       </c>
       <c r="I19" t="n">
-        <v>10962.8028459653</v>
+        <v>10551.2101509399</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -36727,19 +36727,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>62175.6321851043</v>
+        <v>61383.9462014254</v>
       </c>
       <c r="C20" t="n">
-        <v>57123.1440162197</v>
+        <v>52357.9234944449</v>
       </c>
       <c r="D20" t="n">
-        <v>54584.771092734</v>
+        <v>49769.4584313904</v>
       </c>
       <c r="E20" t="n">
-        <v>66775.716705552</v>
+        <v>70733.0358665335</v>
       </c>
       <c r="F20" t="n">
-        <v>68329.6550864807</v>
+        <v>74181.8959451437</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -36748,7 +36748,7 @@
         <v>51531</v>
       </c>
       <c r="I20" t="n">
-        <v>10644.6321851043</v>
+        <v>9852.94620142539</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -36759,19 +36759,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>61454.8034260203</v>
+        <v>61050.8621870174</v>
       </c>
       <c r="C21" t="n">
-        <v>55515.1115959563</v>
+        <v>52195.4306251855</v>
       </c>
       <c r="D21" t="n">
-        <v>54285.5299184901</v>
+        <v>49699.1392500838</v>
       </c>
       <c r="E21" t="n">
-        <v>66542.9323502534</v>
+        <v>70924.6909362919</v>
       </c>
       <c r="F21" t="n">
-        <v>68378.8454056936</v>
+        <v>74521.9738759145</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -36780,7 +36780,7 @@
         <v>46091</v>
       </c>
       <c r="I21" t="n">
-        <v>15363.8034260203</v>
+        <v>14959.8621870174</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -36791,19 +36791,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>59702.1358288894</v>
+        <v>59482.7690533154</v>
       </c>
       <c r="C22" t="n">
-        <v>54104.8202362029</v>
+        <v>51944.2195912236</v>
       </c>
       <c r="D22" t="n">
-        <v>53377.3700403769</v>
+        <v>49767.9386068479</v>
       </c>
       <c r="E22" t="n">
-        <v>64062.3745485526</v>
+        <v>69199.4536175793</v>
       </c>
       <c r="F22" t="n">
-        <v>67607.5279837652</v>
+        <v>72897.2091379522</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -36812,7 +36812,7 @@
         <v>45792</v>
       </c>
       <c r="I22" t="n">
-        <v>13910.1358288894</v>
+        <v>13690.7690533154</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -36823,19 +36823,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>56997.7036869599</v>
+        <v>57195.5904626324</v>
       </c>
       <c r="C23" t="n">
-        <v>51864.5654604172</v>
+        <v>49943.1678256695</v>
       </c>
       <c r="D23" t="n">
-        <v>50957.5669411237</v>
+        <v>46722.2490610773</v>
       </c>
       <c r="E23" t="n">
-        <v>62340.0486232699</v>
+        <v>66411.0715454954</v>
       </c>
       <c r="F23" t="n">
-        <v>62955.9592330943</v>
+        <v>70178.2744101151</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -36844,7 +36844,7 @@
         <v>40900</v>
       </c>
       <c r="I23" t="n">
-        <v>16097.7036869599</v>
+        <v>16295.5904626324</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -36855,19 +36855,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>58864.9215770611</v>
+        <v>57649.6116281753</v>
       </c>
       <c r="C24" t="n">
-        <v>53684.7545250058</v>
+        <v>50450.0884307688</v>
       </c>
       <c r="D24" t="n">
-        <v>50193.8392215806</v>
+        <v>47103.1218583736</v>
       </c>
       <c r="E24" t="n">
-        <v>63796.0634108342</v>
+        <v>67682.358163967</v>
       </c>
       <c r="F24" t="n">
-        <v>65756.6221108002</v>
+        <v>71642.7035441728</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -36876,7 +36876,7 @@
         <v>42174</v>
       </c>
       <c r="I24" t="n">
-        <v>16690.9215770611</v>
+        <v>15475.6116281753</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -36887,19 +36887,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>57985.7513175162</v>
+        <v>56893.5096951378</v>
       </c>
       <c r="C25" t="n">
-        <v>52382.4451732033</v>
+        <v>49637.2590238039</v>
       </c>
       <c r="D25" t="n">
-        <v>50687.3818729484</v>
+        <v>46305.0402332325</v>
       </c>
       <c r="E25" t="n">
-        <v>63179.6710893935</v>
+        <v>66636.8519822954</v>
       </c>
       <c r="F25" t="n">
-        <v>63703.2953479385</v>
+        <v>70723.5304290159</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -36908,7 +36908,7 @@
         <v>42321</v>
       </c>
       <c r="I25" t="n">
-        <v>15664.7513175162</v>
+        <v>14572.5096951378</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -36919,19 +36919,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>56376.9618664792</v>
+        <v>54215.5824831306</v>
       </c>
       <c r="C26" t="n">
-        <v>50429.4811856908</v>
+        <v>45477.6402320446</v>
       </c>
       <c r="D26" t="n">
-        <v>47418.1815464619</v>
+        <v>42103.5312123655</v>
       </c>
       <c r="E26" t="n">
-        <v>62152.4262901845</v>
+        <v>64397.9865628955</v>
       </c>
       <c r="F26" t="n">
-        <v>64970.8470795323</v>
+        <v>68572.1202363448</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -36940,7 +36940,7 @@
         <v>39586</v>
       </c>
       <c r="I26" t="n">
-        <v>16790.9618664792</v>
+        <v>14629.5824831306</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -36951,19 +36951,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>51215.5235574796</v>
+        <v>49106.2634915013</v>
       </c>
       <c r="C27" t="n">
-        <v>44611.1123436233</v>
+        <v>41568.6073747014</v>
       </c>
       <c r="D27" t="n">
-        <v>42411.0820223297</v>
+        <v>38384.6039398015</v>
       </c>
       <c r="E27" t="n">
-        <v>57170.2772543076</v>
+        <v>58028.4095443794</v>
       </c>
       <c r="F27" t="n">
-        <v>59123.5967248289</v>
+        <v>62135.9140132298</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -36972,7 +36972,7 @@
         <v>34683</v>
       </c>
       <c r="I27" t="n">
-        <v>16532.5235574796</v>
+        <v>14423.2634915013</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -36983,19 +36983,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>64636.1495543471</v>
+        <v>62610.9000494958</v>
       </c>
       <c r="C28" t="n">
-        <v>58698.829019797</v>
+        <v>51935.6159115985</v>
       </c>
       <c r="D28" t="n">
-        <v>57296.215271446</v>
+        <v>48220.3690203731</v>
       </c>
       <c r="E28" t="n">
-        <v>69803.6648648466</v>
+        <v>76192.8934893204</v>
       </c>
       <c r="F28" t="n">
-        <v>73281.3999735365</v>
+        <v>81118.0458745418</v>
       </c>
       <c r="G28" t="s">
         <v>20</v>
@@ -37004,7 +37004,7 @@
         <v>46978</v>
       </c>
       <c r="I28" t="n">
-        <v>17658.1495543471</v>
+        <v>15632.9000494958</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -37015,19 +37015,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>61425.0620229439</v>
+        <v>60580.5104261669</v>
       </c>
       <c r="C29" t="n">
-        <v>53778.7080720194</v>
+        <v>50066.8148879813</v>
       </c>
       <c r="D29" t="n">
-        <v>52392.6471580688</v>
+        <v>47321.6258673531</v>
       </c>
       <c r="E29" t="n">
-        <v>68631.8437233712</v>
+        <v>73995.037881588</v>
       </c>
       <c r="F29" t="n">
-        <v>69696.1552550229</v>
+        <v>79030.8540907922</v>
       </c>
       <c r="G29" t="s">
         <v>20</v>
@@ -37036,7 +37036,7 @@
         <v>39513</v>
       </c>
       <c r="I29" t="n">
-        <v>21912.0620229439</v>
+        <v>21067.5104261669</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -37047,19 +37047,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>63979.6101247075</v>
+        <v>62792.4744360368</v>
       </c>
       <c r="C30" t="n">
-        <v>57401.7130982289</v>
+        <v>52035.1808408278</v>
       </c>
       <c r="D30" t="n">
-        <v>56073.123356503</v>
+        <v>49161.5780981794</v>
       </c>
       <c r="E30" t="n">
-        <v>69881.3506695952</v>
+        <v>77586.9142052485</v>
       </c>
       <c r="F30" t="n">
-        <v>74178.821602718</v>
+        <v>82944.9825399258</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -37068,7 +37068,7 @@
         <v>43751</v>
       </c>
       <c r="I30" t="n">
-        <v>20228.6101247075</v>
+        <v>19041.4744360368</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -37079,19 +37079,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>62757.189639569</v>
+        <v>61612.2623358464</v>
       </c>
       <c r="C31" t="n">
-        <v>54041.7456276295</v>
+        <v>51418.29114402</v>
       </c>
       <c r="D31" t="n">
-        <v>51647.9768005688</v>
+        <v>48548.7833853704</v>
       </c>
       <c r="E31" t="n">
-        <v>68646.1739618581</v>
+        <v>76164.9739491243</v>
       </c>
       <c r="F31" t="n">
-        <v>69841.2067817428</v>
+        <v>81668.546739398</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -37100,7 +37100,7 @@
         <v>48507</v>
       </c>
       <c r="I31" t="n">
-        <v>14250.189639569</v>
+        <v>13105.2623358464</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -37111,19 +37111,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>65626.159514931</v>
+        <v>64823.9644796026</v>
       </c>
       <c r="C32" t="n">
-        <v>58380.9297878922</v>
+        <v>53119.1621372075</v>
       </c>
       <c r="D32" t="n">
-        <v>56276.3386830371</v>
+        <v>50398.6752409037</v>
       </c>
       <c r="E32" t="n">
-        <v>71282.0935474804</v>
+        <v>81153.0895927414</v>
       </c>
       <c r="F32" t="n">
-        <v>73504.6543463237</v>
+        <v>87051.6359524703</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
@@ -37132,7 +37132,7 @@
         <v>51391</v>
       </c>
       <c r="I32" t="n">
-        <v>14235.159514931</v>
+        <v>13432.9644796026</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -37143,19 +37143,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>65438.9117667269</v>
+        <v>64471.3065418529</v>
       </c>
       <c r="C33" t="n">
-        <v>58192.7246749528</v>
+        <v>52997.3070064671</v>
       </c>
       <c r="D33" t="n">
-        <v>55142.6293606093</v>
+        <v>49908.0775713692</v>
       </c>
       <c r="E33" t="n">
-        <v>72137.2900303512</v>
+        <v>81461.9493810362</v>
       </c>
       <c r="F33" t="n">
-        <v>75019.5469385571</v>
+        <v>87585.1356484495</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
@@ -37164,7 +37164,7 @@
         <v>50482</v>
       </c>
       <c r="I33" t="n">
-        <v>14956.9117667269</v>
+        <v>13989.3065418529</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -37175,19 +37175,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>64247.2626792088</v>
+        <v>62894.0854507007</v>
       </c>
       <c r="C34" t="n">
-        <v>54437.0854802025</v>
+        <v>52973.1848917047</v>
       </c>
       <c r="D34" t="n">
-        <v>53484.5423604693</v>
+        <v>48591.1226385829</v>
       </c>
       <c r="E34" t="n">
-        <v>70944.7519512726</v>
+        <v>79701.3809705026</v>
       </c>
       <c r="F34" t="n">
-        <v>75293.4392821222</v>
+        <v>85969.1763993365</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -37196,7 +37196,7 @@
         <v>44470</v>
       </c>
       <c r="I34" t="n">
-        <v>19777.2626792088</v>
+        <v>18424.0854507007</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -37207,19 +37207,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>61835.426759836</v>
+        <v>60516.308901921</v>
       </c>
       <c r="C35" t="n">
-        <v>53598.1692446637</v>
+        <v>49989.3058931161</v>
       </c>
       <c r="D35" t="n">
-        <v>51168.7284897986</v>
+        <v>45381.4862333046</v>
       </c>
       <c r="E35" t="n">
-        <v>68952.716242744</v>
+        <v>76785.1163259057</v>
       </c>
       <c r="F35" t="n">
-        <v>72525.3315447792</v>
+        <v>83145.7539452945</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
@@ -37228,7 +37228,7 @@
         <v>39054</v>
       </c>
       <c r="I35" t="n">
-        <v>22781.426759836</v>
+        <v>21462.308901921</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -37239,19 +37239,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>62995.7763419446</v>
+        <v>61039.6776414003</v>
       </c>
       <c r="C36" t="n">
-        <v>53605.861354487</v>
+        <v>50410.196342482</v>
       </c>
       <c r="D36" t="n">
-        <v>49345.5682327559</v>
+        <v>45659.3808986414</v>
       </c>
       <c r="E36" t="n">
-        <v>69679.006843981</v>
+        <v>78249.4638867411</v>
       </c>
       <c r="F36" t="n">
-        <v>73155.2540631937</v>
+        <v>84893.7151599449</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
@@ -37260,7 +37260,7 @@
         <v>35152</v>
       </c>
       <c r="I36" t="n">
-        <v>27843.7763419446</v>
+        <v>25887.6776414003</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -37271,19 +37271,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>61404.018295834</v>
+        <v>60323.236336649</v>
       </c>
       <c r="C37" t="n">
-        <v>53920.6438320464</v>
+        <v>49796.2192282801</v>
       </c>
       <c r="D37" t="n">
-        <v>52845.683705291</v>
+        <v>44955.6543687813</v>
       </c>
       <c r="E37" t="n">
-        <v>67854.62419819</v>
+        <v>77206.9387586208</v>
       </c>
       <c r="F37" t="n">
-        <v>70408.3215893779</v>
+        <v>84027.1335003444</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
@@ -37292,7 +37292,7 @@
         <v>24367</v>
       </c>
       <c r="I37" t="n">
-        <v>37037.018295834</v>
+        <v>35956.236336649</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -37303,19 +37303,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>59512.7200783423</v>
+        <v>57617.3126811573</v>
       </c>
       <c r="C38" t="n">
-        <v>51348.27387112</v>
+        <v>45287.4667720843</v>
       </c>
       <c r="D38" t="n">
-        <v>47941.7687529794</v>
+        <v>40575.7062056472</v>
       </c>
       <c r="E38" t="n">
-        <v>67255.7288156402</v>
+        <v>74866.9579903342</v>
       </c>
       <c r="F38" t="n">
-        <v>69954.8013996711</v>
+        <v>81800.726200932</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
@@ -37324,7 +37324,7 @@
         <v>28708</v>
       </c>
       <c r="I38" t="n">
-        <v>30804.7200783423</v>
+        <v>28909.3126811573</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -37335,19 +37335,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>55729.4874851845</v>
+        <v>52946.5973703373</v>
       </c>
       <c r="C39" t="n">
-        <v>46685.1838170398</v>
+        <v>41455.7224253724</v>
       </c>
       <c r="D39" t="n">
-        <v>42193.1715190941</v>
+        <v>36856.728985912</v>
       </c>
       <c r="E39" t="n">
-        <v>63074.9575649032</v>
+        <v>68027.6109980776</v>
       </c>
       <c r="F39" t="n">
-        <v>65477.3093841928</v>
+        <v>74837.8049250266</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
@@ -37356,7 +37356,7 @@
         <v>43574</v>
       </c>
       <c r="I39" t="n">
-        <v>12155.4874851845</v>
+        <v>9372.59737033729</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -37367,19 +37367,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>68520.4972226154</v>
+        <v>65995.6050731975</v>
       </c>
       <c r="C40" t="n">
-        <v>60601.1212050373</v>
+        <v>52660.6023007342</v>
       </c>
       <c r="D40" t="n">
-        <v>56553.0481277471</v>
+        <v>49132.6496124636</v>
       </c>
       <c r="E40" t="n">
-        <v>75949.5393124897</v>
+        <v>87786.4916808687</v>
       </c>
       <c r="F40" t="n">
-        <v>78226.367501579</v>
+        <v>95818.1306370009</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -37388,7 +37388,7 @@
         <v>49855</v>
       </c>
       <c r="I40" t="n">
-        <v>18665.4972226154</v>
+        <v>16140.6050731975</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -37399,19 +37399,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>65931.9415049368</v>
+        <v>63962.8740791091</v>
       </c>
       <c r="C41" t="n">
-        <v>57911.6427116106</v>
+        <v>52022.2495047326</v>
       </c>
       <c r="D41" t="n">
-        <v>50794.3879749196</v>
+        <v>46979.1705610503</v>
       </c>
       <c r="E41" t="n">
-        <v>74180.1533691021</v>
+        <v>85497.3825897376</v>
       </c>
       <c r="F41" t="n">
-        <v>75999.7729641257</v>
+        <v>93668.3494551379</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -37420,7 +37420,7 @@
         <v>48926</v>
       </c>
       <c r="I41" t="n">
-        <v>17005.9415049368</v>
+        <v>15036.8740791091</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -37431,19 +37431,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>68173.3422869899</v>
+        <v>66184.4773293444</v>
       </c>
       <c r="C42" t="n">
-        <v>58768.6974314446</v>
+        <v>53287.9646943559</v>
       </c>
       <c r="D42" t="n">
-        <v>54002.9792737186</v>
+        <v>48433.446050678</v>
       </c>
       <c r="E42" t="n">
-        <v>75379.972564743</v>
+        <v>89457.1657411364</v>
       </c>
       <c r="F42" t="n">
-        <v>80028.9919946408</v>
+        <v>98083.2725517946</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -37452,7 +37452,7 @@
         <v>53258</v>
       </c>
       <c r="I42" t="n">
-        <v>14915.3422869899</v>
+        <v>12926.4773293444</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -37463,19 +37463,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>67070.2528401935</v>
+        <v>65006.9574179475</v>
       </c>
       <c r="C43" t="n">
-        <v>56797.9200444346</v>
+        <v>52788.0774429764</v>
       </c>
       <c r="D43" t="n">
-        <v>53138.3127833431</v>
+        <v>47059.5231930749</v>
       </c>
       <c r="E43" t="n">
-        <v>75081.5966524564</v>
+        <v>88002.3724239174</v>
       </c>
       <c r="F43" t="n">
-        <v>77018.1135796551</v>
+        <v>96815.5752110068</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -37484,7 +37484,7 @@
         <v>52007</v>
       </c>
       <c r="I43" t="n">
-        <v>15063.2528401935</v>
+        <v>12999.9574179475</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -37495,19 +37495,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>70708.950240428</v>
+        <v>68160.3455723173</v>
       </c>
       <c r="C44" t="n">
-        <v>60906.8206581711</v>
+        <v>53463.6705735374</v>
       </c>
       <c r="D44" t="n">
-        <v>54009.3873455233</v>
+        <v>49842.5762964953</v>
       </c>
       <c r="E44" t="n">
-        <v>79810.9859543354</v>
+        <v>93465.757207014</v>
       </c>
       <c r="F44" t="n">
-        <v>82843.4730722526</v>
+        <v>102833.511224184</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -37516,7 +37516,7 @@
         <v>58247</v>
       </c>
       <c r="I44" t="n">
-        <v>12461.950240428</v>
+        <v>9913.34557231725</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -37527,19 +37527,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>70076.5915395012</v>
+        <v>67790.7484116293</v>
       </c>
       <c r="C45" t="n">
-        <v>60685.5702808759</v>
+        <v>53652.7241553876</v>
       </c>
       <c r="D45" t="n">
-        <v>55365.1642002819</v>
+        <v>48813.6680943954</v>
       </c>
       <c r="E45" t="n">
-        <v>78338.439751479</v>
+        <v>93878.039107274</v>
       </c>
       <c r="F45" t="n">
-        <v>83188.0527296887</v>
+        <v>103544.289901373</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -37548,7 +37548,7 @@
         <v>61068</v>
       </c>
       <c r="I45" t="n">
-        <v>9008.59153950121</v>
+        <v>6722.74841162933</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -37559,19 +37559,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>68200.9247248629</v>
+        <v>66159.4817305414</v>
       </c>
       <c r="C46" t="n">
-        <v>58017.4570766356</v>
+        <v>52489.7770755181</v>
       </c>
       <c r="D46" t="n">
-        <v>51660.6623544394</v>
+        <v>46368.8683646176</v>
       </c>
       <c r="E46" t="n">
-        <v>76298.1339184811</v>
+        <v>92054.8305907048</v>
       </c>
       <c r="F46" t="n">
-        <v>80828.4951146366</v>
+        <v>101900.352264192</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -37580,7 +37580,7 @@
         <v>55767</v>
       </c>
       <c r="I46" t="n">
-        <v>12433.9247248629</v>
+        <v>10392.4817305414</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -37591,19 +37591,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>65951.7513096778</v>
+        <v>63690.5870393782</v>
       </c>
       <c r="C47" t="n">
-        <v>54942.0992112013</v>
+        <v>49214.9570783704</v>
       </c>
       <c r="D47" t="n">
-        <v>49939.0780881454</v>
+        <v>43184.8509021895</v>
       </c>
       <c r="E47" t="n">
-        <v>75586.4610760929</v>
+        <v>88976.8995283496</v>
       </c>
       <c r="F47" t="n">
-        <v>77776.7133993495</v>
+        <v>98925.7770640959</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -37612,7 +37612,7 @@
         <v>56981</v>
       </c>
       <c r="I47" t="n">
-        <v>8970.75130967784</v>
+        <v>6709.58703937817</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -37623,19 +37623,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>67340.9196892035</v>
+        <v>64254.5337322131</v>
       </c>
       <c r="C48" t="n">
-        <v>56654.6747757439</v>
+        <v>49580.4070065273</v>
       </c>
       <c r="D48" t="n">
-        <v>49635.6177823847</v>
+        <v>43402.9085351661</v>
       </c>
       <c r="E48" t="n">
-        <v>77377.3936187318</v>
+        <v>90633.8696228728</v>
       </c>
       <c r="F48" t="n">
-        <v>81921.6502727918</v>
+        <v>100961.541570653</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -37644,7 +37644,7 @@
         <v>57719</v>
       </c>
       <c r="I48" t="n">
-        <v>9621.91968920354</v>
+        <v>6535.53373221307</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -37655,19 +37655,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>66270.9563831667</v>
+        <v>63539.283365021</v>
       </c>
       <c r="C49" t="n">
-        <v>55403.1378346643</v>
+        <v>48922.2591318722</v>
       </c>
       <c r="D49" t="n">
-        <v>49822.7381626044</v>
+        <v>42668.3380480231</v>
       </c>
       <c r="E49" t="n">
-        <v>74792.6405542786</v>
+        <v>89577.2435657551</v>
       </c>
       <c r="F49" t="n">
-        <v>78001.6137341934</v>
+        <v>100126.412989013</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
@@ -37676,7 +37676,7 @@
         <v>50823</v>
       </c>
       <c r="I49" t="n">
-        <v>15447.9563831667</v>
+        <v>12716.283365021</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
